--- a/data/02_intermediate/cleaned_BEN_plg_songs.xlsx
+++ b/data/02_intermediate/cleaned_BEN_plg_songs.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mets d'la couleur dans le mélange, dans nos curs, y a d'la place comme sur le gros front d'Aubameyang Moi j'mets d'la couleur dans nos têtes, y a rien qui bouge comme le vieux en bas qui fait des signes à sa f'nêtre Wesh alors la mif', c'est comment ? Les potes, les parents, la vie les brise en deux comme une vitre, une puce Lebara J'ai la dalle plus le talent, faut qu'je brill plus que la lampe, que ms frères puissent voir Saint-Tropez, Monaco plus les calanques Quand y a les flics ont fait des ouais ouais ouais, caillou à côté du Samsung en cas d'gyrophares d'puis la M.J.C Juste à la voix, tu sais qui c'est, couteau rouillé, flow aiguisé sa mère Joues salées, salées comme la Mer du Nord, on t'retourne comme la terre Il roule un bédo plus fort qu'lui, elle pousse une poussette plus grande qu'elle Il sait déjà faire des collages, elle veut d'jà faire du collagène P'tit cur en sucre dirait ma mère, faut juste leur dire qu'ils sont gentils, faut juste leur dire qu'on les aime Ouais, ouais C'est noir dehors, ça l'est pas moins dedans, cousin Y a qu'dans l'viano qu'c'est jamais moi devant, bah ouais J'peux rouler l'teh même si y a plein de vent autour Gros, la police n'empêche pas de vendre Les gamos n'arrêtent pas de chanter Et les shlagoss prennent du crackos sous une barre de chantier Super actif j'laisse rien au pif, j'suis l'opposé d'ton collectif J'arrive dans c'truc tout beau tout frais comme quand l'daron m'coupait les tifs, bah ouais Pas sûr que l'rap me rendra millionnaire J'arrive en mode F.A.B.E, en mode visionnaire J'les baise en missionnaire, en leu-leu Jeune B.E, l'élu, j'mets quatre lu'-lu' dans l'match Et puis j'me casse, comme si j'démissionnais, ouais On t'allume comme ce blunt plein de puff Tu t'fais sauter comme le Grünt 59, ouais Sacrée vie donc forcément qu'on a des sacrées failles Ça fume des oins-j avant et après l'five You might also like Yeah, hein Stonar pour les intimes, j'viens du clash à la base J'voyais tout rouge, on a mis un peu d'couleur dans nos lifes Nan, on a consommé la kush Fume à fond, bois beaucoup Très tôt j'ai su compter les erreurs, les main sales Maint'nant faut pas qu'j'me rate comme Trezeguet Sur la prod' du rodéo, drift, musique, mais j'aime bien tout Me mets pas dans une case, allez fuck, j'irai pas chez vous Té-ma j'suis entouré d'lyricistes, que fais-je donc ici ? Grünt 59, ouais, c'est bien trop gore, j'réouvre des cicatrices, hein P'tit remix pour le mob, c'est pour mes centipèdes, yeah J'ai mille façon d'leur dire nique ta mère, d'leur dire qu'j'suis le best Tu vas rester cinq minutes ici, après tu vas next Putain, yeah, après il va next Nous on se doit d'envoyer la dope, même si j'ai mon tel devant les yeux Salomons aux pieds pour run les cops Salomons aux pieds, même dans le pieux J'en place une pour Marlo, S.R.2.E, K.O.N.G.A, Sima, les feux Ceux qui se lèvent tôt, ceux qui baissent pas les bras, yeah Hey, hey, Jeune B, on y va, ouais ouais, ouais À deux sur un scoot délabré, autour ça sent la brique, ça fume, ça file après Tous ces chiffres ça fout la press' Un frère au sol entouré à la craie J'regarde dans l'flou, j'y pense après J'y pense après, on portait pas d'Superdry Par contre j'fume du super dry T.N.F, que la famille, compte pas sur moi si t'espères graille J'connais des fauteurs de trouble, j'connais des fouteurs de trouille J'connais des footeux, des fougueux, sur la table des poseurs de couilles J'connais des sauveurs de coups, des smokeurs troueurs de coussins Il paraît qu'Marylin Manson il mange des poussins J'rallume un J', j'rallume un coupe-faim J'nage en eaux troubles, j'évite les oursins Putain, plus de zéros sur l'contrat qu'sur le bulletin Mais pourtant, elle m'disait fous l'camp Tout près du radiateur, j'bavardais tout l'temps J'pas peur de vous, j'ai peur du changement J'avais pas peur du gen', -gen', j'connaissais la valeur du -gent, -gent Big up à Jeanjean, big-up à Grünt Un p'tit bout d'shit, un p'tit peu d'funk Casquette croco sur la coupe à Trunk Et j'pense aux frères, à six dans vingt mètres carrés Là ou t'aurais même pas su t'garer, on leur demande de vivre T'en parles mal une fois qu'c'est plus ta feu-meu, c'est facile Tu veux m'faire croire qu'ta nouvelle pute le fait mieux, j'suis pas sûr Pour en être là, j'ai try-hard, comme devant les porcs j'ai fort cavalé Concurrence préfère avaler l'chibre de l'industrie Merci à Flav' et Raf', le haut du panier D'avoir su qu'j'allais faire l'or, quand j'avais qu'la ferraille C'tait pas gagné, dans les poches j'crois qu'j'avais deux balles à peine Main dans l'froc sur mon canapé, cette vie là n'pouvait pas m'aller À notre place, qu'est'ce t'aurais fait, à part te plaindre comme beaucoup d'autres ? Attendre que quelqu'chose vienne à toi, qu'ça tombe du ciel comme des gouttes d'eau Mon épaule est un perchoir pour le p'tit ange qui veille sur moi J'sais qu'il prendra l'relais si j'foire Jeune B, Sto, Ben, Grünt 59, Ouais ouais ouais tu connais déjà On y va, on y va, yeah, hein Let's go, S.T.O, S.T.O, S.T.O, S.T.O, 5.9, T.N.F, L.C.G, Brotherhood jusqu'à l'infini, tu connais déjà, yeah On y va, yeah Ensemble finessementality, j'suis ambidextre, j'sais bien rer-ti J'fais tout pour le clan, comme Yung Simmie Mitsubishi AR Breda Sushi, cerveau mé-cra, tout est pollué, c'est Jakarta 5.9 endetté, dans les tatams Faut dix SUV couleur magenta Dans le game sans didacticiel Là-celle, elle croit c'est facile d'faire c'qu'on fait Sur la scène on manque d'oxygène, no-sleep j'ai coupé les deux bras d'Morphée Pas de bullet-proof, j'suis un one, j'les tape Entouré d'loups, marche comme dans les steppes J'sais y en a qui soufflent devant leurs stats Ils font grave pitié, en vrai c'est que d'la flemme On se prolifère comme un virus, hein, ça vient du Nord force à mes dogs J'roule un cône de plus sous l'abribus, j'suis à P.D.V, je vois que la mort C'est qu'des crackheads tes rappeurs, c'est au-ch Fini d'l'époque d'la lame sur le réchaud Les petits ont trois couteaux de poche T'inquiète qu'ils veulent pas rayer ta Porsche Les mutants on s'en rapproche, pour pouvoir cash les lunettes de Scott Summer Ma gueule j'ai plus peur, à 2.5 sur l'A7 dans un Hummer, vroum J'aime quand ça fait boum boum boum, huit-cent-huit malveillance au max J'suis en légende comme MF DOOM, mais j'aime pas trop les gens qui portent des masques Yeah, hein, let's go 2.4.2 sur la voie d'gauche à fond Drift musique, tous les murs y s'effondrent J'mélange tous les styles, nan j'mélange pas le fond Yeah, hein, let's go Dans un gros bolide y a qu'une seule direction Toujours tout droit c'était la prédiction Gros joint sur l'accoudoir j'fais des additions Cinq plus neuf, hein hein, non c'est pas une fiction, let's go Cinq plus neuf, non c'est pas une fiction, let's go Ok, ok, ok Grünt 59, faut qu'j'm'implique un peu Si tu m'avais dit ça y a cinq ans, j'y aurais pas cru Maint'nant ça m'fait ça, dès qu'j'commence un truc, t'imagines le trac, nique sa mère Ils m'ont dit t'es nul, j'ai quand même eu l'bac, nique sa mère J'ai même eu confiance en moi, t'imagines le bail J'ferme les yeux, la prod' démarre, j'imagine le sale Cabas Lidl cartonné, j'sors, j'sécurise le sac, lol Mon C.D à la Fnac, mes paroles à la fac', ma p'tite gueule à la CAF J'écoute des instrus, j'passe la serpillère Nos pères ont des yeux d'lynx, des doigts d'faits divers J'ai grandi avec des militaires, des bruits d'bouteilles de Jupiler Odeur d'clope et score de foot au Minitel, sur l'pallier beaucoup d'poussière Et des courriers du ministère, ces nouvelles qui rallongent l'hiver, le passé t'rattrape toujours Ça marche qu'un temps d'inventer une mauvaise adresse dans l'Finistère J'sens la sueur faire bouger mes molécules On a pris du r'cul, on va prendre les thunes, d'ceux qu'y ont pas payé les grandes études J'parle à la Lune, à un mur, les menaces brisent pas les armures Mais les larmes, elles si, on va tout niquer même si, yeah, yeah Époque Inter Milan Pirelli, on pensait qu't'étais pas toi-même quand t'avais pas ton pire ennemi J'voulais être Peter Parker, nos mères méritent des champs d'fleurs et d'la présence, pour ça qu'on pleure tous à l'adolescence J'ai tout crié, pour jamais oublier mes peines Tatoue le toi, pour jamais oublier qu't'es belle T'endors pas trop, pour pas tout oublier tes rêves Ça y est, c'est bon, là tu peux oublier les règles Cendrillon s'est niquée les veines, Batman s'est niqué les vertèbres À la chaîne au 3.8 Tintin rigole comme une hyène rue des Orfèvres au trente-six J'sais pas si j'm'abîme ou j'grandis, j'sais pas si j'pars ou j'm'enfuis J'arrive plus à dire tant pis, mais tant pis C'est l'chant des normaux et des non-dits, l'bonheur est libre en condi' Vu qu'les vampires ont pas compris qu'on est rentrés par la f'nêtre et par la porte de la sortie J'ai d'plus en plus mal à la tête, j'suis d'moins en moins mal à l'aise après un un je t'aime Ou un moi aussi, donc merci pour la survie, merci pour les cicatrices, les cicatrices et les chaînes Quand on pensait qu'être seulement soi-même pourrait jamais suffire Ça suffit Sale Ouais, ouais, ouais, ouais, ouais, ouais, ouais Hey, j'veux quitter ma banlieue, j'veux quitter ma colline, ouais J'veux quitter ma banlieue, j'veux quitter ma colline, voir le papel tripler de volume à la virgule près comme si j'étais Roni' Faire semblant, dire que l'dribble était voulu Fuis jamais tes doutes, ils vont finir par t'follow Acouphènes, c'est cause de la sono', bientôt les certifs' dans mon portfolio Le keuf a mal vérif' et il repart solo J'travaille bien trop, j'ai mal en bas d'la colonne Bon vivant, j'ai jamais su être économe On pleure jamais, on tise comme des bonhommes, des flashs rouges et blancs comme le drapeau d'la Pologne Si demain cette life m'agrippe avec un lasso et qu'elle m'emmène très, très, très loin d'la maison J'me dis qu'y aura toujours un hall pour un dealer, un toit pour un rêveur, une branche pour un oiseau Let's go, yeah Ma chérie, j'te dis pas si tu pars demain, ça m'f'ra l'effet qu'peut faire un bombardement J's'rai sûrement là-bas quelque part plus loin Seul sous rhum au degré d'mon département J'f'rai des tours dans mon quartier embrumé en m'demandant qui va rev'nir en premier J'suis fait d'gaz, d'azote et de flammes, t'approche pas trop, tu vas finir par t'brûler Premier en sport et en chant, dernier en maths et en meufs Ouais, en maths et en meufs On va pas s'pointer en teuf, on va pas s'pointer en teuf' Nan, nan, non, non Premier en sport et en chant, dernier en maths et en meufs Lets'go, en maths et en meufs On va s'préparer au show, on va pas s'pointer en teuf' Ouais, let's go Premier en sport et en chant Hein, dernier en maths et en meufs Ouais, en maths et en meufs On va s'préparer au show, on va pas s'pointer en teuf' Premier en sport et en chant, dernier en maths et en meufs Ouais, let's go On va s'préparer au show, on va pas s'pointer en teuf' Gang gang gang Yeah, let's go C'est mon retour ou c'est un vrai murder Gra-gra, boum, toi t'es un fou là Si j'disparais c'est que pour la moula J'suis fort partout, j'suis paré pour le goulag Toi t'es die, j'sais qu'tu parles sur nous Ta feu-meu en boîte casse les genoux J'ai l'sourire, mais j'reste pirate aguerri Money bag rempli, j'suis comme un guerrier Je guéris quand je crée, j'veux shiner, égérie, en secret, veux whiner J'suis dans l'thème, j'suis dans mon L.C.G Rue Faidherbe dans un gros SUV Qu'est-ce tu veux ? En vrai j'ai pas d'D.A J'me fais kiffer, j'me fais gonfler les bras Let's go, hein, j'me fais kiffer, j'me fais gonfler les bras C'est un goofy lui, il croit que j'me suis du-per J'suis resté l'même, toutes les places, je récupère Demande à 2C, mama elle doit manger Berline chargée tu ressens le Té-ma mes soldats, ils ressortent des tranchées J'sais être méchant, j'vais pas t'arranger Audio dope, on vend tout dans des sachets Prends ta cop' sinon elle va s'faire, hein Jusqu'à Mehringdamm on m'appelle Big Man J'ai la te-tê solide, ouais, c'est du titane J'suis dans les carotides, j'suis plus amateur Bou-bou-bou, hein Jusqu'à Mehringdamm, on m'appelle Big Man J'ai la te-tê solide, ouais, c'est du titane J'suis dans les carotides, j'suis plus amateur J'me sens comme comme un grand scammeur Wesh les cas social, la madame a dit qu'on n'était pas normal J'viens d'là où on sait pas quoi mettre sur l'devant des cartes postales Let's go Pour ta maman, j'suis adorable, pour ta cousine, j'suis abordable Pour mes p'tits frères, j'suis un moyen d'se faire inviter au McDonald's On a poncé les Aldi, les parkings, roulé des palmiers sur l'palier jusqu'à c'que la voisine sonne À part Zidane et papi, j'ai pas d'idole, la symphonie du taxi phone Y a les condés rue Ratisbonne en train d'batifoler comme à Washington Foutus descendants d'Wisigoths, sur la chatte à leur grand-mère la bourguignonne, yeah, yeah Thon Hannibal dans l'pain bagnat, supplément ufs durs, mayonnaise Ton cousin t'ramène des Total quatre-vingt cinq sans virgule quand il revient du bled yeah, yeah J'm'en bats les couilles d'percer, si j'peux pas fumer des joints dans l'hôtel J'rappe avec des lames dans la gorge, des nuds dans l'cur, elle m'demande si j'suis vraiment honnête, ah ouais Ouais, ouais, ouais et t'as cru qu'j'allais pas percer J'me sens comme Zinédine avant l'corner, comme Naps avant l'été, ouais Ouais, ouais, ouais et t'as cru qu'j'allais pas percer J'me sens comme Zinédine avant l'corner, comme Naps avant l'été Yeah, yeah, hey, Grünt 59 Jeune B, j'vais les mettre à l'amende Jeune B, j'vais les mettre à l'amende Jeune B, j'vais les mettre à l'amende Dans deux, trois piges j'ai plus d'prêt à la banque J'suis un mec discret, tu peux t'mettre à la mode Tu peux p't-être me voir si tu guettes par la fente, ouais Je reste le même donc sois pas surpris si tu m'pètes à l'alim' J'ai des frères muslims d'autres qui fêtent pas l'Aïd Mais on marche ensemble sur n'importe quelle pente Mauvais cocktail, ébullition, ils bandent sur les flows qu'nous utilisons J'ai caché des pièges dans les buissons Plus ils sont nombreux, plus ils s'sentent puissants Ils ont finis à dix dans un puit sombre Jamais d'ma vie j'fais machine arrière Même amputé j'enjambe les barrières Ils comptent les streams on compte les carrières On brise des chaines ils brisent des lanières Roubaix c'est pas la Villa Cavrois On va monter dans les tours même moteur à froid On a bien trop smoké, donc on pilote à trois Les années d'vie s'perdent, mais le talent s'accroît Let's go, le talent s'accroît Quelques leçons de vie que j'ai tendance à croire, mais j'ai vu mon frère se tuer tout en tenant sa croix Roule à fond dans un bolide noir, foire J'sais qu'là haut y a du cash à s'faire, mais pour l'instant j'suis qué-blo les pieds sur Terre Pas besoin d'grand chose, tout c'que j'ai, j'le donne La vie c'est pas tout rose, c'est grave monotone J'raconte moi, tout c'que j'vis J'invente pas, j'aime pas vos vices, yeah Lunettes de vitesse, j'dis Merci Gwam C'est marrant, t'es pas pareil qu'sur Instagram Salope fait l'grand écart la nuit en club Tu peux louer sa pussy pour deux, trois teufs Let's go J'dis non merci à toutes ces clavs J'ai besoin de qui colle aux oigts-d J'compte plus les balafres, mes gars ont soif J'm'enfume toute la night, j'attends qu'on s'taille Gros gamos, gros bad trip Tellement ça va à fond, t'en perds tes tripes J'sais qu'un jour on f'ra tous le vide J'ai des plavons qui m'feraient tenir dix vies C'est encore moi enfoiré, let's go Dans mon 5.9, mes reu-frés ils sont parés Quand j'rappe sur toute la France, c'est comme si y pleuvait J'ai grandi en rêvant d'la voisine, d'la dame de la cantine, en ayant toujours peur des quantités J'rappe parce que si j'rappe pas, j'me sens vidé J'fais comme les yeux d'mon père, j'mets d'l'intensité En un je t'aime, j'fais un couplet Trous d'boulettes de buf d'Lidl surgelées En un j't'aime plus, j'fais un putain d'projet Sponsorisé par l'époque des gouttes sur l'nez, yeah Let's go Évidemment quand un frérot s'détériore comme une autoroute, ça m'soûle J'rappe comme si j'épouse la foudre Ils bougent les bras pour rien comme les nunchakus On a fait d'la route, mon cur fait la boussole Jamais d'la vie j'dis j'me suis fait tout seul Jeune B.E, S-to, big BEN, y a trop d'klaxons pour entendre le chant des sirènes La vie, ça va super vite, j'récupère, j'investis l'bif J'laisse tes rappeurs dépenser la moitié d'leur avance en Uber Eats À force qu'on m'crie d'ssus, j'avais plus d'estime Là on va péter, y a plus d'esquive Viens on regarde la taille de tes glaouis, poto, quand y a plus les streams De un, baise le monde, baise les keufs, baise ces grosses têtes à claque qui parlent trop pour rien Les profiteurs, les critiqueurs, les gens trop lisses, tu sais ceux qui trouvent toujours tout bien Chaque matin j'ai tête de mort, café, moins quatre dehors, douche froide, chez nous on prend pas d'bain Baise le monde, baise les keufs, si tu veux qu'j'te l'dise de plus près, bah, viens Let's go Ouais, ouais Tu m'fais la hess, mais j't'ai vu hier au club dépenser trois fois la paye de ma daronne Hein On t'a cramé, ici on a l'il de la Lune, de Madara Uchiwa J'voulais un feat, avant qu'je monte ça m'répondait mandarin ou chinois Ils sont , j'me suis promis d'jamais r'produire ce schéma J'suis un gars peace, tu fais l'fou, j'peux t'faire une Fukushima Fils de p' En vrai je sais bien qu'j'suis un haineux, c'est pas moi, c'est B.E Dans la tête j'ai des nuds, mon but c'est d'le faire même de faire mieux J'ai grandi à Roubaix, j'suis pas fils de fermier, les briques rouges, la déprime hivernale, des nuisances infernales On va peu vers Lille, on traine qu'entre vermines Les sols sont trop glissants, dites-moi qui les vernit ? Let's go Sto, sto, sto Grünt 59, c'est grâce à vous hein, yeah Let's go J'ai un problème avec vos mans, danger j'vois plus les pictogrammes 2.4.2 jamais on rétrograde on capte des schlags, et des dobermans Mitsubishi, Arlequin, I like, j'ai pas l'permis, my wife elle drive J'suis une galère, tellement je smoke de ma bouche sort que du feu, j'me sens comme Smaug, hein Woa, woa, woa, c'est pas ici le paradise J'me sens comme Gucci en 2012, demande à 2C Ensemble 2008 assorti, bre-som comme une histoire sordide J'viens tout graille comme en tyrannie, pas d'parrainage, pas d'pyramide À ma table que les Avengers d'la u-re Wake up, j'ai trop serré la ceinture J'suis avec Bekar et BEN en direct d'Roubaix, big up à Hem' aussi On est tous unis, 5.9 sur les bras, j'vous oublie as-p J'prends des prods, c'est même plus d'la trap Mais j'reste un pirate, un putain d'crack Sale, sale Big up à Hem', big up à Fives J'habite là-bas hein, big up à tout l'monde On part aux states là En mode West Coast, il m'faut des grosses caisses, des pesos Let's go, yeah J'ai un problème avec ces bitchs qui font que d'parler sur les réseaux Ouais, ouais, hey En mode West Coast Il m'faut des grosses caisses, des pesos Et qu'tu m'demandes combien ma veste coûte Elle a des grosses fesses Et vu comme elle cause J'aurais pu lui faire treize gosses sur du gospel Jeune B.E, guess who's back Démarre la caisse on s'barre On a la carrosserie qui brille, les carreaux sont teintés Tu cries si j't'annonce un prix Lunettes violettes à la Vice City Vice City, hein Et pour les papiers, frère, on falsifie Yeah Professionnel comme Mission accomplie comme Carl C.J Moi j'suis plus Kendal que Jenner Kylie J'vis loin des cains-ri Mais j'allume leur Cali' Et plus j'suis high, plus j'fume leur Cali' C'est pas l'même calibre qu'à Lille J'ai un problème avec ces bitchs qui font que parler sur les réseaux J'ai un problème avec ces riches qui font que d'bander sur la ne-zo Ils prennent leur truc par voie nasale, ça m'dégoute tous ces shlags J'faisais mon biff près de la salle, puis j'partais recharger le bag J'ai brisé trente-six curs, nos sides c'est pour les miens C'fils de pute on lui baise sa sur si il nous sert pas la main J'suis dans un Motorsport rouge carmin Hoodie Lanvin taché d'blood, hein, j'veux faire fois vingt Tu sors un blicky dans tes sons, mais derrière on sait qu'tout est faux Jeune rêveur veut que tailler, le trou noir il est dans son ventre Un p'tit couteau aiguisé, tekpak il est matrixé Pyramide de Gizeh ou Dubaï, il voit plus c'qui rentre J'écoute pas les gens qui cé-su, j'écoute les gens qui sécurisent J'découpe la beuh rien qu'ça, pour un peu d'guap mes gars s'isolent Moi j'veux vire de la sorte, qu'on leak à mort Il m'faut dix fois l'salaire d'un avocat, j'mets plein phare comme si j'transportais d'la coca, yeah J'suis bien concentré, bien, bien, trop Une dernière taffe avant l'métro, j'me dis qu'ça va aller En c'moment j'me remets en cause tous les matins J'serais nulle part sans mes proches, sans mes copains Y en a qui m'ont ralenti, j'peux pas leur en vouloir Un pote qui change, ça fait l'effet d'un miroir J'veux plus jamais dire trop tard, j'suis accroché au trottoir J'écoutais pas en français, j'écoutais que en histoire En histoire Du coup, j'fais que des fautes partout, mais j'écris mieux qu'les mecs qu'on devait lire en cours Avec ma mère aux courses, j'sors la CB à la caisse, elle me dit range ta merde, t'es pas Drake et on n'est pas aux States J'sens qu'j'ai grandi, j'mets d'l'oseille dans l'horodateur J'conduis voie d'droite à cent dix sous régulateur Ça zehef les commentateurs comme les j'suis un artiste, j'suis pas juste un rappeur Oui, hé oui hé oui, hé oui Quel bon moment, yeah, c'est magnifique Merci à tous les beatmakers pour les instrus, Lucci', Low, tout l'monde Pour tous les gens qui ont une passion, croyez en vos rêves les frères Let's go, yeah Nan j'fais pas d'golf à Morfontaine, tu sais la fame c'est éphémère Rap jeu c'est une femme fontaine donc quand j'la baise, je persévère C'est comme une fable de La Fontaine, quand j'rappe y a double sens Sur la mélo' mes gars ils dansent, mais dans mes mots j'aime quand ça tranche Les faux frères j'les comptabilise, faut l'compte à Billy Anthracite sera ma 'ghini, j'touche du bois j'suis pas ébéniste Hein, Henni, Henni, glou-glou-glou, chacun ses vices Dans cette shit on en a mis des sous, non personne a fait d's... J'suis posé vers l'Mont des Cats, j'ai fait un p'tit tour de bécane J'pense à la vie, à ses mécaniques, au truc qui t'sert les canines Cur en céramique, la tête en acier trempé Sur l'drapeau c'est TTP d'puis l'époque de DDP Cartable Poivre et Sel, j'avais d'jà le mindset, on graillait à sept Quand Heenok parlait d'la cassette, j'ai compris la recette Cooking ce top dans le dio-stu, on a plus les bouches cousues Nous parler d'D.A, comment oses-tu alors qu't'achètes des vues ? Époque révolue, que ça transac' sur Revolut Les banquiers comprennent pas qu'avec ça, bah ma vie j'vais la sécur' J'connais mieux mes textes que mon numéro d'Sécu' Viens pas m'parler de mon vécu, il faut qu'sur mon dos ça spécule, hein Les requins nagent, dans l'grand bain, je tape une brasse Et j'mets un peu d'espoir dans cette dernière phrase, yeah Faut croire en ses rêves, se r'garder dans les eyes, yeah Pourquoi j'suis ici, pourquoi toi tu l'serais as-p ? C'est plus dur de tirer un trait que d'marquer un point Plus dur d'ouvrir un CapriSun que d'rouler un joint J'représente mon coin comme Steven Gerrard J'viens d'la belle ville de Tourcoing comme c't'idiot d'Gérald Personne n'aime les pointeurs Y'en a plein dans l'bus, dans l'train, dans les bureaux du 20h Mais personne n'aime les pointeurs Dans les commentaires sur Insta et Twitter, ils font des stats' de rappeurs mais t'inquiète Personne n'aime les pointeurs Fuck PPDA tous les jours Siffler une meuf c'est une preuve que t'es une merde, c'est pas une preuve d'amour V'nez on leur montre c'est qui les idiots P'tit frère à l'ombre pour trois grammes pendant qu'Norman fait des vidéos Gros joint sur les plages du débarquement T'es belle mais j'peux pas t'aimer plus que mon département ou peut-être autrement Mais j'attendrai d'avoir digéré plus de chose, là, ton regard me manque Là y a mon grand-père à la maison, il m'dit j'sais qu'j'suis vieux, qu'j'perds la raison J'lui dit j'prépare une Grünt 59, pour la région Il m'a dit j'suis fier de vous, les yeux rouges comme l'horizon J'vis pour ces moments là J'suis sur scène, j'fais moins d'fuck que d'curs avec les doigts Ça veut dire que ça va Ça veut dire Ça veut dire que ça va Hey On voulait voir de beaux décors, on a vu qu'passer qu'des corbeaux R.B.X mon territoire, à notre histoire vont-ils y croire ? Prie pour qu'demain soit beau, qu'après d'main soit encore beau Parce que c'est rare que les choses durent, ça s'effrite comme sous les chaussures J'ai fait l'deuil, papa heureux j'vais jamais l'voir Et mon pote non plus d'ailleurs, parce que cette life l'a mis ailleurs dans un monde où je n'peux y aller J'maudis la drogue qui l'a détruit et la corde qui l'a libéré J'pense à lui des fois le soir, quand j'me retrouve seul à errer J'suis pas sûr d'finir au Valhalla J'suis l'portrait d'mon père, ah la la Ça crache comme des lamas, ça sent l'fumier jusqu'à là-bas Entre ceux qui nous salissent et qui d'vant nous salivent, j'en ai ras-la-casquette Envie d'faire mes valises et d'voir Bali ou Malaga Crache sur un frère et j'le défends comme Alaba méfiant comme à la barre ou à minuit trente à la gare Envie d'visiter l'monde, rejoindre mon berceau à Barcelona Si l'or ça nous sépare, l'art ça nous lie, nique Ardisson, nique Hanouna, ouais J'crois qu'j'ai grandi, j'commence à vouloir faire du bif', ouais À prendre des décisions, à plus choisir au pif, eh Mais les contrats ça reste du hiéroglyphe Sous vos jolis gants noirs, j'ai su flairer vos griffes J'grandi, j'ai la barbe qui pousse, conscient qu'on s'éparpille tous J'vois des p'tits, sur la barre, qui poussent et des anciens au bar qui toussent J'connais toutes mes peurs, même les plus profondes On n'est jamais trop instruit, on n'est jamais trop con, yeah Yeah, yeah, yeah Jeune B.E, S-to, hein, BEN plg</t>
+          <t>Mets d'la couleur dans le mélange, dans nos curs, y a d'la place comme sur le gros front d'Aubameyang Moi j'mets d'la couleur dans nos têtes, y a rien qui bouge comme le vieux en bas qui fait des signes à sa f'nêtre Wesh alors la mif', c'est comment ? Les potes, les parents, la vie les brise en deux comme une vitre, une puce Lebara J'ai la dalle plus le talent, faut qu'je brill plus que la lampe, que ms frères puissent voir Saint-Tropez, Monaco plus les calanques Quand y a les flics ont fait des ouais ouais ouais, caillou à côté du Samsung en cas d'gyrophares d'puis la M.J.C Juste à la voix, tu sais qui c'est, couteau rouillé, flow aiguisé sa mère Joues salées, salées comme la Mer du Nord, on t'retourne comme la terre Il roule un bédo plus fort qu'lui, elle pousse une poussette plus grande qu'elle Il sait déjà faire des collages, elle veut d'jà faire du collagène P'tit cur en sucre dirait ma mère, faut juste leur dire qu'ils sont gentils, faut juste leur dire qu'on les aime Ouais, ouais C'est noir dehors, ça l'est pas moins dedans, cousin Y a qu'dans l'viano qu'c'est jamais moi devant, bah ouais J'peux rouler l'teh même si y a plein de vent autour Gros, la police n'empêche pas de vendre Les gamos n'arrêtent pas de chanter Et les shlagoss prennent du crackos sous une barre de chantier Super actif j'laisse rien au pif, j'suis l'opposé d'ton collectif J'arrive dans c'truc tout beau tout frais comme quand l'daron m'coupait les tifs, bah ouais Pas sûr que l'rap me rendra millionnaire J'arrive en mode F.A.B.E, en mode visionnaire J'les baise en missionnaire, en leu-leu Jeune B.E, l'élu, j'mets quatre lu'-lu' dans l'match Et puis j'me casse, comme si j'démissionnais, ouais On t'allume comme ce blunt plein de puff Tu t'fais sauter comme le Grünt 59, ouais Sacrée vie donc forcément qu'on a des sacrées failles Ça fume des oins-j avant et après l'five Yeah, hein Stonar pour les intimes, j'viens du clash à la base J'voyais tout rouge, on a mis un peu d'couleur dans nos lifes Nan, on a consommé la kush Fume à fond, bois beaucoup Très tôt j'ai su compter les erreurs, les main sales Maint'nant faut pas qu'j'me rate comme Trezeguet Sur la prod' du rodéo, drift, musique, mais j'aime bien tout Me mets pas dans une case, allez fuck, j'irai pas chez vous Té-ma j'suis entouré d'lyricistes, que fais-je donc ici ? Grünt 59, ouais, c'est bien trop gore, j'réouvre des cicatrices, hein P'tit remix pour le mob, c'est pour mes centipèdes, yeah J'ai mille façon d'leur dire nique ta mère, d'leur dire qu'j'suis le best Tu vas rester cinq minutes ici, après tu vas next Putain, yeah, après il va next Nous on se doit d'envoyer la dope, même si j'ai mon tel devant les yeux Salomons aux pieds pour run les cops Salomons aux pieds, même dans le pieux J'en place une pour Marlo, S.R.2.E, K.O.N.G.A, Sima, les feux Ceux qui se lèvent tôt, ceux qui baissent pas les bras, yeah Hey, hey, Jeune B, on y va, ouais ouais, ouais À deux sur un scoot délabré, autour ça sent la brique, ça fume, ça file après Tous ces chiffres ça fout la press' Un frère au sol entouré à la craie J'regarde dans l'flou, j'y pense après J'y pense après, on portait pas d'Superdry Par contre j'fume du super dry T.N.F, que la famille, compte pas sur moi si t'espères graille J'connais des fauteurs de trouble, j'connais des fouteurs de trouille J'connais des footeux, des fougueux, sur la table des poseurs de couilles J'connais des sauveurs de coups, des smokeurs troueurs de coussins Il paraît qu'Marylin Manson il mange des poussins J'rallume un J', j'rallume un coupe-faim J'nage en eaux troubles, j'évite les oursins Putain, plus de zéros sur l'contrat qu'sur le bulletin Mais pourtant, elle m'disait fous l'camp Tout près du radiateur, j'bavardais tout l'temps J'pas peur de vous, j'ai peur du changement J'avais pas peur du gen', -gen', j'connaissais la valeur du -gent, -gent Big up à Jeanjean, big-up à Grünt Un p'tit bout d'shit, un p'tit peu d'funk Casquette croco sur la coupe à Trunk Et j'pense aux frères, à six dans vingt mètres carrés Là ou t'aurais même pas su t'garer, on leur demande de vivre T'en parles mal une fois qu'c'est plus ta feu-meu, c'est facile Tu veux m'faire croire qu'ta nouvelle pute le fait mieux, j'suis pas sûr Pour en être là, j'ai try-hard, comme devant les porcs j'ai fort cavalé Concurrence préfère avaler l'chibre de l'industrie Merci à Flav' et Raf', le haut du panier D'avoir su qu'j'allais faire l'or, quand j'avais qu'la ferraille C'tait pas gagné, dans les poches j'crois qu'j'avais deux balles à peine Main dans l'froc sur mon canapé, cette vie là n'pouvait pas m'aller À notre place, qu'est'ce t'aurais fait, à part te plaindre comme beaucoup d'autres ? Attendre que quelqu'chose vienne à toi, qu'ça tombe du ciel comme des gouttes d'eau Mon épaule est un perchoir pour le p'tit ange qui veille sur moi J'sais qu'il prendra l'relais si j'foire Jeune B, Sto, Ben, Grünt 59, Ouais ouais ouais tu connais déjà On y va, on y va, yeah, hein Let's go, S.T.O, S.T.O, S.T.O, S.T.O, 5.9, T.N.F, L.C.G, Brotherhood jusqu'à l'infini, tu connais déjà, yeah On y va, yeah Ensemble finessementality, j'suis ambidextre, j'sais bien rer-ti J'fais tout pour le clan, comme Yung Simmie Mitsubishi AR Breda Sushi, cerveau mé-cra, tout est pollué, c'est Jakarta 5.9 endetté, dans les tatams Faut dix SUV couleur magenta Dans le game sans didacticiel Là-celle, elle croit c'est facile d'faire c'qu'on fait Sur la scène on manque d'oxygène, no-sleep j'ai coupé les deux bras d'Morphée Pas de bullet-proof, j'suis un one, j'les tape Entouré d'loups, marche comme dans les steppes J'sais y en a qui soufflent devant leurs stats Ils font grave pitié, en vrai c'est que d'la flemme On se prolifère comme un virus, hein, ça vient du Nord force à mes dogs J'roule un cône de plus sous l'abribus, j'suis à P.D.V, je vois que la mort C'est qu'des crackheads tes rappeurs, c'est au-ch Fini d'l'époque d'la lame sur le réchaud Les petits ont trois couteaux de poche T'inquiète qu'ils veulent pas rayer ta Porsche Les mutants on s'en rapproche, pour pouvoir cash les lunettes de Scott Summer Ma gueule j'ai plus peur, à 2.5 sur l'A7 dans un Hummer, vroum J'aime quand ça fait boum boum boum, huit-cent-huit malveillance au max J'suis en légende comme MF DOOM, mais j'aime pas trop les gens qui portent des masques Yeah, hein, let's go 2.4.2 sur la voie d'gauche à fond Drift musique, tous les murs y s'effondrent J'mélange tous les styles, nan j'mélange pas le fond Yeah, hein, let's go Dans un gros bolide y a qu'une seule direction Toujours tout droit c'était la prédiction Gros joint sur l'accoudoir j'fais des additions Cinq plus neuf, hein hein, non c'est pas une fiction, let's go Cinq plus neuf, non c'est pas une fiction, let's go Ok, ok, ok Grünt 59, faut qu'j'm'implique un peu Si tu m'avais dit ça y a cinq ans, j'y aurais pas cru Maint'nant ça m'fait ça, dès qu'j'commence un truc, t'imagines le trac, nique sa mère Ils m'ont dit t'es nul, j'ai quand même eu l'bac, nique sa mère J'ai même eu confiance en moi, t'imagines le bail J'ferme les yeux, la prod' démarre, j'imagine le sale Cabas Lidl cartonné, j'sors, j'sécurise le sac, lol Mon C.D à la Fnac, mes paroles à la fac', ma p'tite gueule à la CAF J'écoute des instrus, j'passe la serpillère Nos pères ont des yeux d'lynx, des doigts d'faits divers J'ai grandi avec des militaires, des bruits d'bouteilles de Jupiler Odeur d'clope et score de foot au Minitel, sur l'pallier beaucoup d'poussière Et des courriers du ministère, ces nouvelles qui rallongent l'hiver, le passé t'rattrape toujours Ça marche qu'un temps d'inventer une mauvaise adresse dans l'Finistère J'sens la sueur faire bouger mes molécules On a pris du r'cul, on va prendre les thunes, d'ceux qu'y ont pas payé les grandes études J'parle à la Lune, à un mur, les menaces brisent pas les armures Mais les larmes, elles si, on va tout niquer même si, yeah, yeah Époque Inter Milan Pirelli, on pensait qu't'étais pas toi-même quand t'avais pas ton pire ennemi J'voulais être Peter Parker, nos mères méritent des champs d'fleurs et d'la présence, pour ça qu'on pleure tous à l'adolescence J'ai tout crié, pour jamais oublier mes peines Tatoue le toi, pour jamais oublier qu't'es belle T'endors pas trop, pour pas tout oublier tes rêves Ça y est, c'est bon, là tu peux oublier les règles Cendrillon s'est niquée les veines, Batman s'est niqué les vertèbres À la chaîne au 3.8 Tintin rigole comme une hyène rue des Orfèvres au trente-six J'sais pas si j'm'abîme ou j'grandis, j'sais pas si j'pars ou j'm'enfuis J'arrive plus à dire tant pis, mais tant pis C'est l'chant des normaux et des non-dits, l'bonheur est libre en condi' Vu qu'les vampires ont pas compris qu'on est rentrés par la f'nêtre et par la porte de la sortie J'ai d'plus en plus mal à la tête, j'suis d'moins en moins mal à l'aise après un un je t'aime Ou un moi aussi, donc merci pour la survie, merci pour les cicatrices, les cicatrices et les chaînes Quand on pensait qu'être seulement soi-même pourrait jamais suffire Ça suffit Sale Ouais, ouais, ouais, ouais, ouais, ouais, ouais Hey, j'veux quitter ma banlieue, j'veux quitter ma colline, ouais J'veux quitter ma banlieue, j'veux quitter ma colline, voir le papel tripler de volume à la virgule près comme si j'étais Roni' Faire semblant, dire que l'dribble était voulu Fuis jamais tes doutes, ils vont finir par t'follow Acouphènes, c'est cause de la sono', bientôt les certifs' dans mon portfolio Le keuf a mal vérif' et il repart solo J'travaille bien trop, j'ai mal en bas d'la colonne Bon vivant, j'ai jamais su être économe On pleure jamais, on tise comme des bonhommes, des flashs rouges et blancs comme le drapeau d'la Pologne Si demain cette life m'agrippe avec un lasso et qu'elle m'emmène très, très, très loin d'la maison J'me dis qu'y aura toujours un hall pour un dealer, un toit pour un rêveur, une branche pour un oiseau Let's go, yeah Ma chérie, j'te dis pas si tu pars demain, ça m'f'ra l'effet qu'peut faire un bombardement J's'rai sûrement là-bas quelque part plus loin Seul sous rhum au degré d'mon département J'f'rai des tours dans mon quartier embrumé en m'demandant qui va rev'nir en premier J'suis fait d'gaz, d'azote et de flammes, t'approche pas trop, tu vas finir par t'brûler Premier en sport et en chant, dernier en maths et en meufs Ouais, en maths et en meufs On va pas s'pointer en teuf, on va pas s'pointer en teuf' Nan, nan, non, non Premier en sport et en chant, dernier en maths et en meufs Lets'go, en maths et en meufs On va s'préparer au show, on va pas s'pointer en teuf' Ouais, let's go Premier en sport et en chant Hein, dernier en maths et en meufs Ouais, en maths et en meufs On va s'préparer au show, on va pas s'pointer en teuf' Premier en sport et en chant, dernier en maths et en meufs Ouais, let's go On va s'préparer au show, on va pas s'pointer en teuf' Gang gang gang Yeah, let's go C'est mon retour ou c'est un vrai murder Gra-gra, boum, toi t'es un fou là Si j'disparais c'est que pour la moula J'suis fort partout, j'suis paré pour le goulag Toi t'es die, j'sais qu'tu parles sur nous Ta feu-meu en boîte casse les genoux J'ai l'sourire, mais j'reste pirate aguerri Money bag rempli, j'suis comme un guerrier Je guéris quand je crée, j'veux shiner, égérie, en secret, veux whiner J'suis dans l'thème, j'suis dans mon L.C.G Rue Faidherbe dans un gros SUV Qu'est-ce tu veux ? En vrai j'ai pas d'D.A J'me fais kiffer, j'me fais gonfler les bras Let's go, hein, j'me fais kiffer, j'me fais gonfler les bras C'est un goofy lui, il croit que j'me suis du-per J'suis resté l'même, toutes les places, je récupère Demande à 2C, mama elle doit manger Berline chargée tu ressens le Té-ma mes soldats, ils ressortent des tranchées J'sais être méchant, j'vais pas t'arranger Audio dope, on vend tout dans des sachets Prends ta cop' sinon elle va s'faire, hein Jusqu'à Mehringdamm on m'appelle Big Man J'ai la te-tê solide, ouais, c'est du titane J'suis dans les carotides, j'suis plus amateur Bou-bou-bou, hein Jusqu'à Mehringdamm, on m'appelle Big Man J'ai la te-tê solide, ouais, c'est du titane J'suis dans les carotides, j'suis plus amateur J'me sens comme comme un grand scammeur Wesh les cas social, la madame a dit qu'on n'était pas normal J'viens d'là où on sait pas quoi mettre sur l'devant des cartes postales Let's go Pour ta maman, j'suis adorable, pour ta cousine, j'suis abordable Pour mes p'tits frères, j'suis un moyen d'se faire inviter au McDonald's On a poncé les Aldi, les parkings, roulé des palmiers sur l'palier jusqu'à c'que la voisine sonne À part Zidane et papi, j'ai pas d'idole, la symphonie du taxi phone Y a les condés rue Ratisbonne en train d'batifoler comme à Washington Foutus descendants d'Wisigoths, sur la chatte à leur grand-mère la bourguignonne, yeah, yeah Thon Hannibal dans l'pain bagnat, supplément ufs durs, mayonnaise Ton cousin t'ramène des Total quatre-vingt cinq sans virgule quand il revient du bled yeah, yeah J'm'en bats les couilles d'percer, si j'peux pas fumer des joints dans l'hôtel J'rappe avec des lames dans la gorge, des nuds dans l'cur, elle m'demande si j'suis vraiment honnête, ah ouais Ouais, ouais, ouais et t'as cru qu'j'allais pas percer J'me sens comme Zinédine avant l'corner, comme Naps avant l'été, ouais Ouais, ouais, ouais et t'as cru qu'j'allais pas percer J'me sens comme Zinédine avant l'corner, comme Naps avant l'été Yeah, yeah, hey, Grünt 59 Jeune B, j'vais les mettre à l'amende Jeune B, j'vais les mettre à l'amende Jeune B, j'vais les mettre à l'amende Dans deux, trois piges j'ai plus d'prêt à la banque J'suis un mec discret, tu peux t'mettre à la mode Tu peux p't-être me voir si tu guettes par la fente, ouais Je reste le même donc sois pas surpris si tu m'pètes à l'alim' J'ai des frères muslims d'autres qui fêtent pas l'Aïd Mais on marche ensemble sur n'importe quelle pente Mauvais cocktail, ébullition, ils bandent sur les flows qu'nous utilisons J'ai caché des pièges dans les buissons Plus ils sont nombreux, plus ils s'sentent puissants Ils ont finis à dix dans un puit sombre Jamais d'ma vie j'fais machine arrière Même amputé j'enjambe les barrières Ils comptent les streams on compte les carrières On brise des chaines ils brisent des lanières Roubaix c'est pas la Villa Cavrois On va monter dans les tours même moteur à froid On a bien trop smoké, donc on pilote à trois Les années d'vie s'perdent, mais le talent s'accroît Let's go, le talent s'accroît Quelques leçons de vie que j'ai tendance à croire, mais j'ai vu mon frère se tuer tout en tenant sa croix Roule à fond dans un bolide noir, foire J'sais qu'là haut y a du cash à s'faire, mais pour l'instant j'suis qué-blo les pieds sur Terre Pas besoin d'grand chose, tout c'que j'ai, j'le donne La vie c'est pas tout rose, c'est grave monotone J'raconte moi, tout c'que j'vis J'invente pas, j'aime pas vos vices, yeah Lunettes de vitesse, j'dis Merci Gwam C'est marrant, t'es pas pareil qu'sur Instagram Salope fait l'grand écart la nuit en club Tu peux louer sa pussy pour deux, trois teufs Let's go J'dis non merci à toutes ces clavs J'ai besoin de qui colle aux oigts-d J'compte plus les balafres, mes gars ont soif J'm'enfume toute la night, j'attends qu'on s'taille Gros gamos, gros bad trip Tellement ça va à fond, t'en perds tes tripes J'sais qu'un jour on f'ra tous le vide J'ai des plavons qui m'feraient tenir dix vies C'est encore moi enfoiré, let's go Dans mon 5.9, mes reu-frés ils sont parés Quand j'rappe sur toute la France, c'est comme si y pleuvait J'ai grandi en rêvant d'la voisine, d'la dame de la cantine, en ayant toujours peur des quantités J'rappe parce que si j'rappe pas, j'me sens vidé J'fais comme les yeux d'mon père, j'mets d'l'intensité En un je t'aime, j'fais un couplet Trous d'boulettes de buf d'Lidl surgelées En un j't'aime plus, j'fais un putain d'projet Sponsorisé par l'époque des gouttes sur l'nez, yeah Let's go Évidemment quand un frérot s'détériore comme une autoroute, ça m'soûle J'rappe comme si j'épouse la foudre Ils bougent les bras pour rien comme les nunchakus On a fait d'la route, mon cur fait la boussole Jamais d'la vie j'dis j'me suis fait tout seul Jeune B.E, S-to, big BEN, y a trop d'klaxons pour entendre le chant des sirènes La vie, ça va super vite, j'récupère, j'investis l'bif J'laisse tes rappeurs dépenser la moitié d'leur avance en Uber Eats À force qu'on m'crie d'ssus, j'avais plus d'estime Là on va péter, y a plus d'esquive Viens on regarde la taille de tes glaouis, poto, quand y a plus les streams De un, baise le monde, baise les keufs, baise ces grosses têtes à claque qui parlent trop pour rien Les profiteurs, les critiqueurs, les gens trop lisses, tu sais ceux qui trouvent toujours tout bien Chaque matin j'ai tête de mort, café, moins quatre dehors, douche froide, chez nous on prend pas d'bain Baise le monde, baise les keufs, si tu veux qu'j'te l'dise de plus près, bah, viens Let's go Ouais, ouais Tu m'fais la hess, mais j't'ai vu hier au club dépenser trois fois la paye de ma daronne Hein On t'a cramé, ici on a l'il de la Lune, de Madara Uchiwa J'voulais un feat, avant qu'je monte ça m'répondait mandarin ou chinois Ils sont , j'me suis promis d'jamais r'produire ce schéma J'suis un gars peace, tu fais l'fou, j'peux t'faire une Fukushima Fils de p' En vrai je sais bien qu'j'suis un haineux, c'est pas moi, c'est B.E Dans la tête j'ai des nuds, mon but c'est d'le faire même de faire mieux J'ai grandi à Roubaix, j'suis pas fils de fermier, les briques rouges, la déprime hivernale, des nuisances infernales On va peu vers Lille, on traine qu'entre vermines Les sols sont trop glissants, dites-moi qui les vernit ? Let's go Sto, sto, sto Grünt 59, c'est grâce à vous hein, yeah Let's go J'ai un problème avec vos mans, danger j'vois plus les pictogrammes 2.4.2 jamais on rétrograde on capte des schlags, et des dobermans Mitsubishi, Arlequin, I like, j'ai pas l'permis, my wife elle drive J'suis une galère, tellement je smoke de ma bouche sort que du feu, j'me sens comme Smaug, hein Woa, woa, woa, c'est pas ici le paradise J'me sens comme Gucci en 2012, demande à 2C Ensemble 2008 assorti, bre-som comme une histoire sordide J'viens tout graille comme en tyrannie, pas d'parrainage, pas d'pyramide À ma table que les Avengers d'la u-re Wake up, j'ai trop serré la ceinture J'suis avec Bekar et BEN en direct d'Roubaix, big up à Hem' aussi On est tous unis, 5.9 sur les bras, j'vous oublie as-p J'prends des prods, c'est même plus d'la trap Mais j'reste un pirate, un putain d'crack Sale, sale Big up à Hem', big up à Fives J'habite là-bas hein, big up à tout l'monde On part aux states là En mode West Coast, il m'faut des grosses caisses, des pesos Let's go, yeah J'ai un problème avec ces bitchs qui font que d'parler sur les réseaux Ouais, ouais, hey En mode West Coast Il m'faut des grosses caisses, des pesos Et qu'tu m'demandes combien ma veste coûte Elle a des grosses fesses Et vu comme elle cause J'aurais pu lui faire treize gosses sur du gospel Jeune B.E, guess who's back Démarre la caisse on s'barre On a la carrosserie qui brille, les carreaux sont teintés Tu cries si j't'annonce un prix Lunettes violettes à la Vice City Vice City, hein Et pour les papiers, frère, on falsifie Yeah Professionnel comme Mission accomplie comme Carl C.J Moi j'suis plus Kendal que Jenner Kylie J'vis loin des cains-ri Mais j'allume leur Cali' Et plus j'suis high, plus j'fume leur Cali' C'est pas l'même calibre qu'à Lille J'ai un problème avec ces bitchs qui font que parler sur les réseaux J'ai un problème avec ces riches qui font que d'bander sur la ne-zo Ils prennent leur truc par voie nasale, ça m'dégoute tous ces shlags J'faisais mon biff près de la salle, puis j'partais recharger le bag J'ai brisé trente-six curs, nos sides c'est pour les miens C'fils de pute on lui baise sa sur si il nous sert pas la main J'suis dans un Motorsport rouge carmin Hoodie Lanvin taché d'blood, hein, j'veux faire fois vingt Tu sors un blicky dans tes sons, mais derrière on sait qu'tout est faux Jeune rêveur veut que tailler, le trou noir il est dans son ventre Un p'tit couteau aiguisé, tekpak il est matrixé Pyramide de Gizeh ou Dubaï, il voit plus c'qui rentre J'écoute pas les gens qui cé-su, j'écoute les gens qui sécurisent J'découpe la beuh rien qu'ça, pour un peu d'guap mes gars s'isolent Moi j'veux vire de la sorte, qu'on leak à mort Il m'faut dix fois l'salaire d'un avocat, j'mets plein phare comme si j'transportais d'la coca, yeah J'suis bien concentré, bien, bien, trop Une dernière taffe avant l'métro, j'me dis qu'ça va aller En c'moment j'me remets en cause tous les matins J'serais nulle part sans mes proches, sans mes copains Y en a qui m'ont ralenti, j'peux pas leur en vouloir Un pote qui change, ça fait l'effet d'un miroir J'veux plus jamais dire trop tard, j'suis accroché au trottoir J'écoutais pas en français, j'écoutais que en histoire En histoire Du coup, j'fais que des fautes partout, mais j'écris mieux qu'les mecs qu'on devait lire en cours Avec ma mère aux courses, j'sors la CB à la caisse, elle me dit range ta merde, t'es pas Drake et on n'est pas aux States J'sens qu'j'ai grandi, j'mets d'l'oseille dans l'horodateur J'conduis voie d'droite à cent dix sous régulateur Ça zehef les commentateurs comme les j'suis un artiste, j'suis pas juste un rappeur Oui, hé oui hé oui, hé oui Quel bon moment, yeah, c'est magnifique Merci à tous les beatmakers pour les instrus, Lucci', Low, tout l'monde Pour tous les gens qui ont une passion, croyez en vos rêves les frères Let's go, yeah Nan j'fais pas d'golf à Morfontaine, tu sais la fame c'est éphémère Rap jeu c'est une femme fontaine donc quand j'la baise, je persévère C'est comme une fable de La Fontaine, quand j'rappe y a double sens Sur la mélo' mes gars ils dansent, mais dans mes mots j'aime quand ça tranche Les faux frères j'les comptabilise, faut l'compte à Billy Anthracite sera ma 'ghini, j'touche du bois j'suis pas ébéniste Hein, Henni, Henni, glou-glou-glou, chacun ses vices Dans cette shit on en a mis des sous, non personne a fait d's... J'suis posé vers l'Mont des Cats, j'ai fait un p'tit tour de bécane J'pense à la vie, à ses mécaniques, au truc qui t'sert les canines Cur en céramique, la tête en acier trempé Sur l'drapeau c'est TTP d'puis l'époque de DDP Cartable Poivre et Sel, j'avais d'jà le mindset, on graillait à sept Quand Heenok parlait d'la cassette, j'ai compris la recette Cooking ce top dans le dio-stu, on a plus les bouches cousues Nous parler d'D.A, comment oses-tu alors qu't'achètes des vues ? Époque révolue, que ça transac' sur Revolut Les banquiers comprennent pas qu'avec ça, bah ma vie j'vais la sécur' J'connais mieux mes textes que mon numéro d'Sécu' Viens pas m'parler de mon vécu, il faut qu'sur mon dos ça spécule, hein Les requins nagent, dans l'grand bain, je tape une brasse Et j'mets un peu d'espoir dans cette dernière phrase, yeah Faut croire en ses rêves, se r'garder dans les eyes, yeah Pourquoi j'suis ici, pourquoi toi tu l'serais as-p ? C'est plus dur de tirer un trait que d'marquer un point Plus dur d'ouvrir un CapriSun que d'rouler un joint J'représente mon coin comme Steven Gerrard J'viens d'la belle ville de Tourcoing comme c't'idiot d'Gérald Personne n'aime les pointeurs Y'en a plein dans l'bus, dans l'train, dans les bureaux du 20h Mais personne n'aime les pointeurs Dans les commentaires sur Insta et Twitter, ils font des stats' de rappeurs mais t'inquiète Personne n'aime les pointeurs Fuck PPDA tous les jours Siffler une meuf c'est une preuve que t'es une merde, c'est pas une preuve d'amour V'nez on leur montre c'est qui les idiots P'tit frère à l'ombre pour trois grammes pendant qu'Norman fait des vidéos Gros joint sur les plages du débarquement T'es belle mais j'peux pas t'aimer plus que mon département ou peut-être autrement Mais j'attendrai d'avoir digéré plus de chose, là, ton regard me manque Là y a mon grand-père à la maison, il m'dit j'sais qu'j'suis vieux, qu'j'perds la raison J'lui dit j'prépare une Grünt 59, pour la région Il m'a dit j'suis fier de vous, les yeux rouges comme l'horizon J'vis pour ces moments là J'suis sur scène, j'fais moins d'fuck que d'curs avec les doigts Ça veut dire que ça va Ça veut dire Ça veut dire que ça va Hey On voulait voir de beaux décors, on a vu qu'passer qu'des corbeaux R.B.X mon territoire, à notre histoire vont-ils y croire ? Prie pour qu'demain soit beau, qu'après d'main soit encore beau Parce que c'est rare que les choses durent, ça s'effrite comme sous les chaussures J'ai fait l'deuil, papa heureux j'vais jamais l'voir Et mon pote non plus d'ailleurs, parce que cette life l'a mis ailleurs dans un monde où je n'peux y aller J'maudis la drogue qui l'a détruit et la corde qui l'a libéré J'pense à lui des fois le soir, quand j'me retrouve seul à errer J'suis pas sûr d'finir au Valhalla J'suis l'portrait d'mon père, ah la la Ça crache comme des lamas, ça sent l'fumier jusqu'à là-bas Entre ceux qui nous salissent et qui d'vant nous salivent, j'en ai ras-la-casquette Envie d'faire mes valises et d'voir Bali ou Malaga Crache sur un frère et j'le défends comme Alaba méfiant comme à la barre ou à minuit trente à la gare Envie d'visiter l'monde, rejoindre mon berceau à Barcelona Si l'or ça nous sépare, l'art ça nous lie, nique Ardisson, nique Hanouna, ouais J'crois qu'j'ai grandi, j'commence à vouloir faire du bif', ouais À prendre des décisions, à plus choisir au pif, eh Mais les contrats ça reste du hiéroglyphe Sous vos jolis gants noirs, j'ai su flairer vos griffes J'grandi, j'ai la barbe qui pousse, conscient qu'on s'éparpille tous J'vois des p'tits, sur la barre, qui poussent et des anciens au bar qui toussent J'connais toutes mes peurs, même les plus profondes On n'est jamais trop instruit, on n'est jamais trop con, yeah Yeah, yeah, yeah Jeune B.E, S-to, hein, BEN plg</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Il pleut comme vache qui pisse Jai bu ma soupe, mangé mon pain noir et ma vache qui rit Jdois faire un classique, une famille, un enfant Jprie qupour papy nparte pas si vite Le château dnos pères, cest les F2, cest pas Marcel Pagnol Il parle moins bien à sa meuf quà sa nouvelle bagnole La misère, c'était pas si horrible, mais la victoire sera belle comme la prof despagnol Jai grandi loin d'la beach et des palmiers, c'était par choix mais c'était pas lmien À vingt-deux, jsuis à la niche, au panier, jressors si jai ni shit ni champagne Jsuis en pleine créa', le projet prêt à leaker Rap réalité comme BEN Infamous Mobb, ils font les connaisseurs, en fait, ils nous snobent Trop dregrets comme la plupart de mes shabs Ldestin mregarde faire des dingueries sans broncher comme les mecs au fond dans la Grünt de Lesram, han enfoiré Jpense à mon frère à lESAT, il pourra jamais faire de gosses, aller voter ou avoir de bécane Donc jdois tout niquer pour deux, jsuis né hors-jeu, mentalité fous le feu Mentalité jsuis sur lterrain et jme mets où jveux, hein, hein Gros pét au bec dvant les allocations Il mfaut une SACEM de morceaux en rotation Dla valeur dun crédit à la consommation Poupée d'Laurent Bouneau, jfais des invocations Vin sec, rosé, jfais une insolation Vingt-cinq degrés, jfais une coloration Rhum à 50 degrés pour ton information On est vnus tout baiser dans les prolongations You might also like Ah merde, le temps, cest dlargent, y a plus dtemps à perdre ouais Cest des objectifs, cest plus que les rêves cest plus que des rêves Mes frères, je vous aime, jaurais rien pu faire seul, ah merde Ah merde Ah merde, le temps, cest dlargent, y a plus dtemps à perdre ouais y a plus dtemps à perdre, ouais Cest des objectifs, cest plus que les rêves cest plus que des rêves Mes frères, je vous aime, jaurais rien pu faire seul jaurais rien pu faire seul Ah merde Qui a du feu ? Faut qujen fasse un comme Mufasa Vaut mieux être seul au sommet qu'être accompagné de fantassins Qui a des feuilles ? Car il men faut Pour oublier mon frère à Fresnes, et tous ces trucs sentimentaux Qui a encore un peu despoir ? Jpréfère être mal accompagné plutôt quseul au sommet dans le brouillard Javais la notice, jai pas lu, jdevais toublier, jai pas pu du tout Y a tous ces trucs sentimentaux De lautre côté du globe, jentends encore le métro On a joué hier, ça sent encore le bédo Mes survêts du lycée sentent encore le mégot Yeah Jsuis avec Salim dAulnay-sous Mélange lAbsolut, la RedBull, jespère avoir un gamin un dces jours ah bah ouais Bre-som comme un métalleux, quoi quil spasse, gros, rends-moi mes tal-euh Je te rends les tiens dès qujai tes sous Si jai oublié, cest quj'étais saoul Logique Gros, au collège, j'étais sot, j'étais bon, jai fait lcon, jai té-sau Chaque bavure, jaccusais les autres, aucun rcul sur mes défauts de wouf Ah merde Ah merde, le temps, cest de largent, y a plus dtemps à perdre ouais Cest des objectifs, cest plus que des rêves cest plus que des rêves Mes frères, je vous aime, jaurais rien pu faire seul Ah merde Ah merde</t>
+          <t>Il pleut comme vache qui pisse Jai bu ma soupe, mangé mon pain noir et ma vache qui rit Jdois faire un classique, une famille, un enfant Jprie qupour papy nparte pas si vite Le château dnos pères, cest les F2, cest pas Marcel Pagnol Il parle moins bien à sa meuf quà sa nouvelle bagnole La misère, c'était pas si horrible, mais la victoire sera belle comme la prof despagnol Jai grandi loin d'la beach et des palmiers, c'était par choix mais c'était pas lmien À vingt-deux, jsuis à la niche, au panier, jressors si jai ni shit ni champagne Jsuis en pleine créa', le projet prêt à leaker Rap réalité comme BEN Infamous Mobb, ils font les connaisseurs, en fait, ils nous snobent Trop dregrets comme la plupart de mes shabs Ldestin mregarde faire des dingueries sans broncher comme les mecs au fond dans la Grünt de Lesram, han enfoiré Jpense à mon frère à lESAT, il pourra jamais faire de gosses, aller voter ou avoir de bécane Donc jdois tout niquer pour deux, jsuis né hors-jeu, mentalité fous le feu Mentalité jsuis sur lterrain et jme mets où jveux, hein, hein Gros pét au bec dvant les allocations Il mfaut une SACEM de morceaux en rotation Dla valeur dun crédit à la consommation Poupée d'Laurent Bouneau, jfais des invocations Vin sec, rosé, jfais une insolation Vingt-cinq degrés, jfais une coloration Rhum à 50 degrés pour ton information On est vnus tout baiser dans les prolongations Ah merde, le temps, cest dlargent, y a plus dtemps à perdre ouais Cest des objectifs, cest plus que les rêves cest plus que des rêves Mes frères, je vous aime, jaurais rien pu faire seul, ah merde Ah merde Ah merde, le temps, cest dlargent, y a plus dtemps à perdre ouais y a plus dtemps à perdre, ouais Cest des objectifs, cest plus que les rêves cest plus que des rêves Mes frères, je vous aime, jaurais rien pu faire seul jaurais rien pu faire seul Ah merde Qui a du feu ? Faut qujen fasse un comme Mufasa Vaut mieux être seul au sommet qu'être accompagné de fantassins Qui a des feuilles ? Car il men faut Pour oublier mon frère à Fresnes, et tous ces trucs sentimentaux Qui a encore un peu despoir ? Jpréfère être mal accompagné plutôt quseul au sommet dans le brouillard Javais la notice, jai pas lu, jdevais toublier, jai pas pu du tout Y a tous ces trucs sentimentaux De lautre côté du globe, jentends encore le métro On a joué hier, ça sent encore le bédo Mes survêts du lycée sentent encore le mégot Yeah Jsuis avec Salim dAulnay-sous Mélange lAbsolut, la RedBull, jespère avoir un gamin un dces jours ah bah ouais Bre-som comme un métalleux, quoi quil spasse, gros, rends-moi mes tal-euh Je te rends les tiens dès qujai tes sous Si jai oublié, cest quj'étais saoul Logique Gros, au collège, j'étais sot, j'étais bon, jai fait lcon, jai té-sau Chaque bavure, jaccusais les autres, aucun rcul sur mes défauts de wouf Ah merde Ah merde, le temps, cest de largent, y a plus dtemps à perdre ouais Cest des objectifs, cest plus que des rêves cest plus que des rêves Mes frères, je vous aime, jaurais rien pu faire seul Ah merde Ah merde</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ah, bah, ouais Trois New Era sous l'averse J'l'ai déjà fait mais j'roule un teh Nos aïeux défoncés d'vant Zone Interdite Ça semble interminable J'remets ma main dans la veste Je sens Le froid du flash et du tournevis J'ai toujours ce trou dans la tête Han J'suis l'meilleur rappeur de la Terre Ouh Si j'le pense pas, qui va m'sortir de la merde ? Qui ? On est plus à un exploit près, 2008, j'marche en Airness dans la tess J'm sens frais, j'sens qu'j'vais monter ls marches une par une 2022, là j'ai plus d'lacunes, pas au top, donc j'ai plus d'excuses, la rue Nous à câliner, donner à boire, pas à diner Apprit qu'c'est la monnaie le vrai but L'honneur et la reput', moi j'te dis qu'la rue, c'est une vraie pute Un jour, mon gros nez en quatre par trois J'entends Piou, piou, mets ta main devant les yeux et va par là J'pense à demain devant l'sol, j'pense à hier devant l'micro, j'pense à rien quand j'vole Oh Regardes mes yeux quand j'rappe, regardes mes yeux quand j'parle Regardes mes yeux quand j'm'ouvre le cur, sa mère Et jure plus jamais sur la vie d'la mienne On a vue sur la mort depuis la césarienne Vu qu'on part bien trop vite dans le scénario Wouh J'suis dans d'beaux draps Ouais On va insister tant qu'il le faudra Yes On a carotte le p'tit bourge qui a l'ballon Ah, ouais Maintenant qu'je l'ai, la poisse prend son coup d'reins, ohr Oh, oh Oh, sa mère, c'est pas une mauvaise alerte J'écoutais toutes les mauvaises nouvelles Ouh, wouh Maintenant, j'prends n'importe laquelle Ouh You might also like Encore une mauvaise nouvelle Allez, allez, allez Encore une mauvaise nouvelle Ah ouais, ah ouais Encore une mauvaise nouvelle Allez, allez, allez Encore une mauvaise nouvelle J'suis défoncé dans la pénombre Oh, ouais J'vois en flou le fond d'la rue Oh, ouais J'préfère qu'ils connaissent mon vrai nom C'lui qui parle au fond d'mon buste J'ai pas été très loin dans le vrai monde Oh ouais Faut qu'j'avance au bout d'la lune Oh J'ai pas été très loin dans la saison Eh, vas-y qu'il nique sa mère celui-là aussi C'est la cour des miracles sur la route de la sagesse Pas l'Monde de Narnia derrière Porte de la Chapelle, ah bah ouais J'crois qu'jamais j'arrête, j'crois qu'jamais j'abandonne, j'crois qu'jamais j'la ferme, à la tienne Si t'as des convictions Wouh, c'est nous les boss Prochaine mauvaise nouvelle, on l'a cross Wouh On lui baise sa grand-mère, on l'arrose Wouh On lui prouve le contraire, une rose noire sur le torse Allez, arrache ta mère Wouh Encore une mauvaise nouvelle Allez, allez, allez Encore une mauvaise nouvelle Ah ouais, ah ouais Encore une mauvaise nouvelle Allez, allez, allez Encore une mauvaise nouvelle Wouh Encore une mauvaise nouvelle Encore une mauvaise nouvelle Ah ouais, ah ouais Encore une mauvaise nouvelle Wouh Encore une mauvaise nouvelle2</t>
+          <t>Ah, bah, ouais Trois New Era sous l'averse J'l'ai déjà fait mais j'roule un teh Nos aïeux défoncés d'vant Zone Interdite Ça semble interminable J'remets ma main dans la veste Je sens Le froid du flash et du tournevis J'ai toujours ce trou dans la tête Han J'suis l'meilleur rappeur de la Terre Ouh Si j'le pense pas, qui va m'sortir de la merde ? Qui ? On est plus à un exploit près, 2008, j'marche en Airness dans la tess J'm sens frais, j'sens qu'j'vais monter ls marches une par une 2022, là j'ai plus d'lacunes, pas au top, donc j'ai plus d'excuses, la rue Nous à câliner, donner à boire, pas à diner Apprit qu'c'est la monnaie le vrai but L'honneur et la reput', moi j'te dis qu'la rue, c'est une vraie pute Un jour, mon gros nez en quatre par trois J'entends Piou, piou, mets ta main devant les yeux et va par là J'pense à demain devant l'sol, j'pense à hier devant l'micro, j'pense à rien quand j'vole Oh Regardes mes yeux quand j'rappe, regardes mes yeux quand j'parle Regardes mes yeux quand j'm'ouvre le cur, sa mère Et jure plus jamais sur la vie d'la mienne On a vue sur la mort depuis la césarienne Vu qu'on part bien trop vite dans le scénario Wouh J'suis dans d'beaux draps Ouais On va insister tant qu'il le faudra Yes On a carotte le p'tit bourge qui a l'ballon Ah, ouais Maintenant qu'je l'ai, la poisse prend son coup d'reins, ohr Oh, oh Oh, sa mère, c'est pas une mauvaise alerte J'écoutais toutes les mauvaises nouvelles Ouh, wouh Maintenant, j'prends n'importe laquelle Ouh Encore une mauvaise nouvelle Allez, allez, allez Encore une mauvaise nouvelle Ah ouais, ah ouais Encore une mauvaise nouvelle Allez, allez, allez Encore une mauvaise nouvelle J'suis défoncé dans la pénombre Oh, ouais J'vois en flou le fond d'la rue Oh, ouais J'préfère qu'ils connaissent mon vrai nom C'lui qui parle au fond d'mon buste J'ai pas été très loin dans le vrai monde Oh ouais Faut qu'j'avance au bout d'la lune Oh J'ai pas été très loin dans la saison Eh, vas-y qu'il nique sa mère celui-là aussi C'est la cour des miracles sur la route de la sagesse Pas l'Monde de Narnia derrière Porte de la Chapelle, ah bah ouais J'crois qu'jamais j'arrête, j'crois qu'jamais j'abandonne, j'crois qu'jamais j'la ferme, à la tienne Si t'as des convictions Wouh, c'est nous les boss Prochaine mauvaise nouvelle, on l'a cross Wouh On lui baise sa grand-mère, on l'arrose Wouh On lui prouve le contraire, une rose noire sur le torse Allez, arrache ta mère Wouh Encore une mauvaise nouvelle Allez, allez, allez Encore une mauvaise nouvelle Ah ouais, ah ouais Encore une mauvaise nouvelle Allez, allez, allez Encore une mauvaise nouvelle Wouh Encore une mauvaise nouvelle Encore une mauvaise nouvelle Ah ouais, ah ouais Encore une mauvaise nouvelle Wouh Encore une mauvaise nouvelle2</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Dix heures pétantes, j'suis debout, j'prends ma douche, mon café, la veille, j'étais rré-bou J'suis grave en retard, là, j'ai des rendez-vous, midi, mon équipe va ouvrir le four J'm'arrête au feu rouge, j'croise un mec de ma zone qui m'a jamais aimé J'lui rends bien la pareille, en même temps, qui pourrait bien aimer un fils de pute pareil ? À part la salope qui l'a fait apparaître, il a pas d'parole, à la cité, tout le monde sait qui c'est On l'a pas attendu pour tous s'équiper, donne-lui pas ta zipette, il va s'éclipser Et à chaque fois qu'j'le croise, il est plein d'CC donc il fait ses blagues de merde pour me rabaisser Sûrement pensant qu'un jour, il pourrait m'blesser, rien qu'il parle mal de moi, paraît complexé J'suis paro, j'ai envie d'l'agresser, d'l'angoisser mais mon frérot me dit d'le laisser Pourquoi ? C'est parce que c'est l'cousin d'un mec avec qui j'bossais Avec lui, c'est vrai qu'on a grave encaissé donc j'ai laissé passer mais à chaque fois qu'j'le vois, il m'fait l'ancien Il m'parle de son calibre avec silencieux, il est plein d'ces-vi comme l'épicier du coin Il crée des tensions parce qu'il est prétentieux, j'lui serre à peine la main, il m'parle comme un shlag J'le remets à sa place, il a oublié qu'on lui achetait sa glace, il oublie qu'il parle avec un lion d'l'Atlas Pas longtemps après, j'ai reçu deux-trois boîtes, il vient m'voir à jeun, gros, ça paraît bizarre Apparemment, c'est son cousin qui l'envoie pour qu'on lui pousse des mes-ar et des ffaires-a On dit qu't'es mignon quand t'es gentil lion, tu dois être mauvais lion quand tu rentres le million J'ai pas confiance en lui, mauvais d'puis embryon, j'lui donne pas une cassette, pas un échantillon Donc il est contrarié, commence à mal parler, veut montrer sa folie Zehma vous faites les mafieux depuis qu'vous faites du papier, vous êtes ramollis, il est en roue libre, il montre son brolique C'est là qu'j'ai compris qu'les armes et les trons-li, c'était juste un prétexte pour nous faire le Tony J'lui dis qu'il ferait mieux d'aller niquer sa mère avant qu'on vienne un jour le chercher dans son lit You might also like - Zehma, t'es dev'nu un mafieux, toi ? - Quel mafieux, toi - C'est comme ça ? - Bien sûr qu'c'est comme ça, vas-y, kaoud de là, là, arrache ta gueule de là - Y a rien pour moi ? - Bien sûr, y a rien pour toi ici - Y a rien pour moi, t'es sûr ? - Y a rien pour toi - Y a rien pour moi ? - Rien ! Dix heures pétantes, j'me réveille, j'prends mon 'phone, une garrot dans l'paquet Celle à lenvers qui porte bonheur, à c'qu'il paraît, elle f'rait bien d'y arriver, à c't'heure-ci, c'est la zone Les yeux rouges vifs comme Murcielago, celle du pote à Houcine qui d'vait m'pousser un plot, qui m'a poussé walou Il m'regarde comme si j'mangeais mes hnouna mais frérot, j'suis un homme Et pas n'importe lequel, c'lui qu'ses parents r'gardaient pas parce qu'il y a d'autres problèmes Qui cherche l'amour dans les Ibis, les Novotel, qui l'a trouvé qu'dans les bêtises, les grands cocktails Il commence à m'pomper l'air, l'ancien d'l'époque Pompelup Wesh, il veut qu'on s'énerve ? La goutte au front comme quand l'frérot trop bourré accélère La vie, c'est dangereux comme un mec qu'a rien à perdre ou rien à gagner du tout Déjà qu'j'suis à peine sorti du trou, il veut m'pousser d'dans Dehors, ça m'regarde comme si j'sortais du zoo, j'en ai rien à foutre J'vais serrer, j'vais lui montrer à qui la faute, j'suis pas sa pute, j'vais montrer c'est qui les fous J'monte l'escalier, décidé à tirer un trait, j'vais dessiner ma folie, j'y r'penserai qu'après Matinée blanche de janvier, j'marche en matant les traces d'mes TN sur l'sentier J'pensais qu'la violence, ça résoudrait mes soucis, ça arrêterait mes problèmes, ça calmerait mes nerfs Mais dès qu'j'entends un bruit, j'accélère, l'shit m'avait d'jà rendu parano, ça, c'est vrai T'as même pas eu l'temps d'rappeler ton grand-père, ta mère, en un cri, les lumières, elles s'allument, elles s'éteignent</t>
+          <t>Dix heures pétantes, j'suis debout, j'prends ma douche, mon café, la veille, j'étais rré-bou J'suis grave en retard, là, j'ai des rendez-vous, midi, mon équipe va ouvrir le four J'm'arrête au feu rouge, j'croise un mec de ma zone qui m'a jamais aimé J'lui rends bien la pareille, en même temps, qui pourrait bien aimer un fils de pute pareil ? À part la salope qui l'a fait apparaître, il a pas d'parole, à la cité, tout le monde sait qui c'est On l'a pas attendu pour tous s'équiper, donne-lui pas ta zipette, il va s'éclipser Et à chaque fois qu'j'le croise, il est plein d'CC donc il fait ses blagues de merde pour me rabaisser Sûrement pensant qu'un jour, il pourrait m'blesser, rien qu'il parle mal de moi, paraît complexé J'suis paro, j'ai envie d'l'agresser, d'l'angoisser mais mon frérot me dit d'le laisser Pourquoi ? C'est parce que c'est l'cousin d'un mec avec qui j'bossais Avec lui, c'est vrai qu'on a grave encaissé donc j'ai laissé passer mais à chaque fois qu'j'le vois, il m'fait l'ancien Il m'parle de son calibre avec silencieux, il est plein d'ces-vi comme l'épicier du coin Il crée des tensions parce qu'il est prétentieux, j'lui serre à peine la main, il m'parle comme un shlag J'le remets à sa place, il a oublié qu'on lui achetait sa glace, il oublie qu'il parle avec un lion d'l'Atlas Pas longtemps après, j'ai reçu deux-trois boîtes, il vient m'voir à jeun, gros, ça paraît bizarre Apparemment, c'est son cousin qui l'envoie pour qu'on lui pousse des mes-ar et des ffaires-a On dit qu't'es mignon quand t'es gentil lion, tu dois être mauvais lion quand tu rentres le million J'ai pas confiance en lui, mauvais d'puis embryon, j'lui donne pas une cassette, pas un échantillon Donc il est contrarié, commence à mal parler, veut montrer sa folie Zehma vous faites les mafieux depuis qu'vous faites du papier, vous êtes ramollis, il est en roue libre, il montre son brolique C'est là qu'j'ai compris qu'les armes et les trons-li, c'était juste un prétexte pour nous faire le Tony J'lui dis qu'il ferait mieux d'aller niquer sa mère avant qu'on vienne un jour le chercher dans son lit - Zehma, t'es dev'nu un mafieux, toi ? - Quel mafieux, toi - C'est comme ça ? - Bien sûr qu'c'est comme ça, vas-y, kaoud de là, là, arrache ta gueule de là - Y a rien pour moi ? - Bien sûr, y a rien pour toi ici - Y a rien pour moi, t'es sûr ? - Y a rien pour toi - Y a rien pour moi ? - Rien ! Dix heures pétantes, j'me réveille, j'prends mon 'phone, une garrot dans l'paquet Celle à lenvers qui porte bonheur, à c'qu'il paraît, elle f'rait bien d'y arriver, à c't'heure-ci, c'est la zone Les yeux rouges vifs comme Murcielago, celle du pote à Houcine qui d'vait m'pousser un plot, qui m'a poussé walou Il m'regarde comme si j'mangeais mes hnouna mais frérot, j'suis un homme Et pas n'importe lequel, c'lui qu'ses parents r'gardaient pas parce qu'il y a d'autres problèmes Qui cherche l'amour dans les Ibis, les Novotel, qui l'a trouvé qu'dans les bêtises, les grands cocktails Il commence à m'pomper l'air, l'ancien d'l'époque Pompelup Wesh, il veut qu'on s'énerve ? La goutte au front comme quand l'frérot trop bourré accélère La vie, c'est dangereux comme un mec qu'a rien à perdre ou rien à gagner du tout Déjà qu'j'suis à peine sorti du trou, il veut m'pousser d'dans Dehors, ça m'regarde comme si j'sortais du zoo, j'en ai rien à foutre J'vais serrer, j'vais lui montrer à qui la faute, j'suis pas sa pute, j'vais montrer c'est qui les fous J'monte l'escalier, décidé à tirer un trait, j'vais dessiner ma folie, j'y r'penserai qu'après Matinée blanche de janvier, j'marche en matant les traces d'mes TN sur l'sentier J'pensais qu'la violence, ça résoudrait mes soucis, ça arrêterait mes problèmes, ça calmerait mes nerfs Mais dès qu'j'entends un bruit, j'accélère, l'shit m'avait d'jà rendu parano, ça, c'est vrai T'as même pas eu l'temps d'rappeler ton grand-père, ta mère, en un cri, les lumières, elles s'allument, elles s'éteignent</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ah bah ouais Okay Ça ressemble plus à grand-chose là 2014, jsuis dans lbureau du patron, jregarde lhorloge me parler Lui, il mdit quy faut rentrer du papier, parfait Un gros zdeh de beuh pour anticiper lennui À la télé, ça rigole fort, jveux bien participer aussi Ils disent Le succès cest nocif La routine, les nuages, les Tupperware de coquillettes Les sacs de course sur les mobylettes Les gouttes d pluie sur les paupières t lciel qui pleure pour des clopinettes Cest pas nocif, ça ? Cest quoi lmieux au final Billet chiffonné dans doublure du Quechua Du bleu dans une Vittel, du rouge dans les yeuz et du marron dans l'pétard Ah bah ouais Jrallume la flamme, jregarde en lair À la base, on n'est pas censés gagner Dans ma tête, jsuis pas censé perdre You might also like Mais jsuis lmême gamin Des rêves dans les yeux, des mouchoirs dans la pocket Pét' au casque et au bec ouh, ouh Regard est vitreux, cerveau est opaque mais on dit Okay okay Et lfroid fait des trous dans mes mains, la fume fait des trous dans mes souvenirs ah bah ouais Jai pas dregrets si jme souviens drien Jlouperais pas grand chose si jmempêche de vivre On a découvert la tise, on na pas compris les risques Jsrais sûrement pas là si mon géniteur avait acheté des préservatifs Carte sur table, à côté des couilles et des cadavres de bouteilles Jraconte pas ma vie pour la grande chatte à Mireille Mais pour lcul dma grand-mère dans un Fly Emirates, khlass Au fait, connaître le handicap, cest une chance de bâtard Parler du handicap avec de la pitié, cest un truc de bâtard Fils de pute, on a grandi en R5 la tête sur la vitre qui fait perceuse Jai pas besoin dpercer, putain, jai b'soin dune clope et dune berceuse Ah bah ouais Jrallume la flamme, jregarde en lair À la base, on n'est pas censés gagner Dans ma tête, jsuis pas censé perdre</t>
+          <t>Ah bah ouais Okay Ça ressemble plus à grand-chose là 2014, jsuis dans lbureau du patron, jregarde lhorloge me parler Lui, il mdit quy faut rentrer du papier, parfait Un gros zdeh de beuh pour anticiper lennui À la télé, ça rigole fort, jveux bien participer aussi Ils disent Le succès cest nocif La routine, les nuages, les Tupperware de coquillettes Les sacs de course sur les mobylettes Les gouttes d pluie sur les paupières t lciel qui pleure pour des clopinettes Cest pas nocif, ça ? Cest quoi lmieux au final Billet chiffonné dans doublure du Quechua Du bleu dans une Vittel, du rouge dans les yeuz et du marron dans l'pétard Ah bah ouais Jrallume la flamme, jregarde en lair À la base, on n'est pas censés gagner Dans ma tête, jsuis pas censé perdre Mais jsuis lmême gamin Des rêves dans les yeux, des mouchoirs dans la pocket Pét' au casque et au bec ouh, ouh Regard est vitreux, cerveau est opaque mais on dit Okay okay Et lfroid fait des trous dans mes mains, la fume fait des trous dans mes souvenirs ah bah ouais Jai pas dregrets si jme souviens drien Jlouperais pas grand chose si jmempêche de vivre On a découvert la tise, on na pas compris les risques Jsrais sûrement pas là si mon géniteur avait acheté des préservatifs Carte sur table, à côté des couilles et des cadavres de bouteilles Jraconte pas ma vie pour la grande chatte à Mireille Mais pour lcul dma grand-mère dans un Fly Emirates, khlass Au fait, connaître le handicap, cest une chance de bâtard Parler du handicap avec de la pitié, cest un truc de bâtard Fils de pute, on a grandi en R5 la tête sur la vitre qui fait perceuse Jai pas besoin dpercer, putain, jai b'soin dune clope et dune berceuse Ah bah ouais Jrallume la flamme, jregarde en lair À la base, on n'est pas censés gagner Dans ma tête, jsuis pas censé perdre</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Elle est arrivée en Air Force blanches Lacets formant un mouvement indécent Converse All-Stars juste pour passer l'été Elle ride en Jordan 11 pour surfer sur des samples elle a des vraies idées Elle amène un lust hey Elle veut pusher Zizou en tendances hey hey hey hey Elle amène d'la fraîcheur Elle arrive en Air Force blanches Elle porte pas d'Dunk Elle a usé les semelles de ses Suede sur d'la funk Elle peut danser l' elle porte pas d' Elle met Balenciaga comme une thug Asics gel Quantum comme un plug New Balance non plus Elle porte des Huarache depuis tite-peu Lacets d'Superstars dans les cheveux lalala Grosse paire de pompes, tu cries 22 J'regarde les pieds avant les yeux ah bah ouais Elle arrive en Air Force blanches Elle arrive en Air Force blanches eh eh eh eh Pélo, j'débarque en Air Force blanches Pélo, j'débarque en Air Force blanches eh eh eh eh Faut qu'j'me rachète des Air Force blanches Que j'me rachète des Air Force blanches elles sont déjà sales Elle arrive en Air Force blanches Elle arrive en Air Force blanches You might also like Petit, j'avais pas de Air Force blanches J'suis d'l'époque Rivaldo, Sega Ma mère comprenait pas mon insolence pour paire à 3000 francs J'ai porté les Vans Era avant qu'ça pousse tout-par comme des champignons J'suis pas comme Cendrillon Si j'perd une paire, j'me coupe les couilles, y'a pas d'suspense J'faisais tomber mon jean cartonné sur la languette, boy Paire d'chaussettes avec les claquettes, boy J'tourne des clips juste pour m'acheter des baskets, boy J'baptise mes Jordan dans la raquette, boy Maillot d'Arsenal, époque O2 Reflet d'mes semelles dans les yeux lalala Grosse paire de pompes, tu cries 22 J'regarde mes pieds avant mes cheveux ah bah ouais Elle arrive en Air Force blanches Elle arrive en Air Force blanches eh eh eh eh Pélo, j'débarque en Air Force blanches Pélo, j'débarque en Air Force blanches eh eh eh eh Faut qu'j'me rachète des Air Force blanches Que j'me rachète des Air Force blanches elles sont déjà sales Elle arrive en Air Force blanches Elle arrive en Air Force blanches eh eh eh eh</t>
+          <t>Elle est arrivée en Air Force blanches Lacets formant un mouvement indécent Converse All-Stars juste pour passer l'été Elle ride en Jordan 11 pour surfer sur des samples elle a des vraies idées Elle amène un lust hey Elle veut pusher Zizou en tendances hey hey hey hey Elle amène d'la fraîcheur Elle arrive en Air Force blanches Elle porte pas d'Dunk Elle a usé les semelles de ses Suede sur d'la funk Elle peut danser l' elle porte pas d' Elle met Balenciaga comme une thug Asics gel Quantum comme un plug New Balance non plus Elle porte des Huarache depuis tite-peu Lacets d'Superstars dans les cheveux lalala Grosse paire de pompes, tu cries 22 J'regarde les pieds avant les yeux ah bah ouais Elle arrive en Air Force blanches Elle arrive en Air Force blanches eh eh eh eh Pélo, j'débarque en Air Force blanches Pélo, j'débarque en Air Force blanches eh eh eh eh Faut qu'j'me rachète des Air Force blanches Que j'me rachète des Air Force blanches elles sont déjà sales Elle arrive en Air Force blanches Elle arrive en Air Force blanches Petit, j'avais pas de Air Force blanches J'suis d'l'époque Rivaldo, Sega Ma mère comprenait pas mon insolence pour paire à 3000 francs J'ai porté les Vans Era avant qu'ça pousse tout-par comme des champignons J'suis pas comme Cendrillon Si j'perd une paire, j'me coupe les couilles, y'a pas d'suspense J'faisais tomber mon jean cartonné sur la languette, boy Paire d'chaussettes avec les claquettes, boy J'tourne des clips juste pour m'acheter des baskets, boy J'baptise mes Jordan dans la raquette, boy Maillot d'Arsenal, époque O2 Reflet d'mes semelles dans les yeux lalala Grosse paire de pompes, tu cries 22 J'regarde mes pieds avant mes cheveux ah bah ouais Elle arrive en Air Force blanches Elle arrive en Air Force blanches eh eh eh eh Pélo, j'débarque en Air Force blanches Pélo, j'débarque en Air Force blanches eh eh eh eh Faut qu'j'me rachète des Air Force blanches Que j'me rachète des Air Force blanches elles sont déjà sales Elle arrive en Air Force blanches Elle arrive en Air Force blanches eh eh eh eh</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Encore combien de peines ? J'pensais pas qu'y en avait tant à l'intérieur de toi Dis-moi pourquoi la haine Dis-moi pourquoi on apprend pas d'leurs erreurs pourquoi T'es charmant, t'es gol-ri Tu s'rais mon perso préféré d'la série Si c'était une série mais c'est pas une série Donc quand y a une dinguerie y a personne qui parle y a personne qui commente Y a pas d'petits drames Si y a l'nud faut l'défaire y a pas d'petites larmes Convaincu qu'au départ y a pas d'mauvaises âmes Et qu'la noirceur du bonhomme dépend d'comment il prend les virages, bref Arrête de crier sur ta meuf Y a tout qui s'mélange dans ta tête mais Arrête de crier sur ta meuf arrête de crier sur ta meuf Arrête de crier sur ta meuf Arrête de crier sur ta meuf arrête de crier sur ta meuf Arrête de crier sur ta meuf arrête de crier sur ta meuf Arrête de crier sur ta meuf arrête de crier sur ta meuf ! Arrête de crier sur ta meuf arrête de crier sur ta meuf Arrête de crier sur ta meuf You might also like Les dieux t'avaient béni Les enfants du désordre vont fonder une famille C'est toi l'boss du navire en fait Même si tu chavires faut garder l'objectif en tête C'est pas facile à prédire Des gamins sans fondation s'unissent pour construire une famille Facile à louper, facile à oublier Qu'un enfant c'est facile à troubler Toi t'as vécu la même chose Ton papa qui crie, t'as pas compris la raison Ils ont laissé rentrer la tempête dans la maison Les feuilles sont tombées elles ont pas attendu la saison Arrêtez d'crier sur vos gosses arrêtez d'crier sur vos gosses Arrête de crier sur ton gosse arrête de crier sur ton gosse Arrête de crier sur ton gosse arrête de crier sur ton gosse Arrête de crier sur ton gosse arrête de crier sur ton gosse Arrête de crier sur ton gosse arrête de crier sur ton gosse Arrête de crier sur ta meuf arrête de crier sur ta meuf Arrêtez d'crier sur vos parents arrêtez d'crier sur vos parents Arrêtez d'crier sur les bagnoles arrêtez d'crier sur les bagnoles Arrêtez d'crier sur les gens arrêtez d'crier sur les gens Arrête de crier sur ton gosse arrête de crier sur ton gosse Arrête de crier sur ta meuf arrête de crier sur ta meuf Arrête de crier sur ton gosse arrête de crier sur ton gosse Arrête de crier sur ta meuf arrête de crier sur ta meuf</t>
+          <t>Encore combien de peines ? J'pensais pas qu'y en avait tant à l'intérieur de toi Dis-moi pourquoi la haine Dis-moi pourquoi on apprend pas d'leurs erreurs pourquoi T'es charmant, t'es gol-ri Tu s'rais mon perso préféré d'la série Si c'était une série mais c'est pas une série Donc quand y a une dinguerie y a personne qui parle y a personne qui commente Y a pas d'petits drames Si y a l'nud faut l'défaire y a pas d'petites larmes Convaincu qu'au départ y a pas d'mauvaises âmes Et qu'la noirceur du bonhomme dépend d'comment il prend les virages, bref Arrête de crier sur ta meuf Y a tout qui s'mélange dans ta tête mais Arrête de crier sur ta meuf arrête de crier sur ta meuf Arrête de crier sur ta meuf Arrête de crier sur ta meuf arrête de crier sur ta meuf Arrête de crier sur ta meuf arrête de crier sur ta meuf Arrête de crier sur ta meuf arrête de crier sur ta meuf ! Arrête de crier sur ta meuf arrête de crier sur ta meuf Arrête de crier sur ta meuf Les dieux t'avaient béni Les enfants du désordre vont fonder une famille C'est toi l'boss du navire en fait Même si tu chavires faut garder l'objectif en tête C'est pas facile à prédire Des gamins sans fondation s'unissent pour construire une famille Facile à louper, facile à oublier Qu'un enfant c'est facile à troubler Toi t'as vécu la même chose Ton papa qui crie, t'as pas compris la raison Ils ont laissé rentrer la tempête dans la maison Les feuilles sont tombées elles ont pas attendu la saison Arrêtez d'crier sur vos gosses arrêtez d'crier sur vos gosses Arrête de crier sur ton gosse arrête de crier sur ton gosse Arrête de crier sur ton gosse arrête de crier sur ton gosse Arrête de crier sur ton gosse arrête de crier sur ton gosse Arrête de crier sur ton gosse arrête de crier sur ton gosse Arrête de crier sur ta meuf arrête de crier sur ta meuf Arrêtez d'crier sur vos parents arrêtez d'crier sur vos parents Arrêtez d'crier sur les bagnoles arrêtez d'crier sur les bagnoles Arrêtez d'crier sur les gens arrêtez d'crier sur les gens Arrête de crier sur ton gosse arrête de crier sur ton gosse Arrête de crier sur ta meuf arrête de crier sur ta meuf Arrête de crier sur ton gosse arrête de crier sur ton gosse Arrête de crier sur ta meuf arrête de crier sur ta meuf</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>J'ai arrêté la clope, j'vais pas arrêter d'rapper tout d'suite Ça m'rend plus si heureux d'avoir des nouveaux habits tout jdid J'préfère large un sourire de mon grand-père sans alcool Là, j'ai l'palpitant qui s'emballe très très fortement Lucci' met les batteries, j'sais qu'les gens vont danser Moi, c'est les mélos qui m'font penser J'demande pas pourquoi, j'demande quand c'est J'fais une pause, j'regarde autour de moi Cinquante-neuf centimètres de tour de bras Si le p'tit moi nous voyait, il nous croirait pas J'arrache encore un p'tit bout, je roule, je tasse J'suis dans les émotions, les halls de gare J'construis amitié solide comme l'épaule de papa J'viens d'la France au re-bié qui chante Tribu de Dana À l'anniv' de maman, à l'anniv' de papa, à l'anniv' de n'importe qui Mais tant qu'ils sont heureux, ça s'explique Avant d'aimer l'argent, personne n'aimait les mathématiques J'aime toujours pas les mathématiques Viens, on fait des cabanes dans les bois J'y perds les trucs en or qu'on s'est mis sur les doigts J'arrêterais pas l'pilon juste pour qu'on s'allume encore ensemble sur les toits Let's go You might also like J'entre en fusion, ça vaut bien plus qu'un long discours J'fais le tour de l'arrondissement En attendant d'retrouver ma consistance J'ai ouvert mon cur, ça vaut bien plus qu'un long discours J'fais le tour de l'arrondissement Y a des billets qui rentrent dans ma poche qui s'troue J'fais le tour de l'arrondissement Ça vaut bien plus qu'un long discours J'fais le tour de l'arrondissement Ça vaut bien plus qu'un long discours Là, y a tous mes reufs dans la tchop, si la chance s'amène, on la choppe J'ai mis que du feu dans le couplet, si la mort s'amène, on la shote J'ai déjà vu l'seum dans tes yeux mais là, vraiment, j'suis pas responsable Y a un peu d'mon père dans mes yeux, y a un peu d'ma mère dans mes combats J'ai aucun rapport avec eux, du coup, j'veux rien voir avec eux J'suis au stud' avec Zou et Carl, on fait des cabanes sous les tables Ah, là, faut pas venir nous embêter, j'ai des reufs courageux et endettés Ils ont la dalle de niquer l'plavan, nique ceux qui avancent en écrasant J'reconnais la magie noire d'ceux qui veulent m'ensorceler J'ai plus envie d'être gentil, mon cur est comme morcelé Heureusement qu'y a ma meuf et ma mif' pour me maintenir stable À chaque fois, j'essaye de faire mieux, j'prends le revers de médaille en plein visage J'entre en fusion, ça vaut bien plus qu'un long discours J'fais le tour de l'arrondissement En attendant d'retrouver ma consistance J'ai ouvert mon cur, ça vaut bien plus qu'un long discours J'fais le tour de l'arrondissement Y a des billets qui rentrent dans ma poche qui s'troue J'fais le tour de l'arrondissement Ça vaut bien plus qu'un long discours J'fais le tour de l'arrondissement Ça vaut bien plus qu'un long discours</t>
+          <t>J'ai arrêté la clope, j'vais pas arrêter d'rapper tout d'suite Ça m'rend plus si heureux d'avoir des nouveaux habits tout jdid J'préfère large un sourire de mon grand-père sans alcool Là, j'ai l'palpitant qui s'emballe très très fortement Lucci' met les batteries, j'sais qu'les gens vont danser Moi, c'est les mélos qui m'font penser J'demande pas pourquoi, j'demande quand c'est J'fais une pause, j'regarde autour de moi Cinquante-neuf centimètres de tour de bras Si le p'tit moi nous voyait, il nous croirait pas J'arrache encore un p'tit bout, je roule, je tasse J'suis dans les émotions, les halls de gare J'construis amitié solide comme l'épaule de papa J'viens d'la France au re-bié qui chante Tribu de Dana À l'anniv' de maman, à l'anniv' de papa, à l'anniv' de n'importe qui Mais tant qu'ils sont heureux, ça s'explique Avant d'aimer l'argent, personne n'aimait les mathématiques J'aime toujours pas les mathématiques Viens, on fait des cabanes dans les bois J'y perds les trucs en or qu'on s'est mis sur les doigts J'arrêterais pas l'pilon juste pour qu'on s'allume encore ensemble sur les toits Let's go J'entre en fusion, ça vaut bien plus qu'un long discours J'fais le tour de l'arrondissement En attendant d'retrouver ma consistance J'ai ouvert mon cur, ça vaut bien plus qu'un long discours J'fais le tour de l'arrondissement Y a des billets qui rentrent dans ma poche qui s'troue J'fais le tour de l'arrondissement Ça vaut bien plus qu'un long discours J'fais le tour de l'arrondissement Ça vaut bien plus qu'un long discours Là, y a tous mes reufs dans la tchop, si la chance s'amène, on la choppe J'ai mis que du feu dans le couplet, si la mort s'amène, on la shote J'ai déjà vu l'seum dans tes yeux mais là, vraiment, j'suis pas responsable Y a un peu d'mon père dans mes yeux, y a un peu d'ma mère dans mes combats J'ai aucun rapport avec eux, du coup, j'veux rien voir avec eux J'suis au stud' avec Zou et Carl, on fait des cabanes sous les tables Ah, là, faut pas venir nous embêter, j'ai des reufs courageux et endettés Ils ont la dalle de niquer l'plavan, nique ceux qui avancent en écrasant J'reconnais la magie noire d'ceux qui veulent m'ensorceler J'ai plus envie d'être gentil, mon cur est comme morcelé Heureusement qu'y a ma meuf et ma mif' pour me maintenir stable À chaque fois, j'essaye de faire mieux, j'prends le revers de médaille en plein visage J'entre en fusion, ça vaut bien plus qu'un long discours J'fais le tour de l'arrondissement En attendant d'retrouver ma consistance J'ai ouvert mon cur, ça vaut bien plus qu'un long discours J'fais le tour de l'arrondissement Y a des billets qui rentrent dans ma poche qui s'troue J'fais le tour de l'arrondissement Ça vaut bien plus qu'un long discours J'fais le tour de l'arrondissement Ça vaut bien plus qu'un long discours</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>J'rêve d'un bateau qui flotte dans le ciel La salle est noire j'entends des cris On m'tape dans le dos et j'monte sur scène Je sais pas si j'ai du potentiel à la base J'ai du courage et des amis, c'est l'essence même Et puis l'amour c'est l'essentiel Pas des quartiers résidentiels Avec un vélo devant la porte J'aurais bien grandi de la sorte Mais j'suis un gamin de la zone LV1 anglais? j'roule a gauche J'éclaire au flash, réchauffe au bouchon de Poliakov Qu'les minots l'sache Elle va jamais vraiment partir la boule dans l'ventre J'monte à pont de Neuville, j'sors à Tourcoing centre Une baguette à 50 centimes J'mange le quignon, ça va sans dire J'fume une première clope en cachette J'espère maman va pas sentir CD gravé dans la 106 Néochrome Hall star, panthéon Va derrière le stade en vélo Avec un poto sur l'guidon, sous pilon Çui qui tombe on l'relève illico J'rappe les rides, les histoire de derrière le rideau Le fond des tripes, y s'aiment pas, y font des feat C'est pas mon problème J'rappe pas j'traduis la résonnance dans mon abdomen J'rêve d'un bateau qui flotte dans l'ciel Y parait qu'on a du potentiel Wesh le rap c'est toute ma vie, 8h30 j'suis dans la giv' J'joue à éviter les immeuble Avec les goutes qu'y'a sur la vitre En bougeant la tête Wesh le rap c'est toute ma vie, vieux fou J'suis avec Skary, j'touche la cible Y'a ton label qui double la mise Saperlipopette toutatis J'fais concert, j'ramène tout la mif Pépère, Nany, Martin, Noé Bientôt Charlie, les potes, la team Pour l'instant j'ai l'pot en platine Un jour le disque, pourquoi pas T'rappelles y m'disait viens par là Ils voulais m'apprendre toute la vie Une planète, un banc j'roule un ptit Pas un gros, demain jbosse à 8 Avec ludo c'est passe aveugle Tête plongeante avec les cheveux gris J'mets petit filet et j'souris Depuis les ptit filou, les kiri J'sors de la cabine et j'souris Ça sert a rien d'tirer la gueule Mais de temps en temps on a pas trop le choix Les 400 coups avant les 400 pas J'me rappelle hier t'était sur la paille Suffit d'un rien pour que la paille s'enflamme Jregarde plus l'top stream Pélo, j'mate des post-it Mon album sort dans un mois, j'fais ma tracklist Frérot, je loupe le casting Mais c'est moi le bon numéro On va brasser comme ta daronne en bonnet d'bain Ça m'a l'air classique Pendant qu'Wysko chatouille FL ça à l'air facile Les gens timides et authentique, nous ça nous fascine J'ressert un gobelet en plastique Une batterie, un ptit sample de voix, ça m'a l'air magique Y parait qu'on a du potentiel J'rêve d'un bateau qui flotte dans l'cielYou might also like1</t>
+          <t>J'rêve d'un bateau qui flotte dans le ciel La salle est noire j'entends des cris On m'tape dans le dos et j'monte sur scène Je sais pas si j'ai du potentiel à la base J'ai du courage et des amis, c'est l'essence même Et puis l'amour c'est l'essentiel Pas des quartiers résidentiels Avec un vélo devant la porte J'aurais bien grandi de la sorte Mais j'suis un gamin de la zone LV1 anglais? j'roule a gauche J'éclaire au flash, réchauffe au bouchon de Poliakov Qu'les minots l'sache Elle va jamais vraiment partir la boule dans l'ventre J'monte à pont de Neuville, j'sors à Tourcoing centre Une baguette à 50 centimes J'mange le quignon, ça va sans dire J'fume une première clope en cachette J'espère maman va pas sentir CD gravé dans la 106 Néochrome Hall star, panthéon Va derrière le stade en vélo Avec un poto sur l'guidon, sous pilon Çui qui tombe on l'relève illico J'rappe les rides, les histoire de derrière le rideau Le fond des tripes, y s'aiment pas, y font des feat C'est pas mon problème J'rappe pas j'traduis la résonnance dans mon abdomen J'rêve d'un bateau qui flotte dans l'ciel Y parait qu'on a du potentiel Wesh le rap c'est toute ma vie, 8h30 j'suis dans la giv' J'joue à éviter les immeuble Avec les goutes qu'y'a sur la vitre En bougeant la tête Wesh le rap c'est toute ma vie, vieux fou J'suis avec Skary, j'touche la cible Y'a ton label qui double la mise Saperlipopette toutatis J'fais concert, j'ramène tout la mif Pépère, Nany, Martin, Noé Bientôt Charlie, les potes, la team Pour l'instant j'ai l'pot en platine Un jour le disque, pourquoi pas T'rappelles y m'disait viens par là Ils voulais m'apprendre toute la vie Une planète, un banc j'roule un ptit Pas un gros, demain jbosse à 8 Avec ludo c'est passe aveugle Tête plongeante avec les cheveux gris J'mets petit filet et j'souris Depuis les ptit filou, les kiri J'sors de la cabine et j'souris Ça sert a rien d'tirer la gueule Mais de temps en temps on a pas trop le choix Les 400 coups avant les 400 pas J'me rappelle hier t'était sur la paille Suffit d'un rien pour que la paille s'enflamme Jregarde plus l'top stream Pélo, j'mate des post-it Mon album sort dans un mois, j'fais ma tracklist Frérot, je loupe le casting Mais c'est moi le bon numéro On va brasser comme ta daronne en bonnet d'bain Ça m'a l'air classique Pendant qu'Wysko chatouille FL ça à l'air facile Les gens timides et authentique, nous ça nous fascine J'ressert un gobelet en plastique Une batterie, un ptit sample de voix, ça m'a l'air magique Y parait qu'on a du potentiel J'rêve d'un bateau qui flotte dans l'ciel1</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>La Famax BEN plg Encore un café tiède, une Camel qui fait mal à la tête J'ai pas l'coeur à la fête, j'avais les yeux dans les bêtises Stratégie précise, mets nos noms sur la coupe et enlève-les d'ta guest list, zebi Elle voulait zaï, zaï, un pétou, un verre de gnôle Un verre de trop, c'est nous les canailles, casquette sur la tête de gnome Ça fait un bête de flow Hola, pelo, j'veux m'en aller vite mais en une semaine, j'ai l'mal du pays, oh-la-la Marocco qui remplace la tétine et en une semaine, a vendu trois kil', oh-la-la Une guitare, un teh et j'me prends pour Kurt Cobain J'suis soupe au lait, sous pollen, sous Picon d'bière J'tiens mes promesses et j'jure plus la vie d'ma mère Oh Ramène la 'teille, un pét', ce soir, la belle, la bête La tête à Ben Affleck, la barbe à Ben Laden Ra-ramène la 'teille, la beldi', trou d'boulette sur le maillot du Brésil Du jaune, du vert, j'apprécie, La Famax et BEN sur le selfie Ramène la 'teille, un pét', ce soir, la belle, la bête La tête à Ben Affleck, la barbe à Ben Laden You might also like J'passe vers Lille, bonne marijuana, avec BEN classique de l'année Pirates, boss, white et cana, plata m'excite, les fleurs ont fané Si j'étais à l'UFC, j's'rais White Dana J'ai trop eu le cur blessé, c'est dev'nu banal On t'met la banane, pas d'âme, écouté d'Marseille jusqu'à Paname Ça pue dans les annales mais bon, marquer l'histoire, ce s'rait pas mal Les voix dans ma tête me disent Un clip dans les West Indies Souris ching-chong, ça fait cheese, ma vie, un coup de ping-pong, oversize Ramène la 'teille, un pét', ce soir, la belle, la bête La tête à Ben Affleck, la barbe à Ben Laden Ramène la 'teille, la beldi', trou d'boulette sur le maillot du Brésil Du jaune, du vert, j'apprécie, La Famax et BEN sur le selfie Ramène la 'teille, un pét', ce soir, la belle, la bête La tête à Ben Affleck, la barbe à Ben Laden J'passe vers Lille, bonne marijuana La bonne California</t>
+          <t>La Famax BEN plg Encore un café tiède, une Camel qui fait mal à la tête J'ai pas l'coeur à la fête, j'avais les yeux dans les bêtises Stratégie précise, mets nos noms sur la coupe et enlève-les d'ta guest list, zebi Elle voulait zaï, zaï, un pétou, un verre de gnôle Un verre de trop, c'est nous les canailles, casquette sur la tête de gnome Ça fait un bête de flow Hola, pelo, j'veux m'en aller vite mais en une semaine, j'ai l'mal du pays, oh-la-la Marocco qui remplace la tétine et en une semaine, a vendu trois kil', oh-la-la Une guitare, un teh et j'me prends pour Kurt Cobain J'suis soupe au lait, sous pollen, sous Picon d'bière J'tiens mes promesses et j'jure plus la vie d'ma mère Oh Ramène la 'teille, un pét', ce soir, la belle, la bête La tête à Ben Affleck, la barbe à Ben Laden Ra-ramène la 'teille, la beldi', trou d'boulette sur le maillot du Brésil Du jaune, du vert, j'apprécie, La Famax et BEN sur le selfie Ramène la 'teille, un pét', ce soir, la belle, la bête La tête à Ben Affleck, la barbe à Ben Laden J'passe vers Lille, bonne marijuana, avec BEN classique de l'année Pirates, boss, white et cana, plata m'excite, les fleurs ont fané Si j'étais à l'UFC, j's'rais White Dana J'ai trop eu le cur blessé, c'est dev'nu banal On t'met la banane, pas d'âme, écouté d'Marseille jusqu'à Paname Ça pue dans les annales mais bon, marquer l'histoire, ce s'rait pas mal Les voix dans ma tête me disent Un clip dans les West Indies Souris ching-chong, ça fait cheese, ma vie, un coup de ping-pong, oversize Ramène la 'teille, un pét', ce soir, la belle, la bête La tête à Ben Affleck, la barbe à Ben Laden Ramène la 'teille, la beldi', trou d'boulette sur le maillot du Brésil Du jaune, du vert, j'apprécie, La Famax et BEN sur le selfie Ramène la 'teille, un pét', ce soir, la belle, la bête La tête à Ben Affleck, la barbe à Ben Laden J'passe vers Lille, bonne marijuana La bonne California</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>J'suis ce gars qui rêve au fond d'la classe, qui rêve de faire le tour de l'Atlas Souvent perdu dans mes pensées Et quand j'me sens seul, j'm'en vais me fondre dans la masse Tous les jours on fait la guerre, mais l'exutoire c'est pas l'contrôle Dis moi c'qui s'passe dans ta tête, tellement noir que j'entends que des bonsoirs Inspiré par c'qui m'entoure et y a pas qu'des fleurs Pas de tours mais des tourments qui m'ont cassé l'cur Une maman partie trop tôt, un frère à la dérive La chute est longue, j'sais pas si je suis près d'atterrir En plus de ça j'suis pas trop du genre à parler Y a que quand j'ai bu que j'déballe tout ce que j'ai dans l'panier J'ai mes alliés et j'ai Arte Mais y a des jours où j'me réveille avec un goût de salé Un goût de salé comme si il m'restait des rêves coincés dans la bouche J'me réveille et j'laisse couler, j'fais comme le sang dans la douche On a passé l'âge du doute, on a passé l'âge de la touche Le chemin est long, mais j'ai pas vu passer la route comme j'ai pas vu tomber la foudre J'mets deux sucres dans mon café, j'mets rien dans la soute Juste pour faire comme toi, elle m'demande pourquoi tu fais ça ? J'sais pas, juste pour faire comme toi J'parle sans rien dire comme le cadre sur le bureau d'Peet, les gouttes de pluie, la boucle de mélodiques, j'demanderai d'laisser à la fin du titre You might also like J'suis ce gars qui rêve au fond d'la classe au fond d'la classe, qui rêve de faire le tour de l'Atlas le tour d'l'Atlas Souvent perdu dans mes pensées Et quand j'me sens seul, j'm'en vais me fondre dans la masse j'm'en vais me fondre dans la masse Tous les jours on fait la guerre tous les jours on fait la guerre, mais l'exutoire c'est pas l'contrôle Dis moi c'qui s'passe dans ta tête, tellement noir que j'entends que des bonsoirs tellement noir que j'entends que des bonsoirs J'sais pas c'qui s'passe dans ta tête J'vois trois fois plus la Gare du Nord que mes p'tits frères Premier disque d'or, on ira voir les hémisphères, ça j'me l'suis promis en vrai J'parlais d'oseille parce que j'avais pas trouvé c'qui m'plaisait vraiment Sourire en or, bijoux en toc, joint d'culasse entre les dents C'est pas payant de regarder les étoiles briller De loin tout est si beau à voir donc je m'éloigne d'la réalité Avec un verre de rhum, j'ai pas siroté, j'ai plongé dedans Mieux regarder derrière ça m'aide à mieux regarder devant, bah ouais Frère y a trop d'problèmes à gérer, j'crois que j'préférerais les enterrer Mais même le cimetière c'est cher, j'vais pas laisser mes gosses endettés J'ai gagné, j'ai pas fêté, c'est déjà trop l'feu dans ma tête J'ai misé tout sur le 17 mais j'te vois que sur la cassette J'monte le volume dans la voiture, comme si t'entendais les maquettes Où j'rappe tout c'que j'aurai dû dire, c'est mieux que tout c'que j'aurai dû être C'est mieux que tout c'que j'aurai dû être, c'est mieux que tout c'que j'aurai dû Ouais j'rappe tout c'que j'aurai dû dire, c'est mieux que tout c'que j'aurai dû être J'suis ce gars qui rêve au fond d'la classe au fond d'la classe, qui rêve de faire le tour de l'Atlas le tour d'la Terre Souvent perdu dans mes pensées Et quand j'me sens seul, j'm'en vais me fondre dans la masse j'm'en vais me fondre dans la masse Tous les jours on fait la guerre tous les jours, mais l'exutoire c'est pas l'contrôle Dis moi c'qui s'passe dans ta tête, tellement noir que j'entends que des bonsoirs</t>
+          <t>J'suis ce gars qui rêve au fond d'la classe, qui rêve de faire le tour de l'Atlas Souvent perdu dans mes pensées Et quand j'me sens seul, j'm'en vais me fondre dans la masse Tous les jours on fait la guerre, mais l'exutoire c'est pas l'contrôle Dis moi c'qui s'passe dans ta tête, tellement noir que j'entends que des bonsoirs Inspiré par c'qui m'entoure et y a pas qu'des fleurs Pas de tours mais des tourments qui m'ont cassé l'cur Une maman partie trop tôt, un frère à la dérive La chute est longue, j'sais pas si je suis près d'atterrir En plus de ça j'suis pas trop du genre à parler Y a que quand j'ai bu que j'déballe tout ce que j'ai dans l'panier J'ai mes alliés et j'ai Arte Mais y a des jours où j'me réveille avec un goût de salé Un goût de salé comme si il m'restait des rêves coincés dans la bouche J'me réveille et j'laisse couler, j'fais comme le sang dans la douche On a passé l'âge du doute, on a passé l'âge de la touche Le chemin est long, mais j'ai pas vu passer la route comme j'ai pas vu tomber la foudre J'mets deux sucres dans mon café, j'mets rien dans la soute Juste pour faire comme toi, elle m'demande pourquoi tu fais ça ? J'sais pas, juste pour faire comme toi J'parle sans rien dire comme le cadre sur le bureau d'Peet, les gouttes de pluie, la boucle de mélodiques, j'demanderai d'laisser à la fin du titre J'suis ce gars qui rêve au fond d'la classe au fond d'la classe, qui rêve de faire le tour de l'Atlas le tour d'l'Atlas Souvent perdu dans mes pensées Et quand j'me sens seul, j'm'en vais me fondre dans la masse j'm'en vais me fondre dans la masse Tous les jours on fait la guerre tous les jours on fait la guerre, mais l'exutoire c'est pas l'contrôle Dis moi c'qui s'passe dans ta tête, tellement noir que j'entends que des bonsoirs tellement noir que j'entends que des bonsoirs J'sais pas c'qui s'passe dans ta tête J'vois trois fois plus la Gare du Nord que mes p'tits frères Premier disque d'or, on ira voir les hémisphères, ça j'me l'suis promis en vrai J'parlais d'oseille parce que j'avais pas trouvé c'qui m'plaisait vraiment Sourire en or, bijoux en toc, joint d'culasse entre les dents C'est pas payant de regarder les étoiles briller De loin tout est si beau à voir donc je m'éloigne d'la réalité Avec un verre de rhum, j'ai pas siroté, j'ai plongé dedans Mieux regarder derrière ça m'aide à mieux regarder devant, bah ouais Frère y a trop d'problèmes à gérer, j'crois que j'préférerais les enterrer Mais même le cimetière c'est cher, j'vais pas laisser mes gosses endettés J'ai gagné, j'ai pas fêté, c'est déjà trop l'feu dans ma tête J'ai misé tout sur le 17 mais j'te vois que sur la cassette J'monte le volume dans la voiture, comme si t'entendais les maquettes Où j'rappe tout c'que j'aurai dû dire, c'est mieux que tout c'que j'aurai dû être C'est mieux que tout c'que j'aurai dû être, c'est mieux que tout c'que j'aurai dû Ouais j'rappe tout c'que j'aurai dû dire, c'est mieux que tout c'que j'aurai dû être J'suis ce gars qui rêve au fond d'la classe au fond d'la classe, qui rêve de faire le tour de l'Atlas le tour d'la Terre Souvent perdu dans mes pensées Et quand j'me sens seul, j'm'en vais me fondre dans la masse j'm'en vais me fondre dans la masse Tous les jours on fait la guerre tous les jours, mais l'exutoire c'est pas l'contrôle Dis moi c'qui s'passe dans ta tête, tellement noir que j'entends que des bonsoirs</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>On m'a dit C'est ton année, depuis l'temps qu't'es dans la 'zic On m'a dit Sois toi-même ça va payer, dans tes yeux y'a tout ce qui brille J'me suis trouvé, j'me suis assez cherché, j'me suis trouvé j'm'étais très bien caché Enfant adopté, personne sait d'où j'viens, mais moi j'sais où j'vais Quand l'soleil se lève, à la fin de la nuit, j'me rappelle que tout c'charbon fait d'nous des mutants Trop d'bails en même temps, l'canon entre les dents, l'index sur la détente, des questions en attnte du genre ? Est-c que la flamme pourrait s'étendre ? Est-ce que ça m'irait l'satin ? C'est quand le soleil s'éteint, est-ce que j'pourrais boire l'eau du mirage si j'l'atteins ? Et souvent j'tourne sur le boulevard comme dans Hyrule un tout p'tit peu pété-té-té J'veux pas essuyer l'noir sous tes cils parce que t'es belle quand t'es un peu peiné-né-né J'essaye d'comprendre mais j'comprends pas-pas-pas-pas J'essaye d'pleurer mais ça coule pas-pas-pas-pas J'veux pas d'louanges mais j'veux tes bras-bras-bras-bras J'essaye d'comprendre mais j'comprends pas-pas-pas-pas J'rejoue la scène, fight toujours le même J'revis la série, regarde pas, ils sont si loin Avant d'remettre du sable au fond du sablier Le soleil est sérieux, la lune n'fait que d'briller You might also like Elevé au y a mieux mais c'est plus cher beaucoup plus cher J'ai un mon premier rapport sexuel avant mes premières bulles d'air Gros j'ai porté du Quechua quand c'était la hchouma, lavé des assiettes et des termas Trois sur un vélo, à dix dans un espace, on arrache le cello' on recrache tout l'espoir Qui c'est qu'a péta lahuiss ? C'est pas nous c'est pas nous Titeuf, Denis la Malice et Baloo Y avait pas d'Cartoon Network, comprends qu'on soit jaloux, pas d'ces gamins qu'on dépose au foot J'rame dans la sueur et la soif parce que ça m'soulage, on a qu'le courage et la foi Morale en chantier, nouvelles aides en janvier, nouveaux problèmes enchanté Phalempin, 59200 croix rouge, gravé sur les briques le monde est à nous Plus Tony que Sosa, plus Many que Tony, en vrai tous les frères sur la ligne d'arrivée Et souvent j'tourne sur le boulevard comme dans Hyrule un tout p'tit peu pété-té-té J'veux pas essuyer l'noir sous tes cils parce que t'es belle quand t'es un peu peiné-né-né J'essaye d'comprendre mais j'comprends pas-pas-pas-pas J'essaye d'pleurer mais ça coule pas-pas-pas-pas J'veux pas d'louanges mais j'veux tes bras-bras-bras-bras J'essaye d'comprendre mais j'comprends pas-pas-pas-pas J'rejoue la scène, fight toujours le même J'revis la série, regarde pas, ils sont si loin Avant d'remettre du sable au fond du sablier Le soleil est sérieux, la lune n'fait que d'briller</t>
+          <t>On m'a dit C'est ton année, depuis l'temps qu't'es dans la 'zic On m'a dit Sois toi-même ça va payer, dans tes yeux y'a tout ce qui brille J'me suis trouvé, j'me suis assez cherché, j'me suis trouvé j'm'étais très bien caché Enfant adopté, personne sait d'où j'viens, mais moi j'sais où j'vais Quand l'soleil se lève, à la fin de la nuit, j'me rappelle que tout c'charbon fait d'nous des mutants Trop d'bails en même temps, l'canon entre les dents, l'index sur la détente, des questions en attnte du genre ? Est-c que la flamme pourrait s'étendre ? Est-ce que ça m'irait l'satin ? C'est quand le soleil s'éteint, est-ce que j'pourrais boire l'eau du mirage si j'l'atteins ? Et souvent j'tourne sur le boulevard comme dans Hyrule un tout p'tit peu pété-té-té J'veux pas essuyer l'noir sous tes cils parce que t'es belle quand t'es un peu peiné-né-né J'essaye d'comprendre mais j'comprends pas-pas-pas-pas J'essaye d'pleurer mais ça coule pas-pas-pas-pas J'veux pas d'louanges mais j'veux tes bras-bras-bras-bras J'essaye d'comprendre mais j'comprends pas-pas-pas-pas J'rejoue la scène, fight toujours le même J'revis la série, regarde pas, ils sont si loin Avant d'remettre du sable au fond du sablier Le soleil est sérieux, la lune n'fait que d'briller Elevé au y a mieux mais c'est plus cher beaucoup plus cher J'ai un mon premier rapport sexuel avant mes premières bulles d'air Gros j'ai porté du Quechua quand c'était la hchouma, lavé des assiettes et des termas Trois sur un vélo, à dix dans un espace, on arrache le cello' on recrache tout l'espoir Qui c'est qu'a péta lahuiss ? C'est pas nous c'est pas nous Titeuf, Denis la Malice et Baloo Y avait pas d'Cartoon Network, comprends qu'on soit jaloux, pas d'ces gamins qu'on dépose au foot J'rame dans la sueur et la soif parce que ça m'soulage, on a qu'le courage et la foi Morale en chantier, nouvelles aides en janvier, nouveaux problèmes enchanté Phalempin, 59200 croix rouge, gravé sur les briques le monde est à nous Plus Tony que Sosa, plus Many que Tony, en vrai tous les frères sur la ligne d'arrivée Et souvent j'tourne sur le boulevard comme dans Hyrule un tout p'tit peu pété-té-té J'veux pas essuyer l'noir sous tes cils parce que t'es belle quand t'es un peu peiné-né-né J'essaye d'comprendre mais j'comprends pas-pas-pas-pas J'essaye d'pleurer mais ça coule pas-pas-pas-pas J'veux pas d'louanges mais j'veux tes bras-bras-bras-bras J'essaye d'comprendre mais j'comprends pas-pas-pas-pas J'rejoue la scène, fight toujours le même J'revis la série, regarde pas, ils sont si loin Avant d'remettre du sable au fond du sablier Le soleil est sérieux, la lune n'fait que d'briller</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>J'veux plus sentir l'odeur du beurre d'mi-sel sur des coquillettes Cur froid comme les larmes d'une mère sur paupières J'ai pris des coups d'tatane, vu plus de coups d'gueule que d'coups d'cur L'présent est doux quand j'ressens l'goût d'hier Paire de couille grosse et laide comme les paires dGoodyear Ma peau d'tou-bab rougie en hiver comme les yeux d'ma banquière ou bien d'ceux qu'on enferme Pour ljour où on m'enterre, ça s'ra Salif et Niro en BO Pas pour lplaisir dquer-cho mais parce quils mont plus appris qu'tous les cours déco' ou dgestion ou dtechno' qu'on a pu nous rabâcher Coule sur moi comme d'l'étain sur la chaise à Rachid T'as 13 ans, cest bien dêtre furieux, t'es un suceur si t'es curieux J'rejoue l'immigration inversée à ma sauce quand j'fais des mafés pures d'tomates, beurre d'arachides Les CSP sfoutent dans l'pif le salaire d'la honte d'un gamin qu'on empiffre Y a des gifles qui s'perdent, y a des baffes qui s'méritent, bibi d'la brune pour un survêtement d'l'Atletico Cacher la blanche sous l'colchonero, moi, j'trouve pas ça terrible J'gonfle comme Derrick ou Maigret, j'pense comme Elie ou Aimet Lyricalement, j'suis bien perché, j'attend qu'la gloire vienne me chercher J'ai bien d'la chatte, j'suis adopté, mon daron m'a choisi À moitié belge comme le Congo-Zaïre L'autre moitié, jte-j', cest à moi dla construire et tu m'vois v'nir J'marchais une heure et demi, là, jrentre d'un bar à patte, j'écoute L'odeur du vent, nique un Uber, un Heetch J'lance un JuL type beat, faut qu'j'me défonce à fond, j'vais pas grandir assis Tu vas pas grandir assisté, cest vrai qu'elle est belle ta cité Mes idoles sont shités, j'aime des artistes alors j'évite d'les croiser Évite de croire qu'c'est pas fait pour toi, j'bois d'la Maredsous, j'mange des madhoussas Pas besoin d'ascenseur vu quon à Gassama, bagarre d'collège à coup dcanette parce que Jean-Édouard m'appelle Canal Sat À cause de la forme de mes oreilles, aujourd'hui, j'm'en bats les c', j'suis mignon et drôle Le pire, cest qu'j'm'en branle, celle que j'voudrais l'plus souvent m'ignore On parle pour moi sans que j'l'ouvre comme un ventriloque J'écoute Noir Fluo comme un Stabilo Boss Gratté, gratté, plus qu'un daron au bingo pour quma gloire soit dorée comme staphylocoque J'fais des rêves où j'ai frontale en tête, j'cherche mes rêves d'môme à la morgue Le jour où j'ai les chevilles qui enflent, j'remets les Reebok Pump à la mode J'veux m'sentir partir, pas arrivé, j'suis réel, si jai plus dbatterie, j'ai des idées et nickel J'veux toucher les gens plus que j'touche mon 5S, des chèques, du bois, des espèces ou les ass'decs La poisse colle à la s'melle, cest p't-être à cause du shit qu't'as sous tes ongles J'ai pas encore vu l'succès, j'ai senti qu'son ombre, j'attends qu'ils m'regardent, ils ont vu qu'mon nom Pour l'instant, cest l'idée transformer mes rêves en objectifs, j'mélange le bonheur, les sacrifices J'élève une carrière comme j'ferais grandir mon propre fils You might also like J'finirai l'cur propre et les mains sales, tout c'qu'il faut pour me plaire J'fais qu'regarder autour de moi, y a tout c'qui faut pour se perdre Jveux remplir mon cur et celui dmes proches, avant mon compte, une salle ou un stade Rien n'tombe du ciel à part la pluie, ça leur donne des occasions d'se plaindre J'finirai l'cur propre et les mains sales, tout c'qu'il faut pour me plaire J'fais qu'regarder autour de moi, y a tout c'qui faut pour se perdre Jveux remplir mon cur et celui dmes proches, avant mon compte, une salle ou un stade Rien n'tombe du ciel à part la pluie, ça leur donne des occasions d'se plaindre J'finirai l'cur propre et les mains sales, tout c'qu'il faut pour me plaire J'fais qu'regarder autour de moi, y a tout c'qui faut pour se perdre Jveux remplir mon cur et celui dmes proches, avant mon compte, une salle ou un stade Rien n'tombe du ciel à part la pluie, ça leur donne des occasions d'se plaindre</t>
+          <t>J'veux plus sentir l'odeur du beurre d'mi-sel sur des coquillettes Cur froid comme les larmes d'une mère sur paupières J'ai pris des coups d'tatane, vu plus de coups d'gueule que d'coups d'cur L'présent est doux quand j'ressens l'goût d'hier Paire de couille grosse et laide comme les paires dGoodyear Ma peau d'tou-bab rougie en hiver comme les yeux d'ma banquière ou bien d'ceux qu'on enferme Pour ljour où on m'enterre, ça s'ra Salif et Niro en BO Pas pour lplaisir dquer-cho mais parce quils mont plus appris qu'tous les cours déco' ou dgestion ou dtechno' qu'on a pu nous rabâcher Coule sur moi comme d'l'étain sur la chaise à Rachid T'as 13 ans, cest bien dêtre furieux, t'es un suceur si t'es curieux J'rejoue l'immigration inversée à ma sauce quand j'fais des mafés pures d'tomates, beurre d'arachides Les CSP sfoutent dans l'pif le salaire d'la honte d'un gamin qu'on empiffre Y a des gifles qui s'perdent, y a des baffes qui s'méritent, bibi d'la brune pour un survêtement d'l'Atletico Cacher la blanche sous l'colchonero, moi, j'trouve pas ça terrible J'gonfle comme Derrick ou Maigret, j'pense comme Elie ou Aimet Lyricalement, j'suis bien perché, j'attend qu'la gloire vienne me chercher J'ai bien d'la chatte, j'suis adopté, mon daron m'a choisi À moitié belge comme le Congo-Zaïre L'autre moitié, jte-j', cest à moi dla construire et tu m'vois v'nir J'marchais une heure et demi, là, jrentre d'un bar à patte, j'écoute L'odeur du vent, nique un Uber, un Heetch J'lance un JuL type beat, faut qu'j'me défonce à fond, j'vais pas grandir assis Tu vas pas grandir assisté, cest vrai qu'elle est belle ta cité Mes idoles sont shités, j'aime des artistes alors j'évite d'les croiser Évite de croire qu'c'est pas fait pour toi, j'bois d'la Maredsous, j'mange des madhoussas Pas besoin d'ascenseur vu quon à Gassama, bagarre d'collège à coup dcanette parce que Jean-Édouard m'appelle Canal Sat À cause de la forme de mes oreilles, aujourd'hui, j'm'en bats les c', j'suis mignon et drôle Le pire, cest qu'j'm'en branle, celle que j'voudrais l'plus souvent m'ignore On parle pour moi sans que j'l'ouvre comme un ventriloque J'écoute Noir Fluo comme un Stabilo Boss Gratté, gratté, plus qu'un daron au bingo pour quma gloire soit dorée comme staphylocoque J'fais des rêves où j'ai frontale en tête, j'cherche mes rêves d'môme à la morgue Le jour où j'ai les chevilles qui enflent, j'remets les Reebok Pump à la mode J'veux m'sentir partir, pas arrivé, j'suis réel, si jai plus dbatterie, j'ai des idées et nickel J'veux toucher les gens plus que j'touche mon 5S, des chèques, du bois, des espèces ou les ass'decs La poisse colle à la s'melle, cest p't-être à cause du shit qu't'as sous tes ongles J'ai pas encore vu l'succès, j'ai senti qu'son ombre, j'attends qu'ils m'regardent, ils ont vu qu'mon nom Pour l'instant, cest l'idée transformer mes rêves en objectifs, j'mélange le bonheur, les sacrifices J'élève une carrière comme j'ferais grandir mon propre fils J'finirai l'cur propre et les mains sales, tout c'qu'il faut pour me plaire J'fais qu'regarder autour de moi, y a tout c'qui faut pour se perdre Jveux remplir mon cur et celui dmes proches, avant mon compte, une salle ou un stade Rien n'tombe du ciel à part la pluie, ça leur donne des occasions d'se plaindre J'finirai l'cur propre et les mains sales, tout c'qu'il faut pour me plaire J'fais qu'regarder autour de moi, y a tout c'qui faut pour se perdre Jveux remplir mon cur et celui dmes proches, avant mon compte, une salle ou un stade Rien n'tombe du ciel à part la pluie, ça leur donne des occasions d'se plaindre J'finirai l'cur propre et les mains sales, tout c'qu'il faut pour me plaire J'fais qu'regarder autour de moi, y a tout c'qui faut pour se perdre Jveux remplir mon cur et celui dmes proches, avant mon compte, une salle ou un stade Rien n'tombe du ciel à part la pluie, ça leur donne des occasions d'se plaindre</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Ils ont tiré sur un p'tit frère, on a brulé des Foot Korner Des Lidl et des MJC, y a des trucs qu'on peut pas expliquer J'voulais qu'une virgule sur mes baskets et plus d'rouge dans les yeux d'ma mère Y a des trucs qu'on peut pas expliquer, y a des larmes qu'on peut pas essuyer J'étais p'tit, j'avais honte d'être moi, terrain d'foot, j'avais honte d'être là L'crocodile à trois yeux d'mon polo m'regardait comme si y a vraiment plus d'espoir Elle m'a dit c'est mieux qu'on n reste là, tout d'un coup, dans l'ciel, y a plus d'étoils J'ai compris pourquoi papa parlait plus quand il mettait les lunettes noires Wesh, nos curs, c'pas des ordinateurs La vengeance, elle s'mange froid mais là, frérot, elle a l'parfum du congélateur Il fait rien, il joue les modérateurs Il fait rien, il joue les modérateurs Ça m'énerve comme les mecs qui disent J'suis un artiste, j'suis pas vraiment un rappeur Soleil est orange comme le KTM prêt à accélérer pour un vieux bénéf' L'ancien dit aux petits qu'il y a pas grand-chose, des PCS aux hassanates J'sais pas où est-ce qu'on va et quand est-ce qu'on s'perd J'sais pas où est-ce qu'on va et quand est-ce qu'on s'perd Mais j'sais qu'avec du courage et un peu d'rêves, on peut colorier des HLM J'sais qu'avec du courage et puis un peu d'rêves, on peut colorier des HLM Non, j'veux plus partir Eux, ils sont partis chercher l'bonheur ailleurs Non, on veut plus partir, si loin Eux, ils sont partis chercher l'bonheur ailleurs Il fait beau dans la tess, c'est pas que gris dans l'ghetto Cicatrices sur nos têtes et rayures sur nos Range Rove' Il fait beau dans la tess, c'est pas que gris dans l'ghetto Cicatrices sur nos têtes et rayures sur nos Range Rove' You might also like Toute la douleur du monde dans mes AirPods AirPods Ici, t'entendras peu d' je t'aime C'est comme un client et une escorte Si j'tire un trait, j'le fais franchement, sans regrets, j'mate plus les rétros P'tit frère récupérait mes vêtements, p'tite sur se fait harceler sur les réseaux Comment le dire qu'il y a pas d'happy end ? Rajoute du rose dans l'ciel J'colore les HLM, bercé par les basses dans un soundsystem On m'a dit T'as vu, les temps changent , j'vois qu'un éternel recommencement Mes potes qui veulent des enfants, ils s'comportent encore comme des enfants Pas besoin d'GQ pour savoir que j's'rai pas l'homme de l'année Bon qu'à décortiquer mon spleen et à l'rapper J'viens d'là où passé trente ans les frères ont toujours de l'acné Habillé tout en noir et baskets blanches, les bourgeois et moi, on vient pas d'la même France Ma liberté, c'est un cent-vingt-cinq et un plein d'essence Non, j'veux plus partir Eux, ils sont partis chercher l'bonheur ailleurs Non, on veut plus partir, si loin Eux, ils sont partis chercher l'bonheur ailleurs Il fait beau dans la tess, c'est pas que gris dans l'ghetto Cicatrices sur nos têtes et rayures sur nos Range Rove' Il fait beau dans la tess, c'est pas que gris dans l'ghetto Cicatrices sur nos têtes et rayures sur nos Range Rove'</t>
+          <t>Ils ont tiré sur un p'tit frère, on a brulé des Foot Korner Des Lidl et des MJC, y a des trucs qu'on peut pas expliquer J'voulais qu'une virgule sur mes baskets et plus d'rouge dans les yeux d'ma mère Y a des trucs qu'on peut pas expliquer, y a des larmes qu'on peut pas essuyer J'étais p'tit, j'avais honte d'être moi, terrain d'foot, j'avais honte d'être là L'crocodile à trois yeux d'mon polo m'regardait comme si y a vraiment plus d'espoir Elle m'a dit c'est mieux qu'on n reste là, tout d'un coup, dans l'ciel, y a plus d'étoils J'ai compris pourquoi papa parlait plus quand il mettait les lunettes noires Wesh, nos curs, c'pas des ordinateurs La vengeance, elle s'mange froid mais là, frérot, elle a l'parfum du congélateur Il fait rien, il joue les modérateurs Il fait rien, il joue les modérateurs Ça m'énerve comme les mecs qui disent J'suis un artiste, j'suis pas vraiment un rappeur Soleil est orange comme le KTM prêt à accélérer pour un vieux bénéf' L'ancien dit aux petits qu'il y a pas grand-chose, des PCS aux hassanates J'sais pas où est-ce qu'on va et quand est-ce qu'on s'perd J'sais pas où est-ce qu'on va et quand est-ce qu'on s'perd Mais j'sais qu'avec du courage et un peu d'rêves, on peut colorier des HLM J'sais qu'avec du courage et puis un peu d'rêves, on peut colorier des HLM Non, j'veux plus partir Eux, ils sont partis chercher l'bonheur ailleurs Non, on veut plus partir, si loin Eux, ils sont partis chercher l'bonheur ailleurs Il fait beau dans la tess, c'est pas que gris dans l'ghetto Cicatrices sur nos têtes et rayures sur nos Range Rove' Il fait beau dans la tess, c'est pas que gris dans l'ghetto Cicatrices sur nos têtes et rayures sur nos Range Rove' Toute la douleur du monde dans mes AirPods AirPods Ici, t'entendras peu d' je t'aime C'est comme un client et une escorte Si j'tire un trait, j'le fais franchement, sans regrets, j'mate plus les rétros P'tit frère récupérait mes vêtements, p'tite sur se fait harceler sur les réseaux Comment le dire qu'il y a pas d'happy end ? Rajoute du rose dans l'ciel J'colore les HLM, bercé par les basses dans un soundsystem On m'a dit T'as vu, les temps changent , j'vois qu'un éternel recommencement Mes potes qui veulent des enfants, ils s'comportent encore comme des enfants Pas besoin d'GQ pour savoir que j's'rai pas l'homme de l'année Bon qu'à décortiquer mon spleen et à l'rapper J'viens d'là où passé trente ans les frères ont toujours de l'acné Habillé tout en noir et baskets blanches, les bourgeois et moi, on vient pas d'la même France Ma liberté, c'est un cent-vingt-cinq et un plein d'essence Non, j'veux plus partir Eux, ils sont partis chercher l'bonheur ailleurs Non, on veut plus partir, si loin Eux, ils sont partis chercher l'bonheur ailleurs Il fait beau dans la tess, c'est pas que gris dans l'ghetto Cicatrices sur nos têtes et rayures sur nos Range Rove' Il fait beau dans la tess, c'est pas que gris dans l'ghetto Cicatrices sur nos têtes et rayures sur nos Range Rove'</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Des années quon est dans lattente, sinon, quoi dautre ? Cpas un passe-temps, ça cartonne sinon basta En cumulé, jai un mois dvacances depuis sept ans Jfinis cette danse et khlass, jrepars en guerre graille mes fantômes, cest tout Cest que ldébut depuis dix piges, depuis qujmets mes démons dans la rythmique Jmets un billet qui peut payer des sourires pour faire un autre clip Jsors un nouveau titre et jperds le sourire, eh, eh, eh, eh, eh Jai pas vu tous mes p'tits frères mes grandir, jai pas sorti ma sur du précipice Maman a perdu lsourire, papa a trouvé des sacrifices Jfais qu'des chansons grises, si jveux rigoler, jpète une bouteille Gros molard avec langue de Molière sur l'drapeau dtous ceux qui nous gouvernent Jécoute plus la télé, jécoute plus internet, jécoute même plus l'phone-tél parler On rêve de sbarrer mais on chante que l'quartier dpuis des années Dpuis des années, dpuis des concerts, dpuis des fins dmois dpuis des conserves Folie fait quon slance puis fait quon sperd Dabord, jfais lcopain puis jfais lCasper, allez Joublie pas les regards, cest comme le vélo Quand on vnait en concert en Dacia Logan Jai tellement ça en tête que jpeux monter en lair lprochain qui va parler juste un peu trop mal À 110 sur l'boulevard, on refait l'syno' Là, jsuis un héros demain js'rai plus quun connard On pense quà enlever rajouter des zéros On a oublié lessentiel dans lscénar' Ah bah ouais You might also like Jai compris, en fait y a plus rien dimpossible Tout casser en dédicace, à leurs yeux, où on était invisible Même si jai mal à la tête, là, jsuis plus indécis Dacia Logan, on va foncer avec, y a pas bsoin dun V6 Jfais tout pour aller loin, hein, hein Hein, hein, hein Jroulerai jusque à la fin, hein, hein Hein, hein, hein Bientôt, ça ira bien, hein hein hein Hein, hein, hein, hein Jroulerai jusque à la fin, hein, hein Hein, hein, hein Le majeur jauni, cest à cause de la garrot Maman mtrouve beau comme un camion Ouais Grandi compacté comme un kilo dte-sh', plein dtrucs bizarres comme un bigo dkeuf Avoir des rêves, cest cool mais là, ton salaire, il paye même pas lbus Lprésident, il demande un peu dpatience, la seule bonne réponse cest ta mère la pute Jsors à peine du stud', jreprends la vraie vie, toute ses ratures On vise la lucarne on voit plus la Lune, chicane en cinquième dans la brume Que des anges perdus dans la rue, tire sur lteh en matant la pub Il reconnaît lvisage flouté du daron sfaire soulever en prime en mettant la une Depuis lfond dlétude, les profs nous ont prêté de grandes lacunes On doit rendre des comptes, ils doivent rendent la thune 's en on pas a force dvendre leur cul, hein ? Jdemande au cas où, kawa 3lib petit pétou Discussion dcomptoir au feu rouge, sur fond dsymphonie du V12 Ah bah ouais Jai compris, en fait y a plus rien dimpossible Tout casser en dédicace, à leurs yeux, où on était invisible Même si jai mal à la tête, là, jsuis plus indécis Dacia Logan, on va foncer avec, y a pas bsoin dun V6 Jfais tout pour aller loin, hein, hein Hein, hein, hein Jroulerai jusque à la fin, hein, hein Hein, hein, hein Bientôt, ça ira bien, hein hein hein Hein, hein, hein, hein Jroulerai jusque à la fin, hein, hein Hein, hein, hein</t>
+          <t>Des années quon est dans lattente, sinon, quoi dautre ? Cpas un passe-temps, ça cartonne sinon basta En cumulé, jai un mois dvacances depuis sept ans Jfinis cette danse et khlass, jrepars en guerre graille mes fantômes, cest tout Cest que ldébut depuis dix piges, depuis qujmets mes démons dans la rythmique Jmets un billet qui peut payer des sourires pour faire un autre clip Jsors un nouveau titre et jperds le sourire, eh, eh, eh, eh, eh Jai pas vu tous mes p'tits frères mes grandir, jai pas sorti ma sur du précipice Maman a perdu lsourire, papa a trouvé des sacrifices Jfais qu'des chansons grises, si jveux rigoler, jpète une bouteille Gros molard avec langue de Molière sur l'drapeau dtous ceux qui nous gouvernent Jécoute plus la télé, jécoute plus internet, jécoute même plus l'phone-tél parler On rêve de sbarrer mais on chante que l'quartier dpuis des années Dpuis des années, dpuis des concerts, dpuis des fins dmois dpuis des conserves Folie fait quon slance puis fait quon sperd Dabord, jfais lcopain puis jfais lCasper, allez Joublie pas les regards, cest comme le vélo Quand on vnait en concert en Dacia Logan Jai tellement ça en tête que jpeux monter en lair lprochain qui va parler juste un peu trop mal À 110 sur l'boulevard, on refait l'syno' Là, jsuis un héros demain js'rai plus quun connard On pense quà enlever rajouter des zéros On a oublié lessentiel dans lscénar' Ah bah ouais Jai compris, en fait y a plus rien dimpossible Tout casser en dédicace, à leurs yeux, où on était invisible Même si jai mal à la tête, là, jsuis plus indécis Dacia Logan, on va foncer avec, y a pas bsoin dun V6 Jfais tout pour aller loin, hein, hein Hein, hein, hein Jroulerai jusque à la fin, hein, hein Hein, hein, hein Bientôt, ça ira bien, hein hein hein Hein, hein, hein, hein Jroulerai jusque à la fin, hein, hein Hein, hein, hein Le majeur jauni, cest à cause de la garrot Maman mtrouve beau comme un camion Ouais Grandi compacté comme un kilo dte-sh', plein dtrucs bizarres comme un bigo dkeuf Avoir des rêves, cest cool mais là, ton salaire, il paye même pas lbus Lprésident, il demande un peu dpatience, la seule bonne réponse cest ta mère la pute Jsors à peine du stud', jreprends la vraie vie, toute ses ratures On vise la lucarne on voit plus la Lune, chicane en cinquième dans la brume Que des anges perdus dans la rue, tire sur lteh en matant la pub Il reconnaît lvisage flouté du daron sfaire soulever en prime en mettant la une Depuis lfond dlétude, les profs nous ont prêté de grandes lacunes On doit rendre des comptes, ils doivent rendent la thune 's en on pas a force dvendre leur cul, hein ? Jdemande au cas où, kawa 3lib petit pétou Discussion dcomptoir au feu rouge, sur fond dsymphonie du V12 Ah bah ouais Jai compris, en fait y a plus rien dimpossible Tout casser en dédicace, à leurs yeux, où on était invisible Même si jai mal à la tête, là, jsuis plus indécis Dacia Logan, on va foncer avec, y a pas bsoin dun V6 Jfais tout pour aller loin, hein, hein Hein, hein, hein Jroulerai jusque à la fin, hein, hein Hein, hein, hein Bientôt, ça ira bien, hein hein hein Hein, hein, hein, hein Jroulerai jusque à la fin, hein, hein Hein, hein, hein</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Et ça ira, ça ira Tôt ou tard, ça ira, ça ira Ces derniers temps, j'y arrive pas, j'fais même plus sourire le miroir J'fais même plus sourire le miroir J'commence le livre à la fin d'l'histoire Si c'est pas moi, c'est un autre, ça sert à rien d'se forcer d'y croire J'ai chanté toutes mes blessures et j'ai soigné aucun autre, j'essaye d'pas finir parano J'essaye d'pas finir parano J'ai bientôt vu tous les autres passer d'vant moi à la pause Déception nous frappe comme la foudre Déception nous frappe comme la poudre J'rappe en fermant les yeux comme c'migrant qui prie dans la soute Dans l'doute, j'reprends la route, chez moi, c'est pas trop la fête Pas trop la fête J'lui dis qu'c'est d'ma faute, elle m'dit Ça va pas la tête ? Là, c'est ma troisième cigarette, j'me laisse même plus respirer J'veux pas finir comme c't ami qui mégotte dans son canapé, teh de la taille d'une canne-à-pêche J'ai encore mal à la tête, y a plus aucun son qui m'fait sourire Là, j'ai plus l'cur à la fête, y a juste mon ventre qui d'mande à s'ouvrir Le soleil voulait rentrer, la mélancolie voudrait partir Ils disent Les contraires s'attirent donc on sourit sous la pluie Ouais, ça ira, promis, demain, ça ira On sourit sous la pluie, tu sais, l'orage, c'est pas si grave C'est pas si grave Ouais, ça ira, promis, demain, ça ira Ça ira On sourit sous la pluie, tu sais, l'orage, c'est pas si grave C'est pas si grave Ouais, ça ira Mieux, ça ira On sourit sous la pluie, tu sais, l'orage, c'est pas si grave Ouais, ça ira Mieux, ça ira On sourit sous la pluie, tu sais, l'orage, c'est pas si grave Ça ira, demain, ça ira mieux, mieux You might also like Demain, ça ira mais demain, c'est loin C'est loin La vendre, c'est pas bon, non, mais la fumer, c'est bien Demain, ça ira mais demain, c'est loin La vendre, c'est pas bon, non, mais la fumer, c'est bien Regarde un peu comme on agit, regarde un peu comme elle s'agite Ah, ah, ah, ah Elle me mange le cou quand j'effrite J'reviens d'Meda en fumette, j'ai le permis qui saute Chaque fois qu'on s'sépare, elle me dit qu'c'est pas sa faute T'auras beau tout faire, être mignon, un jour, ça va se terminer T'auras beau l'emmener vers Milan, ça durera pas mille ans Torino, Juventus, j'la balade en Urus T'façon, j'l'avais cramé, j'la casse et j'casse ma puce Demain, ça ira J'ai encore mal à la tête, y a plus aucun son qui m'fait sourire Là, j'ai plus l'cur à la fête, y a juste mon ventre qui d'mande à s'ouvrir Le soleil voulait rentrer, la mélancolie voudrait partir Ils disent Les contraires s'attirent donc on sourit sous la pluie Ouais, ça ira, promis, demain, ça ira Ça ira On sourit sous la pluie, tu sais, l'orage, c'est pas si grave C'est pas si grave Ouais, ça ira, promis, demain, ça ira Demain, ça ira On sourit sous la pluie, tu sais, l'orage, c'est pas si grave C'est pas si grave Ouais, ça ira Mieux, ça ira On sourit sous la pluie, tu sais, l'orage, c'est pas si grave Ouais, ça ira Mieux, ça ira On sourit sous la pluie, tu sais, l'orage, c'est pas si grave Ça ira, demain, ça ira mieux, mieux</t>
+          <t>Et ça ira, ça ira Tôt ou tard, ça ira, ça ira Ces derniers temps, j'y arrive pas, j'fais même plus sourire le miroir J'fais même plus sourire le miroir J'commence le livre à la fin d'l'histoire Si c'est pas moi, c'est un autre, ça sert à rien d'se forcer d'y croire J'ai chanté toutes mes blessures et j'ai soigné aucun autre, j'essaye d'pas finir parano J'essaye d'pas finir parano J'ai bientôt vu tous les autres passer d'vant moi à la pause Déception nous frappe comme la foudre Déception nous frappe comme la poudre J'rappe en fermant les yeux comme c'migrant qui prie dans la soute Dans l'doute, j'reprends la route, chez moi, c'est pas trop la fête Pas trop la fête J'lui dis qu'c'est d'ma faute, elle m'dit Ça va pas la tête ? Là, c'est ma troisième cigarette, j'me laisse même plus respirer J'veux pas finir comme c't ami qui mégotte dans son canapé, teh de la taille d'une canne-à-pêche J'ai encore mal à la tête, y a plus aucun son qui m'fait sourire Là, j'ai plus l'cur à la fête, y a juste mon ventre qui d'mande à s'ouvrir Le soleil voulait rentrer, la mélancolie voudrait partir Ils disent Les contraires s'attirent donc on sourit sous la pluie Ouais, ça ira, promis, demain, ça ira On sourit sous la pluie, tu sais, l'orage, c'est pas si grave C'est pas si grave Ouais, ça ira, promis, demain, ça ira Ça ira On sourit sous la pluie, tu sais, l'orage, c'est pas si grave C'est pas si grave Ouais, ça ira Mieux, ça ira On sourit sous la pluie, tu sais, l'orage, c'est pas si grave Ouais, ça ira Mieux, ça ira On sourit sous la pluie, tu sais, l'orage, c'est pas si grave Ça ira, demain, ça ira mieux, mieux Demain, ça ira mais demain, c'est loin C'est loin La vendre, c'est pas bon, non, mais la fumer, c'est bien Demain, ça ira mais demain, c'est loin La vendre, c'est pas bon, non, mais la fumer, c'est bien Regarde un peu comme on agit, regarde un peu comme elle s'agite Ah, ah, ah, ah Elle me mange le cou quand j'effrite J'reviens d'Meda en fumette, j'ai le permis qui saute Chaque fois qu'on s'sépare, elle me dit qu'c'est pas sa faute T'auras beau tout faire, être mignon, un jour, ça va se terminer T'auras beau l'emmener vers Milan, ça durera pas mille ans Torino, Juventus, j'la balade en Urus T'façon, j'l'avais cramé, j'la casse et j'casse ma puce Demain, ça ira J'ai encore mal à la tête, y a plus aucun son qui m'fait sourire Là, j'ai plus l'cur à la fête, y a juste mon ventre qui d'mande à s'ouvrir Le soleil voulait rentrer, la mélancolie voudrait partir Ils disent Les contraires s'attirent donc on sourit sous la pluie Ouais, ça ira, promis, demain, ça ira Ça ira On sourit sous la pluie, tu sais, l'orage, c'est pas si grave C'est pas si grave Ouais, ça ira, promis, demain, ça ira Demain, ça ira On sourit sous la pluie, tu sais, l'orage, c'est pas si grave C'est pas si grave Ouais, ça ira Mieux, ça ira On sourit sous la pluie, tu sais, l'orage, c'est pas si grave Ouais, ça ira Mieux, ça ira On sourit sous la pluie, tu sais, l'orage, c'est pas si grave Ça ira, demain, ça ira mieux, mieux</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Entre mecs on s'dit pas qu'on s'aime Déjà p'tits on s'mettait des droites J'peux sauter pour un Nique ta mère Ça veut dire j'peux mourir pour toi Entre mecs on s'dit pas qu'on s'aime Entre mecs on s'dit pas qu'on souffre Avec mon gars j'fais comme à Pôle Emploi j'reste devant et j'attends qu'il s'ouvre J'aimerais qu'il m'raconte ses soucis, ses problèmes Mais on parle que d'football, de musique et d'oseille J'suis sur scène, j'vois son sourire touchr ses oreilles Moi aussi ls mecs j'suis fier de vous Quand j'ai votre photo dans les mains Quand j'ai ton enfant sur les genoux Mes gars, sans eux, j'serai nulle part J'leur ai jamais dit pour la plupart Celui qui boit trop, celui qui prend des buvards Celui qui s'prend trop pour une pule-cra C'est avec eux que j'rentre tard Avec eux qu'j'ai un temps d'avance Avec eux qu'j'ai un train d'retard Avec eux qu'y'a une grande latence You might also like Ça fait dix ans qu'j'attends d'savoir comment tu vas vraiment Et tu m'réponds toujours que ça va En haussant les épaules en serrant les dents Pour dix ans d'plus, moi j'suis pas sûr que ça passe Dès qu'une meuf apparait, tu parles autrement Comme si on puait la merde Ou qu'on en valait pas la peine Comme si t'as peur que personne t'aime J'ai trop maté Hé Arnold ! ou Disney Si j'sens qu'y'a une tristesse J'abandonne pas mon copain si ma meuf me dit rentre à la mais' ou j'te quitte J'ramène des fleurs le lendemain Mes gars c'est mes boussoles Si j'suis pas dans leur cur, j'suis tout seul Ils m'ramènent de l'eau si j'suis trop stone Ils m'ramènent sur terre si j'suis trop confiant Entre mecs on s'dit pas qu'on s'aime Déjà p'tits on s'mettait des droites J'peux sauter pour un Nique ta mère Ça veut dire j'peux mourir pour toi Entre mecs on s'dit pas qu'on s'aime Entre mecs on s'dit pas qu'on souffre Avec mon gars j'fais comme à Pôle Emploi j'reste devant et j'attends qu'il s'ouvre Entre mecs on s'dit pas qu'on s'aime Déjà p'tits on s'mettait des droites J'peux sauter pour un Nique ta mère Ça veut dire j'peux mourir pour toi Entre mecs on s'dit pas qu'on s'aime Entre mecs on s'dit pas qu'on souffre Avec mon gars j'fais comme à Pôle Emploi j'reste devant et j'attends qu'il s'ouvre</t>
+          <t>Entre mecs on s'dit pas qu'on s'aime Déjà p'tits on s'mettait des droites J'peux sauter pour un Nique ta mère Ça veut dire j'peux mourir pour toi Entre mecs on s'dit pas qu'on s'aime Entre mecs on s'dit pas qu'on souffre Avec mon gars j'fais comme à Pôle Emploi j'reste devant et j'attends qu'il s'ouvre J'aimerais qu'il m'raconte ses soucis, ses problèmes Mais on parle que d'football, de musique et d'oseille J'suis sur scène, j'vois son sourire touchr ses oreilles Moi aussi ls mecs j'suis fier de vous Quand j'ai votre photo dans les mains Quand j'ai ton enfant sur les genoux Mes gars, sans eux, j'serai nulle part J'leur ai jamais dit pour la plupart Celui qui boit trop, celui qui prend des buvards Celui qui s'prend trop pour une pule-cra C'est avec eux que j'rentre tard Avec eux qu'j'ai un temps d'avance Avec eux qu'j'ai un train d'retard Avec eux qu'y'a une grande latence Ça fait dix ans qu'j'attends d'savoir comment tu vas vraiment Et tu m'réponds toujours que ça va En haussant les épaules en serrant les dents Pour dix ans d'plus, moi j'suis pas sûr que ça passe Dès qu'une meuf apparait, tu parles autrement Comme si on puait la merde Ou qu'on en valait pas la peine Comme si t'as peur que personne t'aime J'ai trop maté Hé Arnold ! ou Disney Si j'sens qu'y'a une tristesse J'abandonne pas mon copain si ma meuf me dit rentre à la mais' ou j'te quitte J'ramène des fleurs le lendemain Mes gars c'est mes boussoles Si j'suis pas dans leur cur, j'suis tout seul Ils m'ramènent de l'eau si j'suis trop stone Ils m'ramènent sur terre si j'suis trop confiant Entre mecs on s'dit pas qu'on s'aime Déjà p'tits on s'mettait des droites J'peux sauter pour un Nique ta mère Ça veut dire j'peux mourir pour toi Entre mecs on s'dit pas qu'on s'aime Entre mecs on s'dit pas qu'on souffre Avec mon gars j'fais comme à Pôle Emploi j'reste devant et j'attends qu'il s'ouvre Entre mecs on s'dit pas qu'on s'aime Déjà p'tits on s'mettait des droites J'peux sauter pour un Nique ta mère Ça veut dire j'peux mourir pour toi Entre mecs on s'dit pas qu'on s'aime Entre mecs on s'dit pas qu'on souffre Avec mon gars j'fais comme à Pôle Emploi j'reste devant et j'attends qu'il s'ouvre</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Soleil est déjà au zénith, on répète qu'on vit dans l'péril Aujourd'hui je vis, demain je meurs, au milieu j'comprends mon esprit Lumière de tes yeux qui pétillent, la vue de ses hanches qui résistent Le son de ses mots qui défilent, les yeux d'un fantôme qui me dévisagent J'suis dans l'habitacle et ma main danse sur la portière J'préfère les virages pour me rendre compte de la vitess J'attends plus d'miracles, j'attends midnight, j'attnds l'espèce J'vois plus les obstacles, c'est des mirages, c'est des mystères Une fois par mois j'finis par terre sur le sol Il m'juge le plafond comme si c'tait mal d'être seul Après j'relève, j'rallume Camel sur le seuil Jamais j'regrette, toujours j'regarde dans le ciel Tout au fond dans le vaisseau, j'ai mal à la tête Tourne en rond dans le tel-hô, j'repense à ma paye J'roule à fond dans le Clio 2, j'fais face à mes peines Ça soigne pas du Kenzo, ça soigne pas du L-L-L-L Elle a, elle a, elle a Je sais pas trop quoi, trop quoi, trop quoi Qui fait qu'j'oublie pas, ses yeux, ses doigts Qui m'colle au regard, regard, regard You might also like Elle a, elle a, elle a Elle a, elle a, elle a J'suis sur le rivage et ma main tremble sur la bouteille J'revis nos histoires pour me rendre compte de là où j'saigne J'oublie les images, pas la passion, pas l'essentiel J'retourne au virage pour me rendre compte de là où j'vais Une fois par mois j'finis par terre sur le sol Il m'juge le plafond comme si c'tait mal d'être seul Après j'relève, j'rallume Camel sur le seuil Jamais j'regrette, toujours j'regarde dans le ciel Tout au fond dans le vaisseau, j'ai mal à la tête Tourne en rond dans le tel-hô, j'repense à ma paye J'roule à fond dans le Clio 2, j'fais face à mes peines Ça soigne pas du Kenzo, ça soigne pas du L-L-L-L Elle a, elle a, elle a Je sais pas trop quoi, trop quoi, trop quoi Qui fait qu'j'oublie pas, ses yeux, ses doigts Qui m'colle au regard, regard, regard Elle a, elle a, elle a Elle a, elle a, elle a Elle a, elle a, elle a Elle a, elle a, elle a</t>
+          <t>Soleil est déjà au zénith, on répète qu'on vit dans l'péril Aujourd'hui je vis, demain je meurs, au milieu j'comprends mon esprit Lumière de tes yeux qui pétillent, la vue de ses hanches qui résistent Le son de ses mots qui défilent, les yeux d'un fantôme qui me dévisagent J'suis dans l'habitacle et ma main danse sur la portière J'préfère les virages pour me rendre compte de la vitess J'attends plus d'miracles, j'attends midnight, j'attnds l'espèce J'vois plus les obstacles, c'est des mirages, c'est des mystères Une fois par mois j'finis par terre sur le sol Il m'juge le plafond comme si c'tait mal d'être seul Après j'relève, j'rallume Camel sur le seuil Jamais j'regrette, toujours j'regarde dans le ciel Tout au fond dans le vaisseau, j'ai mal à la tête Tourne en rond dans le tel-hô, j'repense à ma paye J'roule à fond dans le Clio 2, j'fais face à mes peines Ça soigne pas du Kenzo, ça soigne pas du L-L-L-L Elle a, elle a, elle a Je sais pas trop quoi, trop quoi, trop quoi Qui fait qu'j'oublie pas, ses yeux, ses doigts Qui m'colle au regard, regard, regard Elle a, elle a, elle a Elle a, elle a, elle a J'suis sur le rivage et ma main tremble sur la bouteille J'revis nos histoires pour me rendre compte de là où j'saigne J'oublie les images, pas la passion, pas l'essentiel J'retourne au virage pour me rendre compte de là où j'vais Une fois par mois j'finis par terre sur le sol Il m'juge le plafond comme si c'tait mal d'être seul Après j'relève, j'rallume Camel sur le seuil Jamais j'regrette, toujours j'regarde dans le ciel Tout au fond dans le vaisseau, j'ai mal à la tête Tourne en rond dans le tel-hô, j'repense à ma paye J'roule à fond dans le Clio 2, j'fais face à mes peines Ça soigne pas du Kenzo, ça soigne pas du L-L-L-L Elle a, elle a, elle a Je sais pas trop quoi, trop quoi, trop quoi Qui fait qu'j'oublie pas, ses yeux, ses doigts Qui m'colle au regard, regard, regard Elle a, elle a, elle a Elle a, elle a, elle a Elle a, elle a, elle a Elle a, elle a, elle a</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>C'est pas un drame C'est pas une fin Même si un emoji en guise de dernière ligne ça manque de charme Au fond mon truc c'est d'me relever, fond d'amertume dans mon gobelet J'enfile mes habits comme une armure, j'me dis qu'j'suis né pour exister J'pense à soulever des montagnes, en même temps que nos esprits s'éloignent, au fond p'têtre qu'mon ambition me tuera J'fête ni les victoires ni les défaites J'raconte des histoires, j'vis des promesses J'veux être un homme pas être un autre, j'veux être de l'air Elle me regarde dans les yeux Elle me regarde dans les yeux Elle me regarde dans les yeux, alors j'regarde par terre Elle me regarde dans les yeux J'suis né dans un couloir J'ai grandi dans mes rêves J'laisse mes regrets dans un placard Ma rancur dans ma tête Elle veut d'la poudre dans le regard J'ai qu'des promesses dans la voix J'ai qu'des prouesses et l'espoir Qu'on fabrique encore plus grand qu'ça J'connais l'goût du risque Le parfum d'une sale ville J'veux sentir l'goût du succès Et l'avant du navire J'peux regarder la mort, pas soutenir la vérité d'une pupille Elle me regarde dans les yeux, dans mon âme, dans mon corps, alors j'découvre en même temps qu'elle c'que j'lui dis You might also like Elle me regarde dans les yeux Elle me regarde dans les yeux Elle me regarde dans les yeux, alors j'regarde par terre Elle me regarde dans les yeux Elle me regarde dans les yeux Elle me regarde dans les yeux Elle me regarde dans les yeux, alors j'regarde par terre Elle me regarde dans les yeux</t>
+          <t>C'est pas un drame C'est pas une fin Même si un emoji en guise de dernière ligne ça manque de charme Au fond mon truc c'est d'me relever, fond d'amertume dans mon gobelet J'enfile mes habits comme une armure, j'me dis qu'j'suis né pour exister J'pense à soulever des montagnes, en même temps que nos esprits s'éloignent, au fond p'têtre qu'mon ambition me tuera J'fête ni les victoires ni les défaites J'raconte des histoires, j'vis des promesses J'veux être un homme pas être un autre, j'veux être de l'air Elle me regarde dans les yeux Elle me regarde dans les yeux Elle me regarde dans les yeux, alors j'regarde par terre Elle me regarde dans les yeux J'suis né dans un couloir J'ai grandi dans mes rêves J'laisse mes regrets dans un placard Ma rancur dans ma tête Elle veut d'la poudre dans le regard J'ai qu'des promesses dans la voix J'ai qu'des prouesses et l'espoir Qu'on fabrique encore plus grand qu'ça J'connais l'goût du risque Le parfum d'une sale ville J'veux sentir l'goût du succès Et l'avant du navire J'peux regarder la mort, pas soutenir la vérité d'une pupille Elle me regarde dans les yeux, dans mon âme, dans mon corps, alors j'découvre en même temps qu'elle c'que j'lui dis Elle me regarde dans les yeux Elle me regarde dans les yeux Elle me regarde dans les yeux, alors j'regarde par terre Elle me regarde dans les yeux Elle me regarde dans les yeux Elle me regarde dans les yeux Elle me regarde dans les yeux, alors j'regarde par terre Elle me regarde dans les yeux</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Écriture automatique pour sentiments qu'j'ai pas compris Des enfants qu'la vie traumatise, la vérité n'a pas tout dit Au fond du compte, j'suis dans la zone, j'allonge mes questions dans un cône Réponse enfumée dans un hall, goût léger d'poussière dans l'arôme J'vote plus la fin d'l'av'nir, j'vois plus la fin du flash Enfant du fond d'la ZUP qui a jamais vu la plage Allez, la vie est belle , tu dis qu'la vie est bien On sourit sous l'averse ici Allez viens, on danse encore, jamais on s'rendort Tu t'rappelles quand on s'disait qu'on était forts du vide, on s'approche on s'ador J'attends qu'le soleil s lève pour qu'on s'endorme Et puis on s'accroche, le sol se dérobe, tout c'qu'on voulait, c'était comprendre le désordre Pour qu'un jour tu t'étonnes, allez viens, on décolle Allez viens, on danse encore, allez viens, on danse encore Allez viens, on danse encore, allez viens, on danse encore Allez viens, on danse encore, allez viens, on danse encore Allez viens, on danse encore, allez viens, on danse encore La vie est belle en-d'ssous des nuages Et dans mes yeux, tu danses encore On écrit ton prochain spectacle Allez viens, on danse encore You might also like Souvent, j'sais plus trop quoi dire, tu souris mais tes yeux sont si loin J'connais des gens qui savent même plus rire, foulée amer gratte le ciment J'voudrais attraper ta main mais elle glisse, j'fais des rêves où tu m'regardes et tu cries Tu t'rappelles quand on découpait , qu'on réchauffait du riz les yeux bien trop humides J'sens qu'tu brûles, moi, j'veux qu'éteindre l'incendie Sans scrupules comme quand tes blagues m'attendrissent Plus d'excuses, moi, j'veux qu'on s'regarde, qu'on l'vive T'es ma sur, t'es ma bénédiction même le cur ouvert en rémission La vie est belle en-d'ssous des nuages Et dans mes yeux, tu danses encore On écrit ton prochain spectacle Allez viens Allez viens, on danse encore, allez viens, on danse encore Allez viens, on danse encore, allez viens, on danse encore Allez viens, on danse encore, allez viens, on danse encore Allez viens, on danse encore, allez viens, on danse encore La vie est belle en-d'ssous des nuages Et dans mes yeux, tu danses encore On écrit ton prochain spectacle Allez viens, on danse encore</t>
+          <t>Écriture automatique pour sentiments qu'j'ai pas compris Des enfants qu'la vie traumatise, la vérité n'a pas tout dit Au fond du compte, j'suis dans la zone, j'allonge mes questions dans un cône Réponse enfumée dans un hall, goût léger d'poussière dans l'arôme J'vote plus la fin d'l'av'nir, j'vois plus la fin du flash Enfant du fond d'la ZUP qui a jamais vu la plage Allez, la vie est belle , tu dis qu'la vie est bien On sourit sous l'averse ici Allez viens, on danse encore, jamais on s'rendort Tu t'rappelles quand on s'disait qu'on était forts du vide, on s'approche on s'ador J'attends qu'le soleil s lève pour qu'on s'endorme Et puis on s'accroche, le sol se dérobe, tout c'qu'on voulait, c'était comprendre le désordre Pour qu'un jour tu t'étonnes, allez viens, on décolle Allez viens, on danse encore, allez viens, on danse encore Allez viens, on danse encore, allez viens, on danse encore Allez viens, on danse encore, allez viens, on danse encore Allez viens, on danse encore, allez viens, on danse encore La vie est belle en-d'ssous des nuages Et dans mes yeux, tu danses encore On écrit ton prochain spectacle Allez viens, on danse encore Souvent, j'sais plus trop quoi dire, tu souris mais tes yeux sont si loin J'connais des gens qui savent même plus rire, foulée amer gratte le ciment J'voudrais attraper ta main mais elle glisse, j'fais des rêves où tu m'regardes et tu cries Tu t'rappelles quand on découpait , qu'on réchauffait du riz les yeux bien trop humides J'sens qu'tu brûles, moi, j'veux qu'éteindre l'incendie Sans scrupules comme quand tes blagues m'attendrissent Plus d'excuses, moi, j'veux qu'on s'regarde, qu'on l'vive T'es ma sur, t'es ma bénédiction même le cur ouvert en rémission La vie est belle en-d'ssous des nuages Et dans mes yeux, tu danses encore On écrit ton prochain spectacle Allez viens Allez viens, on danse encore, allez viens, on danse encore Allez viens, on danse encore, allez viens, on danse encore Allez viens, on danse encore, allez viens, on danse encore Allez viens, on danse encore, allez viens, on danse encore La vie est belle en-d'ssous des nuages Et dans mes yeux, tu danses encore On écrit ton prochain spectacle Allez viens, on danse encore</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>J'ai pas attendu Netflix pour écrire des classiques, hun Ils font les rappeurs, ils parlent que d'streaming J'calcule pas l'patron, j'parle à la secrétaire Ils m'font mal à la tête avec leurs chiffres J'arrive à changer leur tête avec un disque dur Odeur de friture, d'clope D'puis qu'j'ai vu mon daron pleurer, j'suis plus l'même homme Là, c'est plus les mêmes sommes Lui, c'est plus l'même sobre, ouais, ok, unh Moi, j'ai toujours l'même gosse dans l'cur J'ai tout mes jnoun qui chantnt en cur Ho Belek, la Laguna c'st un Transformer Ho Belek belek, né sur la sellette Ils disent qu'ils ont le doigt sur la gâchette J'crois qu'ils ont la main devant les oreilles Ouh J'ai grandi à Hellemmes, dors saoul comme à L.A Les darons d'nos darons sous Baileys, belek On feuilletait des Playboy au bureau de tabac pour voler les posters de Playmate J'me rappelle des attentas en CM2, qu'y a des hommes qui croient qu'les autres valent moins bien qu'eux C'est possible ça ? Pourquoi ils tuent des enfants en parlant d'Dieu ? Nous, on espère mieux, eux, ils parlent qu'en Je Nous, on pense qu'en Nous depuis l'terrain d'foot, gros Ho, ho J'ai mangé du pâté, du couscous, du mafé, d'la chorba, du loukoum Ah bah ouais You might also like J'ai toujours un cheu-fla, toujours des trous noirs J'attends que l'amour, c'est quoi la moula ? Ah bah ouais Premier coup d'rein, c'est d'jà un boulevard C'est d'jà un pétard, j'cours encore C'est nous qu'on parle fort, c'est nous qu'on klaxonne C'est nous qu'on roule vite, c'est nous qu'on pardonne Ouuh C'est nous qu'on parle en wesh, enfants de la parenthèse Ho C'est comme ça, ça s'gagne, ça s'rejoue jamais, une finale Ouais J'attend la paix mais j'crois qu'c'est une légende Comme la retraite, comme le nouveau Zidane Hehehehehe, balek Balek, balek, les étoiles s'alignent comme les planètes Ouh Belek, belek, j'ai appris à rouler dans les toilettes J'attends pas la gloire, je la confectionne J'écoute le son d'Houston et le son d'l'Essonne Yeazir, han J'espère toujours qu'Harry va pécho Hermione J'viens du pays des briques, de la fricadelle Roule des pelles à la vie tah La Vie d'Adèle R1, joystick, carré, croix Esquive les problèmes tout en délicatesse À la base, on est pauvres de ouf J'ai goûté toutes les boîtes de conserve de Lidl Et y en a, elles sont bof de ouf Mais y en a elle sont bonnes de ouf Ho J'ai toujours un cheu-fla, toujours des trous noirs J'attends que l'amour, c'est quoi la moula ? Premier coup d'rein, c'est d'jà un boulevard C'est d'jà un pétard, j'cours encore C'est nous qu'on parle fort, c'est nous qu'on klaxonne Wouh C'est nous qu'on roule vite, c'est nous qu'on pardonne Wouh C'est nous qu'on parle en wesh, enfants de la parenthèse Ah bah ouais Plg, plg Plg, plg</t>
+          <t>J'ai pas attendu Netflix pour écrire des classiques, hun Ils font les rappeurs, ils parlent que d'streaming J'calcule pas l'patron, j'parle à la secrétaire Ils m'font mal à la tête avec leurs chiffres J'arrive à changer leur tête avec un disque dur Odeur de friture, d'clope D'puis qu'j'ai vu mon daron pleurer, j'suis plus l'même homme Là, c'est plus les mêmes sommes Lui, c'est plus l'même sobre, ouais, ok, unh Moi, j'ai toujours l'même gosse dans l'cur J'ai tout mes jnoun qui chantnt en cur Ho Belek, la Laguna c'st un Transformer Ho Belek belek, né sur la sellette Ils disent qu'ils ont le doigt sur la gâchette J'crois qu'ils ont la main devant les oreilles Ouh J'ai grandi à Hellemmes, dors saoul comme à L.A Les darons d'nos darons sous Baileys, belek On feuilletait des Playboy au bureau de tabac pour voler les posters de Playmate J'me rappelle des attentas en CM2, qu'y a des hommes qui croient qu'les autres valent moins bien qu'eux C'est possible ça ? Pourquoi ils tuent des enfants en parlant d'Dieu ? Nous, on espère mieux, eux, ils parlent qu'en Je Nous, on pense qu'en Nous depuis l'terrain d'foot, gros Ho, ho J'ai mangé du pâté, du couscous, du mafé, d'la chorba, du loukoum Ah bah ouais J'ai toujours un cheu-fla, toujours des trous noirs J'attends que l'amour, c'est quoi la moula ? Ah bah ouais Premier coup d'rein, c'est d'jà un boulevard C'est d'jà un pétard, j'cours encore C'est nous qu'on parle fort, c'est nous qu'on klaxonne C'est nous qu'on roule vite, c'est nous qu'on pardonne Ouuh C'est nous qu'on parle en wesh, enfants de la parenthèse Ho C'est comme ça, ça s'gagne, ça s'rejoue jamais, une finale Ouais J'attend la paix mais j'crois qu'c'est une légende Comme la retraite, comme le nouveau Zidane Hehehehehe, balek Balek, balek, les étoiles s'alignent comme les planètes Ouh Belek, belek, j'ai appris à rouler dans les toilettes J'attends pas la gloire, je la confectionne J'écoute le son d'Houston et le son d'l'Essonne Yeazir, han J'espère toujours qu'Harry va pécho Hermione J'viens du pays des briques, de la fricadelle Roule des pelles à la vie tah La Vie d'Adèle R1, joystick, carré, croix Esquive les problèmes tout en délicatesse À la base, on est pauvres de ouf J'ai goûté toutes les boîtes de conserve de Lidl Et y en a, elles sont bof de ouf Mais y en a elle sont bonnes de ouf Ho J'ai toujours un cheu-fla, toujours des trous noirs J'attends que l'amour, c'est quoi la moula ? Premier coup d'rein, c'est d'jà un boulevard C'est d'jà un pétard, j'cours encore C'est nous qu'on parle fort, c'est nous qu'on klaxonne Wouh C'est nous qu'on roule vite, c'est nous qu'on pardonne Wouh C'est nous qu'on parle en wesh, enfants de la parenthèse Ah bah ouais Plg, plg Plg, plg</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>J'fais pas dbonne musique si j'ai rien à dire et j'veux pas y aller si y a rien à vivre Jécrirai rien du tout J'dessinerai qu'des sourires à la fin du livre On faisait passer deux fois l'café minimum dans l'même filtre Y a toujours des spectacles, c'est plus l'même cirque Y a toujours un gros trou, c'est pas lmême vide Y a toujours dla fumée, c'est plus lmême shit Eh, on est devenus des adultes et bien trop vite Les frontières que j'ai franchies, bien trop fines T'inquiète, j'ai pas dside bitch sur le té-c' Ici, c'est la bagarre, bâtard Plomo, plata, pas d'cques-J' ou cata Eh, j'suis parti gratter proche de Sète Dans l'pe-ra comme un prof' de ZEP Tu veux baiser mon mental Fuck off, c'est l'mantra Bien sur qu'elle te manquera mais nique sa mère J'rallume un bédo et j'quitte la Terre, dans l'pe-ra comme un prof' de ZEP À force de péter ç'plafond d'verre, j'ai forte tête J'ai plus peur de gagner, plus peur de perdre Moi, j'compte en loyers et j'parle en dettes Gosse non désiré, j'sais pas faire un seul choix sans hésiter J'peux enchainer trois clopes sans respirer S'regarder dans les yeux sans esquiver, c'est pas une mauvaise idée C'est pas une mauvaise idée J'regarde d'l'eau dans l'essence, c'est pas des projections Fourchette sur la télé pour la connexion, devenir fort comme ça, c'est une profession J'suis comme un mood à part, elle veut l'faire dans l'Luna Park Les agneaux ont la paix que le loup n'a pas Avant d'chanter j'ai versé tout l'napalme Un mood à part, elle veut l'faire dans l'Luna Park Les agneaux ont la paix que le loup n'a pas You might also like C'que j'nous vois devenir, j'trouve ça touchant Ça sent la victoire et la poudre Si tu défais pas l'nud, il devient coulant Dans l'meilleur des cas il s'enroule Yeah, yeah Mon étoile filante, c'est un satellite mais j'fais quand même un vu Et vos regards brillants qui nous félicitent, ils s'éteignent jamais C'est pas Versailles il aurait dit Papy J'lui aurais dit On fait ce qu'on peut Le cques-J', BEN plg C'est nos têtes sur la pochette, on fait c'qu'on veut Elle a un mood à part, finalement on l'a fait dans l'Buddha-Bar J'suis un loup à part, bâtard, j'les baise avec distance Personne avec plus de talent dans l'domaine Ce soir j'vais m'fonce-dé, d'la ppe-fra, d'la Van Bommel De l'alcool sur nos plaies pas d'pommade Si je m'isole pas, j'souffle, y a pas d'bum-al NBOW, pétasse J'viens d'verser une larme, charge patronale J'me protège j'ai caché l'patronyme On est des piteux salariés exemplaires dans l'patronat Là, bébé, j'suis en mode bum-al, on s'reverra après le prochain disque Là, j'suis en mode bum-al, j'fais rimer les rêves et le code postal On s'en sort pas trop mal moi et mes quatre connards Ils matent comme le type sur le billet de cinq dollars Comme Collina sur la pochette de PES 3, j'suis arrivé dans l'rap comme un créneau en Renault Espace On rappe des prières, pas des messes basses J'chante le gruyère sur les pates, si j'sors, c'est civière sinon j'sors pas J'confonds les étoiles et les satellites Les colombes s'posent sur les gouttières pour écouter chanter les rats des villes Tu veux baiser mon mental Fuck off, c'est l'mantra Bien sûr qu'elle te manquera mais nique sa mère Personne baisera notre mental Pour la gloire, c'est l'mantra Parfois, tu vas douter mais nique sa mère</t>
+          <t>J'fais pas dbonne musique si j'ai rien à dire et j'veux pas y aller si y a rien à vivre Jécrirai rien du tout J'dessinerai qu'des sourires à la fin du livre On faisait passer deux fois l'café minimum dans l'même filtre Y a toujours des spectacles, c'est plus l'même cirque Y a toujours un gros trou, c'est pas lmême vide Y a toujours dla fumée, c'est plus lmême shit Eh, on est devenus des adultes et bien trop vite Les frontières que j'ai franchies, bien trop fines T'inquiète, j'ai pas dside bitch sur le té-c' Ici, c'est la bagarre, bâtard Plomo, plata, pas d'cques-J' ou cata Eh, j'suis parti gratter proche de Sète Dans l'pe-ra comme un prof' de ZEP Tu veux baiser mon mental Fuck off, c'est l'mantra Bien sur qu'elle te manquera mais nique sa mère J'rallume un bédo et j'quitte la Terre, dans l'pe-ra comme un prof' de ZEP À force de péter ç'plafond d'verre, j'ai forte tête J'ai plus peur de gagner, plus peur de perdre Moi, j'compte en loyers et j'parle en dettes Gosse non désiré, j'sais pas faire un seul choix sans hésiter J'peux enchainer trois clopes sans respirer S'regarder dans les yeux sans esquiver, c'est pas une mauvaise idée C'est pas une mauvaise idée J'regarde d'l'eau dans l'essence, c'est pas des projections Fourchette sur la télé pour la connexion, devenir fort comme ça, c'est une profession J'suis comme un mood à part, elle veut l'faire dans l'Luna Park Les agneaux ont la paix que le loup n'a pas Avant d'chanter j'ai versé tout l'napalme Un mood à part, elle veut l'faire dans l'Luna Park Les agneaux ont la paix que le loup n'a pas C'que j'nous vois devenir, j'trouve ça touchant Ça sent la victoire et la poudre Si tu défais pas l'nud, il devient coulant Dans l'meilleur des cas il s'enroule Yeah, yeah Mon étoile filante, c'est un satellite mais j'fais quand même un vu Et vos regards brillants qui nous félicitent, ils s'éteignent jamais C'est pas Versailles il aurait dit Papy J'lui aurais dit On fait ce qu'on peut Le cques-J', BEN plg C'est nos têtes sur la pochette, on fait c'qu'on veut Elle a un mood à part, finalement on l'a fait dans l'Buddha-Bar J'suis un loup à part, bâtard, j'les baise avec distance Personne avec plus de talent dans l'domaine Ce soir j'vais m'fonce-dé, d'la ppe-fra, d'la Van Bommel De l'alcool sur nos plaies pas d'pommade Si je m'isole pas, j'souffle, y a pas d'bum-al NBOW, pétasse J'viens d'verser une larme, charge patronale J'me protège j'ai caché l'patronyme On est des piteux salariés exemplaires dans l'patronat Là, bébé, j'suis en mode bum-al, on s'reverra après le prochain disque Là, j'suis en mode bum-al, j'fais rimer les rêves et le code postal On s'en sort pas trop mal moi et mes quatre connards Ils matent comme le type sur le billet de cinq dollars Comme Collina sur la pochette de PES 3, j'suis arrivé dans l'rap comme un créneau en Renault Espace On rappe des prières, pas des messes basses J'chante le gruyère sur les pates, si j'sors, c'est civière sinon j'sors pas J'confonds les étoiles et les satellites Les colombes s'posent sur les gouttières pour écouter chanter les rats des villes Tu veux baiser mon mental Fuck off, c'est l'mantra Bien sûr qu'elle te manquera mais nique sa mère Personne baisera notre mental Pour la gloire, c'est l'mantra Parfois, tu vas douter mais nique sa mère</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>J'étais arrivé à un point où javais si faim, t'aurais pu croire qu'jétais ventriloque J'viens d'là où des génies changent le monde pour cent euros, sans diplômes J'conduis la Renault sans les mains Le rap en fait, c'était l'antidote Dehors, tout l'monde se crache dessus, c'est des rappeurs anti-pop Nous on est aux antipodes Jfais dla musique avec mes amis et un grand sourire J'fais des sons qui parlent de souffrir des sons qui parlent de sourire Mon pote il parlait trop de mourir Maintenant il va baucoup mieux On parle de dvenir vieux Cest quand même moins douloureux C'est pas seulement nous ou eux Le rap c'est comme ta maman, si elle a un autre enfant, son cur s'agrandit comme deux Jdonne tout c'que j'ai, j'fais comme j'peux et même un peu plus T'es pas boycotté le sang, t'es juste un peu nul, yeah Comme moi y'a pas si longtemps C'est en forgeant qu'on devient fort J'vais pas changer l'monde en sirotant J'écoute l'instru qu'ont fait mes potes, j'rappe en sifflotant J'suis à Marseille pour avancer l'album J'apprécie autant le soleil que les nouvelles têtes Ça passe comme une lettre à la Poste Donc c'est une relance ou une nouvelle dette Murer à l'affût si y'a une nouvelle fête J'suis comme la Ford des baqueux, j'ai pris un coach de sport J'sais qu'si j'pète le score, on va casser les bâtons Qu'y'a dans nos roues On s'les ait mis nous-même La voiture c'était une Ford Focus You might also like En c'moment, j'prends mon temps, j'fais mon premier album Si on est contents, on l'sort, y'a des chances pour que ça cartonne J'ai fait deux cent fois la même prise, j'en ai jamais eu ras-le-bol C'est normal, faut qu'il tue sa mère mon premier album En c'moment, j'prends mon temps, j'fais mon premier album Si on est contents, on l'sort, y'a des chances pour que ça cartonne J'ai fait deux cent fois la même prise, j'en ai jamais eu ras-le-bol C'est normal, faut qu'il tue sa mère mon premier album</t>
+          <t>J'étais arrivé à un point où javais si faim, t'aurais pu croire qu'jétais ventriloque J'viens d'là où des génies changent le monde pour cent euros, sans diplômes J'conduis la Renault sans les mains Le rap en fait, c'était l'antidote Dehors, tout l'monde se crache dessus, c'est des rappeurs anti-pop Nous on est aux antipodes Jfais dla musique avec mes amis et un grand sourire J'fais des sons qui parlent de souffrir des sons qui parlent de sourire Mon pote il parlait trop de mourir Maintenant il va baucoup mieux On parle de dvenir vieux Cest quand même moins douloureux C'est pas seulement nous ou eux Le rap c'est comme ta maman, si elle a un autre enfant, son cur s'agrandit comme deux Jdonne tout c'que j'ai, j'fais comme j'peux et même un peu plus T'es pas boycotté le sang, t'es juste un peu nul, yeah Comme moi y'a pas si longtemps C'est en forgeant qu'on devient fort J'vais pas changer l'monde en sirotant J'écoute l'instru qu'ont fait mes potes, j'rappe en sifflotant J'suis à Marseille pour avancer l'album J'apprécie autant le soleil que les nouvelles têtes Ça passe comme une lettre à la Poste Donc c'est une relance ou une nouvelle dette Murer à l'affût si y'a une nouvelle fête J'suis comme la Ford des baqueux, j'ai pris un coach de sport J'sais qu'si j'pète le score, on va casser les bâtons Qu'y'a dans nos roues On s'les ait mis nous-même La voiture c'était une Ford Focus En c'moment, j'prends mon temps, j'fais mon premier album Si on est contents, on l'sort, y'a des chances pour que ça cartonne J'ai fait deux cent fois la même prise, j'en ai jamais eu ras-le-bol C'est normal, faut qu'il tue sa mère mon premier album En c'moment, j'prends mon temps, j'fais mon premier album Si on est contents, on l'sort, y'a des chances pour que ça cartonne J'ai fait deux cent fois la même prise, j'en ai jamais eu ras-le-bol C'est normal, faut qu'il tue sa mère mon premier album</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Maman m'a fait avec un fantôme J'ai tout appris dans les virages Paraît qu'on peut crever d'tristesse, j'préfère ça que d'caner dennui Dépêche-toi d'mourir ou dépêche-toi d'vivre Mon ange de gauche du côté passager imite la voix du GPS donc j'accélère en faisant des appels de phares aux CRS Bouteille est presque vide, mon jnoun presque plein J'ravale ma salive, j'ai la voix qui tremble, j'ai un peu faim Vouloir tout niquer cest un truc de gosse, la vie m'sourie déjà mais moi, j'veux qu'elle mette plus de gloss Laisse-moi mater par la fenêtre si jveux, laisse-moi entendre le bruit des goutes si il pleut J'veux juste plus trembler devant ldistributeur, entendre le bruit d'une porte qui t'claque à la gueule Il m'reste trop d'souvenir dans la tête Avant qu'ça n'deviennent des fantômes J'garde ces images dans ma veste Il m'reste trop d'souvenir dans la tête Avant qu'ça n'deviennent des fantômes J'garde ces images dans ma veste Frérot sous Xanax, une tape dans ldos, t'inquiète, ça passera Une dose de trop et tu pars dormir dans les nuages Et l'bruit du ventre appelle la main d'ta mère qui passait dans tes cheveux Qui soufflait l'air, c'est pour les autres, pendant qu'papa crie d'vant les chevaux Déter' comme daron à la CAF, un air sévère comme si tout était noir, tu veux quon fasse quoi ? Yeux rouges dans l'Quechua, un levé dsoleil dplus, une clope à l'arrêt d'bus, un fond d'Red Bull Jai laissé mes fantômes derrière des murs oh, oh You might also like Il m'reste trop d'souvenir dans la tête Avant qu'ça n'deviennent des fantômes J'garde ces images dans ma veste Il m'reste trop d'souvenir dans la tête Avant qu'ça n'deviennent des fantômes J'garde ces images dans ma veste Trop d'souvenir dans la tête Avant qu'ça n'deviennent des fantômes J'garde ces images dans ma veste Il m'reste trop d'souvenir dans la tête J'garde ces images dans ma tête</t>
+          <t>Maman m'a fait avec un fantôme J'ai tout appris dans les virages Paraît qu'on peut crever d'tristesse, j'préfère ça que d'caner dennui Dépêche-toi d'mourir ou dépêche-toi d'vivre Mon ange de gauche du côté passager imite la voix du GPS donc j'accélère en faisant des appels de phares aux CRS Bouteille est presque vide, mon jnoun presque plein J'ravale ma salive, j'ai la voix qui tremble, j'ai un peu faim Vouloir tout niquer cest un truc de gosse, la vie m'sourie déjà mais moi, j'veux qu'elle mette plus de gloss Laisse-moi mater par la fenêtre si jveux, laisse-moi entendre le bruit des goutes si il pleut J'veux juste plus trembler devant ldistributeur, entendre le bruit d'une porte qui t'claque à la gueule Il m'reste trop d'souvenir dans la tête Avant qu'ça n'deviennent des fantômes J'garde ces images dans ma veste Il m'reste trop d'souvenir dans la tête Avant qu'ça n'deviennent des fantômes J'garde ces images dans ma veste Frérot sous Xanax, une tape dans ldos, t'inquiète, ça passera Une dose de trop et tu pars dormir dans les nuages Et l'bruit du ventre appelle la main d'ta mère qui passait dans tes cheveux Qui soufflait l'air, c'est pour les autres, pendant qu'papa crie d'vant les chevaux Déter' comme daron à la CAF, un air sévère comme si tout était noir, tu veux quon fasse quoi ? Yeux rouges dans l'Quechua, un levé dsoleil dplus, une clope à l'arrêt d'bus, un fond d'Red Bull Jai laissé mes fantômes derrière des murs oh, oh Il m'reste trop d'souvenir dans la tête Avant qu'ça n'deviennent des fantômes J'garde ces images dans ma veste Il m'reste trop d'souvenir dans la tête Avant qu'ça n'deviennent des fantômes J'garde ces images dans ma veste Trop d'souvenir dans la tête Avant qu'ça n'deviennent des fantômes J'garde ces images dans ma veste Il m'reste trop d'souvenir dans la tête J'garde ces images dans ma tête</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Les années passent de plus en plus vite On avance, parfois on gagne, pourtant j'te trouve de plus en plus triste, moi J'suis tombé, j'ai plus peur du vide J'fais d'la buée à la vitre, en pensant aux trucs qu'on efface pas, comme les gues-ta à l'acide Mon nom est remonté sur l'affiche, avant on était tout en bas À côté d'buvettes et scènes ouvertes, j'suis en haut, tout en gras Ça changera pas, c'est tout l'temps moi, les cent-trente vues en vingt-quatre heures, ça t'fou la gerbe, c'est déjà ça C'est des acteurs, c'est des chacals, les écoute pas, ça veut rien dire Comme le maire qui dit C'est promis, l'rappeur qui dit Ça arrive L'époque d'la goutte à la narine, chocolat chaud, la putain d'gousse à la vanille J'suis chez la maman à Karim, j'découvre le daron à Marine, ah, ouais 59, le monde est à nous C'est marqué sur la Red Bull, j'mets dans l'but, j'glisse sur les genoux Deux manteaux, on refait le Camp Nou Yeah, yeah Les genoux d'mon jean vont rentrés verts, j'savais qu'ils ne passeraient pas l'hiver La coupe du monde du parc d'l'isère, avec le centre, j'vais à la mer en deux heures de bus Ou plus si y'a du monde sur l'trajet, si l'chauffeur met un film, ça tue Ça tue sa mère J'fais du foot avec Badri, Dean, Malik et Junior d'la ZUP, on fait exprès d'louper l'bus Y'a des problèmes, c'est les solutions Souvent l'évidence, c'est pas la seule issue, j'peux voir les fantômes dans la pollutions PLG marqué sur le capot dans la salissure Parait qu'on s'habitue, j'ai plus peur d'l'altitude Ils m'ont dit Tout est trop dur, le Bac, la vie, les factures T'façon soit j'vais visiter l'ciel ou bien j'nourris la pâture Ça m'fait grimacer comme quand j'étais p'tit, le yaourt nature La mélodie d'la fracture J'suis à l'avant d'la caisse, fier de mes copains Les mêmes à qui ont disait Tu sais pas quoi faire de tes deux mains, regarde nous bien Ils nous ont énervés, là, regarde nous bien Y'a qu'des gars qui savent pas où s'mettre, ça existe pas les bons à rien Faut pas oublier d'dire Je t'aime Faut pas oublier d'dire J't'emmerde si c'est nécessaire Ça fait du bien d'se laisser aller, c'est fini d'se faire J'ai toujours pas réussi à renvoyer ma box chez SFR mais j'ai fini mon album Chacun ses qualités, sa manière de se dire qu'il cartonne Moi, j'suis toujours avec mes potes et on finit notre album Bravo les gars, on cartonne, faut pas oublier d'dire Je t'aime Mamie est toujours sur le lit, à chaque fois c'est la même rengaine J'espère encore qu'elle réagisse J'lui fait un bisou sur le front mais c'est pas si magique, comme si c'était Paris, comme si c'était une princesse, mais c'est pas si facile Papi m'fait quatre bises sans sourire en m'appuyant l'épaule Ça veut dire Merci d'être venu, ça veut dire Merci pour tout Faut pas qu'j'oublie d'lui dire Je t'aime Faut pas oublier d'dire Je t'aimeYou might also like</t>
+          <t>Les années passent de plus en plus vite On avance, parfois on gagne, pourtant j'te trouve de plus en plus triste, moi J'suis tombé, j'ai plus peur du vide J'fais d'la buée à la vitre, en pensant aux trucs qu'on efface pas, comme les gues-ta à l'acide Mon nom est remonté sur l'affiche, avant on était tout en bas À côté d'buvettes et scènes ouvertes, j'suis en haut, tout en gras Ça changera pas, c'est tout l'temps moi, les cent-trente vues en vingt-quatre heures, ça t'fou la gerbe, c'est déjà ça C'est des acteurs, c'est des chacals, les écoute pas, ça veut rien dire Comme le maire qui dit C'est promis, l'rappeur qui dit Ça arrive L'époque d'la goutte à la narine, chocolat chaud, la putain d'gousse à la vanille J'suis chez la maman à Karim, j'découvre le daron à Marine, ah, ouais 59, le monde est à nous C'est marqué sur la Red Bull, j'mets dans l'but, j'glisse sur les genoux Deux manteaux, on refait le Camp Nou Yeah, yeah Les genoux d'mon jean vont rentrés verts, j'savais qu'ils ne passeraient pas l'hiver La coupe du monde du parc d'l'isère, avec le centre, j'vais à la mer en deux heures de bus Ou plus si y'a du monde sur l'trajet, si l'chauffeur met un film, ça tue Ça tue sa mère J'fais du foot avec Badri, Dean, Malik et Junior d'la ZUP, on fait exprès d'louper l'bus Y'a des problèmes, c'est les solutions Souvent l'évidence, c'est pas la seule issue, j'peux voir les fantômes dans la pollutions PLG marqué sur le capot dans la salissure Parait qu'on s'habitue, j'ai plus peur d'l'altitude Ils m'ont dit Tout est trop dur, le Bac, la vie, les factures T'façon soit j'vais visiter l'ciel ou bien j'nourris la pâture Ça m'fait grimacer comme quand j'étais p'tit, le yaourt nature La mélodie d'la fracture J'suis à l'avant d'la caisse, fier de mes copains Les mêmes à qui ont disait Tu sais pas quoi faire de tes deux mains, regarde nous bien Ils nous ont énervés, là, regarde nous bien Y'a qu'des gars qui savent pas où s'mettre, ça existe pas les bons à rien Faut pas oublier d'dire Je t'aime Faut pas oublier d'dire J't'emmerde si c'est nécessaire Ça fait du bien d'se laisser aller, c'est fini d'se faire J'ai toujours pas réussi à renvoyer ma box chez SFR mais j'ai fini mon album Chacun ses qualités, sa manière de se dire qu'il cartonne Moi, j'suis toujours avec mes potes et on finit notre album Bravo les gars, on cartonne, faut pas oublier d'dire Je t'aime Mamie est toujours sur le lit, à chaque fois c'est la même rengaine J'espère encore qu'elle réagisse J'lui fait un bisou sur le front mais c'est pas si magique, comme si c'était Paris, comme si c'était une princesse, mais c'est pas si facile Papi m'fait quatre bises sans sourire en m'appuyant l'épaule Ça veut dire Merci d'être venu, ça veut dire Merci pour tout Faut pas qu'j'oublie d'lui dire Je t'aime Faut pas oublier d'dire Je t'aime</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Les feuilles tombent, c'est pas la saison, on a dormi dans nos caisses On a dormi sur des cartons, nourri d'espoir tous nos rêves Déchiré, j'recherche la raison, toujours cette voix dans la tête Celle qui m'répète qu'j'suis en mission, qu'j'dois faire briller toutes ces lèvres Chiens et voisins n'font qu'aboyer quand il pleut L'maire a décidé qu'on d'vait partir, il s'est pris pour un dieu c'fils de pute J'crie sous la lune, j'ferme les yeux et j'vise le but L'prochain trou du cul qui hauss la voix d'vant nous, j'lui monte dessus On a grandi dans l'seum, on a grandi sur l'suil Loin des familles d'la télé où les gosses insultent leur reum Y a des caddies dans l'fleuve près des trafiquants d'skunk Des darons qui bluffent à la carte, qui jouent tapis, bref, Y a plus d'bâtiments neufs à zup de la Bourgogne C'est l'froid du vent qui t'coupe, c'est pas l'soleil qui t'cogne Pas la maladie qui t'canne, y a des curs à rafistoler, fiston Remonte ton col, va vite bosser Ils ont rasé nos quartiers, ils ont rasé nos souvenirs J'peux plus marcher dans les rues où les trottoirs m'ont vu grandir Les mêmes sur lesquels j'ai roulé mes premières pelles, sur lesquels j'ai vomi Mélodie grise qui s'répète, sur laquelle on évolue Y a pas d'seille-o pour les sorties d'classe On leur a dit d'rentrer chez eux donc ils ont sorti l'schlass Polo Celio au pollen, chaque an fallait paraître classe On mate la f'nêtre et on s'demande si on va rester là Chicots jaunies par un caramel qui s'effrite comme mon pull Viens chez moi juste deux minutes et puis regarde comment il pleut On attend plus un miracle, on attend juste le bus, entassés Juste un peu plus, histoire que les nuages arrêtent de pleurer Pain bagnat sauce andalouse, coupé en quatre pour les cous' Tournoi d'foot à domicile, c'est nous qu'on gagne à tous les coups À l'extérieur, ça part en debza, barres de fer dans les tibias Tête à tête pour représenter un quartier dont on veut même pas You might also like J'regarde en l'air, j'vois pas la fin des tours J'regarde au loin, j'vois pas la fin des nuages J'veux pas qu'maman attende la fin d'ses jours Du coup, j'm'arrache Les yeux en l'air, j'crois qu'les étoiles m'envoient message subliminal Gosse de la rue qui va s'laver à la piscine municipale Cancer généralisé, on finit par l'banaliser La mort, c'est pas comme la misère j'pourrais pas m'y habituer J'pousse la porte de la maison, maman en pleurs sur l'escalier Papa va partir donc elle sait pas où on va aller, allez Enfance troublée, trop bien caché pour s'trouver J'vais pas chanter Papaoutai, qu'il aille bien s'faire enculer J'regarde en l'air, j'vois pas la fin des tours J'regarde au loin, j'vois pas la fin des nuages J'veux pas qu'maman attende la fin d'ses jours Du coup, j'm'arrache Le ciel est gris, c'est toujours la crise, nous, on n'a rien connu d'autre Clopes à l'unité au hanout, la famille va pas jouer les snobs J'suis dans l'métro, rien n'a changé, j'écoute N.I.R.O Mauvais il dans la caisse pour ceux qui regardent de haut Destin bloqué comme une gova rue des postes CPE dit qu'y a pas d'débouché, il va boire du Destop J'passe au tabac, j'prends un Camel, serre trois paluches Regard sombre, tout pâle comme la Lune, on vient du Nord comme les faluches On conjugue avec des fils de pute</t>
+          <t>Les feuilles tombent, c'est pas la saison, on a dormi dans nos caisses On a dormi sur des cartons, nourri d'espoir tous nos rêves Déchiré, j'recherche la raison, toujours cette voix dans la tête Celle qui m'répète qu'j'suis en mission, qu'j'dois faire briller toutes ces lèvres Chiens et voisins n'font qu'aboyer quand il pleut L'maire a décidé qu'on d'vait partir, il s'est pris pour un dieu c'fils de pute J'crie sous la lune, j'ferme les yeux et j'vise le but L'prochain trou du cul qui hauss la voix d'vant nous, j'lui monte dessus On a grandi dans l'seum, on a grandi sur l'suil Loin des familles d'la télé où les gosses insultent leur reum Y a des caddies dans l'fleuve près des trafiquants d'skunk Des darons qui bluffent à la carte, qui jouent tapis, bref, Y a plus d'bâtiments neufs à zup de la Bourgogne C'est l'froid du vent qui t'coupe, c'est pas l'soleil qui t'cogne Pas la maladie qui t'canne, y a des curs à rafistoler, fiston Remonte ton col, va vite bosser Ils ont rasé nos quartiers, ils ont rasé nos souvenirs J'peux plus marcher dans les rues où les trottoirs m'ont vu grandir Les mêmes sur lesquels j'ai roulé mes premières pelles, sur lesquels j'ai vomi Mélodie grise qui s'répète, sur laquelle on évolue Y a pas d'seille-o pour les sorties d'classe On leur a dit d'rentrer chez eux donc ils ont sorti l'schlass Polo Celio au pollen, chaque an fallait paraître classe On mate la f'nêtre et on s'demande si on va rester là Chicots jaunies par un caramel qui s'effrite comme mon pull Viens chez moi juste deux minutes et puis regarde comment il pleut On attend plus un miracle, on attend juste le bus, entassés Juste un peu plus, histoire que les nuages arrêtent de pleurer Pain bagnat sauce andalouse, coupé en quatre pour les cous' Tournoi d'foot à domicile, c'est nous qu'on gagne à tous les coups À l'extérieur, ça part en debza, barres de fer dans les tibias Tête à tête pour représenter un quartier dont on veut même pas J'regarde en l'air, j'vois pas la fin des tours J'regarde au loin, j'vois pas la fin des nuages J'veux pas qu'maman attende la fin d'ses jours Du coup, j'm'arrache Les yeux en l'air, j'crois qu'les étoiles m'envoient message subliminal Gosse de la rue qui va s'laver à la piscine municipale Cancer généralisé, on finit par l'banaliser La mort, c'est pas comme la misère j'pourrais pas m'y habituer J'pousse la porte de la maison, maman en pleurs sur l'escalier Papa va partir donc elle sait pas où on va aller, allez Enfance troublée, trop bien caché pour s'trouver J'vais pas chanter Papaoutai, qu'il aille bien s'faire enculer J'regarde en l'air, j'vois pas la fin des tours J'regarde au loin, j'vois pas la fin des nuages J'veux pas qu'maman attende la fin d'ses jours Du coup, j'm'arrache Le ciel est gris, c'est toujours la crise, nous, on n'a rien connu d'autre Clopes à l'unité au hanout, la famille va pas jouer les snobs J'suis dans l'métro, rien n'a changé, j'écoute N.I.R.O Mauvais il dans la caisse pour ceux qui regardent de haut Destin bloqué comme une gova rue des postes CPE dit qu'y a pas d'débouché, il va boire du Destop J'passe au tabac, j'prends un Camel, serre trois paluches Regard sombre, tout pâle comme la Lune, on vient du Nord comme les faluches On conjugue avec des fils de pute</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Faut les mêmes lettres sur LOlympia qusur les courriers des impôts Leur ciel a moins d'étoiles que les yeux dmes sins-cou Tout va bien, on est toujours debout, jregarde les lignes défiler, jregarde plus la route Jai passé lâge de plus croire en moi, jétais gamin, jfermais les yeux devant des croix en bois Verre à moitié vide, mais on lboit, tête à l'envers, mais cur à lendroit À cloche-pied dans les flaques de sang, la marelle, policiers la dessinent Au sol, résidus d'aérosol, au sun, on fait pousser la résine Shit aussi gras qumoi en 2012, dans lplaco, y a des trous comme dans nos socquettes Socquettes Phalanges pétées, trous d'boulette, c'était pas ça notre rêve Réveil tape très fort dans la tête vide, coffre du Kangoo en août, cest un Tétris À cause des gouttes pour cacher la fume, on a des taches noires dans la rétine La moitié dlalim dans la vessie, un peu trop à l'envers pour décider Il manque quelques têtes sur le selfie, mais jai encore la force de les dessiner Ah bah ouais, ah bah ouais, ouh Jvais finir sourd, clic, clic, boom Jai trop dforce en moi, y a trop dforce en nous Jvais finir sourd, clic, clic, boom Jai trop dforce en moi, y a trop dforce en nous You might also like Jferme un peu les yeux, jpeux presque entendre les anges Y a trop dforce en moi, y a trop dforce en nous Jferme un peu les yeux, jpeux presque entendre les anges Y a trop dforce en moi, y a trop dforce en nous Ça vient d'là où les gens caillent avec le smile Les yeux rouges comme les briques, comme si jallais au stade Let's go Kipsta dans sac de sport, rappelle-toi, à lépoque, on navait pas la cote Cest réel Jfais pas dans lartifice, les miens sont discrets, on fait ça façon District Jfais du rap pour les incultes, les surdoués Jaimerais apprendre à tout l'monde quon peut douter Tu trappelles quand on était jeunes, le bruit du vide et dla Playstation À seize ans, on a fini l'école, à vingt ans, on a fini Lidl Jai lespoir qui fond trop vite dans corps isotherme Ils nous kiffent, on grossit, ils nous craignent cest pas lbon protocole Jaime bien ta musique, mais jcrois qujpréfère le bruit du motocross Lets go Ah bah ouais, ah bah ouais, ouh Jvais finir sourd, clic, clic, boom Jai trop dforce en moi, y a trop dforce en nous Jvais finir sourd, clic, clic, boom Jai trop dforce en moi, y a trop dforce en nous Jferme un peu les yeux, jpeux presque entendre les anges Y a trop dforce en moi, y a trop dforce en nous Jferme un peu les yeux, jpeux presque entendre les anges Y a trop dforce en moi, y a trop dforce en nous Jai des visions dà lancienne, javais des rêves, on y est On peut monter au sommet, jveux pas tomber daussi haut Jai des visions dà lancienne Jai des visions dà lancienne On peut monter au sommet, jveux pas tomber daussi haut</t>
+          <t>Faut les mêmes lettres sur LOlympia qusur les courriers des impôts Leur ciel a moins d'étoiles que les yeux dmes sins-cou Tout va bien, on est toujours debout, jregarde les lignes défiler, jregarde plus la route Jai passé lâge de plus croire en moi, jétais gamin, jfermais les yeux devant des croix en bois Verre à moitié vide, mais on lboit, tête à l'envers, mais cur à lendroit À cloche-pied dans les flaques de sang, la marelle, policiers la dessinent Au sol, résidus d'aérosol, au sun, on fait pousser la résine Shit aussi gras qumoi en 2012, dans lplaco, y a des trous comme dans nos socquettes Socquettes Phalanges pétées, trous d'boulette, c'était pas ça notre rêve Réveil tape très fort dans la tête vide, coffre du Kangoo en août, cest un Tétris À cause des gouttes pour cacher la fume, on a des taches noires dans la rétine La moitié dlalim dans la vessie, un peu trop à l'envers pour décider Il manque quelques têtes sur le selfie, mais jai encore la force de les dessiner Ah bah ouais, ah bah ouais, ouh Jvais finir sourd, clic, clic, boom Jai trop dforce en moi, y a trop dforce en nous Jvais finir sourd, clic, clic, boom Jai trop dforce en moi, y a trop dforce en nous Jferme un peu les yeux, jpeux presque entendre les anges Y a trop dforce en moi, y a trop dforce en nous Jferme un peu les yeux, jpeux presque entendre les anges Y a trop dforce en moi, y a trop dforce en nous Ça vient d'là où les gens caillent avec le smile Les yeux rouges comme les briques, comme si jallais au stade Let's go Kipsta dans sac de sport, rappelle-toi, à lépoque, on navait pas la cote Cest réel Jfais pas dans lartifice, les miens sont discrets, on fait ça façon District Jfais du rap pour les incultes, les surdoués Jaimerais apprendre à tout l'monde quon peut douter Tu trappelles quand on était jeunes, le bruit du vide et dla Playstation À seize ans, on a fini l'école, à vingt ans, on a fini Lidl Jai lespoir qui fond trop vite dans corps isotherme Ils nous kiffent, on grossit, ils nous craignent cest pas lbon protocole Jaime bien ta musique, mais jcrois qujpréfère le bruit du motocross Lets go Ah bah ouais, ah bah ouais, ouh Jvais finir sourd, clic, clic, boom Jai trop dforce en moi, y a trop dforce en nous Jvais finir sourd, clic, clic, boom Jai trop dforce en moi, y a trop dforce en nous Jferme un peu les yeux, jpeux presque entendre les anges Y a trop dforce en moi, y a trop dforce en nous Jferme un peu les yeux, jpeux presque entendre les anges Y a trop dforce en moi, y a trop dforce en nous Jai des visions dà lancienne, javais des rêves, on y est On peut monter au sommet, jveux pas tomber daussi haut Jai des visions dà lancienne Jai des visions dà lancienne On peut monter au sommet, jveux pas tomber daussi haut</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Han, depuis quand les flics apprécient pas qu'on les filme ? On en croise à la télé tous les soirs Quont d'ailleurs très souvent plus rien à voir avec ceux qui passent à la té-ci' tous les soirs Et qui, eux, pour le coup, mériteraient quon les filme Comme le dirait Krilin j'peux pas les sentir et, comme le dirait Jimmie j'peux plus les voir Ça réclame de freiner puis ça met les gaz, comment voulez-vous qu'on les suive ? C'est censé protéger les gens, ça s'régale à les gazer, comment voulez-vous qu'on les kiffe ? Y'aura pas dpétanque, yaura pas d'on est quittes, non Dt'façons, l'problème, c'est pas vraiment les flics, vu qutous ces types c'est pas vraiment des flics Aussi sûr qu'on n'est pas tous réalisateurs, mais le fait est qu'la justice est aveugle Et que, quelle que soit l'ampleur de la bavure, on n'aura jamais les baveux des baveurs Parole de dépanneur qu'a passé sa vie à s'faire contrôler comme le pire des bicraveurs Et qu'a toujours rêvé d'leur cracher à la gueule, dix fois pire que s'il était rappeur C'est plus les gardiens d'la paix mais d'la peur On nous en a bien assez donné la preuve, grand C'est plus les gardiens d'la paix mais d'la peur Wow, qu'-qu'-qu'-qu'-qu'-qu'-qu'-qu'-qu'-qu'est-ce qu'il s'passe ? Hey, hey Wow, qu'-qu'-qu'-qu'-qu'-qu'est-ce qu'il s'passe ? Hey Bouge d'ici aussi vite que t'y es apparu, qui voudrait m'priver d'mon droit d'ma lumière ? Fumer d'quoi buter la moitié d'ma rue, j'évacue qu'une fois la lune allumée Les pénètre en plein air et ça fait d'la buée, j'fais d'la musique parfumée Toi, tu fumes l'allu', c'est pas du déjà vu, c'est d'la pure, j'fais d'la , toi, tu calumet, c'est d'déclarer la guerre, déclarer la guerre et la faire Déclarer la guerre, la faire et la perdre d'la manière la plus abusée, j'ai la tête Prête à péter rien qu'à l'idée qu'on m'décapite et la bite prête à péter rien qu'à l'idée d'te la mettre Tu ferais mieux d'te barrer, Deadi vient d'lâcher la bête, hey han You might also like Dire que j'devrais être en bas d'chez oi-m' à freestyle, à la place J'me retrouve à freestyle à La Place Comme quoi, j'ai pas fini d'être sur le cul, déjà qu'j'ai appris récemment Qu'personne est à l'abri d'finir à la Fnac Que les écrits restent et qu'les chats ça part, D-E-A-D-I débarque J'ai l'coup d'stylo illégal et stylé qui les castre Wow, qu'-qu'-qu'-qu'-qu'-qu'est-ce qu'il s'passe ? Grand, hey J'te la fais sans esbrouffe, qui pensait m'foutre ma branlée s'goure Et, si jamais on est déjantés, l'trouve Qui soient pas surpris d'se faire rouer d'coups, trancher ou s'faire planter l'cou J'suis l'seul ici qui fait semblant d'être fou C'qu'est toujours mieux qu'de faire semblant d'être vous À quoi bon tiser si l'idée d'avoir à manger m'saoule ? Mon fléau connaît tous les sorts d'Shang Tsung, les sort et t'chourre Ton âme presque aussi facilement qu'Facebook Doté du côté cool et chiant d'Deadpool, j'vous aime tous Autant qu'vous êtes et vous emmerde tous en même temps C'qui nécessite beaucoup d'entraînement, autant qu's'branler Sans les mains ou d'bander sans traitement j'fais couler l'encre Et l'sang quand ça m'prend et pas seulement quand j'ai l'temps Gratuitement, et tu prends si cher qu'c'en est d'l'endettement J'ai grandi sans frère, sans guide devant qui m'repentirait, sans exemple À quoi bon changer d'branche ? La forêt entière flambe À part La Bête, y'a personne qui m'attend bêtement Les rôles s'inversent, les nains s'mettent au lancer d'grands Dérangé, j'dérange à la Dante sans mèche blanche T'enseigne l'art de baisser les bras en les l'vant T'enseigne l'art de foirer ton propre enlèvement T'enseigne l'art de t'marrer à ton enterrement Tu f'rais mieux d'changer d'camp, d'tenter d'prendre les d'vants Quand t'es d'vant l'plus grand des experts en encaissement D'cas sociaux édentés aux idées aussi tranchées qu'lents Et gentiment méchants mais quand même chiants Wow, qu'-qu'-qu'-qu'-qu'est-ce qu'il s'passe, les gens ? Hey han Han Paraît qu'la planète se meurt, encore heureux qu'j'ai trois têtes de beuh quelle que soit l'occasion Pour oublier qu'la planète se meurt, que j'ai plus qu'trois têtes de beuh et trop peu d'occasions D'laisser parler mon cur mais, mon cur, c'est un con qui fait qu'raconter des conneries, un con Tout juste bon à m'faire péter un plomb, et tu sais qu'j'suis pas du genre à construire un pont J'te déconseille de m'conseiller d'baisser d'un ton, mon truc est plus chaud qu'du vomi d'dragon Aussi chaud qu'de passer l'été à l'ombre et d's'autocirconcire avec l'épée d'Tapion T'as cru qu't'étais un lion mais, faut être honnête, t'aurais mieux fait d'te contenter d'tes croquettes T'as trop confondu compét' et conquête sur l'échiquier du rap, même le roi n'est qu'un pion J'ai tous les mauvais côtés d'un bon gars et tous les bons côtés d'un mauvais garçon À chaque fois qu'j'hésite à passer la seconde, la voix d'Adil me dit d'y aller à fond Lâcher c'phrasé et radier toutes les fédérations, c'rap irradié après deux cents pourcents Qui récupère ton sang pour s'en faire des glaçons, qui récupère tes cendres pour en faire des savons Grand, hey, han Han, wow, qu'-qu'-qu'-qu'-qu'est-ce qu'il s'passe ? J't'ai écouté rapper, j'ai eu envie d'te tailler mais j'me suis dit qu't'étais p't-être handicapé Et c'est ça qui a fait qu'j'en ai eu encore plus envie après Je sais pas c'qui t'a pris mais dis-toi qu't'es pas prêt et qu'on risque pas d'y passer la nuit J'ai même pas démarré qu't'es déjà dépassé, qui tu crois qu'tu vas réussir à suivre ? À c'qu'il paraît, l'avenir, il s'nourrit du passé, bah, ce soir, c'est l'passé qui va niquer l'avenir Et l'avenir, après ça, il aura plus qu'à lui bouffer la bite Écartez-vous d'la piste, y'a plus rien à y foutre à part des ka mate, ka mate Si t'es qu'à moitié fou, les fous t'aiment qu'à moitié t'as qu'à t'les couper, si t'en as les couilles, grand hey Vos raps à deux balles ont le même parfum, m'font taper des barres comme une hyène qu'a faim Aussi condamné qu'un John Caffey, Deadi déraille à la vitesse d'un train Pas b'soin d'médecin, d'tes soins, j'détiens à la fois la maladie et l'vaccin Mon fléau fait l'effet d'un verre d'absinthe que tu bois cul-sec et digères moyen Tu pourrais finir invalide, à faire le malin face à celui qu'le Malin valide Assassin linguistique, stick à la main, cannabis, file Mon côté schlague a pas pris d'ride, mérite une prime à la rime Une visite à l'asile, oui, j'ai déjà l'sourire du Joker plaqué sur la face à l'idée qu'ça arrive J'milite pour l'euthanasie de ceux qui aiment pas la vie, paralysés ou pas La matrice est tout-par', alors pourquoi la fuir ? On sait déjà tous où tout ça va ni-f' Grand, on sait déjà tous où tout ça va ni-f' Wow, qu'-qu'-qu'-qu'-qu'est-ce qu'il s'passe ? Hey, wow, qu'-qu'-qu'-qu'-qu'est-ce qu'il s'passe ? T'as pas capté c'que j'ai dit, mec, j'ai ni d'éthique ni d'étiquette mais J'ai du bon shit dans ma shitière et de la bonne weed pour le week-end T'as pas capté c'que j'ai dit, mec, j'ai ni d'éthique ni d'étiquette mais J'ai du bon shit dans ma shitière et de la bonne weed pour le week-end On est dix-sept dans ma tête et y'en a dix raides déchirés qui t'cherchent si jamais tu fais la fine bouche, sixième Effet Kiss Cool, tes narines saignent ceux qui disent en avoir dans l'bide, on les dissèque J'ramais déjà bien avant l'départ du capitaine, la déprogrammation du Capitaine Flamme Tu sais, la vie, c'est pas si compliqué qu'ça soit t'es businessman, soit tu businesses pas Ou ton business va t'niquer vite fait, j'rappe à la vitesse à laquelle les paquets quittent l'Espagne, grand Faut pas dire qu'on est des fous, on les défonce et c'est tout On les défonce et, une fois qu'on les a bien tous défoncés, on les découpe On les fout dans des pochetons et on s'fait des sous plutôt que d'se crever l'cul à creuser des trous ha T'as pas capté c'que j'ai dit, mec, j'ai ni d'éthique ni d'étiquette mais J'ai du bon shit dans ma shitière et de la bonne weed pour le week-end T'as pas capté c'que j'ai dit, mec, j'ai ni d'éthique ni d'étiquette mais J'ai du bon shit dans ma shitière et de la bonne weed pour le week-end Oui, mec, t'as pas capté c'que j'ai dit ? Han Wow, qu'-qu'-qu'-qu'-qu'est-ce qu'il s'passe, les gens ?</t>
+          <t>Han, depuis quand les flics apprécient pas qu'on les filme ? On en croise à la télé tous les soirs Quont d'ailleurs très souvent plus rien à voir avec ceux qui passent à la té-ci' tous les soirs Et qui, eux, pour le coup, mériteraient quon les filme Comme le dirait Krilin j'peux pas les sentir et, comme le dirait Jimmie j'peux plus les voir Ça réclame de freiner puis ça met les gaz, comment voulez-vous qu'on les suive ? C'est censé protéger les gens, ça s'régale à les gazer, comment voulez-vous qu'on les kiffe ? Y'aura pas dpétanque, yaura pas d'on est quittes, non Dt'façons, l'problème, c'est pas vraiment les flics, vu qutous ces types c'est pas vraiment des flics Aussi sûr qu'on n'est pas tous réalisateurs, mais le fait est qu'la justice est aveugle Et que, quelle que soit l'ampleur de la bavure, on n'aura jamais les baveux des baveurs Parole de dépanneur qu'a passé sa vie à s'faire contrôler comme le pire des bicraveurs Et qu'a toujours rêvé d'leur cracher à la gueule, dix fois pire que s'il était rappeur C'est plus les gardiens d'la paix mais d'la peur On nous en a bien assez donné la preuve, grand C'est plus les gardiens d'la paix mais d'la peur Wow, qu'-qu'-qu'-qu'-qu'-qu'-qu'-qu'-qu'-qu'est-ce qu'il s'passe ? Hey, hey Wow, qu'-qu'-qu'-qu'-qu'-qu'est-ce qu'il s'passe ? Hey Bouge d'ici aussi vite que t'y es apparu, qui voudrait m'priver d'mon droit d'ma lumière ? Fumer d'quoi buter la moitié d'ma rue, j'évacue qu'une fois la lune allumée Les pénètre en plein air et ça fait d'la buée, j'fais d'la musique parfumée Toi, tu fumes l'allu', c'est pas du déjà vu, c'est d'la pure, j'fais d'la , toi, tu calumet, c'est d'déclarer la guerre, déclarer la guerre et la faire Déclarer la guerre, la faire et la perdre d'la manière la plus abusée, j'ai la tête Prête à péter rien qu'à l'idée qu'on m'décapite et la bite prête à péter rien qu'à l'idée d'te la mettre Tu ferais mieux d'te barrer, Deadi vient d'lâcher la bête, hey han Dire que j'devrais être en bas d'chez oi-m' à freestyle, à la place J'me retrouve à freestyle à La Place Comme quoi, j'ai pas fini d'être sur le cul, déjà qu'j'ai appris récemment Qu'personne est à l'abri d'finir à la Fnac Que les écrits restent et qu'les chats ça part, D-E-A-D-I débarque J'ai l'coup d'stylo illégal et stylé qui les castre Wow, qu'-qu'-qu'-qu'-qu'-qu'est-ce qu'il s'passe ? Grand, hey J'te la fais sans esbrouffe, qui pensait m'foutre ma branlée s'goure Et, si jamais on est déjantés, l'trouve Qui soient pas surpris d'se faire rouer d'coups, trancher ou s'faire planter l'cou J'suis l'seul ici qui fait semblant d'être fou C'qu'est toujours mieux qu'de faire semblant d'être vous À quoi bon tiser si l'idée d'avoir à manger m'saoule ? Mon fléau connaît tous les sorts d'Shang Tsung, les sort et t'chourre Ton âme presque aussi facilement qu'Facebook Doté du côté cool et chiant d'Deadpool, j'vous aime tous Autant qu'vous êtes et vous emmerde tous en même temps C'qui nécessite beaucoup d'entraînement, autant qu's'branler Sans les mains ou d'bander sans traitement j'fais couler l'encre Et l'sang quand ça m'prend et pas seulement quand j'ai l'temps Gratuitement, et tu prends si cher qu'c'en est d'l'endettement J'ai grandi sans frère, sans guide devant qui m'repentirait, sans exemple À quoi bon changer d'branche ? La forêt entière flambe À part La Bête, y'a personne qui m'attend bêtement Les rôles s'inversent, les nains s'mettent au lancer d'grands Dérangé, j'dérange à la Dante sans mèche blanche T'enseigne l'art de baisser les bras en les l'vant T'enseigne l'art de foirer ton propre enlèvement T'enseigne l'art de t'marrer à ton enterrement Tu f'rais mieux d'changer d'camp, d'tenter d'prendre les d'vants Quand t'es d'vant l'plus grand des experts en encaissement D'cas sociaux édentés aux idées aussi tranchées qu'lents Et gentiment méchants mais quand même chiants Wow, qu'-qu'-qu'-qu'-qu'est-ce qu'il s'passe, les gens ? Hey han Han Paraît qu'la planète se meurt, encore heureux qu'j'ai trois têtes de beuh quelle que soit l'occasion Pour oublier qu'la planète se meurt, que j'ai plus qu'trois têtes de beuh et trop peu d'occasions D'laisser parler mon cur mais, mon cur, c'est un con qui fait qu'raconter des conneries, un con Tout juste bon à m'faire péter un plomb, et tu sais qu'j'suis pas du genre à construire un pont J'te déconseille de m'conseiller d'baisser d'un ton, mon truc est plus chaud qu'du vomi d'dragon Aussi chaud qu'de passer l'été à l'ombre et d's'autocirconcire avec l'épée d'Tapion T'as cru qu't'étais un lion mais, faut être honnête, t'aurais mieux fait d'te contenter d'tes croquettes T'as trop confondu compét' et conquête sur l'échiquier du rap, même le roi n'est qu'un pion J'ai tous les mauvais côtés d'un bon gars et tous les bons côtés d'un mauvais garçon À chaque fois qu'j'hésite à passer la seconde, la voix d'Adil me dit d'y aller à fond Lâcher c'phrasé et radier toutes les fédérations, c'rap irradié après deux cents pourcents Qui récupère ton sang pour s'en faire des glaçons, qui récupère tes cendres pour en faire des savons Grand, hey, han Han, wow, qu'-qu'-qu'-qu'-qu'est-ce qu'il s'passe ? J't'ai écouté rapper, j'ai eu envie d'te tailler mais j'me suis dit qu't'étais p't-être handicapé Et c'est ça qui a fait qu'j'en ai eu encore plus envie après Je sais pas c'qui t'a pris mais dis-toi qu't'es pas prêt et qu'on risque pas d'y passer la nuit J'ai même pas démarré qu't'es déjà dépassé, qui tu crois qu'tu vas réussir à suivre ? À c'qu'il paraît, l'avenir, il s'nourrit du passé, bah, ce soir, c'est l'passé qui va niquer l'avenir Et l'avenir, après ça, il aura plus qu'à lui bouffer la bite Écartez-vous d'la piste, y'a plus rien à y foutre à part des ka mate, ka mate Si t'es qu'à moitié fou, les fous t'aiment qu'à moitié t'as qu'à t'les couper, si t'en as les couilles, grand hey Vos raps à deux balles ont le même parfum, m'font taper des barres comme une hyène qu'a faim Aussi condamné qu'un John Caffey, Deadi déraille à la vitesse d'un train Pas b'soin d'médecin, d'tes soins, j'détiens à la fois la maladie et l'vaccin Mon fléau fait l'effet d'un verre d'absinthe que tu bois cul-sec et digères moyen Tu pourrais finir invalide, à faire le malin face à celui qu'le Malin valide Assassin linguistique, stick à la main, cannabis, file Mon côté schlague a pas pris d'ride, mérite une prime à la rime Une visite à l'asile, oui, j'ai déjà l'sourire du Joker plaqué sur la face à l'idée qu'ça arrive J'milite pour l'euthanasie de ceux qui aiment pas la vie, paralysés ou pas La matrice est tout-par', alors pourquoi la fuir ? On sait déjà tous où tout ça va ni-f' Grand, on sait déjà tous où tout ça va ni-f' Wow, qu'-qu'-qu'-qu'-qu'est-ce qu'il s'passe ? Hey, wow, qu'-qu'-qu'-qu'-qu'est-ce qu'il s'passe ? T'as pas capté c'que j'ai dit, mec, j'ai ni d'éthique ni d'étiquette mais J'ai du bon shit dans ma shitière et de la bonne weed pour le week-end T'as pas capté c'que j'ai dit, mec, j'ai ni d'éthique ni d'étiquette mais J'ai du bon shit dans ma shitière et de la bonne weed pour le week-end On est dix-sept dans ma tête et y'en a dix raides déchirés qui t'cherchent si jamais tu fais la fine bouche, sixième Effet Kiss Cool, tes narines saignent ceux qui disent en avoir dans l'bide, on les dissèque J'ramais déjà bien avant l'départ du capitaine, la déprogrammation du Capitaine Flamme Tu sais, la vie, c'est pas si compliqué qu'ça soit t'es businessman, soit tu businesses pas Ou ton business va t'niquer vite fait, j'rappe à la vitesse à laquelle les paquets quittent l'Espagne, grand Faut pas dire qu'on est des fous, on les défonce et c'est tout On les défonce et, une fois qu'on les a bien tous défoncés, on les découpe On les fout dans des pochetons et on s'fait des sous plutôt que d'se crever l'cul à creuser des trous ha T'as pas capté c'que j'ai dit, mec, j'ai ni d'éthique ni d'étiquette mais J'ai du bon shit dans ma shitière et de la bonne weed pour le week-end T'as pas capté c'que j'ai dit, mec, j'ai ni d'éthique ni d'étiquette mais J'ai du bon shit dans ma shitière et de la bonne weed pour le week-end Oui, mec, t'as pas capté c'que j'ai dit ? Han Wow, qu'-qu'-qu'-qu'-qu'est-ce qu'il s'passe, les gens ?</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Six heures du matin, gare du Nord, au bout du quai, jrallume un long teh Roulé la veille, jme demande cqucette vie va mapporter à long terme Jvois plus vraiment mon grand-père Jle vois mais jarrive pas à accepter quil tourne en boucle sans refermer sa bouteille Cest pas normal quça ménerve Les gens sont cquils sont, pas cque jvoudrais Ils font cquils font, pas forcément cquil faudrait Puis, jsuis personne pour savoir cqui est mieux Donc jfais comme tous ls jours jvais au tabac, jlâche dix balles Jcrame un garo et, jmets de la fumée dans les airs Jrajoute encore du gris dans mon ciel Jattends plus qula lumière nous réchauffe, lespoir serré dans létau Lesprit entre ici et ailleurs, sourire gêné sur les tos-ph' Jcrois qujaime rien plus que les autres Donc monter tout seul tout là-haut, cest pas mon délire Si jpeux pas fumer un teh avec mes khos en parlant dla vue, ah ouais Jme réveille grâce aux klaxons et au bruit d'la dalle Jme réveille jamais sans mdire quon va changer l'monde Jétais p'tit, jbalançais ma main dans les virages Jdemandais pourquoi tous les grands font des grimaces On mavait pas dit que le monde était si vaste Donc jattends plus qula mort maccueille Jveux tout niquer avant l'grand départ Au pire, au moins, on sévade Jtire et lseum sévapore depuis qu'des sourires seffacent On a de lespoir, on larrose, sinon, cest quoi ? On sarrache Sinon, cest quoi ? On abandonne, on laisse rien à la surface You might also like Jsuis avec un mec que jconnais qu'la nuit Fatigués, on vomit sur des briques Il srêvait à conduire le navire, faire la couverture des magazines Cest pas nous les préférés des filles, cest pas nous les préférés des flics Chef, ste plait un dernier verre, avant qujme lance un dernier défi Jai un pote qui est tombé pour d'la weed, pour une affaire déterrée depuis Jvais le voir, jlui raconte toute ma vie, jlui dis qujsais pas vraiment où jen suis À lui, jpeux lui dire, aux autres, jassume pas, aux autres, jai peur Jmapproche du feu, des projecteurs, jallume une Camel Jmets de la fumée dans les airs jmets de la fumée dans les airs, jmets de la fumée dans les airs, jmets de la fumée dans les airs Jrajoute encore du gris dans mon ciel jrajoute encore du gris dans mon ciel, jrajoute encore du gris dans mon ciel, jrajoute encore du gris dans mon ciel Jmets de la fumée dans les airs jmets de la fumée dans les airs, jmets de la fumée dans les airs, jmets de la fumée dans les airs Jrajoute encore du gris dans mon ciel jrajoute encore du gris dans mon ciel, jrajoute encore du gris dans mon ciel, jrajoute encore du gris dans mon ciel Jmets de la fumée dans les airs jmets de la fumée dans les airs, jmets de la fumée dans les airs, jmets de la fumée dans les airs Jrajoute encore du gris dans mon ciel jrajoute encore du gris dans mon ciel, jrajoute encore du gris dans mon ciel, jrajoute encore du gris dans mon ciel</t>
+          <t>Six heures du matin, gare du Nord, au bout du quai, jrallume un long teh Roulé la veille, jme demande cqucette vie va mapporter à long terme Jvois plus vraiment mon grand-père Jle vois mais jarrive pas à accepter quil tourne en boucle sans refermer sa bouteille Cest pas normal quça ménerve Les gens sont cquils sont, pas cque jvoudrais Ils font cquils font, pas forcément cquil faudrait Puis, jsuis personne pour savoir cqui est mieux Donc jfais comme tous ls jours jvais au tabac, jlâche dix balles Jcrame un garo et, jmets de la fumée dans les airs Jrajoute encore du gris dans mon ciel Jattends plus qula lumière nous réchauffe, lespoir serré dans létau Lesprit entre ici et ailleurs, sourire gêné sur les tos-ph' Jcrois qujaime rien plus que les autres Donc monter tout seul tout là-haut, cest pas mon délire Si jpeux pas fumer un teh avec mes khos en parlant dla vue, ah ouais Jme réveille grâce aux klaxons et au bruit d'la dalle Jme réveille jamais sans mdire quon va changer l'monde Jétais p'tit, jbalançais ma main dans les virages Jdemandais pourquoi tous les grands font des grimaces On mavait pas dit que le monde était si vaste Donc jattends plus qula mort maccueille Jveux tout niquer avant l'grand départ Au pire, au moins, on sévade Jtire et lseum sévapore depuis qu'des sourires seffacent On a de lespoir, on larrose, sinon, cest quoi ? On sarrache Sinon, cest quoi ? On abandonne, on laisse rien à la surface Jsuis avec un mec que jconnais qu'la nuit Fatigués, on vomit sur des briques Il srêvait à conduire le navire, faire la couverture des magazines Cest pas nous les préférés des filles, cest pas nous les préférés des flics Chef, ste plait un dernier verre, avant qujme lance un dernier défi Jai un pote qui est tombé pour d'la weed, pour une affaire déterrée depuis Jvais le voir, jlui raconte toute ma vie, jlui dis qujsais pas vraiment où jen suis À lui, jpeux lui dire, aux autres, jassume pas, aux autres, jai peur Jmapproche du feu, des projecteurs, jallume une Camel Jmets de la fumée dans les airs jmets de la fumée dans les airs, jmets de la fumée dans les airs, jmets de la fumée dans les airs Jrajoute encore du gris dans mon ciel jrajoute encore du gris dans mon ciel, jrajoute encore du gris dans mon ciel, jrajoute encore du gris dans mon ciel Jmets de la fumée dans les airs jmets de la fumée dans les airs, jmets de la fumée dans les airs, jmets de la fumée dans les airs Jrajoute encore du gris dans mon ciel jrajoute encore du gris dans mon ciel, jrajoute encore du gris dans mon ciel, jrajoute encore du gris dans mon ciel Jmets de la fumée dans les airs jmets de la fumée dans les airs, jmets de la fumée dans les airs, jmets de la fumée dans les airs Jrajoute encore du gris dans mon ciel jrajoute encore du gris dans mon ciel, jrajoute encore du gris dans mon ciel, jrajoute encore du gris dans mon ciel</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Terrasse de bar, jfais les trois bises du front Cest comment ? Ca fait du son ? Jréponds ouais, mais dans ma tête, jfais pas du son, jchange le monde Pour ta grand-mère, jfais yoyo, wesh Pour moi jenlève des parenthèses, et jraconte les nouvelles du front Jfais la vaisselle en short de foot Jaime le rap, cest dla lumière qui sort de nous Jfais pas dconcours de taille de bite, jparle pas des autres, ils font leur shit Jleur souhaite du bonhur et du fric, jme souhaite un canap t des chips Jsuis comme tout lmonde jai peur dcque jconnais pas, jai peur dlamour, jai peur des comptes-épargne Jaime pas les prouveurs, pas les faux débats, deux pieds sur l'accélérateur, ça empêche pas les faux départs Les oreilles décollées, ça mappelait Canalsat, les meufs, cest pas pour moi, mon couz ma dit attends la fac La pluie toute fraîche ça sent lasphalte, quatre-vingts eu' lG-Star ça sent larnaque Mon frérot Ange me prête ouest side ça sent la claque, han Ça y est, jpèse assez pour qules gens changent Jmen bats les couilles cest que dla merde, jreste sincère comme les enfants Parfois, jme perds dans les chiffres, les euros, les vues, les streams Et jme dis quceux qui parlent que doseille, cest ceux qui savent pas quoi dire dautre Ils mregardent chelou comme le dirlo, il veut une photo, jsuis gêné Jdis sisi, jsais pas quoi dire dautre Cest plus la Bosnie dans le frigo, jraisonne un pote qui pète un câble parce que sa meuf veut un dildo Wesh, les mecs, arrêtons dfaire les cons, tas peur de labandon cest juste ça, souffle un coup, fais des pompes Jsuis avec Lucci, Murer, Luis, jfais des sons, en cmoment, jbois plus, jfais des songes à nouveau Bientôt, jdors plus jfais des bonds, cest la pression de l'album You might also like Jsuis dans la voiture en train décrire, jcommence mon couplet par Jsuis dans la voiture en train décrire Quoi quil arrive tu peux mretrouver dans la voiture en train décrire Jaime bien rapper avant la batterie Jarrête décrire quand ça mdit batterie faible Jsuis pas pété, gros, cest la fatigue Jsuis pas triste, gros, cest la vie Jécoute Tandem, Imagine Tu mregardes, tu vois ma ville comme sur la cover dIllmatic Jaimerais bien feater Prince Waly, jfais que des sons avec des gens qui peuvent manger dans ma famille Jrepense au Trabendo, Martin qui fait la bise à Bakari Comme si cétait son grand cousin, comme si cétait la famille Cest pour ça quon fait dla musique Cest pas pour ssapper chez Colette, c'est pas pour dormir chez Brigitte Jfinis la track, j'm'envoie une frite et au lit Et jpense au jardin dpépère, lodeur de clope, les guerres de pissenlits</t>
+          <t>Terrasse de bar, jfais les trois bises du front Cest comment ? Ca fait du son ? Jréponds ouais, mais dans ma tête, jfais pas du son, jchange le monde Pour ta grand-mère, jfais yoyo, wesh Pour moi jenlève des parenthèses, et jraconte les nouvelles du front Jfais la vaisselle en short de foot Jaime le rap, cest dla lumière qui sort de nous Jfais pas dconcours de taille de bite, jparle pas des autres, ils font leur shit Jleur souhaite du bonhur et du fric, jme souhaite un canap t des chips Jsuis comme tout lmonde jai peur dcque jconnais pas, jai peur dlamour, jai peur des comptes-épargne Jaime pas les prouveurs, pas les faux débats, deux pieds sur l'accélérateur, ça empêche pas les faux départs Les oreilles décollées, ça mappelait Canalsat, les meufs, cest pas pour moi, mon couz ma dit attends la fac La pluie toute fraîche ça sent lasphalte, quatre-vingts eu' lG-Star ça sent larnaque Mon frérot Ange me prête ouest side ça sent la claque, han Ça y est, jpèse assez pour qules gens changent Jmen bats les couilles cest que dla merde, jreste sincère comme les enfants Parfois, jme perds dans les chiffres, les euros, les vues, les streams Et jme dis quceux qui parlent que doseille, cest ceux qui savent pas quoi dire dautre Ils mregardent chelou comme le dirlo, il veut une photo, jsuis gêné Jdis sisi, jsais pas quoi dire dautre Cest plus la Bosnie dans le frigo, jraisonne un pote qui pète un câble parce que sa meuf veut un dildo Wesh, les mecs, arrêtons dfaire les cons, tas peur de labandon cest juste ça, souffle un coup, fais des pompes Jsuis avec Lucci, Murer, Luis, jfais des sons, en cmoment, jbois plus, jfais des songes à nouveau Bientôt, jdors plus jfais des bonds, cest la pression de l'album Jsuis dans la voiture en train décrire, jcommence mon couplet par Jsuis dans la voiture en train décrire Quoi quil arrive tu peux mretrouver dans la voiture en train décrire Jaime bien rapper avant la batterie Jarrête décrire quand ça mdit batterie faible Jsuis pas pété, gros, cest la fatigue Jsuis pas triste, gros, cest la vie Jécoute Tandem, Imagine Tu mregardes, tu vois ma ville comme sur la cover dIllmatic Jaimerais bien feater Prince Waly, jfais que des sons avec des gens qui peuvent manger dans ma famille Jrepense au Trabendo, Martin qui fait la bise à Bakari Comme si cétait son grand cousin, comme si cétait la famille Cest pour ça quon fait dla musique Cest pas pour ssapper chez Colette, c'est pas pour dormir chez Brigitte Jfinis la track, j'm'envoie une frite et au lit Et jpense au jardin dpépère, lodeur de clope, les guerres de pissenlits</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Hey, check 1-2, il faut qu'je flex un peu Avec un teh plein de beuh, p't-être un deux feuilles Que j'quitte le tieks un peu, j'en ai marre d'eux J'en ai marre de penser à mon ex quand j'me pieute Fuck l'anxiété, c'est peut-être dangereux Est-c'que j'suis quelqu'un de pieux ? En tout cas, j'pense à Diu quand je peux Bip-bip, big RDV, j'flex vit en X-ADV En fonction d'ce teint d'peau, est-c'que ce flic va m'aider ? J'sais pas J'suis devant l'club à 6 o'clock à fêter et lui, il m'ti-sor son opinel Il arrive comme contrôle inopiné, j'me rappelle de quand j'étais minot Des bêtes de fous rires, à 13 piges, j'lâchais des 16 comme les mecs de Q.B Beleck, Genève c'est Konoha, j'vais pas rétrograder, futur hokage Même les rolotos le savent, big smoke, juste follow dans le sas Sous drogue comme Snoop Doggy Doggy Best life, best life, headliner Best life, best life, tu sais dans l'futur, j'suis headliner Ici-bas, chacun pour sa gueule J'use mes Nike, je n'suis qu'un rider Best life, best life, tu sais dans l'futur, j'suis headliner Ici-bas, chacun pour sa gueule J'use mes Nike, je n'suis qu'un rider You might also like J'suis pas aller aux sports d'hiver c'est un truc de bourge J'suis dans cette merde pour qu'on n'ait plus b'soin d'somnifère 20-24 les fachos prolifèrent, ça dégoûte Israel tire sur Beyrouth, on en parle pas assez J'fume l'olivette, chouf, la violence escalade Cette nuit, ça tire en Palestine, c'matin, ils parlent du Met Gala Oreillettes-baladeur, capuche Carhartt Appartement neuf avec balcon, pour nous c'est l'big palace On tient un truc ces temps-ci, j'me cache plus, j'suis sensible J'peux pas encaisser toutes ces choses, gros j'ai pas l'cur extensible Concert à Auxerre ou à Brest, j'y vais sans flipper Même si j'vends 300 tickets, j'fais pas la star, le mec compliqué J'suis v'nu pour kicker, j'suis v'nu pour Di-Meh Depuis Focus sur le p'tit ordi, pour mes futurs darons comme Mister-T Pour l'instant, j'en ai pas les couilles, j'rappe des douleurs Dans mon ciel, y'a d'la couleur, dans mes yeux, y'a d'la foudre C'est pas un coup d'bluff, pour maman, j'suis déjà headliner C'est pas l'S-Line qui sèche l'highliner, wesh ma gueule Best life, best life, headliner Best life, best life, tu sais dans l'futur, j'suis headliner Ici-bas, chacun pour sa gueule J'use mes Nike, je n'suis qu'un rider Best life, best life, tu sais dans l'futur, j'suis headliner Ici-bas, chacun pour sa gueule J'use mes Nike, je n'suis qu'un rider Best life, best life, tu sais dans l'futur, j'suis headliner Chacun pour sa gueule Je n'suis qu'un rider Best life, best life, headliner</t>
+          <t>Hey, check 1-2, il faut qu'je flex un peu Avec un teh plein de beuh, p't-être un deux feuilles Que j'quitte le tieks un peu, j'en ai marre d'eux J'en ai marre de penser à mon ex quand j'me pieute Fuck l'anxiété, c'est peut-être dangereux Est-c'que j'suis quelqu'un de pieux ? En tout cas, j'pense à Diu quand je peux Bip-bip, big RDV, j'flex vit en X-ADV En fonction d'ce teint d'peau, est-c'que ce flic va m'aider ? J'sais pas J'suis devant l'club à 6 o'clock à fêter et lui, il m'ti-sor son opinel Il arrive comme contrôle inopiné, j'me rappelle de quand j'étais minot Des bêtes de fous rires, à 13 piges, j'lâchais des 16 comme les mecs de Q.B Beleck, Genève c'est Konoha, j'vais pas rétrograder, futur hokage Même les rolotos le savent, big smoke, juste follow dans le sas Sous drogue comme Snoop Doggy Doggy Best life, best life, headliner Best life, best life, tu sais dans l'futur, j'suis headliner Ici-bas, chacun pour sa gueule J'use mes Nike, je n'suis qu'un rider Best life, best life, tu sais dans l'futur, j'suis headliner Ici-bas, chacun pour sa gueule J'use mes Nike, je n'suis qu'un rider J'suis pas aller aux sports d'hiver c'est un truc de bourge J'suis dans cette merde pour qu'on n'ait plus b'soin d'somnifère 20-24 les fachos prolifèrent, ça dégoûte Israel tire sur Beyrouth, on en parle pas assez J'fume l'olivette, chouf, la violence escalade Cette nuit, ça tire en Palestine, c'matin, ils parlent du Met Gala Oreillettes-baladeur, capuche Carhartt Appartement neuf avec balcon, pour nous c'est l'big palace On tient un truc ces temps-ci, j'me cache plus, j'suis sensible J'peux pas encaisser toutes ces choses, gros j'ai pas l'cur extensible Concert à Auxerre ou à Brest, j'y vais sans flipper Même si j'vends 300 tickets, j'fais pas la star, le mec compliqué J'suis v'nu pour kicker, j'suis v'nu pour Di-Meh Depuis Focus sur le p'tit ordi, pour mes futurs darons comme Mister-T Pour l'instant, j'en ai pas les couilles, j'rappe des douleurs Dans mon ciel, y'a d'la couleur, dans mes yeux, y'a d'la foudre C'est pas un coup d'bluff, pour maman, j'suis déjà headliner C'est pas l'S-Line qui sèche l'highliner, wesh ma gueule Best life, best life, headliner Best life, best life, tu sais dans l'futur, j'suis headliner Ici-bas, chacun pour sa gueule J'use mes Nike, je n'suis qu'un rider Best life, best life, tu sais dans l'futur, j'suis headliner Ici-bas, chacun pour sa gueule J'use mes Nike, je n'suis qu'un rider Best life, best life, tu sais dans l'futur, j'suis headliner Chacun pour sa gueule Je n'suis qu'un rider Best life, best life, headliner</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>J'suis pas celui qu'on plébiscite, un jour sur deux, j'demande c'qu'on fait ici ouais J'sais pas vraiment c'est quoi réussir, j'sais c'est quoi essayer, j'sais c'est quoi survivre ouais Les mains dans la brique et les pieds dans l'ciment J'ai passé ma vie à d'mander gentiment, plus question Maintenant, j'vais prendre j'attends plus d'réponses Le cul dans un sofa trop cher, à parler à des mecs qui m'voient comme un trophée J'ai signé un contrat, j'en suis même pas fier, j'ai pas bu leur champagne, j'ai refusé l'rosé Eh eh Et regardez-nous comme des humains ouais J'fais qu'jouer ma vie à la roulette, sur l'plateau des trous, y en a plus d'un Putain d'merde J'suffoque dès qu'j'me lève, espoir fucké dès l'réveil Fut un temps où j'écoutais mes rêves, j'les nourrissais au soleil Maintenant, c'est fini, j'viens gagner l'match, ils m'ont jamais servi un carré d'as C'est l'59 enfoiré en maillot d'l'OM qui va bicrave à Paris plage ouh, ouh Et heureusement qu'on m'félicite sinon j'oublierais qu'on peut déjà s'réjouir On a trop mangé d'riz réchauffé, c'est des rats mais j'lui disais qu'c'étaient des souris On s'rassure avec c'qu'on peut, découpe la faim avec du pneu Papy tousse alors j'ferme les yeux, les miens souffrent et moi j'fais qu'des vux C'est quoi les bails ? On est l'pays des droits d'l'Homme, des migrants sur l'aire d'autoroute Nos darons les anciens mettent la fin du mois sur la victoire du Barça dans les lotofoot Sénible La prison, la mort ou l'intérim, la vision d'ailleurs nous embellit, t'sais D'puis les mauvais contacts dans la Peritel, arrière-goût d'déjà-vu dans l'apéritif C'est la vérité Rouge, noir et jaune dans l'iris c'est pas la guerre des pixels, on a vérifié On va t'niquer, ta mère tu l'as mérité J'suis qu'un dommage collatéral comme tous mes frères infréquentables Café, grande clope, on arrive en balle, mélange d'espoir et d'seum sur l'instrumentale On avait pas la moyenne, détraqués du noyau, la cavalerie passe, les minots font qu'aboyer Fier de moi, comme quand j'viens d'khalass à l'heure pour le loyer, ah bah ouais Fond d'cinquième grosse fumée C'est à cause d'nous la buée sur les f'nêtres Trop parler peut tuer Trop s'ret'nir m'a fait des trous dans la tête Ils nous cala pas toute l'année, ils s'font des réu' pour savoir c'qu'ils nous laissent Puis, ils r'viennent chez nous pour sucer, wesh, ma gueule, t'as cru qu'c'était la fête ?You might also like</t>
+          <t>J'suis pas celui qu'on plébiscite, un jour sur deux, j'demande c'qu'on fait ici ouais J'sais pas vraiment c'est quoi réussir, j'sais c'est quoi essayer, j'sais c'est quoi survivre ouais Les mains dans la brique et les pieds dans l'ciment J'ai passé ma vie à d'mander gentiment, plus question Maintenant, j'vais prendre j'attends plus d'réponses Le cul dans un sofa trop cher, à parler à des mecs qui m'voient comme un trophée J'ai signé un contrat, j'en suis même pas fier, j'ai pas bu leur champagne, j'ai refusé l'rosé Eh eh Et regardez-nous comme des humains ouais J'fais qu'jouer ma vie à la roulette, sur l'plateau des trous, y en a plus d'un Putain d'merde J'suffoque dès qu'j'me lève, espoir fucké dès l'réveil Fut un temps où j'écoutais mes rêves, j'les nourrissais au soleil Maintenant, c'est fini, j'viens gagner l'match, ils m'ont jamais servi un carré d'as C'est l'59 enfoiré en maillot d'l'OM qui va bicrave à Paris plage ouh, ouh Et heureusement qu'on m'félicite sinon j'oublierais qu'on peut déjà s'réjouir On a trop mangé d'riz réchauffé, c'est des rats mais j'lui disais qu'c'étaient des souris On s'rassure avec c'qu'on peut, découpe la faim avec du pneu Papy tousse alors j'ferme les yeux, les miens souffrent et moi j'fais qu'des vux C'est quoi les bails ? On est l'pays des droits d'l'Homme, des migrants sur l'aire d'autoroute Nos darons les anciens mettent la fin du mois sur la victoire du Barça dans les lotofoot Sénible La prison, la mort ou l'intérim, la vision d'ailleurs nous embellit, t'sais D'puis les mauvais contacts dans la Peritel, arrière-goût d'déjà-vu dans l'apéritif C'est la vérité Rouge, noir et jaune dans l'iris c'est pas la guerre des pixels, on a vérifié On va t'niquer, ta mère tu l'as mérité J'suis qu'un dommage collatéral comme tous mes frères infréquentables Café, grande clope, on arrive en balle, mélange d'espoir et d'seum sur l'instrumentale On avait pas la moyenne, détraqués du noyau, la cavalerie passe, les minots font qu'aboyer Fier de moi, comme quand j'viens d'khalass à l'heure pour le loyer, ah bah ouais Fond d'cinquième grosse fumée C'est à cause d'nous la buée sur les f'nêtres Trop parler peut tuer Trop s'ret'nir m'a fait des trous dans la tête Ils nous cala pas toute l'année, ils s'font des réu' pour savoir c'qu'ils nous laissent Puis, ils r'viennent chez nous pour sucer, wesh, ma gueule, t'as cru qu'c'était la fête ?</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>J'arrive mieux à regarder la mort que les larmes d'un homme J'écoute pas d'son, j'm'écoute penser, on dirait Norah Jones Et merde, j'me trouve pitoyable quand j'émerge, j'me trouve héroïque quand j'gerbe et j'me trouve fou que dans mes rêves Il reste des bouts d'shit et d'sueur comme sur les paumes d'un pote J'suis un canard, y m'manque un bout d'cur comme la pomm d'Apple J'les voyais parler sur YouTub en baissant les yeux dans l'métro J'veux rien entendre qui sort d'leur cul, j'les regarderais depuis l'Merco Rire en coin d'bouche juste à côté du stick tout vert On allonge nos tripes sur l'instru', on fait pas d'son vite fait J'écris des histoires, j'ai pas trop l'goût d'faire des stories Dans ma valise, y a des soupirs quand sous mes yeux coulent les souvenirs J'suis perdu, que quelqu'un m'aide, j'ai mal au crâne, j'crois qu'j'vais péter les plombs J'hésite entre les joies et les larmes, entre le bien et le mal, c'est le syndrome qui fait qu'j'tombe J'suis perdu, que quelqu'un m'aide, j'ai mal au crâne, j'crois qu'j'vais péter les plombs J'hésite entre les joies et les larmes, entre le bien et le mal, c'est le syndrome qui fait qu'j'tombe Entre vider mon cur ou bien à rester clair, réussir ma vie ou bien la foutre en lair J'hésite, ah, j'hésite, ah, j'hésite, ah, eh J'hésite ma foi, j'crois pas parler mieux, j'recherche une voie, j'te parle de c'que j'connais, j'te parle de moi J'te parle d'émoi dans les yeux d'mes proches, serrés dans mes bras, cur plein d'bazar comme le fond d'mes poches J'hésite à m'justifier, j'hésite à tout arrêter, j'ai 27 ans, j'veux faire rimer art et métier Mais preuve en est, j'suis encore dans l'tro-m', j'suis courageux ou acharné, j'veux pas faire l'pas d'trop, eh J'hésite entre EP et album, j'm'en bats les cojones de devenir une icone J'ai d'jà mis d'la poudre dans quelques rétines, j'hésite mais j'ai changé mes rêves en vitrine Aux yeux des miens, j'suis d'jà un prince comme les mecs de Vitry You might also like J'hésite entre les joies et les larmes, entre le bien et le mal, c'est le syndrome qui fait qu'j'tombe J'suis perdu, que quelqu'un m'aide, j'ai mal au crâne, j'crois qu'j'vais péter les plombs J'hésite entre les joies et les larmes, entre le bien et le mal, c'est le syndrome qui fait qu'j'tombe J'suis perdu, que quelqu'un m'aide, j'ai mal au crâne, j'crois qu'j'vais péter les plombs J'hésite entre les joies et les larmes, entre le bien et le mal, c'est le syndrome qui fait qu'j'tombe Entre vider mon cur ou bien à rester clair, réussir ma vie ou bien la foutre en lair J'hésite, ah, j'hésite, ah, j'hésite, ah, eh J'suis perdu, que quelqu'un m'aide, j'ai mal au crâne, j'crois qu'j'vais péter les plombs J'hésite entre les joies et les larmes, entre le bien et le mal, c'est le syndrome qui fait qu'j'tombe J'suis perdu, que quelqu'un m'aide, j'ai mal au crâne, j'crois qu'j'vais péter les plombs J'hésite entre les joies et les larmes, entre le bien et le mal, c'est le syndrome qui fait qu'j'tombe1</t>
+          <t>J'arrive mieux à regarder la mort que les larmes d'un homme J'écoute pas d'son, j'm'écoute penser, on dirait Norah Jones Et merde, j'me trouve pitoyable quand j'émerge, j'me trouve héroïque quand j'gerbe et j'me trouve fou que dans mes rêves Il reste des bouts d'shit et d'sueur comme sur les paumes d'un pote J'suis un canard, y m'manque un bout d'cur comme la pomm d'Apple J'les voyais parler sur YouTub en baissant les yeux dans l'métro J'veux rien entendre qui sort d'leur cul, j'les regarderais depuis l'Merco Rire en coin d'bouche juste à côté du stick tout vert On allonge nos tripes sur l'instru', on fait pas d'son vite fait J'écris des histoires, j'ai pas trop l'goût d'faire des stories Dans ma valise, y a des soupirs quand sous mes yeux coulent les souvenirs J'suis perdu, que quelqu'un m'aide, j'ai mal au crâne, j'crois qu'j'vais péter les plombs J'hésite entre les joies et les larmes, entre le bien et le mal, c'est le syndrome qui fait qu'j'tombe J'suis perdu, que quelqu'un m'aide, j'ai mal au crâne, j'crois qu'j'vais péter les plombs J'hésite entre les joies et les larmes, entre le bien et le mal, c'est le syndrome qui fait qu'j'tombe Entre vider mon cur ou bien à rester clair, réussir ma vie ou bien la foutre en lair J'hésite, ah, j'hésite, ah, j'hésite, ah, eh J'hésite ma foi, j'crois pas parler mieux, j'recherche une voie, j'te parle de c'que j'connais, j'te parle de moi J'te parle d'émoi dans les yeux d'mes proches, serrés dans mes bras, cur plein d'bazar comme le fond d'mes poches J'hésite à m'justifier, j'hésite à tout arrêter, j'ai 27 ans, j'veux faire rimer art et métier Mais preuve en est, j'suis encore dans l'tro-m', j'suis courageux ou acharné, j'veux pas faire l'pas d'trop, eh J'hésite entre EP et album, j'm'en bats les cojones de devenir une icone J'ai d'jà mis d'la poudre dans quelques rétines, j'hésite mais j'ai changé mes rêves en vitrine Aux yeux des miens, j'suis d'jà un prince comme les mecs de Vitry J'hésite entre les joies et les larmes, entre le bien et le mal, c'est le syndrome qui fait qu'j'tombe J'suis perdu, que quelqu'un m'aide, j'ai mal au crâne, j'crois qu'j'vais péter les plombs J'hésite entre les joies et les larmes, entre le bien et le mal, c'est le syndrome qui fait qu'j'tombe J'suis perdu, que quelqu'un m'aide, j'ai mal au crâne, j'crois qu'j'vais péter les plombs J'hésite entre les joies et les larmes, entre le bien et le mal, c'est le syndrome qui fait qu'j'tombe Entre vider mon cur ou bien à rester clair, réussir ma vie ou bien la foutre en lair J'hésite, ah, j'hésite, ah, j'hésite, ah, eh J'suis perdu, que quelqu'un m'aide, j'ai mal au crâne, j'crois qu'j'vais péter les plombs J'hésite entre les joies et les larmes, entre le bien et le mal, c'est le syndrome qui fait qu'j'tombe J'suis perdu, que quelqu'un m'aide, j'ai mal au crâne, j'crois qu'j'vais péter les plombs J'hésite entre les joies et les larmes, entre le bien et le mal, c'est le syndrome qui fait qu'j'tombe1</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Ouh-ah Ouh-ah Ouh-ah J'crois bien qu'tout ça je le mérite Tellement d'sueur dans le prélude Trois New Era sous la pleine lune Ouh-ah J'crois bien qu'tout ça je le mérite Une fois qu'j'ai encaissé leurs promesses J'retourne recompter la vérité Ah J'crois bien qu'tout ça on le mérite On s'construit en doutant la folie On s'rassure en défiant l'autorité J'suis bourré, j'vais pisser sur la mairie On est mieux ici qu'en Amérique Mais y a des ministres violurs présumés Merde Merd J'vais pas t'refaire l'histoire de la France Marianne a mis c'qu'elle voulait dans les manuels Et plus personne la veut dans sa chambre Bref, bref J'baiserai la France jusqu'à ce qu'elle s'aime You might also like J'baiserai la France jusqu'à ce qu'elle s'aime Combien de temps avant qu'on rêve ? On lui a laissé des chances avant qu'on s'perde On va baiser la France jusqu'à ce qu'elle s'aime J'baiserai la France jusqu'à ce qu'elle s'aime Combien de temps avant qu'on rêve ? On lui a laissé des chances avant qu'on s'perde On va baiser la France jusqu'à ce qu'elle s'aime J'crois bien qu'tout ça on le mérite Tellement d'rebondissements dans la série Trois costumes noirs sous la pleine lune Eh J'crois bien qu'tout ça il le mérite La confiance est partie en deu-spi J'crois bien qu'tout ça ils l'ont deviné J'aime pas mon état, c'est la vérité On a rien appris grâce à leur bla-bla, on a vu la mer grâce à la MJC Eh J'crois pas qu'tout ça on le mérite J'suis bourré, j'vais pisser sur la mairie En pensant à tout leurs sourires déguisés Ouais Et merci Mac Tyer pour l'éducation Merci l'rap Français pour l'espoir Merci à mes frères pour l'élévation Eh On va baiser la France jusqu'à ce qu'elle s'aime J'baiserai la France jusqu'à ce qu'elle s'aime Combien de temps avant qu'on rêve ? On lui a laissé des chances avant qu'on s'perde On va baiser la France jusqu'à ce qu'elle s'aime J'baiserai la France jusqu'à ce qu'elle s'aime Combien de temps avant qu'on rêve ? On lui a laissé des chances avant qu'on s'perde On va baiser la France jusqu'à ce qu'elle s'aime</t>
+          <t>Ouh-ah Ouh-ah Ouh-ah J'crois bien qu'tout ça je le mérite Tellement d'sueur dans le prélude Trois New Era sous la pleine lune Ouh-ah J'crois bien qu'tout ça je le mérite Une fois qu'j'ai encaissé leurs promesses J'retourne recompter la vérité Ah J'crois bien qu'tout ça on le mérite On s'construit en doutant la folie On s'rassure en défiant l'autorité J'suis bourré, j'vais pisser sur la mairie On est mieux ici qu'en Amérique Mais y a des ministres violurs présumés Merde Merd J'vais pas t'refaire l'histoire de la France Marianne a mis c'qu'elle voulait dans les manuels Et plus personne la veut dans sa chambre Bref, bref J'baiserai la France jusqu'à ce qu'elle s'aime J'baiserai la France jusqu'à ce qu'elle s'aime Combien de temps avant qu'on rêve ? On lui a laissé des chances avant qu'on s'perde On va baiser la France jusqu'à ce qu'elle s'aime J'baiserai la France jusqu'à ce qu'elle s'aime Combien de temps avant qu'on rêve ? On lui a laissé des chances avant qu'on s'perde On va baiser la France jusqu'à ce qu'elle s'aime J'crois bien qu'tout ça on le mérite Tellement d'rebondissements dans la série Trois costumes noirs sous la pleine lune Eh J'crois bien qu'tout ça il le mérite La confiance est partie en deu-spi J'crois bien qu'tout ça ils l'ont deviné J'aime pas mon état, c'est la vérité On a rien appris grâce à leur bla-bla, on a vu la mer grâce à la MJC Eh J'crois pas qu'tout ça on le mérite J'suis bourré, j'vais pisser sur la mairie En pensant à tout leurs sourires déguisés Ouais Et merci Mac Tyer pour l'éducation Merci l'rap Français pour l'espoir Merci à mes frères pour l'élévation Eh On va baiser la France jusqu'à ce qu'elle s'aime J'baiserai la France jusqu'à ce qu'elle s'aime Combien de temps avant qu'on rêve ? On lui a laissé des chances avant qu'on s'perde On va baiser la France jusqu'à ce qu'elle s'aime J'baiserai la France jusqu'à ce qu'elle s'aime Combien de temps avant qu'on rêve ? On lui a laissé des chances avant qu'on s'perde On va baiser la France jusqu'à ce qu'elle s'aime</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Tsais, jvois tellement dD dans la vraie vie Cest pas un cul qui va mcasser la rétine Lui, il a vu la mort, il mregarde dans les yeux comme Vince dans la série Assieds-toi dans lSérie 7, roule un teh, on na pas besoin dêtre discret Jveux que la flamme qui sreflète dans tes yeux fasse briller le noir Sur la scène, ils parlent comme des pasteurs, dans les loges, ils parlent comme des fils de pute Dans les coulisses, ils parlent comme des menteurs, tes éloges, on les prend, on pisse dessus Jparle à ma conscience Elle sen fout quil fasse jour, elle danse encore Tout ça, papy, il sen fout, il tousse encore, et il tousse trop fort Ça résonne, ça métonne plus Jai dlendurance si jla prends, jla mets dans lbut Moi, jsuis né dans lfond moi, jsuis né dans ltunnel Jpréfère le coté noir dla lune eh Jécoute Alain Souchon sur la JBL Jvais pas taper des poses, cest la vie réelle PLG partout comme la CNN Jcrois qujai la côte et la CMU Là, jsuis khalé, jécoute Khali dans lPMU Évidemment qujsuis ému Quand jvois nos rêves qui sémulsionnent Oh maman, cest pour toi qujsuis debout encore Dis-moi pourquoi ils parlent mal encore Dis-moi pourquoi ils regardent de travers Oh maman, jcrois qutes mots, cest lpansement Linstru', cest le docteur, jai tout fumé, jai la toux comme un moteur Oh maman, cest pour toi qujsuis debout encore Dis-moi pourquoi ils parlent mal encore Dis-moi pourquoi ils regardent de travers Oh maman, jcrois qutes mots, cest lpansement Linstru', cest le docteur, jai tout fumé, jai la toux comme un moteurYou might also like</t>
+          <t>Tsais, jvois tellement dD dans la vraie vie Cest pas un cul qui va mcasser la rétine Lui, il a vu la mort, il mregarde dans les yeux comme Vince dans la série Assieds-toi dans lSérie 7, roule un teh, on na pas besoin dêtre discret Jveux que la flamme qui sreflète dans tes yeux fasse briller le noir Sur la scène, ils parlent comme des pasteurs, dans les loges, ils parlent comme des fils de pute Dans les coulisses, ils parlent comme des menteurs, tes éloges, on les prend, on pisse dessus Jparle à ma conscience Elle sen fout quil fasse jour, elle danse encore Tout ça, papy, il sen fout, il tousse encore, et il tousse trop fort Ça résonne, ça métonne plus Jai dlendurance si jla prends, jla mets dans lbut Moi, jsuis né dans lfond moi, jsuis né dans ltunnel Jpréfère le coté noir dla lune eh Jécoute Alain Souchon sur la JBL Jvais pas taper des poses, cest la vie réelle PLG partout comme la CNN Jcrois qujai la côte et la CMU Là, jsuis khalé, jécoute Khali dans lPMU Évidemment qujsuis ému Quand jvois nos rêves qui sémulsionnent Oh maman, cest pour toi qujsuis debout encore Dis-moi pourquoi ils parlent mal encore Dis-moi pourquoi ils regardent de travers Oh maman, jcrois qutes mots, cest lpansement Linstru', cest le docteur, jai tout fumé, jai la toux comme un moteur Oh maman, cest pour toi qujsuis debout encore Dis-moi pourquoi ils parlent mal encore Dis-moi pourquoi ils regardent de travers Oh maman, jcrois qutes mots, cest lpansement Linstru', cest le docteur, jai tout fumé, jai la toux comme un moteur</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Jai grandi à lépoque des Tacchini, des rappeurs techniques à trois couplets Enfance parfumée au Martini, arrière-goût d'Picon ou d'Martinet On a poussé dans le vacarme, vision floutée sous l'Arai J'longeais des briques, maintenant, j'fais voler des Air Max Jai v'-esqui lCPE, jai v'-esqui la BAC Jrecroise les mêmes têtes quà la recrée Une douzaine de déceptions plus tard quand les désillusions tfont même plus des cauchemars Pot déchappement débridé, eh, pour couvrir le bruit du JT Qu'essaye dcourir après des gilets qui sressemblent tous comme les pub Gilette Heureusement qules années 2000 ont inventé ldivorce Le sourire de papa, han, javais plus dchance dvoir une licorne Se sentir capable, cest un délire, élevé par ma mère et Spiderman Pour qui larrogance, cest un délit Pour qui la confiance, c'est un délire, eh, eh Ça sent la fumée, j'regarde le matin comme la dernière cigarette de mon paquet Ça sent la fumée, j'ferme les yeux le noir m'aide à penser De toute façon, on préfère la nuit On préfère nuit, on préfère la nuit On préfère nuit, on préfère la nuit On préfère nuit, on préfère la nuit On préfère nuit, on préfère la nuit You might also like J'connais le manque, c'que c'est d'se priver, les jours où y a qu'du beurre dans l'frigidaire J'fais des morceaux, ça m'fait sourire, ouais J'fais des morceaux, ça m'fait pas manger Les dents d'mes potos d'déchaussent à cause du shit, ils appellent ça l'charme de la street T'façon, eux, ils préfèrent la nuit, le brouillard à cinq heures dans le centre-ville J'connais des gens, plaisir aux lèvres Misère sur l'pas d'la porte mais sourire honnête Nous, on est dans les temps pour devenir c'qu'on doit être On est monté au charbon fort pour faire c'qu'on doit faire Ça sent la fumée, j'regarde le matin comme la dernière cigarette de mon paquet Ça sent la fumée, j'ferme les yeux le noir m'aide à penser De toute façon, on préfère la nuit On préfère nuit, on préfère la nuit On préfère nuit, on préfère la nuit On préfère nuit, on préfère la nuit On préfère nuit, on préfère la nuit</t>
+          <t>Jai grandi à lépoque des Tacchini, des rappeurs techniques à trois couplets Enfance parfumée au Martini, arrière-goût d'Picon ou d'Martinet On a poussé dans le vacarme, vision floutée sous l'Arai J'longeais des briques, maintenant, j'fais voler des Air Max Jai v'-esqui lCPE, jai v'-esqui la BAC Jrecroise les mêmes têtes quà la recrée Une douzaine de déceptions plus tard quand les désillusions tfont même plus des cauchemars Pot déchappement débridé, eh, pour couvrir le bruit du JT Qu'essaye dcourir après des gilets qui sressemblent tous comme les pub Gilette Heureusement qules années 2000 ont inventé ldivorce Le sourire de papa, han, javais plus dchance dvoir une licorne Se sentir capable, cest un délire, élevé par ma mère et Spiderman Pour qui larrogance, cest un délit Pour qui la confiance, c'est un délire, eh, eh Ça sent la fumée, j'regarde le matin comme la dernière cigarette de mon paquet Ça sent la fumée, j'ferme les yeux le noir m'aide à penser De toute façon, on préfère la nuit On préfère nuit, on préfère la nuit On préfère nuit, on préfère la nuit On préfère nuit, on préfère la nuit On préfère nuit, on préfère la nuit J'connais le manque, c'que c'est d'se priver, les jours où y a qu'du beurre dans l'frigidaire J'fais des morceaux, ça m'fait sourire, ouais J'fais des morceaux, ça m'fait pas manger Les dents d'mes potos d'déchaussent à cause du shit, ils appellent ça l'charme de la street T'façon, eux, ils préfèrent la nuit, le brouillard à cinq heures dans le centre-ville J'connais des gens, plaisir aux lèvres Misère sur l'pas d'la porte mais sourire honnête Nous, on est dans les temps pour devenir c'qu'on doit être On est monté au charbon fort pour faire c'qu'on doit faire Ça sent la fumée, j'regarde le matin comme la dernière cigarette de mon paquet Ça sent la fumée, j'ferme les yeux le noir m'aide à penser De toute façon, on préfère la nuit On préfère nuit, on préfère la nuit On préfère nuit, on préfère la nuit On préfère nuit, on préfère la nuit On préfère nuit, on préfère la nuit</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Jsens la sueur couler sur le haut d'mon front Jsors une clope, baisse la vitre, monte le volume Mécouter penser, cest une erreur, eh Le regard des autres, cest un miroir, jsais Si jsavais pas ça, jserais nulle part Si jles avais pas, jserais nul à mort Jleur dis souvent qujai plus ltemps, plus dforce Je lsais, jfais qule regretter dplus en plus fort Jreprends ma confiance, le poids dma conscince, jrajoute quatre zéros sur la caution hy Ils mfont pas rêver avec leurs grands airs, ils mfont pas rêver avec leur ceinture de champion Jsuis venu vous rendre vos promesses, jgarde que la fierté, remets de l'essence dans la potion ouais Code postal gravé sur le plexus, ah bah ouais, jdonne tout j'donne tout Et si jrepasse par là-bas, cest par amour de la nostalgie Des histoires dpépé et du bar tabac, 59 tatoué sur les avants-bras Rempli d'histoires bizarres dont tu tattends pas Un il qui dit merde à lautre, un frère en plante un autre dpuis lépoque des curs dans les agendas Des pochettes en plastique devant les boîtes dintérim Paraît, selon la prof, qujécrivais pas terrible, hein, eh eh, ouais Parait quy a plein dvitamines dans les patates et lriz Qucest pour ça quon est grand et fort ah ouais Qucest pour ça quon résiste à leffort ah ouais Qucest pour ça quon est fou et fier Quon attend pas lenfer sans leur chercher du tort ah bah ouais Évidemment quon va tout donner, tout donner Vingt-cinq balais, plus dves-ch' sous lbonnet, cest ltarif Ferme ta grande gueule et fais tes valises, cest le maire qui tla dit, cest lÉtat qui tla mise bosse Bleu de travail, câble électrique ah ouais Pieds sur terre, les majeurs dans la prise ah ouais Jmate le sol comme si je voyais lenfer au travers, jessaye dcasser la vitre You might also like Maman nous a promis que lenfer, cest pas les autres en vrai Maman nous a promis que lenfer, cest pas les autres, en fait Elle sait cquelle dit, elle sait cquelle dit La pluie après lorage, elle sait cquelle dit La pluie après lorage, elle sait cquelle dit La pluie après lorage, elle sait cquelle dit Jsuis fonce-dé sur le toit, jregarde le ciel Pas concerné par lkeuf quand il parle de mes frères Des ados enfermés en dalle de guerre dirigés par des vastes merdes Des curs bien trop remplis, des poches bien trop vides Le sable dans ltruc en verre sécoule bien trop vite Quotidien régional plein dtrucs insolites Les vieux hypnotisés par ltube cathodique Ah ouais, ah ouais, tu crois quon va la fermer ? Quest-ce que jmen bats les couilles dla fin du monde, jvois pas plus loin qula date de paiement du loyer Ten donnes as-p et tu veux du respect Cest pas comme ça que ça fonctionne, fils de pute Trop matrixé par lhonneur, les films de rue Ici pour des tournois dfoot, ça s'tire dessus Jmets deux couleurs dans la Vittel et jparle bien trop fort, enfoiré Jsuis comme larbitre ou Dieu, jai raison si jai tort, enfoiré On a fait beaucoup d'efforts et de sacrifices, un jour, jaurai lbonheur sans les artifices Nos mères méritent le calme et des petits-enfants, un jardin à l'abri des maléfices Maman nous a promis que lenfer, cest pas les autres en vrai Maman nous a promis que lenfer, cest pas les autres, en fait Elle sait cquelle dit, elle sait cquelle dit La pluie après lorage, elle sait cquelle dit La pluie après lorage, elle sait cquelle dit La pluie après lorage, elle sait cquelle dit</t>
+          <t>Jsens la sueur couler sur le haut d'mon front Jsors une clope, baisse la vitre, monte le volume Mécouter penser, cest une erreur, eh Le regard des autres, cest un miroir, jsais Si jsavais pas ça, jserais nulle part Si jles avais pas, jserais nul à mort Jleur dis souvent qujai plus ltemps, plus dforce Je lsais, jfais qule regretter dplus en plus fort Jreprends ma confiance, le poids dma conscince, jrajoute quatre zéros sur la caution hy Ils mfont pas rêver avec leurs grands airs, ils mfont pas rêver avec leur ceinture de champion Jsuis venu vous rendre vos promesses, jgarde que la fierté, remets de l'essence dans la potion ouais Code postal gravé sur le plexus, ah bah ouais, jdonne tout j'donne tout Et si jrepasse par là-bas, cest par amour de la nostalgie Des histoires dpépé et du bar tabac, 59 tatoué sur les avants-bras Rempli d'histoires bizarres dont tu tattends pas Un il qui dit merde à lautre, un frère en plante un autre dpuis lépoque des curs dans les agendas Des pochettes en plastique devant les boîtes dintérim Paraît, selon la prof, qujécrivais pas terrible, hein, eh eh, ouais Parait quy a plein dvitamines dans les patates et lriz Qucest pour ça quon est grand et fort ah ouais Qucest pour ça quon résiste à leffort ah ouais Qucest pour ça quon est fou et fier Quon attend pas lenfer sans leur chercher du tort ah bah ouais Évidemment quon va tout donner, tout donner Vingt-cinq balais, plus dves-ch' sous lbonnet, cest ltarif Ferme ta grande gueule et fais tes valises, cest le maire qui tla dit, cest lÉtat qui tla mise bosse Bleu de travail, câble électrique ah ouais Pieds sur terre, les majeurs dans la prise ah ouais Jmate le sol comme si je voyais lenfer au travers, jessaye dcasser la vitre Maman nous a promis que lenfer, cest pas les autres en vrai Maman nous a promis que lenfer, cest pas les autres, en fait Elle sait cquelle dit, elle sait cquelle dit La pluie après lorage, elle sait cquelle dit La pluie après lorage, elle sait cquelle dit La pluie après lorage, elle sait cquelle dit Jsuis fonce-dé sur le toit, jregarde le ciel Pas concerné par lkeuf quand il parle de mes frères Des ados enfermés en dalle de guerre dirigés par des vastes merdes Des curs bien trop remplis, des poches bien trop vides Le sable dans ltruc en verre sécoule bien trop vite Quotidien régional plein dtrucs insolites Les vieux hypnotisés par ltube cathodique Ah ouais, ah ouais, tu crois quon va la fermer ? Quest-ce que jmen bats les couilles dla fin du monde, jvois pas plus loin qula date de paiement du loyer Ten donnes as-p et tu veux du respect Cest pas comme ça que ça fonctionne, fils de pute Trop matrixé par lhonneur, les films de rue Ici pour des tournois dfoot, ça s'tire dessus Jmets deux couleurs dans la Vittel et jparle bien trop fort, enfoiré Jsuis comme larbitre ou Dieu, jai raison si jai tort, enfoiré On a fait beaucoup d'efforts et de sacrifices, un jour, jaurai lbonheur sans les artifices Nos mères méritent le calme et des petits-enfants, un jardin à l'abri des maléfices Maman nous a promis que lenfer, cest pas les autres en vrai Maman nous a promis que lenfer, cest pas les autres, en fait Elle sait cquelle dit, elle sait cquelle dit La pluie après lorage, elle sait cquelle dit La pluie après lorage, elle sait cquelle dit La pluie après lorage, elle sait cquelle dit</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>J'suis bon qu'à raconter ma vie gros, la prod me casse la tête Même une fois qu'les lumières se terminent, la prod me casse la tête C'est la révolution de la vermine, obligé j'tasse un teh La prod me casse la tête, le produit m'casse la huh huh La prod me casse la tête, la prod me casse la tête J'suis bon qu'à raconter ma vie gros, la prod me casse la tête La prod me casse la tête, la prod me casse la tête J'suis bon qu'à raconter ma vie gros, la prod me casse la tête Ils sous-estiment, qu'à c'la n'tienne, on a l'flow qui leur casse la gueule Les labels s'prennent pour Ronaldinho, ils font les passes à l'aveugle Dans ma tête, j's'rai toujours jeune, j'f'rai toujours des doigts aux keufs Dans mon cur, on s'ra toujours ensemble, j'f'rai toujours une place aux reufs Putain de merde, on va tout leur faire, j'ai pas tout c'qui fallait pour leur plaire Regarde comme on est beaux dans la caméra, j'regarde les Atemi sur les noirs et blancs Ça donne pas envie d'rentrer mon grand panard dans du Margiela Eh eh oh, vue sur la mer et centrale Seveso Le produit m'casse la huh huh La prod me casse la tête, la prod me casse la tête J'suis bon qu'à raconter ma vie gros, la prod me casse la tête La prod me casse la tête, la prod me casse la tête J'suis bon qu'à raconter ma vie gros, la prod me casse la tête J'dois éclaircir tout le paysage, obligé j'tasse un teh La prod me casse la tête, le produit m'casse la huh huh J'dois éclaircir tout le paysage, obligé j'tasse un teh J'dois éclaircir tout le paysage, obligé j'tasse un teh La prod me casse la tête, le produit m'casse la huh huh You might also like Studio j'fais du son à la chaîne, j'prends mon temps comme un vieux à la caisse Cette année, j'sais qu'j'dois faire un classique, j'vais tout raconter comme un vieux à la caisse J'arrive précis, Recoba PES dommage et Dieu merci Les couplets d'tes sins-cou rendent narcoleptiques, j'vois nos sourires, j'sais qu'j'suis dans la bonne équipe On va voler tout près du soleil, j'ferme les paupières comme si j'ouvrais les volets du HLM J'écoute la voix d'Cabrel quand les nuages s'éteignent C'est fini les peut-être, on verra bien, j'mérite un grand verre de vin Grandi les deux pieds au bord du ravin Le produit me casse la huh La prod me casse la tête, la prod me casse la tête J'suis bon qu'à raconter ma vie gros, la prod me casse la tête La prod me casse la tête, la prod me casse la tête J'suis bon qu'à raconter ma vie gros, la prod me casse la tête J'dois éclaircir tout le paysage, obligé j'tasse un teh La prod me casse la tête, le produit me casse la huh huh J'dois éclaircir tout le paysage, obligé j'tasse un teh J'dois éclaircir tout le paysage, obligé j'tasse un teh La prod me casse la tête, le produit m'casse la huh huh</t>
+          <t>J'suis bon qu'à raconter ma vie gros, la prod me casse la tête Même une fois qu'les lumières se terminent, la prod me casse la tête C'est la révolution de la vermine, obligé j'tasse un teh La prod me casse la tête, le produit m'casse la huh huh La prod me casse la tête, la prod me casse la tête J'suis bon qu'à raconter ma vie gros, la prod me casse la tête La prod me casse la tête, la prod me casse la tête J'suis bon qu'à raconter ma vie gros, la prod me casse la tête Ils sous-estiment, qu'à c'la n'tienne, on a l'flow qui leur casse la gueule Les labels s'prennent pour Ronaldinho, ils font les passes à l'aveugle Dans ma tête, j's'rai toujours jeune, j'f'rai toujours des doigts aux keufs Dans mon cur, on s'ra toujours ensemble, j'f'rai toujours une place aux reufs Putain de merde, on va tout leur faire, j'ai pas tout c'qui fallait pour leur plaire Regarde comme on est beaux dans la caméra, j'regarde les Atemi sur les noirs et blancs Ça donne pas envie d'rentrer mon grand panard dans du Margiela Eh eh oh, vue sur la mer et centrale Seveso Le produit m'casse la huh huh La prod me casse la tête, la prod me casse la tête J'suis bon qu'à raconter ma vie gros, la prod me casse la tête La prod me casse la tête, la prod me casse la tête J'suis bon qu'à raconter ma vie gros, la prod me casse la tête J'dois éclaircir tout le paysage, obligé j'tasse un teh La prod me casse la tête, le produit m'casse la huh huh J'dois éclaircir tout le paysage, obligé j'tasse un teh J'dois éclaircir tout le paysage, obligé j'tasse un teh La prod me casse la tête, le produit m'casse la huh huh Studio j'fais du son à la chaîne, j'prends mon temps comme un vieux à la caisse Cette année, j'sais qu'j'dois faire un classique, j'vais tout raconter comme un vieux à la caisse J'arrive précis, Recoba PES dommage et Dieu merci Les couplets d'tes sins-cou rendent narcoleptiques, j'vois nos sourires, j'sais qu'j'suis dans la bonne équipe On va voler tout près du soleil, j'ferme les paupières comme si j'ouvrais les volets du HLM J'écoute la voix d'Cabrel quand les nuages s'éteignent C'est fini les peut-être, on verra bien, j'mérite un grand verre de vin Grandi les deux pieds au bord du ravin Le produit me casse la huh La prod me casse la tête, la prod me casse la tête J'suis bon qu'à raconter ma vie gros, la prod me casse la tête La prod me casse la tête, la prod me casse la tête J'suis bon qu'à raconter ma vie gros, la prod me casse la tête J'dois éclaircir tout le paysage, obligé j'tasse un teh La prod me casse la tête, le produit me casse la huh huh J'dois éclaircir tout le paysage, obligé j'tasse un teh J'dois éclaircir tout le paysage, obligé j'tasse un teh La prod me casse la tête, le produit m'casse la huh huh</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Jtire sur le joint, jme déshumanise, jme dmande Maintenant, jvais décevoir qui ? Fumée marron qui sort de la vitre Ah ouais, moi, jvoudrais la suivre et menfuir Allez Jai toujours deux-trois phrases dans la tête Yeah qui tournent en boucle au-dessus du reste Jme sens trop à létroit dans la pièce Euro, là, jai rien compris mais jacquiesce J'm'en branle Moi, javais des rêves à la base, là, jai rencontré tous les blases Que jgravais sur CD-R avec un marqueur, bah tu sais quoi ? La moitié, ils sont bidons Askip, vaut mieux pas vivre ses rêves, la suite est souvent trop sévère Maman dit Lmieux cest lennemi du bien, tu connais un 2 mieux qule 1, toi ? À part dans The Lord of the Rings, et Frodon, il finit fou et triste Même Walter White, il pète une pile, et Anakin, il étrangle sa gadji Depuis qujai vraiment eu la dalle, jcrois qujai vraiment pété un câble Ils rgardaient mal sur lterrain vague, ils mverront que dtrès loin dpuis la scène Cest fini lépoque où jacquiesçais bêtement en baissant la tête Jai perdu trop dtemps, trop dpotes, trop proches en baissant la tête Jté-cla une camel en baissant la vitre, ça fait du bien dbaisser la garde de temps en temps Viens, on parle vrai, on fait pas semblant Eux, ils sont bizarres Nous, on sourit aux inconnus Toujours le regard vers la Lune Jai fouillé son visage Jai trouvé dlamour dans ses prunelles Derrière la peur dans ses yeux You might also like Ils regardent en bizarre Ils regardent en che-lou, on a eu quune moitié dchance, on la chée-tou Y en a pas ddeuxième, c'est pas comme Afflelou Ma vie sur la guitare, une histoire une mélo' dplus On fait chanter leurs vieux rictus La symphonie dlarrêt dbus Cest parti, on sarrête plus jamais Jfais dla musique, jme sauve la vie Jréécris tout, jme brutalise On sregarde dans les yeux, on sbrûle à vif Y a écrit tout baiser dans l'ciel donc on sest dit quon allait lfaire Jme suis inventé des ailes et jraconte partout quon peut voler Jsuis en détente, jsuis comme Bergkamp contre Newcastle Jsuis dans lrectangle, jregarde devant, jveux qula foule maccueille Jfrappe très fort, jvise les dents, jmets tout mon seum Jroule une fusée, jvise la Lune, jmets tout mon seum Eux, ils sont bizarres Nous, on sourit aux inconnus Toujours le regard vers la Lune Jai fouillé son visage Jai trouvé dlamour dans ses prunelles Derrière la peur dans ses yeux Bizarre</t>
+          <t>Jtire sur le joint, jme déshumanise, jme dmande Maintenant, jvais décevoir qui ? Fumée marron qui sort de la vitre Ah ouais, moi, jvoudrais la suivre et menfuir Allez Jai toujours deux-trois phrases dans la tête Yeah qui tournent en boucle au-dessus du reste Jme sens trop à létroit dans la pièce Euro, là, jai rien compris mais jacquiesce J'm'en branle Moi, javais des rêves à la base, là, jai rencontré tous les blases Que jgravais sur CD-R avec un marqueur, bah tu sais quoi ? La moitié, ils sont bidons Askip, vaut mieux pas vivre ses rêves, la suite est souvent trop sévère Maman dit Lmieux cest lennemi du bien, tu connais un 2 mieux qule 1, toi ? À part dans The Lord of the Rings, et Frodon, il finit fou et triste Même Walter White, il pète une pile, et Anakin, il étrangle sa gadji Depuis qujai vraiment eu la dalle, jcrois qujai vraiment pété un câble Ils rgardaient mal sur lterrain vague, ils mverront que dtrès loin dpuis la scène Cest fini lépoque où jacquiesçais bêtement en baissant la tête Jai perdu trop dtemps, trop dpotes, trop proches en baissant la tête Jté-cla une camel en baissant la vitre, ça fait du bien dbaisser la garde de temps en temps Viens, on parle vrai, on fait pas semblant Eux, ils sont bizarres Nous, on sourit aux inconnus Toujours le regard vers la Lune Jai fouillé son visage Jai trouvé dlamour dans ses prunelles Derrière la peur dans ses yeux Ils regardent en bizarre Ils regardent en che-lou, on a eu quune moitié dchance, on la chée-tou Y en a pas ddeuxième, c'est pas comme Afflelou Ma vie sur la guitare, une histoire une mélo' dplus On fait chanter leurs vieux rictus La symphonie dlarrêt dbus Cest parti, on sarrête plus jamais Jfais dla musique, jme sauve la vie Jréécris tout, jme brutalise On sregarde dans les yeux, on sbrûle à vif Y a écrit tout baiser dans l'ciel donc on sest dit quon allait lfaire Jme suis inventé des ailes et jraconte partout quon peut voler Jsuis en détente, jsuis comme Bergkamp contre Newcastle Jsuis dans lrectangle, jregarde devant, jveux qula foule maccueille Jfrappe très fort, jvise les dents, jmets tout mon seum Jroule une fusée, jvise la Lune, jmets tout mon seum Eux, ils sont bizarres Nous, on sourit aux inconnus Toujours le regard vers la Lune Jai fouillé son visage Jai trouvé dlamour dans ses prunelles Derrière la peur dans ses yeux Bizarre</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Oh Jsuis toujours à la fenêtre et jparle plus quà la lune Tsais que, à force quils tapent dessus eh, on a la tête dure Encore une aventure, jles laisse casser du sucre Moi, ça me fait pas bander dclaquer des thunes Nous, on pense quavec du son, on peut retrouver la vie Jparle au chien dla douane, pas au brassard Cherche les pointeurs pas les vingt balles Lui, il sdemand quest-ce quil fout là Pourquoi cest son patron qui aboi ? Mais bon, on reste calme Lui, il parle fort, mais nous, on reste là Quest-ce tas ? J'rêve dun appart pour mon reuf, RAF un Tesla Coup dceinture, amour et rap, buée sur la vitre Le psy, cétait qupour les fous qui veulent bien entendre son avis Donc on a resserré les vis sur des planches posées à larrache On va y arriver en grimpant, y en a bien qui lont fait à la nage Cur en or sous chaîne en plaqué, comme dit pépé, cest pas du chiqué ici Y a plus de vécu dans nos rues qudans toutes leurs rééditions, wow Cest lrap français avec des couilles qui essaie dcrier avec des sourds Qui lui répondent avec des coups bas You might also like Va leur dire qula vie est belle ici Va leur dire qula vie est belle Quand même un peu Va leur dire qula vie est belle ici Va leur dire qula vie est belle ici Va leur dire qula vie est belle ici Va leur dire qula vie est belle Encore un tic-tac, tic-tac, jaimerais reculer les aiguilles dla montre Récupérer les visages Jattendais juste un signal, jécoute même plus les signes Jentends même plus les sons qui mdisent dretourner dlautre côté du virage Tu dviens adulte quand tu comprends qules adultes strompent, en fait Qutu vas faire comme papa même si tu voulais pas en vrai Eh, et tu vas faire comme personne, tu vas faire comme toi-même, tu traces ta route dlEHPAD au berceau Attends deux secondes, jrallume une Camel, jallume, jtousse, crache sur les planètes Est-cquon va visiter la lune ? Viens, jte fais visiter la rue, lsourire a chuté à largus Mais on sait faire briller la brume, nous Cur en or sous chaîne en plaqué, comme dit pépé, cest pas du chiqué ici Y a plus de vécu dans nos rues qudans toutes leurs rééditions, wow Cest lrap français avec des couilles qui essaie dcrier avec des sourds Qui lui répondent avec des coups bas Va leur dire qula vie est belle ici Va leur dire qula vie est belle Quand même un peu Va leur dire qula vie est belle ici Va leur dire qula vie est belle ici Va leur dire qula vie est belle ici Va leur dire qula vie est belle</t>
+          <t>Oh Jsuis toujours à la fenêtre et jparle plus quà la lune Tsais que, à force quils tapent dessus eh, on a la tête dure Encore une aventure, jles laisse casser du sucre Moi, ça me fait pas bander dclaquer des thunes Nous, on pense quavec du son, on peut retrouver la vie Jparle au chien dla douane, pas au brassard Cherche les pointeurs pas les vingt balles Lui, il sdemand quest-ce quil fout là Pourquoi cest son patron qui aboi ? Mais bon, on reste calme Lui, il parle fort, mais nous, on reste là Quest-ce tas ? J'rêve dun appart pour mon reuf, RAF un Tesla Coup dceinture, amour et rap, buée sur la vitre Le psy, cétait qupour les fous qui veulent bien entendre son avis Donc on a resserré les vis sur des planches posées à larrache On va y arriver en grimpant, y en a bien qui lont fait à la nage Cur en or sous chaîne en plaqué, comme dit pépé, cest pas du chiqué ici Y a plus de vécu dans nos rues qudans toutes leurs rééditions, wow Cest lrap français avec des couilles qui essaie dcrier avec des sourds Qui lui répondent avec des coups bas Va leur dire qula vie est belle ici Va leur dire qula vie est belle Quand même un peu Va leur dire qula vie est belle ici Va leur dire qula vie est belle ici Va leur dire qula vie est belle ici Va leur dire qula vie est belle Encore un tic-tac, tic-tac, jaimerais reculer les aiguilles dla montre Récupérer les visages Jattendais juste un signal, jécoute même plus les signes Jentends même plus les sons qui mdisent dretourner dlautre côté du virage Tu dviens adulte quand tu comprends qules adultes strompent, en fait Qutu vas faire comme papa même si tu voulais pas en vrai Eh, et tu vas faire comme personne, tu vas faire comme toi-même, tu traces ta route dlEHPAD au berceau Attends deux secondes, jrallume une Camel, jallume, jtousse, crache sur les planètes Est-cquon va visiter la lune ? Viens, jte fais visiter la rue, lsourire a chuté à largus Mais on sait faire briller la brume, nous Cur en or sous chaîne en plaqué, comme dit pépé, cest pas du chiqué ici Y a plus de vécu dans nos rues qudans toutes leurs rééditions, wow Cest lrap français avec des couilles qui essaie dcrier avec des sourds Qui lui répondent avec des coups bas Va leur dire qula vie est belle ici Va leur dire qula vie est belle Quand même un peu Va leur dire qula vie est belle ici Va leur dire qula vie est belle ici Va leur dire qula vie est belle ici Va leur dire qula vie est belle</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>J'me rappelle quand la dalle m'faisait mal à la tête, qu'la peur m'empêchait d'avancer Pétard coupe-faim quand y avait rien dans l'assiette Tchi, yes J'me rappelle quand la dalle m'faisait mal à la tête ah ouais, qu'la peur m'empêchait d'avancer Pétard coupe-faim quand y avait tchi dans l'assiette, j'm'endors avec des crampes, j'me lève avec l'envie d' Encore un mégot dans la canette, pas très joli donc j'vais pousser à la salle Ton étalé dans la bagutte, toujours un peu moins d'tabac dans la massa J'suis pas dans les cass-pipes, j'suis plutôt dans les casse-têtes, le pe-pom nous fascine, pour ça qu'on s'enraille Un bout d'shit comme boussole, on roule en réserve, l'aiguille pointe vers le sol, les yeux vers le ciel J'voulais la vie à Zidane, j'ai l'parcours à Hatem, city stade, mets des pointards dans la tête Ville crade, pas d'éboueur dans la zone, rrr, ptt comme une réponse dans la gueule Terrain vague, d'la porte de Valenciennes à porte de la Chapelle, on navigue On sait pas toujours qui tient la barre du navire Terrain vague, d'la porte de Valenciennes à porte de la Chapelle, on navigue han, han On va rouler jusqu'au mirage, faut l'faire, on va y aller Temps passe, on va , faut jouer, on va gagner Rouler jusqu'au mirage, faut l'faire, on va y aller Temps passe, on va , faut jouer, on va gagner J'suis bourré, j'crois qu'l'Enfer me parle Mais la bouteille, la folie me mentent Moi, j'veux goûter l'eau des mirages J'suis bourré, j'crois qu'l'Enfer me parle Mais la bouteille, la folie me mentent Moi, j'veux goûter l'eau des mirages You might also like J'parle plus au pénave, c'est tout l'temps l'même p'tit reuf au pénal et tout l'temps yes Précis dans l'détail des pourcentages, j'me lève dans un appart' qui fait toujours 9 mètres Daron en pétard fait les courses en claquettes Les vieux retraités font à la f'nêtre La porte du frigo vide imite le bruit d'la gâchette, la sacoche d'Mary Poppins a plus d'un sachet dans l'fond Plus d'un gamin occupé à compter dans l'froid, que des esprits occupés à combler leur faim On s'fait péter, on n'a pas la confiance du juge ni celle du banquier Train d'vie d'rockstar en habits de chantier Terrain vague, d'la porte de Valenciennes à porte de la Chapelle, on navigue On sait pas toujours qui tient la barre du navire Terrain vague, d'la porte de Valenciennes à porte de la Chapelle, on navigue han, han On va rouler jusqu'au mirage, faut l'faire, on va y aller Temps passe, on va , faut jouer, on va gagner Rouler jusqu'au mirage, faut l'faire, on va y aller Temps passe, on va , faut jouer, on va gagner J'suis bourré, j'crois qu'l'Enfer me parle Mais la bouteille, la folie me mentent Moi, j'veux goûter l'eau des mirages J'suis bourré, j'crois qu'l'Enfer me parle Mais la bouteille, la folie me mentent Moi, j'veux goûter l'eau des mirages</t>
+          <t>J'me rappelle quand la dalle m'faisait mal à la tête, qu'la peur m'empêchait d'avancer Pétard coupe-faim quand y avait rien dans l'assiette Tchi, yes J'me rappelle quand la dalle m'faisait mal à la tête ah ouais, qu'la peur m'empêchait d'avancer Pétard coupe-faim quand y avait tchi dans l'assiette, j'm'endors avec des crampes, j'me lève avec l'envie d' Encore un mégot dans la canette, pas très joli donc j'vais pousser à la salle Ton étalé dans la bagutte, toujours un peu moins d'tabac dans la massa J'suis pas dans les cass-pipes, j'suis plutôt dans les casse-têtes, le pe-pom nous fascine, pour ça qu'on s'enraille Un bout d'shit comme boussole, on roule en réserve, l'aiguille pointe vers le sol, les yeux vers le ciel J'voulais la vie à Zidane, j'ai l'parcours à Hatem, city stade, mets des pointards dans la tête Ville crade, pas d'éboueur dans la zone, rrr, ptt comme une réponse dans la gueule Terrain vague, d'la porte de Valenciennes à porte de la Chapelle, on navigue On sait pas toujours qui tient la barre du navire Terrain vague, d'la porte de Valenciennes à porte de la Chapelle, on navigue han, han On va rouler jusqu'au mirage, faut l'faire, on va y aller Temps passe, on va , faut jouer, on va gagner Rouler jusqu'au mirage, faut l'faire, on va y aller Temps passe, on va , faut jouer, on va gagner J'suis bourré, j'crois qu'l'Enfer me parle Mais la bouteille, la folie me mentent Moi, j'veux goûter l'eau des mirages J'suis bourré, j'crois qu'l'Enfer me parle Mais la bouteille, la folie me mentent Moi, j'veux goûter l'eau des mirages J'parle plus au pénave, c'est tout l'temps l'même p'tit reuf au pénal et tout l'temps yes Précis dans l'détail des pourcentages, j'me lève dans un appart' qui fait toujours 9 mètres Daron en pétard fait les courses en claquettes Les vieux retraités font à la f'nêtre La porte du frigo vide imite le bruit d'la gâchette, la sacoche d'Mary Poppins a plus d'un sachet dans l'fond Plus d'un gamin occupé à compter dans l'froid, que des esprits occupés à combler leur faim On s'fait péter, on n'a pas la confiance du juge ni celle du banquier Train d'vie d'rockstar en habits de chantier Terrain vague, d'la porte de Valenciennes à porte de la Chapelle, on navigue On sait pas toujours qui tient la barre du navire Terrain vague, d'la porte de Valenciennes à porte de la Chapelle, on navigue han, han On va rouler jusqu'au mirage, faut l'faire, on va y aller Temps passe, on va , faut jouer, on va gagner Rouler jusqu'au mirage, faut l'faire, on va y aller Temps passe, on va , faut jouer, on va gagner J'suis bourré, j'crois qu'l'Enfer me parle Mais la bouteille, la folie me mentent Moi, j'veux goûter l'eau des mirages J'suis bourré, j'crois qu'l'Enfer me parle Mais la bouteille, la folie me mentent Moi, j'veux goûter l'eau des mirages</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Il fait trop d'bruit, l'silence Faut qu'j'arrête de parler par peur du vide Là, j'remplis un pilon d'truc pas utile Qui m'soufflera idées pas très lucides Moi, j'ai peur du temps Comme j'ai peur qu'on s'perde Les dessins sur les murs sont circonspects La bouffe de mamie n'est plus si terrible J'trouve même plus papa drôle quand il blague sur Ribéry Patate et p'tit délit, ton-car de fidélité Du teuch au Kinder, c'est les mêmes gosses Ça s'met ds choumettes comme à l'époqu d'la récré' Mais c'est plus les mêmes bosses On rentrait, on disait qu'on était tombé à vélo T'sais, ça coupe la frousse Voir des enfants s'tuer pour du cello' T'sais, ça coupe le souffle Années 2000, Thomas, Sangoku et Karim caillassent la Mondeo d'la muni' Sous l'regard d'leurs prof' ébahis alors qu'c'est eux à la base qui nous ont appris à punir Fallait savoir, éduquer des gosses, c'est une bénédiction Pas un moyen prendre un SMIC dans l'abnégation J'inspire à fond sinon, j'vais t'soulever en l'air sans prémonition You might also like Il fait trop d'bruit, l'silence Wou-hou Il fait trop d'bruit, l'silence Oooh J'ai crié J'ai crié, là, j'ai plus de voix Mais ça résonne encore dans ma tête J'nous regarde, on n'a plus le choix On va pas s'arrêter sans c'qu'on mérite J'ai prié J'ai prié, et juste une fois Et ça résonne encore sur la scène J'ai crié J'ai crié, là, j'ai plus de voix Mais ça résonne encore dans ma tête J'vais crier plus fort que le silence, plus fort que le bruit qu'font les urgences au fond de moi Crier plus fort que l'ambulance pour briller plus fort comme la lumière au fond de toi J'vais crier plus fort que le silence, plus fort que le bruit qu'font les urgences au fond de moi Crier plus fort que l'ambulance pour briller plus fort comme la lumière au fond de toi</t>
+          <t>Il fait trop d'bruit, l'silence Faut qu'j'arrête de parler par peur du vide Là, j'remplis un pilon d'truc pas utile Qui m'soufflera idées pas très lucides Moi, j'ai peur du temps Comme j'ai peur qu'on s'perde Les dessins sur les murs sont circonspects La bouffe de mamie n'est plus si terrible J'trouve même plus papa drôle quand il blague sur Ribéry Patate et p'tit délit, ton-car de fidélité Du teuch au Kinder, c'est les mêmes gosses Ça s'met ds choumettes comme à l'époqu d'la récré' Mais c'est plus les mêmes bosses On rentrait, on disait qu'on était tombé à vélo T'sais, ça coupe la frousse Voir des enfants s'tuer pour du cello' T'sais, ça coupe le souffle Années 2000, Thomas, Sangoku et Karim caillassent la Mondeo d'la muni' Sous l'regard d'leurs prof' ébahis alors qu'c'est eux à la base qui nous ont appris à punir Fallait savoir, éduquer des gosses, c'est une bénédiction Pas un moyen prendre un SMIC dans l'abnégation J'inspire à fond sinon, j'vais t'soulever en l'air sans prémonition Il fait trop d'bruit, l'silence Wou-hou Il fait trop d'bruit, l'silence Oooh J'ai crié J'ai crié, là, j'ai plus de voix Mais ça résonne encore dans ma tête J'nous regarde, on n'a plus le choix On va pas s'arrêter sans c'qu'on mérite J'ai prié J'ai prié, et juste une fois Et ça résonne encore sur la scène J'ai crié J'ai crié, là, j'ai plus de voix Mais ça résonne encore dans ma tête J'vais crier plus fort que le silence, plus fort que le bruit qu'font les urgences au fond de moi Crier plus fort que l'ambulance pour briller plus fort comme la lumière au fond de toi J'vais crier plus fort que le silence, plus fort que le bruit qu'font les urgences au fond de moi Crier plus fort que l'ambulance pour briller plus fort comme la lumière au fond de toi</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>S'il te plait, me lâche plus la main, j'm'accroche comme si c'était la fin Depuis qu'j'compte plus les trous dans la peinture, et que le temps dessine sur nos mains J'parle de demain comme si c'était à moi, quand j'fais semblant mais qu'j'ai plus la foi J'entends l'vent comme si c'était une voix, j'écoute l'orage comme s'il parlait qu'à moi Eh, j'écoute pas les C'est plus la peine, j'voulais tous les aimer simplement Grandis arrosés par l'averse, pour ça qu'on sait danser sous la tempêt On s'est promis d'se sauver d'là mais maintnant, on peut changer la donne Aujourd'hui, on peut voler, c'est parce qu'on n'a même plus peur de tomber d'là-haut J'mélange les couleurs dans bouteille vide Ça mélange les couleurs du ciel Ha-han Je t'en prie, mon frérot, arrête de dire Que ça va si, au fond, tu saignes Ha-han J'mélange les couleurs dans bouteille vide Ça mélange les couleurs du ciel Il a mélangé tous les souvenirs d'avant Et ses joues ont toujours l'goût du sel, yeah Yeah, j'regarde les yeux pas les pourcentages Ha-han Peine a vieilli dans l'béton, le seum a douze ans d'âge Maintenant, j'tremble plus quand j'parle, maintenant, j'tremble plus j'rappe Maintenant, on n'tremble plus devant plus personne La lutte des classes avec d'l'autotune sous les bruits d'klaxon, yeah Foutus bruits d'klaxon, à trois sur l'parking, fait des doigts devant un petit Canon J'promène le chien, j'lui parle beaucoup plus qu'au psychologue, yeah Produits psychotropes, on bronze comme des Malabars, fume comme des philosophes J'raconte d'abord au mur puis au microphone You might also like Paraitrait que j'suis à ma place, paraitrait que j'suis à ma place J'ai quelques questions non résolues, j'appuie encore sur la barre espace, eh Paraitrait que j'suis à ma place, paraitrait que j'suis à ma place J'ai quelques questions non résolues, j'appuie encore sur la barre espace 1</t>
+          <t>S'il te plait, me lâche plus la main, j'm'accroche comme si c'était la fin Depuis qu'j'compte plus les trous dans la peinture, et que le temps dessine sur nos mains J'parle de demain comme si c'était à moi, quand j'fais semblant mais qu'j'ai plus la foi J'entends l'vent comme si c'était une voix, j'écoute l'orage comme s'il parlait qu'à moi Eh, j'écoute pas les C'est plus la peine, j'voulais tous les aimer simplement Grandis arrosés par l'averse, pour ça qu'on sait danser sous la tempêt On s'est promis d'se sauver d'là mais maintnant, on peut changer la donne Aujourd'hui, on peut voler, c'est parce qu'on n'a même plus peur de tomber d'là-haut J'mélange les couleurs dans bouteille vide Ça mélange les couleurs du ciel Ha-han Je t'en prie, mon frérot, arrête de dire Que ça va si, au fond, tu saignes Ha-han J'mélange les couleurs dans bouteille vide Ça mélange les couleurs du ciel Il a mélangé tous les souvenirs d'avant Et ses joues ont toujours l'goût du sel, yeah Yeah, j'regarde les yeux pas les pourcentages Ha-han Peine a vieilli dans l'béton, le seum a douze ans d'âge Maintenant, j'tremble plus quand j'parle, maintenant, j'tremble plus j'rappe Maintenant, on n'tremble plus devant plus personne La lutte des classes avec d'l'autotune sous les bruits d'klaxon, yeah Foutus bruits d'klaxon, à trois sur l'parking, fait des doigts devant un petit Canon J'promène le chien, j'lui parle beaucoup plus qu'au psychologue, yeah Produits psychotropes, on bronze comme des Malabars, fume comme des philosophes J'raconte d'abord au mur puis au microphone Paraitrait que j'suis à ma place, paraitrait que j'suis à ma place J'ai quelques questions non résolues, j'appuie encore sur la barre espace, eh Paraitrait que j'suis à ma place, paraitrait que j'suis à ma place J'ai quelques questions non résolues, j'appuie encore sur la barre espace 1</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>J'aimerais être assez fort pour pleurer devant les gens qu'j'aime Pour crier toutes mes faiblesses J'suis vaincu par la pudeur, on me dit qu'la vie, c'est pas un jeu J'ai compris depuis qu'lâcher un je t'aime est devenu une galère D'plus en plus rare d'voir un poto sans la schnouffe D'plus en plus dur d'voir une maman sans la frousse C'était plus simple quand on avait des p'tits bib mousse Mais j'me rappelle, y'en avait un avec un shlass dans sa trouss, merde ! On était des squlettes J'faisais des pompes pour devenir sclé-mu J'me trouvais moche avec mes oreilles C'est pas un jeu, tu pouvais t'péter la gueule J'ai vu des mecs s'casser les jambes, coincés en foyer d'accueil Collège Saint-Gabriel, Virolois, Croix-Rouge Les animateurs FJC ont pas changé, ils sont juste plus rouges Y'a rien qui bouge c'est une expression d'couillon Si tu bouges pas, c'est qu't'es planté au lieu d'aller dans l'mouvement hein hein hein hein C'est pas un jeu comme quand on demandait si on pouvait jouer avec eux hein hein hein hein C'est pas un jeu comme quand on demandait si on pouvait jouer avec eux C'est pas un jeu C'est pas un jeu C'est pas un jeu C'est pas un jeu You might also like Les gosses veulent aller sur la Lune, personne parle de Thaïlande Pas grand-monde parle d'argent, personne parlait d'avant J'ai déjà fait trop d'choses pour trop d'proches, pour remplir trop d'poches, pour qu'la sueur nous rapproche, pour qu'j'passe à autre chose 10 piges à l'usine à taffer pour manger Quand c'est pas la meuf que tu kiffes, juste le banquier qui va t'rappeler Ça t'apprend à aimer les lovés, les sommes, les zéros vers la gauche à la mort Quand t'en as plus, tu sais pas si t'existes encore Et à force, eh, t'sais quoi, j'suis bien heureux comme a-ç Me casser l'cul m'paraîtrait inimaginable C'est pas un jeu, ça va plus vite qu'un paquet d'Dunhill à dix balles On a poussé dans la grisaille hein hein hein hein C'est pas un jeu comme quand on demandait si on pouvait jouer avec eux hein hein hein hein C'est pas un jeu comme quand on demandait si on pouvait jouer avec eux C'est pas un jeu C'est pas un jeu C'est pas un jeu C'est pas un jeu</t>
+          <t>J'aimerais être assez fort pour pleurer devant les gens qu'j'aime Pour crier toutes mes faiblesses J'suis vaincu par la pudeur, on me dit qu'la vie, c'est pas un jeu J'ai compris depuis qu'lâcher un je t'aime est devenu une galère D'plus en plus rare d'voir un poto sans la schnouffe D'plus en plus dur d'voir une maman sans la frousse C'était plus simple quand on avait des p'tits bib mousse Mais j'me rappelle, y'en avait un avec un shlass dans sa trouss, merde ! On était des squlettes J'faisais des pompes pour devenir sclé-mu J'me trouvais moche avec mes oreilles C'est pas un jeu, tu pouvais t'péter la gueule J'ai vu des mecs s'casser les jambes, coincés en foyer d'accueil Collège Saint-Gabriel, Virolois, Croix-Rouge Les animateurs FJC ont pas changé, ils sont juste plus rouges Y'a rien qui bouge c'est une expression d'couillon Si tu bouges pas, c'est qu't'es planté au lieu d'aller dans l'mouvement hein hein hein hein C'est pas un jeu comme quand on demandait si on pouvait jouer avec eux hein hein hein hein C'est pas un jeu comme quand on demandait si on pouvait jouer avec eux C'est pas un jeu C'est pas un jeu C'est pas un jeu C'est pas un jeu Les gosses veulent aller sur la Lune, personne parle de Thaïlande Pas grand-monde parle d'argent, personne parlait d'avant J'ai déjà fait trop d'choses pour trop d'proches, pour remplir trop d'poches, pour qu'la sueur nous rapproche, pour qu'j'passe à autre chose 10 piges à l'usine à taffer pour manger Quand c'est pas la meuf que tu kiffes, juste le banquier qui va t'rappeler Ça t'apprend à aimer les lovés, les sommes, les zéros vers la gauche à la mort Quand t'en as plus, tu sais pas si t'existes encore Et à force, eh, t'sais quoi, j'suis bien heureux comme a-ç Me casser l'cul m'paraîtrait inimaginable C'est pas un jeu, ça va plus vite qu'un paquet d'Dunhill à dix balles On a poussé dans la grisaille hein hein hein hein C'est pas un jeu comme quand on demandait si on pouvait jouer avec eux hein hein hein hein C'est pas un jeu comme quand on demandait si on pouvait jouer avec eux C'est pas un jeu C'est pas un jeu C'est pas un jeu C'est pas un jeu</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Trop d'doutes dans la tête Donc j'ride dans la city Un teh dans la veste, plus d'jours à perdre, faut qu'on en finisse Faut qu'on embellisse le moment d'après le moment d'après Faut qu'on le saisisse Le tableau est plein d'schémas complexes, mais faut qu'on éclaircisse Faut qu'on apprenne à vivre ensemble, Félix n'est pas sortie d'ses cendres J'essaie d'faire pousser des miracls sous l'soleil blanc du mois d'Décembre J'écris, j'fface et j'recommence J'essaie, j'me loupe et j'réenclenche Quand j'réussis j'fais pas la fête, j'gagne en espoir et j'recommence Et on calcule même plus la chance nous, on fait avec On s'en bat grave les couilles des paramètres, on joue avec On monte au charbon sans les mains nous, on prie après La pluie tombe sur nous comme le destin, on brille avec Enfant des ghettos modernes, un école, un city-stade, un leaderprice, khlass C'que tu m'dois tu m'le rends, c'plus simple que Karl Marx J'travaille pour sauver les étoiles qui percent les nuages Que danse la pluie, que chantent les orages Le blanc d'ton âme dans l'blanc d'mes yeux dans l'blanc d'mes yeux Depuis qu'grandir c'est douloureux c'est pas facile Gagner c'est bien, apprendre c'est mieux ouais, c'est c'que j'essaie de faire J'attends qu'les étoiles s'alignent, j'attends qu'la cloche sonne J'tape de plus en plus fort sur le micro, j'attends qu'la porte s'ouvre J'entends qu'un bruit sourd qui résonne dans la ville Les éboueurs se lèvent avant les oiseaux pour effacer la nuit You might also like Ah bah ouais Bon qu'à raconter des histoires qui finissent pas Et l'chien d'la BRB c'est pas Falkor, il aime pas les p'tits minables Les p'tits minables, c'est toi c'est moi, survêt' de foot en haut du toit En train d'rejouer les finales mais les finales ça s'rejoue pas J'repense à Vétéa, s'amputer d'un ami c'est comme s'amputer d'un bras Tout en haut d'la montagne, la vue sera belle même si elle sera sans toi C'est qu'une histoire de choix mais j'peux pas t'en vouloir de partir Même si au fond de mes rêves t'es dans la tchop et tu m'parles d'avenir Du Ballon d'Or de Messi, qu'il a pas mérité T'aurais préféré qu'on le donne à Benze' pour la postérité J'suis de ton avis, mais on va râler tous les deux parce qu'on se sentira vivre Un fusil dans la voix juste pour se sentir agir On a l'seum, on sait pas contre qui On marche pas, on sait que courir Et l'soleil se lèvera toujours plus tôt, c'est Jamais avant les éboueurs, avant les oiseaux</t>
+          <t>Trop d'doutes dans la tête Donc j'ride dans la city Un teh dans la veste, plus d'jours à perdre, faut qu'on en finisse Faut qu'on embellisse le moment d'après le moment d'après Faut qu'on le saisisse Le tableau est plein d'schémas complexes, mais faut qu'on éclaircisse Faut qu'on apprenne à vivre ensemble, Félix n'est pas sortie d'ses cendres J'essaie d'faire pousser des miracls sous l'soleil blanc du mois d'Décembre J'écris, j'fface et j'recommence J'essaie, j'me loupe et j'réenclenche Quand j'réussis j'fais pas la fête, j'gagne en espoir et j'recommence Et on calcule même plus la chance nous, on fait avec On s'en bat grave les couilles des paramètres, on joue avec On monte au charbon sans les mains nous, on prie après La pluie tombe sur nous comme le destin, on brille avec Enfant des ghettos modernes, un école, un city-stade, un leaderprice, khlass C'que tu m'dois tu m'le rends, c'plus simple que Karl Marx J'travaille pour sauver les étoiles qui percent les nuages Que danse la pluie, que chantent les orages Le blanc d'ton âme dans l'blanc d'mes yeux dans l'blanc d'mes yeux Depuis qu'grandir c'est douloureux c'est pas facile Gagner c'est bien, apprendre c'est mieux ouais, c'est c'que j'essaie de faire J'attends qu'les étoiles s'alignent, j'attends qu'la cloche sonne J'tape de plus en plus fort sur le micro, j'attends qu'la porte s'ouvre J'entends qu'un bruit sourd qui résonne dans la ville Les éboueurs se lèvent avant les oiseaux pour effacer la nuit Ah bah ouais Bon qu'à raconter des histoires qui finissent pas Et l'chien d'la BRB c'est pas Falkor, il aime pas les p'tits minables Les p'tits minables, c'est toi c'est moi, survêt' de foot en haut du toit En train d'rejouer les finales mais les finales ça s'rejoue pas J'repense à Vétéa, s'amputer d'un ami c'est comme s'amputer d'un bras Tout en haut d'la montagne, la vue sera belle même si elle sera sans toi C'est qu'une histoire de choix mais j'peux pas t'en vouloir de partir Même si au fond de mes rêves t'es dans la tchop et tu m'parles d'avenir Du Ballon d'Or de Messi, qu'il a pas mérité T'aurais préféré qu'on le donne à Benze' pour la postérité J'suis de ton avis, mais on va râler tous les deux parce qu'on se sentira vivre Un fusil dans la voix juste pour se sentir agir On a l'seum, on sait pas contre qui On marche pas, on sait que courir Et l'soleil se lèvera toujours plus tôt, c'est Jamais avant les éboueurs, avant les oiseaux</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>C'est plus comme avant C'est encore les mêmes traces sur l'mur, c'est encore les mêmes taches sur nos visages Même si y a d'la peinture y a pas moins d'nuages Deux, trois solutions à nos problèmes originels Moi j'voulais qu'elle m'aime juste moi Elle m'a donné plein de raisons j'voulais juste un mot J'crois qu'on a manqué d'amour J'crois qu'on a tordu l'aiguille de la boussole, j'ai l'cur qui s'tait, la tête qui parle toute seule J'parle en bordel de putain d'merde c'est la faute à pépé Deux heures de bouchons vers le bord de mer à rayer des pare-chocs et des CD gravés Il croit qu'on est fous la faute à nos parents, il croit qu'on est violents la faute à la télé, hein A croire qu'on est bons qu'à ça, à répondre en bon ok, à payer en bons d'achats J'chante les souvenirs des contes de fée, les mégots dans le bac à sable A croire qu'on est bons qu'à ça Fallait pas toucher la boussole La tête dans les nuages et les soucis Les yeux vers la poussière et le sous-sol L'aiguille est cassée, la madame a dit que j'étais un kassos hey Quatre connards en Bluetooth dans un BM de 2002 Fils de pute, t'as d'l'oseille ça fait pas d'toi un demi-dieu On partait en vacances dans des vieux bleds de fond d'ligue 2 C'était merveilleux, merci maman, merci papa pour les travaux, on y va Gros, j'lis les ratures sur le bord d'la page C'est mieux qu'leurs blablas, bah ouais Ça sent l'essence sur le bord d'la plage Et tu veux qu'on fasse quoi, y a marqué le nom d'ses gamins sur son biceps en bleu électrique J'voulais plaire à mes potes et aux filles Ça sent la victoire et l'shit, j'aime pas la coke et les flics You might also like Fallait pas toucher la boussole La tête dans les nuages et les soucis Les yeux vers la poussière et le sous-sol L'aiguille est cassée, la madame a dit que j'étais un kassos hey Fallait pas toucher la boussole La tête dans les nuages et les soucis Les yeux vers la poussière et le sous-sol La madame a dit que j'étais un kassos hey</t>
+          <t>C'est plus comme avant C'est encore les mêmes traces sur l'mur, c'est encore les mêmes taches sur nos visages Même si y a d'la peinture y a pas moins d'nuages Deux, trois solutions à nos problèmes originels Moi j'voulais qu'elle m'aime juste moi Elle m'a donné plein de raisons j'voulais juste un mot J'crois qu'on a manqué d'amour J'crois qu'on a tordu l'aiguille de la boussole, j'ai l'cur qui s'tait, la tête qui parle toute seule J'parle en bordel de putain d'merde c'est la faute à pépé Deux heures de bouchons vers le bord de mer à rayer des pare-chocs et des CD gravés Il croit qu'on est fous la faute à nos parents, il croit qu'on est violents la faute à la télé, hein A croire qu'on est bons qu'à ça, à répondre en bon ok, à payer en bons d'achats J'chante les souvenirs des contes de fée, les mégots dans le bac à sable A croire qu'on est bons qu'à ça Fallait pas toucher la boussole La tête dans les nuages et les soucis Les yeux vers la poussière et le sous-sol L'aiguille est cassée, la madame a dit que j'étais un kassos hey Quatre connards en Bluetooth dans un BM de 2002 Fils de pute, t'as d'l'oseille ça fait pas d'toi un demi-dieu On partait en vacances dans des vieux bleds de fond d'ligue 2 C'était merveilleux, merci maman, merci papa pour les travaux, on y va Gros, j'lis les ratures sur le bord d'la page C'est mieux qu'leurs blablas, bah ouais Ça sent l'essence sur le bord d'la plage Et tu veux qu'on fasse quoi, y a marqué le nom d'ses gamins sur son biceps en bleu électrique J'voulais plaire à mes potes et aux filles Ça sent la victoire et l'shit, j'aime pas la coke et les flics Fallait pas toucher la boussole La tête dans les nuages et les soucis Les yeux vers la poussière et le sous-sol L'aiguille est cassée, la madame a dit que j'étais un kassos hey Fallait pas toucher la boussole La tête dans les nuages et les soucis Les yeux vers la poussière et le sous-sol La madame a dit que j'étais un kassos hey</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>J'suis tout blanc, j'ai les yeux gyrophares, j'suis tout pâle, c'est l'reflet des nuages Papa m'a dit Va t'trouver du travail, remplis pas l'placard avec du bricolage 59, c'est pas qu'la fricadelle ah ouais, sur la chatte à Robert Bidochon yes J'suis un pinard comme Francis Cabrel, j'écris sur le bruit du clignotant ouh, ah ouais ? Défilé d'gueules cassées devant la Poste devant la, devant la Trou d'clope forme un nouveau logo sur le Lacoste trou d'boulette, trou d'boulette Des nouvelles maladies, un nouvl iPhone Football, dorénavant, pour le ballon, ça s'allume à l'azot J'fume pas la beuh-beuh des USA, j'préfère le te-te d'Tanger Tanger Maman met d'côté pour ses funérailles et ça m'donne envie d'pleurer Avec Djalito, depuis l'innocence, depuis les malheurs Les préférés de la cantinière c'est nous, les moins aimés du proviseur c'est nous, c'est nous Qui ramène la tate-pa en balle ? C'est nous, c'est nous c'est nous, c'est nous Ceux qu'les voisins veulent virer du bât', c'est nous, c'est nous Si c'est pas nous, c'est qui ?, autant d'mariages que d'funérailles C'est nous, c'est nous c'est nous, c'est nous, les pneus sont trop lisses, ça dérape C'est nous, c'est nous c'est nous, c'est qui ?, qui ramène la tate-pa en balle ? C'est nous, c'est nous grr, pah, pah, pah, ceux qu'les voisins veulent virer du bât' C'est nous, c'est nous c'est nous, c'est nous Autant d'mariages que d'funérailles, c'est nous, c'est nous Les pneus sont trop lisses, ça dérape You might also like Ça graille d'la loubia des madesus, trouve-moi en bas d'chez toi si tu dois des sous J'sais c'que j'veux mais j'suis indécis, t'as la même utilité qu'un ingé' sourd J'ai mangé des baffes que j'ai digérés, j'veux toutes les rendre même si c'est en différé Y a qu'son gros cul qui m'laisse pas indifférent, trop d'émotions nocives pour les énumérer rah Petits, on volait on n'était pas si innocents Les années sont passées, les curs servent plus qu'à pomper le sang t'as capté Mémoire sélective car très peu sont reconnaissants les fils de pute Déçu et c'est pas récent, trouve-moi à Metz ou Paris-centre dans l'X J'aime pas trop les bobos space nan, sauf quand ils paient en espèces Inspi' des marocains des States toh, toh mais Marocain d'la tess J'suis un peu éméché dans la Benz, j'vois qu'des lampadaires dans l'rétroviseur Les p'tits chouchous des surveillants toh, toh, toh, les plus détestés des professeurs roh, roh, eh Qui ramène la tate-pa en balle ? C'est nous, c'est nous c'est nous, c'est nous Ceux qu'les voisins veulent virer du bât', c'est nous, c'est nous Si c'est pas nous, c'est qui ?, autant d'mariages que d'funérailles C'est nous, c'est nous c'est nous, c'est nous, les pneus sont trop lisses, ça dérape C'est nous, c'est nous c'est nous, c'est qui ?, qui ramène la tate-pa en balle ? C'est nous, c'est nous grr, pah, pah, pah, ceux qu'les voisins veulent virer du bât' C'est nous, c'est nous c'est nous, c'est nous Autant d'mariages que d'funérailles, c'est nous, c'est nous Les pneus sont trop lisses, ça dérape C'est nous, c'est nous Big Djal', big BEN</t>
+          <t>J'suis tout blanc, j'ai les yeux gyrophares, j'suis tout pâle, c'est l'reflet des nuages Papa m'a dit Va t'trouver du travail, remplis pas l'placard avec du bricolage 59, c'est pas qu'la fricadelle ah ouais, sur la chatte à Robert Bidochon yes J'suis un pinard comme Francis Cabrel, j'écris sur le bruit du clignotant ouh, ah ouais ? Défilé d'gueules cassées devant la Poste devant la, devant la Trou d'clope forme un nouveau logo sur le Lacoste trou d'boulette, trou d'boulette Des nouvelles maladies, un nouvl iPhone Football, dorénavant, pour le ballon, ça s'allume à l'azot J'fume pas la beuh-beuh des USA, j'préfère le te-te d'Tanger Tanger Maman met d'côté pour ses funérailles et ça m'donne envie d'pleurer Avec Djalito, depuis l'innocence, depuis les malheurs Les préférés de la cantinière c'est nous, les moins aimés du proviseur c'est nous, c'est nous Qui ramène la tate-pa en balle ? C'est nous, c'est nous c'est nous, c'est nous Ceux qu'les voisins veulent virer du bât', c'est nous, c'est nous Si c'est pas nous, c'est qui ?, autant d'mariages que d'funérailles C'est nous, c'est nous c'est nous, c'est nous, les pneus sont trop lisses, ça dérape C'est nous, c'est nous c'est nous, c'est qui ?, qui ramène la tate-pa en balle ? C'est nous, c'est nous grr, pah, pah, pah, ceux qu'les voisins veulent virer du bât' C'est nous, c'est nous c'est nous, c'est nous Autant d'mariages que d'funérailles, c'est nous, c'est nous Les pneus sont trop lisses, ça dérape Ça graille d'la loubia des madesus, trouve-moi en bas d'chez toi si tu dois des sous J'sais c'que j'veux mais j'suis indécis, t'as la même utilité qu'un ingé' sourd J'ai mangé des baffes que j'ai digérés, j'veux toutes les rendre même si c'est en différé Y a qu'son gros cul qui m'laisse pas indifférent, trop d'émotions nocives pour les énumérer rah Petits, on volait on n'était pas si innocents Les années sont passées, les curs servent plus qu'à pomper le sang t'as capté Mémoire sélective car très peu sont reconnaissants les fils de pute Déçu et c'est pas récent, trouve-moi à Metz ou Paris-centre dans l'X J'aime pas trop les bobos space nan, sauf quand ils paient en espèces Inspi' des marocains des States toh, toh mais Marocain d'la tess J'suis un peu éméché dans la Benz, j'vois qu'des lampadaires dans l'rétroviseur Les p'tits chouchous des surveillants toh, toh, toh, les plus détestés des professeurs roh, roh, eh Qui ramène la tate-pa en balle ? C'est nous, c'est nous c'est nous, c'est nous Ceux qu'les voisins veulent virer du bât', c'est nous, c'est nous Si c'est pas nous, c'est qui ?, autant d'mariages que d'funérailles C'est nous, c'est nous c'est nous, c'est nous, les pneus sont trop lisses, ça dérape C'est nous, c'est nous c'est nous, c'est qui ?, qui ramène la tate-pa en balle ? C'est nous, c'est nous grr, pah, pah, pah, ceux qu'les voisins veulent virer du bât' C'est nous, c'est nous c'est nous, c'est nous Autant d'mariages que d'funérailles, c'est nous, c'est nous Les pneus sont trop lisses, ça dérape C'est nous, c'est nous Big Djal', big BEN</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>J'écoute le bruit d'la mer qui monte, le bruit du périphérique J'pense aux yeux des p'tits qui voient la montagne depuis l'téléphérique Qui découvrent la neige pour la première fois J'viens d'là où l'voisin a jamais vu la mer alors qu'elle est là, juste à côté Mais faut prendre le bus au moins vingt minutes pour contredire c'que la rumeur insinue On fait des châteaux d'sable avec des seau d'tabac Marlboro Partage des paquts d'chips trois kilos, formats familiaux Le p'tit, il graille ça tranquillou, torse nu, gros bidon Il va s'cognr sur une canette, gros chagrin, gros bisous Fin du drame, et c'est pareil à l'âge adulte Mes gars mériterait un câlin, l'espoir en l'amour diminue On croit qu'on fait les bonhommes, on fait les trous d'balles Faire du mal, ça fait pas d'toi un boss, fais toi un gros khmal, connard Si j'voyais mon père biologique, j'lui dirais rien J'ai rien à lui dire à part T'as bien fait d'te casser, on est bien Adopter un gosse, c'est p't-êt' plus dur qu'de l'faire J'me dis ça, y en a qui s'branlent dans des tubes à essai en croisant les doigts P't-êt' ça m'arrivera, et j'dirais quoi à c'gamin ? J'ai pas osé t'faire à vingt ans, j'faisais du rap Maintenant, fais tes devoirs, faut faire plaisir à maman You might also like On verra bien, on verra plus tard Là, on fait d'l'argent avec de l'espoir mais j'ai plus besoin d'espoir T'sais quoi ? J'ai peur d'y arriver, d'plus savoir m'inventer d'rêves D'regarder tout c'qu'on a fait avant en m'pinçant les lèvres Ok, on préfère les perdants, les mauvais Les Balotelli, les Pagis plutôt qu'les Messi, les Robben J'vais pas pourrir dans des hôtels froids J'ai plus chaud dans ses bras J'suis sur la Lune mais j'regarde vers chez moi Et t'sais quoi ? J'suis matrixé par le mal de la vie J'ai envie d'le mêler quand j'vois un daron câliner sa fille, sa mère On est fuckés depuis l'collège, collage, décollage au pollen Y a ces mecs que j'vois qu'en colère, j'me demande toujours pourquoi Et y a des raisons qu'on saura jamais Demande à Nany, y a des tâches qui partent pas au javel Mais moi, j'cherche encore, j'supporte pas du tout les questions sans réponse J'fais semblant que ça va mais j'ai trop peur des blancs et du silence, bref</t>
+          <t>J'écoute le bruit d'la mer qui monte, le bruit du périphérique J'pense aux yeux des p'tits qui voient la montagne depuis l'téléphérique Qui découvrent la neige pour la première fois J'viens d'là où l'voisin a jamais vu la mer alors qu'elle est là, juste à côté Mais faut prendre le bus au moins vingt minutes pour contredire c'que la rumeur insinue On fait des châteaux d'sable avec des seau d'tabac Marlboro Partage des paquts d'chips trois kilos, formats familiaux Le p'tit, il graille ça tranquillou, torse nu, gros bidon Il va s'cognr sur une canette, gros chagrin, gros bisous Fin du drame, et c'est pareil à l'âge adulte Mes gars mériterait un câlin, l'espoir en l'amour diminue On croit qu'on fait les bonhommes, on fait les trous d'balles Faire du mal, ça fait pas d'toi un boss, fais toi un gros khmal, connard Si j'voyais mon père biologique, j'lui dirais rien J'ai rien à lui dire à part T'as bien fait d'te casser, on est bien Adopter un gosse, c'est p't-êt' plus dur qu'de l'faire J'me dis ça, y en a qui s'branlent dans des tubes à essai en croisant les doigts P't-êt' ça m'arrivera, et j'dirais quoi à c'gamin ? J'ai pas osé t'faire à vingt ans, j'faisais du rap Maintenant, fais tes devoirs, faut faire plaisir à maman On verra bien, on verra plus tard Là, on fait d'l'argent avec de l'espoir mais j'ai plus besoin d'espoir T'sais quoi ? J'ai peur d'y arriver, d'plus savoir m'inventer d'rêves D'regarder tout c'qu'on a fait avant en m'pinçant les lèvres Ok, on préfère les perdants, les mauvais Les Balotelli, les Pagis plutôt qu'les Messi, les Robben J'vais pas pourrir dans des hôtels froids J'ai plus chaud dans ses bras J'suis sur la Lune mais j'regarde vers chez moi Et t'sais quoi ? J'suis matrixé par le mal de la vie J'ai envie d'le mêler quand j'vois un daron câliner sa fille, sa mère On est fuckés depuis l'collège, collage, décollage au pollen Y a ces mecs que j'vois qu'en colère, j'me demande toujours pourquoi Et y a des raisons qu'on saura jamais Demande à Nany, y a des tâches qui partent pas au javel Mais moi, j'cherche encore, j'supporte pas du tout les questions sans réponse J'fais semblant que ça va mais j'ai trop peur des blancs et du silence, bref</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Tsais, jai peur de mal faire, gros, et jparle plus au micro quaux autres mais Grâce à la technologie, jpeux leur dire des vraies choses Là, jai dplus en plus mal à la tête, ils mveulent mais jsuis mal dans la fête, moi, en vrai Jdis à tout lmonde quon sélève, mais jcrois bien qujai la tête à lenvers, moi, en scred Jprie pour qujamais le temps nsarrête parce que moi, jai pas ltemps dmarrêter Fin du show, jprends un grand salaire, et ma grand-mère a pris quatre étés en un seul Jai peur de rgretter face au linceul On est deux dans la pièce, à faire des instrus comme sça changeait la terre, ça la change peut-être En tout cas, jai ça heureusement, Martin met la mélo' et je danse Martin met la mélodie et je pense mieux, et je panse toutes les plaies Les doutes, les peurs, cest rien, mais on va toutes les ken, les douleurs les plus muettes Cest comme les gens qui parlent pas beaucoup, qui en font lplus Cest nous quon parle fort dans lfond du bus de nuit On rviendra toujours comme les puces de lit Les moments où j'suis mort, cest là où jressens lplus de vie Si cest un peu cassé, on met plus de vis Quand jsais plus trop quoi dire, jmets ma main sur son épaule en guise de bruit Jentends plus rien mais jai cette voix dans la tête encore Jentends plus rien mais jai cette voix dans la tête encore You might also like Jdécouvre encore des rides sur les mains dma mère Avant, jtombais dans lvide maintenant, jflotte dans lciel Elle, elle a lair heureuse mais elle pleure dans sa prison dorée, ça fait des arcs-en-ciel Nous, on est pressés dtout dpuis la naissance Dpuis les Camel sous lsoleil, froid de décembre Depuis quKarim saoule mon daron pour que jdescende Pour quon empile des cendres sur des cendres, eh, eh Jsuis quun gamin du trottoir dla brique ouais En doudoune et cagoule à huit ans comme si on inventait la drill On peut changer lavenir, tu sais Ils veulent pas técouter, ils vont changer davis Nous, on a serré la vis et la ceinture, là, ça sent la r'vanche et la friture, l'ascenseur est bloqué, eh Ça fra les mollets dlhuissier, cfils de tain-p Moi jvais devenir un homme et jvais crier je taime à mon père Jlâche tout, jnique le frein Parle dans nos curs, vise-les bien, jretiens ni mes coups ni mes promesses oh Jmonte comme le sans plomb, comme les comètes, toi, cest des menottes ou une Rolex, eh Les gamins crânes rasés du hazi transforment la salade en Asics ah bah ouais Cest bien dleur offrir des survêtements, faut leur expliquer quils peuvent sourire, changer lmonde oh Jécris sur ltic-tac de la montre, on fait les Rick Ross, on est ricrac, on est riches dnos émotions Ça fait dix ans quon rappe, ça fait dix ans quça parle dans mon ventre Bientôt, jmets lun partout, balle au centre On navait plus despoir, là, y a plus que dla foudre dans mon sang Là, y a plus que dla poudre dans mon ventre, vas-y, viens et laisse voir Là, y a plus que du soufre dans le vent et cest bientôt quil souffle dans lautre sens, ce fils de pute Ah bah ouais ah bah ouais Ça fait dix ans quon rappe, tu crois quon va choke maintenant Nos papys dans lciel, nos darons dans la maintenance Né accidenté comme les scooters en Thaïlande Jfais qualimenter nos rêves despoir en braillant En criant plus fort que les voix dans ma tête, au final, jvais chanter avec elles Nos daronnes au taff, nos darons à la vaisselle, avant internet, avant Valeurs actuelles On est nés dans ldoute, dans un trou sans un coup dpouce Où ça fait vingt ans qule même tonton, il a un coup dmou On sfera pas tout seul, on a mangé tout lsol, tout lseum Jsuis tout rouge à cause des coups dpute à cause des coups dsun Écoute-moi, jai pas manqué damour ni dcourage, arrosé par lorage dvant Tom-Tom et Nana Ten racontent des histoires, les enfants des boulevards À trois sur un matelas sous lseum et les nuages Ah bah ouais, ouh Ah bah ouais, ouh Jentends plus rien mais jai cette voix dans la tête encore Jentends plus rien mais jai cette voix dans la tête encore</t>
+          <t>Tsais, jai peur de mal faire, gros, et jparle plus au micro quaux autres mais Grâce à la technologie, jpeux leur dire des vraies choses Là, jai dplus en plus mal à la tête, ils mveulent mais jsuis mal dans la fête, moi, en vrai Jdis à tout lmonde quon sélève, mais jcrois bien qujai la tête à lenvers, moi, en scred Jprie pour qujamais le temps nsarrête parce que moi, jai pas ltemps dmarrêter Fin du show, jprends un grand salaire, et ma grand-mère a pris quatre étés en un seul Jai peur de rgretter face au linceul On est deux dans la pièce, à faire des instrus comme sça changeait la terre, ça la change peut-être En tout cas, jai ça heureusement, Martin met la mélo' et je danse Martin met la mélodie et je pense mieux, et je panse toutes les plaies Les doutes, les peurs, cest rien, mais on va toutes les ken, les douleurs les plus muettes Cest comme les gens qui parlent pas beaucoup, qui en font lplus Cest nous quon parle fort dans lfond du bus de nuit On rviendra toujours comme les puces de lit Les moments où j'suis mort, cest là où jressens lplus de vie Si cest un peu cassé, on met plus de vis Quand jsais plus trop quoi dire, jmets ma main sur son épaule en guise de bruit Jentends plus rien mais jai cette voix dans la tête encore Jentends plus rien mais jai cette voix dans la tête encore Jdécouvre encore des rides sur les mains dma mère Avant, jtombais dans lvide maintenant, jflotte dans lciel Elle, elle a lair heureuse mais elle pleure dans sa prison dorée, ça fait des arcs-en-ciel Nous, on est pressés dtout dpuis la naissance Dpuis les Camel sous lsoleil, froid de décembre Depuis quKarim saoule mon daron pour que jdescende Pour quon empile des cendres sur des cendres, eh, eh Jsuis quun gamin du trottoir dla brique ouais En doudoune et cagoule à huit ans comme si on inventait la drill On peut changer lavenir, tu sais Ils veulent pas técouter, ils vont changer davis Nous, on a serré la vis et la ceinture, là, ça sent la r'vanche et la friture, l'ascenseur est bloqué, eh Ça fra les mollets dlhuissier, cfils de tain-p Moi jvais devenir un homme et jvais crier je taime à mon père Jlâche tout, jnique le frein Parle dans nos curs, vise-les bien, jretiens ni mes coups ni mes promesses oh Jmonte comme le sans plomb, comme les comètes, toi, cest des menottes ou une Rolex, eh Les gamins crânes rasés du hazi transforment la salade en Asics ah bah ouais Cest bien dleur offrir des survêtements, faut leur expliquer quils peuvent sourire, changer lmonde oh Jécris sur ltic-tac de la montre, on fait les Rick Ross, on est ricrac, on est riches dnos émotions Ça fait dix ans quon rappe, ça fait dix ans quça parle dans mon ventre Bientôt, jmets lun partout, balle au centre On navait plus despoir, là, y a plus que dla foudre dans mon sang Là, y a plus que dla poudre dans mon ventre, vas-y, viens et laisse voir Là, y a plus que du soufre dans le vent et cest bientôt quil souffle dans lautre sens, ce fils de pute Ah bah ouais ah bah ouais Ça fait dix ans quon rappe, tu crois quon va choke maintenant Nos papys dans lciel, nos darons dans la maintenance Né accidenté comme les scooters en Thaïlande Jfais qualimenter nos rêves despoir en braillant En criant plus fort que les voix dans ma tête, au final, jvais chanter avec elles Nos daronnes au taff, nos darons à la vaisselle, avant internet, avant Valeurs actuelles On est nés dans ldoute, dans un trou sans un coup dpouce Où ça fait vingt ans qule même tonton, il a un coup dmou On sfera pas tout seul, on a mangé tout lsol, tout lseum Jsuis tout rouge à cause des coups dpute à cause des coups dsun Écoute-moi, jai pas manqué damour ni dcourage, arrosé par lorage dvant Tom-Tom et Nana Ten racontent des histoires, les enfants des boulevards À trois sur un matelas sous lseum et les nuages Ah bah ouais, ouh Ah bah ouais, ouh Jentends plus rien mais jai cette voix dans la tête encore Jentends plus rien mais jai cette voix dans la tête encore</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Eh, eh, eh Là, j'sens plus qul'odeur de l'incendie, jsais qu'il arrive Ouais Ils nous ont demandé d'être moins sensibles, c'est pas ça ma vie On va pas devenir ce qu'ils auraient envie qu'on soit Ah bah ouais Quand j'aurais des gamins, j'vais pas manquer lhistoire Faut-il encore quj'les fasse Trace de sang dans ses grands yeux, faut-il encore quj'l'efface J'vois flou mais jregarde droit, tout l'bât' est sur un toit C'est la même qu'avant, c'est la merde ? Bah nan Baisse la tête avant si tu t'rappelles d'à l'ancienne Hey, ah bah ouais, han Quand j'sortais l'clébard sous l'pont du Tilleul encore une fois Han Parce que papa crie en haut et qu'maman est en bas en train d'nous inventer des histoires Han Faut qu'j'aille voir papi, faut qu'j'aille voir papa Avant les regrets, avant les Au revoir Il disait Fais pas ci, il disait Fais pas ça Moi j'ai dit plein d'trucs, on est que d'passage Sandwich triangulaire, ton pote joue les C.E.O Wouh En fait, il vend du shit Du shit, en fait, il vend du bédo Ouuuuh C'est les vrai hustler d'la tess, célébrer, il serait temps d'le faire un peu S'il dit Il serait temps qu'on s'taise Ah ouais ? On lui dit Va niquer ta mère, un peu Cinquante-neuf sur la boîte aux lettres alors qu'on habite au cent-cinquante J'm'inquiète pas pour qu'on remplisse ta salle Déjà qu'dans ma tête on est cent-quarante You might also like Ils m'ont mis l'idée dans la tête, tête Et moi, j'fais comme la fumée, j'tourne en rond Ils m'ont mis l'idée dans la tête, tête Et moi, j'fais comme la fumée j'tourne en rond Et faut qu'on s'envole dans les airs Mais pas trop loin, nan Tu sais, sans mes gars, moi, j'suis personne Hey, ah bah ouais Faut qu'on s'envole dans les airs Mais pas trop loin, nan Tu sais, sans mes gars, moi, j'suis personne, eh Ils m'ont mis l'idée dans la tête, tête Tête Tête, tête J'tourne en rond, ouais</t>
+          <t>Eh, eh, eh Là, j'sens plus qul'odeur de l'incendie, jsais qu'il arrive Ouais Ils nous ont demandé d'être moins sensibles, c'est pas ça ma vie On va pas devenir ce qu'ils auraient envie qu'on soit Ah bah ouais Quand j'aurais des gamins, j'vais pas manquer lhistoire Faut-il encore quj'les fasse Trace de sang dans ses grands yeux, faut-il encore quj'l'efface J'vois flou mais jregarde droit, tout l'bât' est sur un toit C'est la même qu'avant, c'est la merde ? Bah nan Baisse la tête avant si tu t'rappelles d'à l'ancienne Hey, ah bah ouais, han Quand j'sortais l'clébard sous l'pont du Tilleul encore une fois Han Parce que papa crie en haut et qu'maman est en bas en train d'nous inventer des histoires Han Faut qu'j'aille voir papi, faut qu'j'aille voir papa Avant les regrets, avant les Au revoir Il disait Fais pas ci, il disait Fais pas ça Moi j'ai dit plein d'trucs, on est que d'passage Sandwich triangulaire, ton pote joue les C.E.O Wouh En fait, il vend du shit Du shit, en fait, il vend du bédo Ouuuuh C'est les vrai hustler d'la tess, célébrer, il serait temps d'le faire un peu S'il dit Il serait temps qu'on s'taise Ah ouais ? On lui dit Va niquer ta mère, un peu Cinquante-neuf sur la boîte aux lettres alors qu'on habite au cent-cinquante J'm'inquiète pas pour qu'on remplisse ta salle Déjà qu'dans ma tête on est cent-quarante Ils m'ont mis l'idée dans la tête, tête Et moi, j'fais comme la fumée, j'tourne en rond Ils m'ont mis l'idée dans la tête, tête Et moi, j'fais comme la fumée j'tourne en rond Et faut qu'on s'envole dans les airs Mais pas trop loin, nan Tu sais, sans mes gars, moi, j'suis personne Hey, ah bah ouais Faut qu'on s'envole dans les airs Mais pas trop loin, nan Tu sais, sans mes gars, moi, j'suis personne, eh Ils m'ont mis l'idée dans la tête, tête Tête Tête, tête J'tourne en rond, ouais</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>J'ai pas besoin qu'on m'raconte la fin, j'sais qu'j'vais taper un platane en cherchant du feu dans la portière En m'demandant est-c'que la banquière va accepter qu'on paie en peut-être bien sûr On attend la balle, vit en retrait, attends qu'ça fonctionne, sinon refait Ça fait belle lurette qu'y a plus d'reset et nos cernes prennent du poids comme nos regrets Tous décidés à faire du sale à la base vu que l'chemin est long comme l'attente à la CAF On a appris à vivre à l'arrache en rassemblant les familles comme des paquets d'cartes Mélange deux paquets d'pâtes et du sel, wesh, l'enfer est du ciel J'vais en buvette au bout du tunnel, la lumière m'éblouit donc on garde les lunettes Ces temps-ci, j'pense même plus à rejoindre la sortie Et la lune fait briller la nuit comme dans Carrie T'inquiète pas pour les couleurs dans nos cernes J'suis distant mais j'vais chanter sur la scène Encore des sur la route, l'amertume, le doute Ils crient, ils pensent qu'on les écoute, l'orage et la foudre Encore des sur la route, l'amertume, le doute Ils crient, ils pensent qu'on les écoute, l'orage et la foudre C'est nous dans l'allée, grosse voix, regard distant Encore des questions à poser, allô C'est nous dans l'allée, grosse voix, regard distant Encore des questions à poser You might also like On boit du poison qui tâche, fume le pilon qui tassomme C'est pas c'qui est facile qui marche, c'est les erreurs qui façonnent Désinhibé, j'parle au réal' comme si j'avais écrit quatre cent clips Ma daronne a maté Validé, elle veut appeler Sony pour négoce une distrib' Occupé à chanter la routine, à mettre des rustines sur nos trains d'vies Parfois on courbe, jamais on s'incline, fabrique des bolides avec des bouts d'vis Plus jamais en r'tard pour la livraison, j'suis éclaté sa grand-mère en conjugaison J'refais l'monde et papy m'rajoute qu'y a plus d'saison mais toujours des raisons d'rajouter des lésions dans la tête Deux, trois zéros sur nos dettes, ce s'ra au moins ça que j'te lègue dit-il en rigolant Combien d'automnes avant d'dead ? dit-il en picolant whisky sec comme la question d'avant Encore des sur la route, l'amertume, le doute Ils crient, ils pensent qu'on les écoute, l'orage et la foudre Encore des sur la route, l'amertume, le doute Ils crient, ils pensent qu'on les écoute, l'orage et la foudre C'est nous dans l'allée, grosse voix, regard distant Encore des questions à poser, allô C'est nous dans l'allée, grosse voix, regard distant Encore des questions à poser Ces temps-ci, j'pense même plus à rejoindre la sortie Et la lune fait briller la nuit comme dans Carrie T'inquiète pas pour les couleurs dans nos cernes J'suis distant mais j'vais chanter sur la scène</t>
+          <t>J'ai pas besoin qu'on m'raconte la fin, j'sais qu'j'vais taper un platane en cherchant du feu dans la portière En m'demandant est-c'que la banquière va accepter qu'on paie en peut-être bien sûr On attend la balle, vit en retrait, attends qu'ça fonctionne, sinon refait Ça fait belle lurette qu'y a plus d'reset et nos cernes prennent du poids comme nos regrets Tous décidés à faire du sale à la base vu que l'chemin est long comme l'attente à la CAF On a appris à vivre à l'arrache en rassemblant les familles comme des paquets d'cartes Mélange deux paquets d'pâtes et du sel, wesh, l'enfer est du ciel J'vais en buvette au bout du tunnel, la lumière m'éblouit donc on garde les lunettes Ces temps-ci, j'pense même plus à rejoindre la sortie Et la lune fait briller la nuit comme dans Carrie T'inquiète pas pour les couleurs dans nos cernes J'suis distant mais j'vais chanter sur la scène Encore des sur la route, l'amertume, le doute Ils crient, ils pensent qu'on les écoute, l'orage et la foudre Encore des sur la route, l'amertume, le doute Ils crient, ils pensent qu'on les écoute, l'orage et la foudre C'est nous dans l'allée, grosse voix, regard distant Encore des questions à poser, allô C'est nous dans l'allée, grosse voix, regard distant Encore des questions à poser On boit du poison qui tâche, fume le pilon qui tassomme C'est pas c'qui est facile qui marche, c'est les erreurs qui façonnent Désinhibé, j'parle au réal' comme si j'avais écrit quatre cent clips Ma daronne a maté Validé, elle veut appeler Sony pour négoce une distrib' Occupé à chanter la routine, à mettre des rustines sur nos trains d'vies Parfois on courbe, jamais on s'incline, fabrique des bolides avec des bouts d'vis Plus jamais en r'tard pour la livraison, j'suis éclaté sa grand-mère en conjugaison J'refais l'monde et papy m'rajoute qu'y a plus d'saison mais toujours des raisons d'rajouter des lésions dans la tête Deux, trois zéros sur nos dettes, ce s'ra au moins ça que j'te lègue dit-il en rigolant Combien d'automnes avant d'dead ? dit-il en picolant whisky sec comme la question d'avant Encore des sur la route, l'amertume, le doute Ils crient, ils pensent qu'on les écoute, l'orage et la foudre Encore des sur la route, l'amertume, le doute Ils crient, ils pensent qu'on les écoute, l'orage et la foudre C'est nous dans l'allée, grosse voix, regard distant Encore des questions à poser, allô C'est nous dans l'allée, grosse voix, regard distant Encore des questions à poser Ces temps-ci, j'pense même plus à rejoindre la sortie Et la lune fait briller la nuit comme dans Carrie T'inquiète pas pour les couleurs dans nos cernes J'suis distant mais j'vais chanter sur la scène</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>À la base, slever pour un SMIC, cest une fierté Dorénavant, arracher lsol, cest une certitude Jpeux plus faire demi-tour, jme sens cerné Là, cest l'prolétariat avec de lattitude, eh, eh Jsuis né sous les tours où les enfants sélèvent tout seuls On a mangé des coups quon digère, on recrache la douceur Le psy, il fout lseum, viens voir deux minutes en bas, on va tmontrer qucest qudans la tête, la doulur Jai avalé des couleuvres d toutes les couleurs Rouge, violet, vert comme la kichta qui mpull up En pensant qujsuis nia, quj'vais répondre en niais Mais garde tes billets, jsuis venu reprendre notre honneur, zebi Jroule à gauche, colle à droite, on n'a pas déconomie, on met tout sur la table Partie dpoker, gros teh, trou sur la nappe, le truc rouge dans nos yeuz, cest le point sur la map Bah oui Jfais dla musique jme sauve la vie, en sueur dvant lmicro, jmets des grandes tartines On smouille pas pour leurs promesses de grande sardines Il veut mdonner une pièce pour une autre partie Jcrois quon a quelque chose à faire, on va lfaire fort Le parcours, cest pas d'la trottinette, cest pas du ketchup Lessgo, jcrois quon a quelquchose En studio, y a quatre frérots qui sarrachent le sternum En disant quils ont quequchose sur lcur wouh On croit quon n'a plus drancur, mais cest faux mais c'est faux Jcroyais quon n'avait plus dcur, mais cest faux mais c'est faux On va p't-être y arriver ça, cest fou Fuck un RS4 teinté full black Jsuis sous pilon dans la Laguna, j'écoute un boom bap Réveillé au bruit de lAkrapovic qui frotte le trottoir On a renvoyé les mauvais rêves au bout du couloir, cest lson du trou noir Jai plongé dans les yeux dma mère, jai trouvé que du courage Cest plus lson du naufrage parce que, maintenant, on sait nager Si jcontinue découter nos rêves, bientôt, jpourrais voler Bientôt, jpourrai dire je taime, sans la voix qui tremble Sans la gorge sèche, sans considérer mon cur comme une prothèse Cest vos pupilles la lumière dans la tempête, en fait, jcrois quon va sen sortir You might also like Le ciel est toujours gris gris Nos mères nous lavaient dit, cette vie est magnifique Bientôt, on scasse dici bas Et on revient vite parce que cest magnifique Même s'il continue lsoupir, faut continuer dsourire Cest magnifique Le ciel est toujours gris mais on y revient vite Parce que cest magnifique Nos mères nous lavaient dit, cette vie est magnifique Bientôt, on scasse dici bas Et on revient vite parce que cest magnifique Même s'il continue lsoupir, faut continuer dsourire Cest magnifique Le ciel est toujours gris mais on y revient vite Parce que cest magnifique</t>
+          <t>À la base, slever pour un SMIC, cest une fierté Dorénavant, arracher lsol, cest une certitude Jpeux plus faire demi-tour, jme sens cerné Là, cest l'prolétariat avec de lattitude, eh, eh Jsuis né sous les tours où les enfants sélèvent tout seuls On a mangé des coups quon digère, on recrache la douceur Le psy, il fout lseum, viens voir deux minutes en bas, on va tmontrer qucest qudans la tête, la doulur Jai avalé des couleuvres d toutes les couleurs Rouge, violet, vert comme la kichta qui mpull up En pensant qujsuis nia, quj'vais répondre en niais Mais garde tes billets, jsuis venu reprendre notre honneur, zebi Jroule à gauche, colle à droite, on n'a pas déconomie, on met tout sur la table Partie dpoker, gros teh, trou sur la nappe, le truc rouge dans nos yeuz, cest le point sur la map Bah oui Jfais dla musique jme sauve la vie, en sueur dvant lmicro, jmets des grandes tartines On smouille pas pour leurs promesses de grande sardines Il veut mdonner une pièce pour une autre partie Jcrois quon a quelque chose à faire, on va lfaire fort Le parcours, cest pas d'la trottinette, cest pas du ketchup Lessgo, jcrois quon a quelquchose En studio, y a quatre frérots qui sarrachent le sternum En disant quils ont quequchose sur lcur wouh On croit quon n'a plus drancur, mais cest faux mais c'est faux Jcroyais quon n'avait plus dcur, mais cest faux mais c'est faux On va p't-être y arriver ça, cest fou Fuck un RS4 teinté full black Jsuis sous pilon dans la Laguna, j'écoute un boom bap Réveillé au bruit de lAkrapovic qui frotte le trottoir On a renvoyé les mauvais rêves au bout du couloir, cest lson du trou noir Jai plongé dans les yeux dma mère, jai trouvé que du courage Cest plus lson du naufrage parce que, maintenant, on sait nager Si jcontinue découter nos rêves, bientôt, jpourrais voler Bientôt, jpourrai dire je taime, sans la voix qui tremble Sans la gorge sèche, sans considérer mon cur comme une prothèse Cest vos pupilles la lumière dans la tempête, en fait, jcrois quon va sen sortir Le ciel est toujours gris gris Nos mères nous lavaient dit, cette vie est magnifique Bientôt, on scasse dici bas Et on revient vite parce que cest magnifique Même s'il continue lsoupir, faut continuer dsourire Cest magnifique Le ciel est toujours gris mais on y revient vite Parce que cest magnifique Nos mères nous lavaient dit, cette vie est magnifique Bientôt, on scasse dici bas Et on revient vite parce que cest magnifique Même s'il continue lsoupir, faut continuer dsourire Cest magnifique Le ciel est toujours gris mais on y revient vite Parce que cest magnifique</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Quest-ce qui mintéresse au fond ? Cinq heures vingt, jécris topliné par lmicro-ondes Il fait létonné, jle connais dans lfond, jsais lire entre les lignes qui ssont formées sur lfront Gros, cest plus des rêves, cest des objectifs, eh, eh Cest plus dla salive, cest des projectiles Jsuis avec mes quatre connards dans ta maison dsques-d' Jbois pas ton Veuve Clicquot Jconnais trop lvent pour en avaler, jprends pas lbuzz bidon oh Le psy, cest moins bien que le micro Le psy, cest moins bien que le bistrot ouh La CAF, cest moins bien que Distrokid Le bruit, cest moins bien qu'la distorsion Jsuis né l4 janvier 92, Maman pleure sous la douche et moi, jcrie dans un coussin Évidemment quon a peur de manquer, jmettais djà des steaks surgelés dans la poussette Maintenant, poussez-vous, sil vous plait, jsuis un ex-pauvre, jsrai pas un nouveau riche de merde Nouveau statut, nouveau 3in de hyen, tfais des thunes avec tes rimes de merde Moi, jviens marquer lhistoire cest tout c'est tout Jconnais personne qui sest fait tout seul Tu peux l'répéter, cest faux c'est faux Jprends OCB, jmets tout lseum Moi, jviens marquer lhistoire cest tout c'est tout Jconnais personne qui sest fait tout seul Tu peux l'répéter, cest faux c'est faux Jprends OCB, jmets tout lseum You might also like Encore une fin dmois dans les coquillettes Jentends lgyrophare bleu dans les coquillages Dlessence dans une bouteille pour la mobylette Dlessence dans une bouteille pour les copinages On veut voir la mer plus souvent, les montagnes, le vent Ma famille me manque en vrai Lautre, il fait que mparler en euros Jpréfère quand on mparle en vrai Encore un matin où jai mal à la tête Jgoûte pour voir si cest du sang sur la veste, oh merde Le psy, cest moins bien qules voix dans ma tête Jécoute Cabrel, jsouris comme Heath Ledger Jaime moins les humains qules beatmakers Martin met la mélodie et moi, jraconte la vie dmes reufs Jsuis né l4 janvier 92, Maman pleure sous la douche et moi, jcrie dans un coussin Évidemment quon a peur de manquer, jmettais djà des steaks surgelés dans la poussette Maintenant, poussez-vous, sil vous plait, jsuis un ex-pauvre, jsrai pas un nouveau riche de merde Nouveau statut, nouveau 3in de hyen, tfais des thunes avec tes rimes de merde Moi, jviens marquer lhistoire cest tout c'est tout Jconnais personne qui sest fait tout seul Tu peux l'répéter, cest faux c'est faux Jprends OCB, jmets tout lseum Moi, jviens marquer lhistoire cest tout c'est tout Jconnais personne qui sest fait tout seul Tu peux l'répéter, cest faux c'est faux Jprends OCB, jmets tout lseum</t>
+          <t>Quest-ce qui mintéresse au fond ? Cinq heures vingt, jécris topliné par lmicro-ondes Il fait létonné, jle connais dans lfond, jsais lire entre les lignes qui ssont formées sur lfront Gros, cest plus des rêves, cest des objectifs, eh, eh Cest plus dla salive, cest des projectiles Jsuis avec mes quatre connards dans ta maison dsques-d' Jbois pas ton Veuve Clicquot Jconnais trop lvent pour en avaler, jprends pas lbuzz bidon oh Le psy, cest moins bien que le micro Le psy, cest moins bien que le bistrot ouh La CAF, cest moins bien que Distrokid Le bruit, cest moins bien qu'la distorsion Jsuis né l4 janvier 92, Maman pleure sous la douche et moi, jcrie dans un coussin Évidemment quon a peur de manquer, jmettais djà des steaks surgelés dans la poussette Maintenant, poussez-vous, sil vous plait, jsuis un ex-pauvre, jsrai pas un nouveau riche de merde Nouveau statut, nouveau 3in de hyen, tfais des thunes avec tes rimes de merde Moi, jviens marquer lhistoire cest tout c'est tout Jconnais personne qui sest fait tout seul Tu peux l'répéter, cest faux c'est faux Jprends OCB, jmets tout lseum Moi, jviens marquer lhistoire cest tout c'est tout Jconnais personne qui sest fait tout seul Tu peux l'répéter, cest faux c'est faux Jprends OCB, jmets tout lseum Encore une fin dmois dans les coquillettes Jentends lgyrophare bleu dans les coquillages Dlessence dans une bouteille pour la mobylette Dlessence dans une bouteille pour les copinages On veut voir la mer plus souvent, les montagnes, le vent Ma famille me manque en vrai Lautre, il fait que mparler en euros Jpréfère quand on mparle en vrai Encore un matin où jai mal à la tête Jgoûte pour voir si cest du sang sur la veste, oh merde Le psy, cest moins bien qules voix dans ma tête Jécoute Cabrel, jsouris comme Heath Ledger Jaime moins les humains qules beatmakers Martin met la mélodie et moi, jraconte la vie dmes reufs Jsuis né l4 janvier 92, Maman pleure sous la douche et moi, jcrie dans un coussin Évidemment quon a peur de manquer, jmettais djà des steaks surgelés dans la poussette Maintenant, poussez-vous, sil vous plait, jsuis un ex-pauvre, jsrai pas un nouveau riche de merde Nouveau statut, nouveau 3in de hyen, tfais des thunes avec tes rimes de merde Moi, jviens marquer lhistoire cest tout c'est tout Jconnais personne qui sest fait tout seul Tu peux l'répéter, cest faux c'est faux Jprends OCB, jmets tout lseum Moi, jviens marquer lhistoire cest tout c'est tout Jconnais personne qui sest fait tout seul Tu peux l'répéter, cest faux c'est faux Jprends OCB, jmets tout lseum</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Jclippe avec des taches sur lpull La vie, ça fait des taches sur lcur Jsuis avec tous mes gars dans ltunnel On sdemande rien, on roule encore On sdit un ptit peu plus quon sdéteste On sdit un ptit peu plus quon saime On sdit quon fait, on sdit jamais quon essaye On sdit un ptit peu plus quon saigne Toute ma vie à mdire que jparlais trop fort Jsuis payé pour crier, y a quoi maintenant ? Jvois ma tête de bébé sur les photos dclasse Jessaye dcomprendre y avait quoi là-ddans Jprends plus la fuite, jregarde dans les yeux le truc qui mpoursuit Le ptit bonhomme qui est dans ma tête met des coups dschlass à la bête sous llit Jsuis sur le trottoir comme si c'était du sable Le ciel est vide comme si cétait toi Soleil est froid comme si c'était du marbre Le cur est vide comme si cétait moi Une fois qujai vidé mon sac, jrêve mieux quavant Une fois qujai vidé mon sac, jrêve mieux quavant Ils croyaient quon était en retard, on a juste un peu d'latence Jsuis sur le trottoir comme si c'était du sable, jrêve mieux quavant Ils croyaient quon était en retard, on a juste un peu d'latence Jsuis sur le trottoir comme si c'était du sable, jrêve mieux quavant You might also like Jrêve mieux quavant On a mis dla couleur dans lciment quand y avait pas dvacances Les fantômes, jessaye dles retenir Les souvenirs, jessaye dles retenir aussi Jrêve mieux quavant Mais même dans mes rêves, tu veux pas revenir Quest-c'que jm'en branle de lavenue Montaigne Quand jpeux voir toute la ville briller dans tes yeux Une fois qujai vidé mon sac, jrêve mieux quavant Une fois qujai vidé mon sac, jrêve mieux quavant Ils croyaient quon était en retard, on a juste un peu d'latence Jsuis sur le trottoir comme si c'était du sable, jrêve mieux quavant Ils croyaient quon était en retard, on a juste un peu d'latence Jsuis sur le trottoir comme si c'était du sable, jrêve mieux quavant</t>
+          <t>Jclippe avec des taches sur lpull La vie, ça fait des taches sur lcur Jsuis avec tous mes gars dans ltunnel On sdemande rien, on roule encore On sdit un ptit peu plus quon sdéteste On sdit un ptit peu plus quon saime On sdit quon fait, on sdit jamais quon essaye On sdit un ptit peu plus quon saigne Toute ma vie à mdire que jparlais trop fort Jsuis payé pour crier, y a quoi maintenant ? Jvois ma tête de bébé sur les photos dclasse Jessaye dcomprendre y avait quoi là-ddans Jprends plus la fuite, jregarde dans les yeux le truc qui mpoursuit Le ptit bonhomme qui est dans ma tête met des coups dschlass à la bête sous llit Jsuis sur le trottoir comme si c'était du sable Le ciel est vide comme si cétait toi Soleil est froid comme si c'était du marbre Le cur est vide comme si cétait moi Une fois qujai vidé mon sac, jrêve mieux quavant Une fois qujai vidé mon sac, jrêve mieux quavant Ils croyaient quon était en retard, on a juste un peu d'latence Jsuis sur le trottoir comme si c'était du sable, jrêve mieux quavant Ils croyaient quon était en retard, on a juste un peu d'latence Jsuis sur le trottoir comme si c'était du sable, jrêve mieux quavant Jrêve mieux quavant On a mis dla couleur dans lciment quand y avait pas dvacances Les fantômes, jessaye dles retenir Les souvenirs, jessaye dles retenir aussi Jrêve mieux quavant Mais même dans mes rêves, tu veux pas revenir Quest-c'que jm'en branle de lavenue Montaigne Quand jpeux voir toute la ville briller dans tes yeux Une fois qujai vidé mon sac, jrêve mieux quavant Une fois qujai vidé mon sac, jrêve mieux quavant Ils croyaient quon était en retard, on a juste un peu d'latence Jsuis sur le trottoir comme si c'était du sable, jrêve mieux quavant Ils croyaient quon était en retard, on a juste un peu d'latence Jsuis sur le trottoir comme si c'était du sable, jrêve mieux quavant</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Juste avant d'partir en paix, non, j'vais pas venir danser c'soir Laisse-moi m'convaincre que j'vais changer l'monde avant d'changer d'monde, avant d'partir J'ai perdu des frères, j'ai perdu des surs, j'trouve plus leurs photos, j'parle à leurs fantômes J'ai perdu du poids, j'ai perdu d'la sueur, j'vais m'refaire un bout d'cur avec un bout d'côte Thom' attend l'ciel comme si j'parlais à l'autre Ou si j'parlais à l'aube, on est devenu des hommes en clopant sur un banc, en attendant l'aurore Génération divorce, pâtes au beurre éco, Bambi meurt au cinoche pendant qu'papa est aux putes Faute de savoir qui t'es, tu graves ton prénom en gros sur l'arrêt d'bus Tête dans l'guidon, marche arrière, Nurofen écrasé sur plan d'carrière c'est pour la justice Y a plus d'barrière, mets ta tête dans l'sillon et trace ta mère Ils sont devenus des hommes, des bonbons sur un banc, pensant qu'c'était l'oracle oh Ils ont bu tout l'orage, ils font plus trop leurs âges, va leur faire la morale Doute, bénéfice, dette, j'aurais sûrement pas d'retraite J'cotise pas, j'remplis des disques durs J'colore des regards, j'annule mes regrets J'me lève plus en retard, j'réveille mon reflet Il fredonne des refrains Fais-moi la bise, mon frérot Raconte-moi l'fond d'ton regard, mon frérot Parfois, j'voulais t'donner un bout d'ma vie Il reste encore des gosses sur le trottoir You might also like Dans mes rêves, j't'emmènerai rendre visite à ma mère Parcourir les terres qui m'ont forgé, visiter les briques rouges et les fermes Faut qu'tu croises le regard de mon grand-père, que tu goûtes la recette de ma famille Tu discutes cinq minutes dans la cheminée, ah, habibi, habibi, habibi Si j'casse ma pipe, t'iras voir les autres, j'compte sur toi Pas pour m'remplacer, ni pour expliquer mes choix Fini mes bouteilles, j'chante mes souvenirs et ma voix On a fait les caméras avec les boules qu'on avait dans l'foin Doute, bénéfice, dette, on pourra compter la distance J'ai des rêves mais si tu m'enterres, j'te demande devant tel existant J'colore des regards, j'annule mes regrets J'me lève plus en retard, j'réveille mon reflet J'chante, mes frères, on fredonne des refrains Fais-moi la bise, mon frérot Raconte-moi l'fond d'ton regard, mon frérot Parfois, j'voulais t'donner un bout d'ma vie Il reste encore des gosses sur le trottoir</t>
+          <t>Juste avant d'partir en paix, non, j'vais pas venir danser c'soir Laisse-moi m'convaincre que j'vais changer l'monde avant d'changer d'monde, avant d'partir J'ai perdu des frères, j'ai perdu des surs, j'trouve plus leurs photos, j'parle à leurs fantômes J'ai perdu du poids, j'ai perdu d'la sueur, j'vais m'refaire un bout d'cur avec un bout d'côte Thom' attend l'ciel comme si j'parlais à l'autre Ou si j'parlais à l'aube, on est devenu des hommes en clopant sur un banc, en attendant l'aurore Génération divorce, pâtes au beurre éco, Bambi meurt au cinoche pendant qu'papa est aux putes Faute de savoir qui t'es, tu graves ton prénom en gros sur l'arrêt d'bus Tête dans l'guidon, marche arrière, Nurofen écrasé sur plan d'carrière c'est pour la justice Y a plus d'barrière, mets ta tête dans l'sillon et trace ta mère Ils sont devenus des hommes, des bonbons sur un banc, pensant qu'c'était l'oracle oh Ils ont bu tout l'orage, ils font plus trop leurs âges, va leur faire la morale Doute, bénéfice, dette, j'aurais sûrement pas d'retraite J'cotise pas, j'remplis des disques durs J'colore des regards, j'annule mes regrets J'me lève plus en retard, j'réveille mon reflet Il fredonne des refrains Fais-moi la bise, mon frérot Raconte-moi l'fond d'ton regard, mon frérot Parfois, j'voulais t'donner un bout d'ma vie Il reste encore des gosses sur le trottoir Dans mes rêves, j't'emmènerai rendre visite à ma mère Parcourir les terres qui m'ont forgé, visiter les briques rouges et les fermes Faut qu'tu croises le regard de mon grand-père, que tu goûtes la recette de ma famille Tu discutes cinq minutes dans la cheminée, ah, habibi, habibi, habibi Si j'casse ma pipe, t'iras voir les autres, j'compte sur toi Pas pour m'remplacer, ni pour expliquer mes choix Fini mes bouteilles, j'chante mes souvenirs et ma voix On a fait les caméras avec les boules qu'on avait dans l'foin Doute, bénéfice, dette, on pourra compter la distance J'ai des rêves mais si tu m'enterres, j'te demande devant tel existant J'colore des regards, j'annule mes regrets J'me lève plus en retard, j'réveille mon reflet J'chante, mes frères, on fredonne des refrains Fais-moi la bise, mon frérot Raconte-moi l'fond d'ton regard, mon frérot Parfois, j'voulais t'donner un bout d'ma vie Il reste encore des gosses sur le trottoir</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Chacun ses rêves, chacun ses peines, la juge fait cantiner des gosses pour un peu d'deal Pour avoir monté d'la patate au centre-ville sacrée vie Des barrettes et des schlass, des Glock et des sachets La tête dans la cuvette alors qu'elle a sa place dans les étoiles hé, regarde Parle au gosse sous l'maillot d'foot, parle aux mômes ah bah ouais Si tu parles mal de sa famill, il part en couille Le pèr est parti, la mère s'est pendue tu t'croyais où ? 14 ans et demi prison pour mineurs tu t'croyais où ? Tu parles d'un coup d'crasse, la morale a un coup d'barre Tu leur donnes un coupe-ongle, ils t'font un coupable Donne-leur un coton-tige, ils t'font du feu, alors ils fument, ils font des vux L'hesses me dit qu'c'est pas des jeunes qui feront des vieux Les deux pieds dans la brèche La Cristalline par la fenêtre C'est pas une bouteille à la mer Regard dans les étoiles, les deux pieds dans la brèche La Cristalline par la fenêtre, c'est pas une bouteille à la mer Regard dans les étoiles, les deux pieds dans la brèche La Cristalline par la fenêtre, c'est pas une bouteille à la mer You might also like Nabil, Nabil, Nabil, Nabil Chacun ses rêves, chacun ses drames, la vie met des tacles à la gorge comme Jaap Stam Pour mes gosses nés dans des caves comme Batman Jai vu des gamins sans câlin, ça donne peu dcouleur dans les yeux ah bah ouais Pour mes enfants d'foyer aux espoirs merveilleux hé, regarde Papa défonçait maman sous 8.6 han, han Ta fille de 12 ans qui assume la cuisine han, ouais Si mon père m'a mis des torgnoles, il m'a aussi donné du love Aussi vrai qu'tous les parents, cest des mômes eh, eh Quand la BO d'ta vie, cest un soupir eh, faut pas qu'tes plus grands espoirs soient qu'des souvenirs Pour ceux qui ont peu froid quand ils vont dormir, ceux qui ont peu peur quand il faut sourire Regard dans les étoiles, les deux pieds dans la brèche La Cristalline par la fenêtre, c'est pas une bouteille à la mer Regard dans les étoiles, les deux pieds dans la brèche La Cristalline par la fenêtre, c'est pas une bouteille à la mer Nabil, Nabil, Nabil, Nabil</t>
+          <t>Chacun ses rêves, chacun ses peines, la juge fait cantiner des gosses pour un peu d'deal Pour avoir monté d'la patate au centre-ville sacrée vie Des barrettes et des schlass, des Glock et des sachets La tête dans la cuvette alors qu'elle a sa place dans les étoiles hé, regarde Parle au gosse sous l'maillot d'foot, parle aux mômes ah bah ouais Si tu parles mal de sa famill, il part en couille Le pèr est parti, la mère s'est pendue tu t'croyais où ? 14 ans et demi prison pour mineurs tu t'croyais où ? Tu parles d'un coup d'crasse, la morale a un coup d'barre Tu leur donnes un coupe-ongle, ils t'font un coupable Donne-leur un coton-tige, ils t'font du feu, alors ils fument, ils font des vux L'hesses me dit qu'c'est pas des jeunes qui feront des vieux Les deux pieds dans la brèche La Cristalline par la fenêtre C'est pas une bouteille à la mer Regard dans les étoiles, les deux pieds dans la brèche La Cristalline par la fenêtre, c'est pas une bouteille à la mer Regard dans les étoiles, les deux pieds dans la brèche La Cristalline par la fenêtre, c'est pas une bouteille à la mer Nabil, Nabil, Nabil, Nabil Chacun ses rêves, chacun ses drames, la vie met des tacles à la gorge comme Jaap Stam Pour mes gosses nés dans des caves comme Batman Jai vu des gamins sans câlin, ça donne peu dcouleur dans les yeux ah bah ouais Pour mes enfants d'foyer aux espoirs merveilleux hé, regarde Papa défonçait maman sous 8.6 han, han Ta fille de 12 ans qui assume la cuisine han, ouais Si mon père m'a mis des torgnoles, il m'a aussi donné du love Aussi vrai qu'tous les parents, cest des mômes eh, eh Quand la BO d'ta vie, cest un soupir eh, faut pas qu'tes plus grands espoirs soient qu'des souvenirs Pour ceux qui ont peu froid quand ils vont dormir, ceux qui ont peu peur quand il faut sourire Regard dans les étoiles, les deux pieds dans la brèche La Cristalline par la fenêtre, c'est pas une bouteille à la mer Regard dans les étoiles, les deux pieds dans la brèche La Cristalline par la fenêtre, c'est pas une bouteille à la mer Nabil, Nabil, Nabil, Nabil</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>J'ai grandi à l'époque des paninis, des trous dans les Tacchinis Où même le toxico du tieks sait faire des gestes techniques Leur nez dans la sess, mon cul dans un clic-clac Les grands m'disaient qu'j'aurai son kwer contre un Big Mac, hé Mais j'ai vite capté, ici c'est chacun pour sa p'tite gueule, la rancur a la dégaine de Vic Mackey Elle t'met des grandes paluches, ici c'est grandes phrases et grandes gestu' On r'trouve vite ta p'tite guule dans le talus Toi, t'as pas la flemm non vas-y lève-toi vite si tu veux pas voir les p'tits faire c'que t'imaginais réussir, ouais Né pour briller, ou pour finir frustré J'suis pas venu m'faire lustrer, ni pour vriller Allez, j'sors dehors sans but, j'm'achète un paquet de 25 Un flash de sky, j'marche, phrénétiquement j'le bute Donc phrénétiquement j'me tue, et en même temps j'me ruine Ma carte bleue fait du suspens, mon compte en banque fait pas d'surprise J'shoote dans les papiers qui squattent sur le sol J'commence à être bourré, j'me demande si j'parlais plus fort est-ce qu'il fermerait sa gueule, hé Lui il fait chier à pas m'parler, j'sais qu'il va mal, j'sais qu'c'est pas normal d's'enfiler des cachets C'est moi l'rappeur, c'est moi qui parle, c'est moi qu'on écoute, ouais Mais toi tes peurs, et toi tes doutes Qui les nettoient et qui les éprouvent, frère ? J'suis déjà à 12 clopes, j'ai béton la moitié du flash Un vieux mendie, j'fouille un manteau qui m'a coûté la moitié du mois Au fait, j'suis pas un putain d'rappeur moi ? J'ai 30 ans et j'ai tout mis dans la musique, ça fait pas d'moi un putain de rappeur ça ? J'effrite mes regrets dans ma paume gauche Renifle, técla un bout d'clope, une autre dose J'allume j'inspire et j'passe à autre chose J'allume j'inspire et j'passe à autre chose J'allume j'inspire et j'passe à autre chose Une autre cause comme toutes les autres qui vont m'trouer la tête J'réécoute mes morceaux j'entends le son qu'd'une seule oreillette J'suis pété dans la ville, gros J'commence un couplet qui dit on les baise On sais pas qui c'est on mais on les baise quand même J'écoute Salif - Prolongations, j'ai des frissons à chaque phase, à chaque basse, à chaque couplet, j'backe tout comme à chaque fois Un gyrophare, encore une histoire fantastique, qu'on racontera aux zones sociales, autour du café tiède dans l'goblet en plastique J'suis trop bourré pour être lucide pas assez amnésique pour être libre Demain j'ai rendez-vous à l'intérim et puis chez Sony Faites-moi réussir que j'm'esquive Mets une patate dans l'mur pour entendre la mélodie des briques de Ness... beal You might also like J'ai grandi à l'époque des paninis, des coup d'shlass dans les Tacchinis Papa m'reniera jamais parce que j'suis pas une poucave, ça s'arrête ici Veuillez quitter la rame s'il vous plaît Fils de métèques comme Moustaki Paire de TN on ride la ville J'veux ma ce-pla en classe affaire, ils vont marquer plg en haut de l'affiche Pour l'instant mon billet a pas l'air d'accord De m'quitter contre un shooter Poliakov J'aimerais bien lui donner mon cur, mais bon Les copains et maman d'abord T'façon en vrai on est jamais d'accord Né pour briller comme le chico en plomb d'papy J'fais genre j'suis pas touché mais l'cur est fondant comme le gigot au four d'mamie Allez, et puis j'aime trop l'premier tro-mé Celui dans lequel j'pose des questions qui reviennent en boucle comme premier trauma Né pour briller</t>
+          <t>J'ai grandi à l'époque des paninis, des trous dans les Tacchinis Où même le toxico du tieks sait faire des gestes techniques Leur nez dans la sess, mon cul dans un clic-clac Les grands m'disaient qu'j'aurai son kwer contre un Big Mac, hé Mais j'ai vite capté, ici c'est chacun pour sa p'tite gueule, la rancur a la dégaine de Vic Mackey Elle t'met des grandes paluches, ici c'est grandes phrases et grandes gestu' On r'trouve vite ta p'tite guule dans le talus Toi, t'as pas la flemm non vas-y lève-toi vite si tu veux pas voir les p'tits faire c'que t'imaginais réussir, ouais Né pour briller, ou pour finir frustré J'suis pas venu m'faire lustrer, ni pour vriller Allez, j'sors dehors sans but, j'm'achète un paquet de 25 Un flash de sky, j'marche, phrénétiquement j'le bute Donc phrénétiquement j'me tue, et en même temps j'me ruine Ma carte bleue fait du suspens, mon compte en banque fait pas d'surprise J'shoote dans les papiers qui squattent sur le sol J'commence à être bourré, j'me demande si j'parlais plus fort est-ce qu'il fermerait sa gueule, hé Lui il fait chier à pas m'parler, j'sais qu'il va mal, j'sais qu'c'est pas normal d's'enfiler des cachets C'est moi l'rappeur, c'est moi qui parle, c'est moi qu'on écoute, ouais Mais toi tes peurs, et toi tes doutes Qui les nettoient et qui les éprouvent, frère ? J'suis déjà à 12 clopes, j'ai béton la moitié du flash Un vieux mendie, j'fouille un manteau qui m'a coûté la moitié du mois Au fait, j'suis pas un putain d'rappeur moi ? J'ai 30 ans et j'ai tout mis dans la musique, ça fait pas d'moi un putain de rappeur ça ? J'effrite mes regrets dans ma paume gauche Renifle, técla un bout d'clope, une autre dose J'allume j'inspire et j'passe à autre chose J'allume j'inspire et j'passe à autre chose J'allume j'inspire et j'passe à autre chose Une autre cause comme toutes les autres qui vont m'trouer la tête J'réécoute mes morceaux j'entends le son qu'd'une seule oreillette J'suis pété dans la ville, gros J'commence un couplet qui dit on les baise On sais pas qui c'est on mais on les baise quand même J'écoute Salif - Prolongations, j'ai des frissons à chaque phase, à chaque basse, à chaque couplet, j'backe tout comme à chaque fois Un gyrophare, encore une histoire fantastique, qu'on racontera aux zones sociales, autour du café tiède dans l'goblet en plastique J'suis trop bourré pour être lucide pas assez amnésique pour être libre Demain j'ai rendez-vous à l'intérim et puis chez Sony Faites-moi réussir que j'm'esquive Mets une patate dans l'mur pour entendre la mélodie des briques de Ness... beal J'ai grandi à l'époque des paninis, des coup d'shlass dans les Tacchinis Papa m'reniera jamais parce que j'suis pas une poucave, ça s'arrête ici Veuillez quitter la rame s'il vous plaît Fils de métèques comme Moustaki Paire de TN on ride la ville J'veux ma ce-pla en classe affaire, ils vont marquer plg en haut de l'affiche Pour l'instant mon billet a pas l'air d'accord De m'quitter contre un shooter Poliakov J'aimerais bien lui donner mon cur, mais bon Les copains et maman d'abord T'façon en vrai on est jamais d'accord Né pour briller comme le chico en plomb d'papy J'fais genre j'suis pas touché mais l'cur est fondant comme le gigot au four d'mamie Allez, et puis j'aime trop l'premier tro-mé Celui dans lequel j'pose des questions qui reviennent en boucle comme premier trauma Né pour briller</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Y a des escrocs qui portent pas d'masque Uh, y a des héros qui portent pas d'cape C'est nous On pensait qu'Celio, c'était d'la marque Ah ouais, bosse en solo, fais comme Batman Blablabla, bah, y a quoi ? J'fais mon travail J'bosse, Dunkerque-Paris en BlaBlaCar Waow Depuis l'époque des bavardages Loin, j'ai quand même eu l'bac au rattrapage Félicitations J'viens du bord de la mer, pas celle qui borde Marseille Celle du port de Dunkerque, des familles recomposées qui ont peur de tout perdre Ouais Est-ce qu'on est bien ? Ouais On est bien, on est plein à dire qu'on est plein On est plein On rallume la lumière, on l'éteint On l'éteint, et ramène ton bosse qu'on l'évince Swish J'ai pas ton temps, ma gueule Wouh, t'as pété l'milli', ma gueule Wouh Et t'es pas content, ma gueule ? Ah bah ouais J'parle à mon Phillies, découpe comme Lahm, découpe comme Philipp Cinquante centilitres, on bouge comme Beat It, visage plein d'mimiques J'reste tranquille mais j'reste inimitable J'fais que d'faire rimer mon code postal Mon code postal Né dans lfroid du vent dla côte dOpale Fierté locale jusqu'à c'qu'on marche Bah ouais Logo du Racing sur lcarénage You might also like Camel 100S, gros teh nickel Nickel, nickel Grande frite, pain long, mayo', nickel Nickel, nickel Prod by Lucci, Murer, nickel Nickel, Michel J'efface nos dettes, j'écris Nickel Nickel, nickel Camel 100S, gros teh nickel Nickel, nickel Grande frite, pain long, mayo', nickel Nickel, nickel Prod by Lucci, Murer, nickel Nickel, Michel J'efface nos dettes, j'écris Nickel J'écris c'que j'veux Et jlécris à la marge pas à la page depuis lépoque Depuis longtemps Des joggings Adidas avec deux bandes avec mes potes Malik et Karim On srendait à la gare avec des blondes, avec du jaune Avec du te-sh' On explorait la face de la lune, celle qui trappelle que tes minus 'cule Que tinventes que dalle quand tu tenfumes Oh, oh Qula batte, cest pire que lenclume, qutu vas sauter plus loin si tu rcules mais faut sauter quand même Le trou ou lennui, sacré dilemme, Santé, bonheur, sacré proverbe Pour nous, cest lun ou lautre sarroser ou finir indemne, sendormir ou briser ses chaînes Couplet d'huit mes', refrain, nickel Camel 100S, gros teh nickel Nickel, nickel Grande frite, pain long, mayo', nickel Nickel, nickel Prod by Lucci, Murer, nickel Nickel, Michel J'efface nos dettes, j'écris Nickel J'écris c'que j'veux Nickel, nickel Nickel, nickel Nickel, nickel Nickel, nickel Nickel, Michel Michel, Michel Nickel, nickel Nickel, nickel Nickel, nickel Nickel, nickel Nickel, Michel Nickel, nickel Prod by Lucci, Murer, nickel</t>
+          <t>Y a des escrocs qui portent pas d'masque Uh, y a des héros qui portent pas d'cape C'est nous On pensait qu'Celio, c'était d'la marque Ah ouais, bosse en solo, fais comme Batman Blablabla, bah, y a quoi ? J'fais mon travail J'bosse, Dunkerque-Paris en BlaBlaCar Waow Depuis l'époque des bavardages Loin, j'ai quand même eu l'bac au rattrapage Félicitations J'viens du bord de la mer, pas celle qui borde Marseille Celle du port de Dunkerque, des familles recomposées qui ont peur de tout perdre Ouais Est-ce qu'on est bien ? Ouais On est bien, on est plein à dire qu'on est plein On est plein On rallume la lumière, on l'éteint On l'éteint, et ramène ton bosse qu'on l'évince Swish J'ai pas ton temps, ma gueule Wouh, t'as pété l'milli', ma gueule Wouh Et t'es pas content, ma gueule ? Ah bah ouais J'parle à mon Phillies, découpe comme Lahm, découpe comme Philipp Cinquante centilitres, on bouge comme Beat It, visage plein d'mimiques J'reste tranquille mais j'reste inimitable J'fais que d'faire rimer mon code postal Mon code postal Né dans lfroid du vent dla côte dOpale Fierté locale jusqu'à c'qu'on marche Bah ouais Logo du Racing sur lcarénage Camel 100S, gros teh nickel Nickel, nickel Grande frite, pain long, mayo', nickel Nickel, nickel Prod by Lucci, Murer, nickel Nickel, Michel J'efface nos dettes, j'écris Nickel Nickel, nickel Camel 100S, gros teh nickel Nickel, nickel Grande frite, pain long, mayo', nickel Nickel, nickel Prod by Lucci, Murer, nickel Nickel, Michel J'efface nos dettes, j'écris Nickel J'écris c'que j'veux Et jlécris à la marge pas à la page depuis lépoque Depuis longtemps Des joggings Adidas avec deux bandes avec mes potes Malik et Karim On srendait à la gare avec des blondes, avec du jaune Avec du te-sh' On explorait la face de la lune, celle qui trappelle que tes minus 'cule Que tinventes que dalle quand tu tenfumes Oh, oh Qula batte, cest pire que lenclume, qutu vas sauter plus loin si tu rcules mais faut sauter quand même Le trou ou lennui, sacré dilemme, Santé, bonheur, sacré proverbe Pour nous, cest lun ou lautre sarroser ou finir indemne, sendormir ou briser ses chaînes Couplet d'huit mes', refrain, nickel Camel 100S, gros teh nickel Nickel, nickel Grande frite, pain long, mayo', nickel Nickel, nickel Prod by Lucci, Murer, nickel Nickel, Michel J'efface nos dettes, j'écris Nickel J'écris c'que j'veux Nickel, nickel Nickel, nickel Nickel, nickel Nickel, nickel Nickel, Michel Michel, Michel Nickel, nickel Nickel, nickel Nickel, nickel Nickel, nickel Nickel, Michel Nickel, nickel Prod by Lucci, Murer, nickel</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Tant qu'le soleil se lève, tant qu'il m'reste de la salive Il m'a dit que j'brassais du vent, c'est vrai C'est pour qu'les planètes s'alignent Ils ont bientôt compris, moi, faut pas que j'l'oublie J'suis la pour que ça marque, pas là pour qu'ça brille J'regarde plus l'sablier Plus la peau d'mon père se détendre, enculé, hein J'fais comme si j'avais du temps J'lui ai dit J't'aimerai toute ma vie, ma chérie, comme si ça avait du sens Seul sur l'trottoir, j'frotte mes mains, n hommage aux moments où y'avait du sang d'ssus Avant j'avais un plan Mainetant j'ai un plan, un famille, un clan J'ai plus peur du silence, j'ai que peur du temps, j'ai plus peur de l'aventure La madame elle a dit Pour celui là, c'est la merde Confiance en soit, éclatée sur le plancher, d'puis qu'le daron ma tej sur l'congélateur, ce jour là, c'était la fête Ce jour là, c'était l'aventure On a serré les dents et la ceinture Là, y'a nos têtes et nos noms sur la devanture, sacrée aventure, wesh J'parle plus à Dieu mais j'réponds au SDF, qui m'a dit Donne moi dix balles, mon frérot Que j'me rapproche du monde des rêves, vu qu'la réalité reveille, il fait moche mais en mieux J'parle qu'en nous et en je Elle m'a dit Fils, ton daron, c'est toi mais en vieux J'étais rouge comme le p'tit trait qui dort dans ses yeux J'parle toujours au mur, j'essaie de rappeler les fantômes Et j'peux presque entendre les anges Tu peux faire tout l'bruit qu'tu veux, mon frérot, y'a qu'le silence qui nous dérange Cur est vide comme nos bleds et leurs centre ville, les anciens et les grandes devises Ça m'fait bizarre, comme ton père qui m'dit qu'il prend son pied au stand de tir You might also like Mais j'ai pris l'habitude P'tit frère cherche la merde, maman cherche la quiétude, on a pris l'habitude La tête dans l'ciel, les pieds dans l'bitume, on a pris l'habitude Eh On sourit pas tous pareils J'm'en rappelle, j'étais p'tit, eux, ils s'moquaient d'mes oreilles Avec le recul, j'aurais fait pareil J'm'appelle Thomas, j'suis l'fils biologique d'un fantôme parti assez tôt pour pas laisser trop d'souvenirs J'entends l'cur de ma mère, crier des sourires, en d'ssous des soupires L'instru m'fait briller les yeux, j'ai pas tout sorti, faut que j'la remette encore Elle me dit La vie, c'est qu'un jeu, j'sais qu'c'est faux mais j'dit pas le contraire encore Si vous restez là, j'serai mieux, on écrit des chansons sur la vie, la mort Pour les frères qui ont finis dans le sol, qui font des des tournesols, qui regardent les oiseaux Eh, vive les sourires qui font qu'le temps s'arrête Vive les trous dans l'mur qu'on cache à la peinture On n'oublie rien du tout, on vit avec J'm'endors pendant qu'les nuages pleurent sur la toiture Mais j'ai pris l'habitude P'tit frère cherche la merde, maman cherche la quiétude, on a pris l'habitude La tête dans l'ciel, les pieds dans l'bitume, on a pris l'habitude</t>
+          <t>Tant qu'le soleil se lève, tant qu'il m'reste de la salive Il m'a dit que j'brassais du vent, c'est vrai C'est pour qu'les planètes s'alignent Ils ont bientôt compris, moi, faut pas que j'l'oublie J'suis la pour que ça marque, pas là pour qu'ça brille J'regarde plus l'sablier Plus la peau d'mon père se détendre, enculé, hein J'fais comme si j'avais du temps J'lui ai dit J't'aimerai toute ma vie, ma chérie, comme si ça avait du sens Seul sur l'trottoir, j'frotte mes mains, n hommage aux moments où y'avait du sang d'ssus Avant j'avais un plan Mainetant j'ai un plan, un famille, un clan J'ai plus peur du silence, j'ai que peur du temps, j'ai plus peur de l'aventure La madame elle a dit Pour celui là, c'est la merde Confiance en soit, éclatée sur le plancher, d'puis qu'le daron ma tej sur l'congélateur, ce jour là, c'était la fête Ce jour là, c'était l'aventure On a serré les dents et la ceinture Là, y'a nos têtes et nos noms sur la devanture, sacrée aventure, wesh J'parle plus à Dieu mais j'réponds au SDF, qui m'a dit Donne moi dix balles, mon frérot Que j'me rapproche du monde des rêves, vu qu'la réalité reveille, il fait moche mais en mieux J'parle qu'en nous et en je Elle m'a dit Fils, ton daron, c'est toi mais en vieux J'étais rouge comme le p'tit trait qui dort dans ses yeux J'parle toujours au mur, j'essaie de rappeler les fantômes Et j'peux presque entendre les anges Tu peux faire tout l'bruit qu'tu veux, mon frérot, y'a qu'le silence qui nous dérange Cur est vide comme nos bleds et leurs centre ville, les anciens et les grandes devises Ça m'fait bizarre, comme ton père qui m'dit qu'il prend son pied au stand de tir Mais j'ai pris l'habitude P'tit frère cherche la merde, maman cherche la quiétude, on a pris l'habitude La tête dans l'ciel, les pieds dans l'bitume, on a pris l'habitude Eh On sourit pas tous pareils J'm'en rappelle, j'étais p'tit, eux, ils s'moquaient d'mes oreilles Avec le recul, j'aurais fait pareil J'm'appelle Thomas, j'suis l'fils biologique d'un fantôme parti assez tôt pour pas laisser trop d'souvenirs J'entends l'cur de ma mère, crier des sourires, en d'ssous des soupires L'instru m'fait briller les yeux, j'ai pas tout sorti, faut que j'la remette encore Elle me dit La vie, c'est qu'un jeu, j'sais qu'c'est faux mais j'dit pas le contraire encore Si vous restez là, j'serai mieux, on écrit des chansons sur la vie, la mort Pour les frères qui ont finis dans le sol, qui font des des tournesols, qui regardent les oiseaux Eh, vive les sourires qui font qu'le temps s'arrête Vive les trous dans l'mur qu'on cache à la peinture On n'oublie rien du tout, on vit avec J'm'endors pendant qu'les nuages pleurent sur la toiture Mais j'ai pris l'habitude P'tit frère cherche la merde, maman cherche la quiétude, on a pris l'habitude La tête dans l'ciel, les pieds dans l'bitume, on a pris l'habitude</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Y'a beaucoup d'choses qui nous fascinent L'argent, l'amour, les principes Trop d'choses qui sont faciles, des bouquets de roses qui sont tragiques Encore une histoire en plastique, qui va réveiller la voisine La caravane passe, le chiens des condés s'égosillent Ils ont virés des migrants pour reconstruire un parking Fils de pute, J'entend q'ça tire à Porte d'Arras La symphonie des coups d'matraques, orchestré par des vieux scar-la Embrouillés par un bout d'charas T'nferme des ptits, la con d'ta race, argument jaunis, pastaga Ça mange des peines de huit ans d'age, pour ton enfance on attendra Sur le rain-té pour un bout d'salade, et quelques-uns sur le foot korner Un TMAX pour une grande balade, donné du sens au courant d'air Bicraveur quasi cinquantenaire, les dents de la couleur de l'armée de terre Depuis six heures sur le dernier verre, depuis six ans sur le dernier ter' Ils ont dit les places sont prises, c'pour ça qu'les chances sont minces C'pour ça qu'le ciel est gris Ils ont dit les places sont prises, c'pour ça qu'les chances sont minces On préfère les chansons tristes On préfère les chansons tristes On préfère les chansons tristes On préfère les chansons tristes Ils ont dit les places sont prises, on préfère les chansons tristes You might also like C'est l'été ça sent les clous de girofles Les anges ont des Nike air, les philosophes postillonnent La ville est triste comme Sting mais elle chante comme Akon Le soleil change tout l'décors Sur les briques rouges la pluie coule des fois Comme sur les joues d'ceux qui ont encore faim Le trottoir y transpire, la boule au ventre s'enfuis On s'dit qu'elle va revenir mais on sait pas quand On aurait b'soin d'vacances, d'la chance On attend la date, la fin on attend l'impact Parie des fins d'mois en partie d'dame, joue au rami comme au casino On vis dans l'attente, au milieu de la tempête Il y a pas vraiment grand chose, mais je recompte la recette J'entend qu'ça hurle à C.H Dron, la mélodie d'la frustration L'premier qui parle, dis baisse d'un ton La maladie de la déception On s'embrouille à la réception, en invoquant la récession J'veux pas penser, j'ai monté l'son J'veux pas danser, j'ai compris l'fond Ils ont dit les places sont prises, c'pour ça qu'les chances sont minces C'pour ça qu'le ciel est gris Ils ont dit les places sont prises, c'pour ça qu'les chances sont minces On préfère les chansons tristes On préfère les chansons tristes On préfère les chansons tristes On préfère les chansons tristes Ils ont dit les places sont prises, on préfère les chansons tristes</t>
+          <t>Y'a beaucoup d'choses qui nous fascinent L'argent, l'amour, les principes Trop d'choses qui sont faciles, des bouquets de roses qui sont tragiques Encore une histoire en plastique, qui va réveiller la voisine La caravane passe, le chiens des condés s'égosillent Ils ont virés des migrants pour reconstruire un parking Fils de pute, J'entend q'ça tire à Porte d'Arras La symphonie des coups d'matraques, orchestré par des vieux scar-la Embrouillés par un bout d'charas T'nferme des ptits, la con d'ta race, argument jaunis, pastaga Ça mange des peines de huit ans d'age, pour ton enfance on attendra Sur le rain-té pour un bout d'salade, et quelques-uns sur le foot korner Un TMAX pour une grande balade, donné du sens au courant d'air Bicraveur quasi cinquantenaire, les dents de la couleur de l'armée de terre Depuis six heures sur le dernier verre, depuis six ans sur le dernier ter' Ils ont dit les places sont prises, c'pour ça qu'les chances sont minces C'pour ça qu'le ciel est gris Ils ont dit les places sont prises, c'pour ça qu'les chances sont minces On préfère les chansons tristes On préfère les chansons tristes On préfère les chansons tristes On préfère les chansons tristes Ils ont dit les places sont prises, on préfère les chansons tristes C'est l'été ça sent les clous de girofles Les anges ont des Nike air, les philosophes postillonnent La ville est triste comme Sting mais elle chante comme Akon Le soleil change tout l'décors Sur les briques rouges la pluie coule des fois Comme sur les joues d'ceux qui ont encore faim Le trottoir y transpire, la boule au ventre s'enfuis On s'dit qu'elle va revenir mais on sait pas quand On aurait b'soin d'vacances, d'la chance On attend la date, la fin on attend l'impact Parie des fins d'mois en partie d'dame, joue au rami comme au casino On vis dans l'attente, au milieu de la tempête Il y a pas vraiment grand chose, mais je recompte la recette J'entend qu'ça hurle à C.H Dron, la mélodie d'la frustration L'premier qui parle, dis baisse d'un ton La maladie de la déception On s'embrouille à la réception, en invoquant la récession J'veux pas penser, j'ai monté l'son J'veux pas danser, j'ai compris l'fond Ils ont dit les places sont prises, c'pour ça qu'les chances sont minces C'pour ça qu'le ciel est gris Ils ont dit les places sont prises, c'pour ça qu'les chances sont minces On préfère les chansons tristes On préfère les chansons tristes On préfère les chansons tristes On préfère les chansons tristes Ils ont dit les places sont prises, on préfère les chansons tristes</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Pélo, mes semelles ont trop l'goût d'caillou Mon daron veut pas d'piscine il veut une R8, vitres teintées Il voulait qu'j'devienne maçon maintenant il chtar sur mes maquettes Il m'a vu prendre une photo avec une fan il a cabré il m'a dit Elle tombe quand la SACEM ?! ola J'jure plus sur la vie d'ma mère, dans tous mes couplets y a un bout d'moi même c'est bizarre euuuh Dans toutes ces bouclettes y a un goût d'cannelle Assez balèze pour êtr heureux pépère J'attnds qu'les regards s'allument autant qu'l'écran d'mon 6S 6S J'ai arrêté de bosser pour le rap maintenant j'ai plus d'excuse plus d'excuse Y a ma leu-gueu d'vainqueur sur la miniature miniature Ma vie est pleine de virages comme ma signature J'veux une paire de Margiela par jour d'la semaine mais en fait nan J'veux une paire de Air Max par jour du mois ouais ouais, voilà c'est ça J'veux pas connaître mes indemnités journalières j'm'en bats les reins ! Quand ils seront prêts à payer on discutera rrrr rrrr rrrr ! Holà, wesh, salut, ça va ? On s'maintient on s'maintient ! Élevé au rap comme si j'l'ai têté au sein ah bah ouais Et même la maîtresse veut pas trop se fâcher zinc' nan ! On connaît les départements depuis Talent fâché 5 Talent fâché 5 Ah bah ouais ! J'crois qu'j'ai quelque chose à faire ! Qui s'rappelle la CAF, le Pôle Emploi, les APL ? Ah bah ouais, j'crois qu'j'ai quelque chose à faire Qu'mon banquier m'fasse un biz et qu'la banquière m'fasse un chèque You might also like Croise-moi à 3 heures du mat' en I sur l'Vélib' J'ai plus de patience pour c'mec qui m'dit qu'Vivre et mourir à Dakar c'est un bouquin d'Céline Bijou du Nord comme le pain d'épices J'ai grandi au milieu des années 2000 Mes parents m'ont inscrit au catéchisme J'suis sur la corde mais j'ai confiance en mes associés comme un trapéziste J'vois plus l'soleil j'suis dans l'studio aah ! J'sors j'mate le ciel j'le trouve fluo fluo On arrive dans vos salles en Clio roar J'écoute les larmes du soleil de Badara, Starmania, les complaintes de Balavoine eh ! Drive by en caravane eh La beauté d'un sauvetage de Carragher eh J'veux une paire de Margiela par jour d'la semaine euh... nan nan nan J'veux une paire de Air Max par jour du mois ouais, ouais ouais, voilà c'est ça J'veux pas connaître mes indemnités journalières j'm'en bats les reins ! Quand ils seront prêts à payer on discutera rrrr rrrr rrrr ! Holà, wesh, salut, ça va ? On s'maintient on s'maintient ! Élevé au rap comme si j'l'ai têté au sein ah bah ouais Et même la maîtresse veut pas trop se fâcher zinc' On connaît les départements depuis Talent fâché 5 Talent fâché 5 Ah bah ouais ! J'crois qu'j'ai quelque chose à faire ! Qui s'rappelle la CAF, le Pôle Emploi, les APL ? Ah bah ouais, j'crois qu'j'ai quelque chose à faire Qu'mon banquier m'fasse un biz et qu'la banquière m'fasse un chèque</t>
+          <t>Pélo, mes semelles ont trop l'goût d'caillou Mon daron veut pas d'piscine il veut une R8, vitres teintées Il voulait qu'j'devienne maçon maintenant il chtar sur mes maquettes Il m'a vu prendre une photo avec une fan il a cabré il m'a dit Elle tombe quand la SACEM ?! ola J'jure plus sur la vie d'ma mère, dans tous mes couplets y a un bout d'moi même c'est bizarre euuuh Dans toutes ces bouclettes y a un goût d'cannelle Assez balèze pour êtr heureux pépère J'attnds qu'les regards s'allument autant qu'l'écran d'mon 6S 6S J'ai arrêté de bosser pour le rap maintenant j'ai plus d'excuse plus d'excuse Y a ma leu-gueu d'vainqueur sur la miniature miniature Ma vie est pleine de virages comme ma signature J'veux une paire de Margiela par jour d'la semaine mais en fait nan J'veux une paire de Air Max par jour du mois ouais ouais, voilà c'est ça J'veux pas connaître mes indemnités journalières j'm'en bats les reins ! Quand ils seront prêts à payer on discutera rrrr rrrr rrrr ! Holà, wesh, salut, ça va ? On s'maintient on s'maintient ! Élevé au rap comme si j'l'ai têté au sein ah bah ouais Et même la maîtresse veut pas trop se fâcher zinc' nan ! On connaît les départements depuis Talent fâché 5 Talent fâché 5 Ah bah ouais ! J'crois qu'j'ai quelque chose à faire ! Qui s'rappelle la CAF, le Pôle Emploi, les APL ? Ah bah ouais, j'crois qu'j'ai quelque chose à faire Qu'mon banquier m'fasse un biz et qu'la banquière m'fasse un chèque Croise-moi à 3 heures du mat' en I sur l'Vélib' J'ai plus de patience pour c'mec qui m'dit qu'Vivre et mourir à Dakar c'est un bouquin d'Céline Bijou du Nord comme le pain d'épices J'ai grandi au milieu des années 2000 Mes parents m'ont inscrit au catéchisme J'suis sur la corde mais j'ai confiance en mes associés comme un trapéziste J'vois plus l'soleil j'suis dans l'studio aah ! J'sors j'mate le ciel j'le trouve fluo fluo On arrive dans vos salles en Clio roar J'écoute les larmes du soleil de Badara, Starmania, les complaintes de Balavoine eh ! Drive by en caravane eh La beauté d'un sauvetage de Carragher eh J'veux une paire de Margiela par jour d'la semaine euh... nan nan nan J'veux une paire de Air Max par jour du mois ouais, ouais ouais, voilà c'est ça J'veux pas connaître mes indemnités journalières j'm'en bats les reins ! Quand ils seront prêts à payer on discutera rrrr rrrr rrrr ! Holà, wesh, salut, ça va ? On s'maintient on s'maintient ! Élevé au rap comme si j'l'ai têté au sein ah bah ouais Et même la maîtresse veut pas trop se fâcher zinc' On connaît les départements depuis Talent fâché 5 Talent fâché 5 Ah bah ouais ! J'crois qu'j'ai quelque chose à faire ! Qui s'rappelle la CAF, le Pôle Emploi, les APL ? Ah bah ouais, j'crois qu'j'ai quelque chose à faire Qu'mon banquier m'fasse un biz et qu'la banquière m'fasse un chèque</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Michel n'est pas triste mais Michel a vieilli Ses pensées, ses gestes, ne sont plus ceux d'hier mais bien ceux d'aujourd'hui Et lui est en paix, les génies sont calmes et les autres se frustrent de n'plus les voir briller Qu'est-ce qu'il m'en restera ? Qu'est-ce qu'il m'en restera ? Une odeur de tabac qui snt comme de lespoir Vrs quoi jme tournerai ? Vers une chaise de jardin, une chemise en laine J'ai jamais aimé l'changement, j'suis rassuré que par c'que j'connais Les gestes sont moins vifs qu'avant, mais j'te redemande les mêmes conseils Dis-moi qu'est-ce qu'on retient ? Dis-moi qu'est-ce qu'on retient ? Dis-moi qu'est-ce qu'on retient ? Dis-moi c'que j'dois retenir des moments, des actes Quand j'me parle tout seul, j'te cherche dans mes phrases J'voulais juste essayer, bah maintenant, c'est trop tard, on y est On y est, on y est, on y est, on y est Des larmes dans mes pupille, tâche de regret dans ma rétine Et j'progresse dans ma délivrance, dans l'stress de la vérité Poussière, tu vas retourner, ouais, la poussière ça s'envole Alors la poussière, j'ai peur d'l'oublier Vas-y, bouge, laisse-moi prendre ma sur dans les bras, lui demander pourquoi elle me parle pas Vas-y, bouge, j'parle à la pudeur comme une garce, au lieu d'demander au gens qu'j'aime Comment allez-vous ? J'suis dans l'brouillard, y a plus d'air, né dans un couloir sans fenêtre J'sais pas quoi vouloir ou bien faire, j'murmure des je t'aime, j'cris ma haine, eh J'avais qu'du courage pour retenir mes peines, eh You might also like Dis-moi qu'est-ce qu'on retient ? Dis-moi qu'est-ce qu'on retient ? Dis-moi qu'est-ce qu'on retient ? Dis-moi c'que j'dois retenir des moments, des actes Quand j'me parle tout seul, j'te cherche dans mes phrases J'voulais juste essayer, bah maintenant, c'est trop tard, on y est On y est, on y est, on y est, on y est Ah Ah</t>
+          <t>Michel n'est pas triste mais Michel a vieilli Ses pensées, ses gestes, ne sont plus ceux d'hier mais bien ceux d'aujourd'hui Et lui est en paix, les génies sont calmes et les autres se frustrent de n'plus les voir briller Qu'est-ce qu'il m'en restera ? Qu'est-ce qu'il m'en restera ? Une odeur de tabac qui snt comme de lespoir Vrs quoi jme tournerai ? Vers une chaise de jardin, une chemise en laine J'ai jamais aimé l'changement, j'suis rassuré que par c'que j'connais Les gestes sont moins vifs qu'avant, mais j'te redemande les mêmes conseils Dis-moi qu'est-ce qu'on retient ? Dis-moi qu'est-ce qu'on retient ? Dis-moi qu'est-ce qu'on retient ? Dis-moi c'que j'dois retenir des moments, des actes Quand j'me parle tout seul, j'te cherche dans mes phrases J'voulais juste essayer, bah maintenant, c'est trop tard, on y est On y est, on y est, on y est, on y est Des larmes dans mes pupille, tâche de regret dans ma rétine Et j'progresse dans ma délivrance, dans l'stress de la vérité Poussière, tu vas retourner, ouais, la poussière ça s'envole Alors la poussière, j'ai peur d'l'oublier Vas-y, bouge, laisse-moi prendre ma sur dans les bras, lui demander pourquoi elle me parle pas Vas-y, bouge, j'parle à la pudeur comme une garce, au lieu d'demander au gens qu'j'aime Comment allez-vous ? J'suis dans l'brouillard, y a plus d'air, né dans un couloir sans fenêtre J'sais pas quoi vouloir ou bien faire, j'murmure des je t'aime, j'cris ma haine, eh J'avais qu'du courage pour retenir mes peines, eh Dis-moi qu'est-ce qu'on retient ? Dis-moi qu'est-ce qu'on retient ? Dis-moi qu'est-ce qu'on retient ? Dis-moi c'que j'dois retenir des moments, des actes Quand j'me parle tout seul, j'te cherche dans mes phrases J'voulais juste essayer, bah maintenant, c'est trop tard, on y est On y est, on y est, on y est, on y est Ah Ah</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>J'vois derrière les nuages Après la grisaille Qu'est-ce qui m'arrive si j'vais tout droit au virage J'attends pas un miracle J'invente un scénar, c'est moi dans la Seat sur le parking du Cora Et j'écris des couplets d'bâtard Ma daronne remplit 20 frigo avec le prix d'un clip Des regards électriques, les doigts dans la prise depuis l'époque où j'mettais des slips Alors téma nos ganaches c'est pour ça qu'on s'arrache Cernes jusqu'au cou donc c'est pour ça qu'on cravache J'veux plus qu'maman s'abaisse, qu'son canapé s'affaisse Donc c'st pour ça qu'on ramasse Fais ton travail moi c'est pour ça qu'j'te khalass Ds rêves qui s'oublient en pagaille Destin déchu sur le boulevard, mélodie des trous noirs On m'dit qu'j'suis doué j'crois juste que j'suis malade Elle m'montre ses tatouages moi j'lui montre mes balafres Crois pas qu'j'suis bavard à la base crois pas qu'j'suis bavard à la base J'vomis c'qu'on m'renvoi à la face 2020, on envoi des pandas dans l'espace hey Ça traverse des frontières à la nage hey J'continue d'essayer d'faire sourire le reflet dans la glace You might also like Parcours accidenté J'attends qu'l'horizon s'embellisse j'attends qu'l'horizon s'embellisse D'la monnaie pour soigner nos rêves D'la monnaie pour soigner nos esprits Parcours accidenté J'attends qu'l'horizon s'embellisse j'attends qu'l'horizon s'embellisse D'la monnaie pour soigner nos rêves d'la monnaie pour soigner nos rêves D'la monnaie pour soigner nos esprits d'la monnaie pour soigner nos esprits Encore un matin où j'grille du pain trop dur Maman m'dit qu'j'suis trop pur pour l'monde de dehors J'me sens dos au mur même si tout vas pas trop mal alors faut que j'coure juste pour vérifier qu'j'fonctionne encore J'vais parler même si j'ai sûrement tord Moi j'vais par là même si j'serais sûrement seul Ils m'jugeront quand j'serais mort J'attends d'voir la valeur d'mes sacrifices moi j'connais l'poids d'mes efforts et puis nique sa mère J'cours après mes rêves et la batterie va m'casser la tête J'ai plus la pense innée j'ai finit la teille teille teille J'vais marquer l'époque et j'vais taille taille taille J'me l'répète pour tenir debout sinon j'arrête tout sinon j'me bafoue J'veux même pas gagner la victoire c'est relou moi j'apprends sur la route dans les silences du doute Crois pas qu'j'suis bavard à la base J'vomis c'qu'on m'renvoi à la face 2020, on envoi des pandas dans l'espace Ça traverse des frontières à la nage J'continue d'essayer d'faire sourire le reflet dans la glace Parcours accidenté ouais ouais ouais ouais ouais ouais ouais J'attends qu'l'horizon s'embellisse ouais ouais ouais ouais ouais ouais ouais D'la monnaie pour soigner nos rêves d'la monnaie pour soigner nos rêves D'la monnaie pour soigner nos esprits d'la monnaie pour soigner nos esprits Parcours accidenté parcours accidenté J'attends qu'l'horizon s'embellisse j'attends qu'l'horizon s'embellisse D'la monnaie pour soigner nos rêves d'la monnaie pour soigner nos rêves D'la monnaie pour soigner nos esprits d'la monnaie pour soigner nos esprits Parcours accidenté J'attends qu'l'horizon s'embellisse D'la monnaie pour soigner nos rêves D'la monnaie pour soigner nos esprits1</t>
+          <t>J'vois derrière les nuages Après la grisaille Qu'est-ce qui m'arrive si j'vais tout droit au virage J'attends pas un miracle J'invente un scénar, c'est moi dans la Seat sur le parking du Cora Et j'écris des couplets d'bâtard Ma daronne remplit 20 frigo avec le prix d'un clip Des regards électriques, les doigts dans la prise depuis l'époque où j'mettais des slips Alors téma nos ganaches c'est pour ça qu'on s'arrache Cernes jusqu'au cou donc c'est pour ça qu'on cravache J'veux plus qu'maman s'abaisse, qu'son canapé s'affaisse Donc c'st pour ça qu'on ramasse Fais ton travail moi c'est pour ça qu'j'te khalass Ds rêves qui s'oublient en pagaille Destin déchu sur le boulevard, mélodie des trous noirs On m'dit qu'j'suis doué j'crois juste que j'suis malade Elle m'montre ses tatouages moi j'lui montre mes balafres Crois pas qu'j'suis bavard à la base crois pas qu'j'suis bavard à la base J'vomis c'qu'on m'renvoi à la face 2020, on envoi des pandas dans l'espace hey Ça traverse des frontières à la nage hey J'continue d'essayer d'faire sourire le reflet dans la glace Parcours accidenté J'attends qu'l'horizon s'embellisse j'attends qu'l'horizon s'embellisse D'la monnaie pour soigner nos rêves D'la monnaie pour soigner nos esprits Parcours accidenté J'attends qu'l'horizon s'embellisse j'attends qu'l'horizon s'embellisse D'la monnaie pour soigner nos rêves d'la monnaie pour soigner nos rêves D'la monnaie pour soigner nos esprits d'la monnaie pour soigner nos esprits Encore un matin où j'grille du pain trop dur Maman m'dit qu'j'suis trop pur pour l'monde de dehors J'me sens dos au mur même si tout vas pas trop mal alors faut que j'coure juste pour vérifier qu'j'fonctionne encore J'vais parler même si j'ai sûrement tord Moi j'vais par là même si j'serais sûrement seul Ils m'jugeront quand j'serais mort J'attends d'voir la valeur d'mes sacrifices moi j'connais l'poids d'mes efforts et puis nique sa mère J'cours après mes rêves et la batterie va m'casser la tête J'ai plus la pense innée j'ai finit la teille teille teille J'vais marquer l'époque et j'vais taille taille taille J'me l'répète pour tenir debout sinon j'arrête tout sinon j'me bafoue J'veux même pas gagner la victoire c'est relou moi j'apprends sur la route dans les silences du doute Crois pas qu'j'suis bavard à la base J'vomis c'qu'on m'renvoi à la face 2020, on envoi des pandas dans l'espace Ça traverse des frontières à la nage J'continue d'essayer d'faire sourire le reflet dans la glace Parcours accidenté ouais ouais ouais ouais ouais ouais ouais J'attends qu'l'horizon s'embellisse ouais ouais ouais ouais ouais ouais ouais D'la monnaie pour soigner nos rêves d'la monnaie pour soigner nos rêves D'la monnaie pour soigner nos esprits d'la monnaie pour soigner nos esprits Parcours accidenté parcours accidenté J'attends qu'l'horizon s'embellisse j'attends qu'l'horizon s'embellisse D'la monnaie pour soigner nos rêves d'la monnaie pour soigner nos rêves D'la monnaie pour soigner nos esprits d'la monnaie pour soigner nos esprits Parcours accidenté J'attends qu'l'horizon s'embellisse D'la monnaie pour soigner nos rêves D'la monnaie pour soigner nos esprits1</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Nous, on avait pas compris, qu'on était que de passage Qu'celui qui t'éclaire les yeux, demain, peut partir Comme la tombée du jour, à deux sur la banquette La fumée dans l'ciel fait des plans sur la comète S'il te plait, dit moi si un jour tu comptes partir J'te regarde pendant qu'on se transforme en souvenir À deux sur la banquette Et tes mots qui disparaissent par la fenêtre On voulait changer le monde À deux, autour d'la table, à c'jeter ds regards qui font changer l'ton Tu peux changr d'sappes, tu peux changer d'noms, tu peux pas changer d'ombre On connait trop bien le goût d'la déception, on s'est trouvé en essayant On mettra une mandale au prochain qui nous demande de baisser l'son Baptisé à la Cristaline, au tabac froid, au premier joint d'shit devant La Mie Câline Le p'tit Jésus en culotte de velours, qui essaie de m'dire que Tony, Many, c'est pas l'amitié la plus raffinée Mais j'aime moins les cons qu'les fous Perché tout en haut d'nos tours, à louper nos rendez-vous Parce qu'on préfère les grands détours Trois clopes d'affiler sur l'bord d'l'aire d'autoroute avant d'reprendre l'aventure T'explorais l'fond d'nos curs depuis le fond d'la voiture You might also like S'il te plait, dit moi si un jour tu comptes partir J'te regarde pendant qu'on se transforme en souvenir À deux sur la banquette Et tes mots qui disparaissent par la fenêtre S'il te plait, dit moi si un jour tu comptes partir J'te regarde pendant qu'on se transforme en souvenir À deux sur la banquette Et tes mots qui disparaissent par la fenêtre On était presque la même personne, maintenant on s'parle, c'est l'monde à l'envers Mais on verra bien où les choses s'en vont, quand nos mots s'envolent comme des paroles en l'air Dix ans de realness, ça venait du cur Mais c'est devenu business en moins d'une heure C'est c'qui t'reste quand l'amitié et l'amour meurent à la vitesse de la rumeur On faisait qu'un, dès qu'on a fait connaissance On était déjà connecté, nos trajets volaient dans l'même sens À part le respect, nous, on espérait rien en échange Mais tout c'qui montait, devait redescendre On s'est perdu en chemin vers le sommet, y'a plus rien à faire sauf espérer peut-être une deuxième première chance de renaitre de mes cendres Jeune forever, à l'époque où rêver c'était un jeu d'enfant Mais les plans changent quand on comprend que l'avenir c'était mieux dans l'temps C'était pour la vie, sauf que la vie était d'un autre avis Une dernière noce pour la nostalgie S'il te plait, dit moi si un jour tu comptes partir J'te regarde pendant qu'on se transforme en souvenir À deux sur la banquette Et tes mots qui disparaissent par la fenêtre S'il te plait, dit moi si un jour tu comptes partir J'te regarde pendant qu'on se transforme en souvenir À deux sur la banquette Et tes mots qui disparaissent par la fenêtre</t>
+          <t>Nous, on avait pas compris, qu'on était que de passage Qu'celui qui t'éclaire les yeux, demain, peut partir Comme la tombée du jour, à deux sur la banquette La fumée dans l'ciel fait des plans sur la comète S'il te plait, dit moi si un jour tu comptes partir J'te regarde pendant qu'on se transforme en souvenir À deux sur la banquette Et tes mots qui disparaissent par la fenêtre On voulait changer le monde À deux, autour d'la table, à c'jeter ds regards qui font changer l'ton Tu peux changr d'sappes, tu peux changer d'noms, tu peux pas changer d'ombre On connait trop bien le goût d'la déception, on s'est trouvé en essayant On mettra une mandale au prochain qui nous demande de baisser l'son Baptisé à la Cristaline, au tabac froid, au premier joint d'shit devant La Mie Câline Le p'tit Jésus en culotte de velours, qui essaie de m'dire que Tony, Many, c'est pas l'amitié la plus raffinée Mais j'aime moins les cons qu'les fous Perché tout en haut d'nos tours, à louper nos rendez-vous Parce qu'on préfère les grands détours Trois clopes d'affiler sur l'bord d'l'aire d'autoroute avant d'reprendre l'aventure T'explorais l'fond d'nos curs depuis le fond d'la voiture S'il te plait, dit moi si un jour tu comptes partir J'te regarde pendant qu'on se transforme en souvenir À deux sur la banquette Et tes mots qui disparaissent par la fenêtre S'il te plait, dit moi si un jour tu comptes partir J'te regarde pendant qu'on se transforme en souvenir À deux sur la banquette Et tes mots qui disparaissent par la fenêtre On était presque la même personne, maintenant on s'parle, c'est l'monde à l'envers Mais on verra bien où les choses s'en vont, quand nos mots s'envolent comme des paroles en l'air Dix ans de realness, ça venait du cur Mais c'est devenu business en moins d'une heure C'est c'qui t'reste quand l'amitié et l'amour meurent à la vitesse de la rumeur On faisait qu'un, dès qu'on a fait connaissance On était déjà connecté, nos trajets volaient dans l'même sens À part le respect, nous, on espérait rien en échange Mais tout c'qui montait, devait redescendre On s'est perdu en chemin vers le sommet, y'a plus rien à faire sauf espérer peut-être une deuxième première chance de renaitre de mes cendres Jeune forever, à l'époque où rêver c'était un jeu d'enfant Mais les plans changent quand on comprend que l'avenir c'était mieux dans l'temps C'était pour la vie, sauf que la vie était d'un autre avis Une dernière noce pour la nostalgie S'il te plait, dit moi si un jour tu comptes partir J'te regarde pendant qu'on se transforme en souvenir À deux sur la banquette Et tes mots qui disparaissent par la fenêtre S'il te plait, dit moi si un jour tu comptes partir J'te regarde pendant qu'on se transforme en souvenir À deux sur la banquette Et tes mots qui disparaissent par la fenêtre</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Des millions d'abo' mais j'suis personne, j'suis pas certifié, j'suis bientôt l'seul Pour briller, faut l'logo sur l'perso', j'ai pas la pastille, j'ai la sainte poêle Pas d'badge bleu mais on reste authentiques, soigner ses tweets, j'préfère, j'préfère être bordélique Dans mes DM, que des randoms, les six premiers com' c'est des robots Si elle est bonne, on la follow, si elle moche, on la follow T'as pris un brunch et une photo, ma photo d'profil c'est Azzaro Quand j'tweete, t'as pas la notif' han han, des mouv' contre-productifs han, han Pas très collaboratif, j'suis pas kiffé par l'algo' han, ouais Yeah, yeah, yeah, rien à foutre Yeah, yeah, yeah Clique, abonne, pouce bleu, tu seras dans l'VIP avant nous deux J'ai plus de follow que d'moula, j'suis pas dans l'biz à Webedia J'suis pas certifié, on danse, on n'est pas certifié yeah, yeah, yeah J'suis pas certifié, on poste, on n'est pas certifié yeah, yeah, yeah J'suis pas certifié, on danse, on n'est pas certifié yeah, yeah, yeah J'suis pas certifié, on poste, on n'est pas certifié yeah, yeah, yeah You might also like 2000 abo', j'serais personne, j'suis pas certifié, j'suis pas tout seul J'représente la vraie vie, les randoms, les lancer en vu par les meufs bonnes Dopamine dans la red cup, gros, la vie c'est pas qu'un jeu À compter des likes, mais pour rentrer, j'dois lâcher mon blase Et à 2000 abo', j'passerais vite pour un nain Ils m'regardent, peut-être qu'ils veulent une photo, ils arrivent, ils cherchent juste le métro Mon p'tit frère me dit qu'j'suis un bambi dans l'monde des réseaux, moi, y a que Tati qui m'a sponso' cheh J'passe devant l'visio', j'rentre de peu, j'serais pas plus mignon sous pastille bleu Club des recalés au casting, pas certifié mais j'm'en bats les grammes ah ouais Yeah, yeah, yeah, rien à foutre Yeah, yeah, yeah Clique, abonne, pouce bleu, tu seras dans l'VIP avant nous deux J'fais des DM que tu n'vois pas et des stories avec mon chat J'suis pas certifié, on danse, on n'est pas certifié yeah, yeah, yeah J'suis pas certifié, on poste, on n'est pas certifié yeah, yeah, yeah J'suis pas certifié, on danse, on n'est pas certifié yeah, yeah, yeah J'suis pas certifié, on poste, on n'est pas certifié yeah, yeah, yeah Yeah, yeah, yeah Yeah, yeah, yeah Yeah, yeah, yeah</t>
+          <t>Des millions d'abo' mais j'suis personne, j'suis pas certifié, j'suis bientôt l'seul Pour briller, faut l'logo sur l'perso', j'ai pas la pastille, j'ai la sainte poêle Pas d'badge bleu mais on reste authentiques, soigner ses tweets, j'préfère, j'préfère être bordélique Dans mes DM, que des randoms, les six premiers com' c'est des robots Si elle est bonne, on la follow, si elle moche, on la follow T'as pris un brunch et une photo, ma photo d'profil c'est Azzaro Quand j'tweete, t'as pas la notif' han han, des mouv' contre-productifs han, han Pas très collaboratif, j'suis pas kiffé par l'algo' han, ouais Yeah, yeah, yeah, rien à foutre Yeah, yeah, yeah Clique, abonne, pouce bleu, tu seras dans l'VIP avant nous deux J'ai plus de follow que d'moula, j'suis pas dans l'biz à Webedia J'suis pas certifié, on danse, on n'est pas certifié yeah, yeah, yeah J'suis pas certifié, on poste, on n'est pas certifié yeah, yeah, yeah J'suis pas certifié, on danse, on n'est pas certifié yeah, yeah, yeah J'suis pas certifié, on poste, on n'est pas certifié yeah, yeah, yeah 2000 abo', j'serais personne, j'suis pas certifié, j'suis pas tout seul J'représente la vraie vie, les randoms, les lancer en vu par les meufs bonnes Dopamine dans la red cup, gros, la vie c'est pas qu'un jeu À compter des likes, mais pour rentrer, j'dois lâcher mon blase Et à 2000 abo', j'passerais vite pour un nain Ils m'regardent, peut-être qu'ils veulent une photo, ils arrivent, ils cherchent juste le métro Mon p'tit frère me dit qu'j'suis un bambi dans l'monde des réseaux, moi, y a que Tati qui m'a sponso' cheh J'passe devant l'visio', j'rentre de peu, j'serais pas plus mignon sous pastille bleu Club des recalés au casting, pas certifié mais j'm'en bats les grammes ah ouais Yeah, yeah, yeah, rien à foutre Yeah, yeah, yeah Clique, abonne, pouce bleu, tu seras dans l'VIP avant nous deux J'fais des DM que tu n'vois pas et des stories avec mon chat J'suis pas certifié, on danse, on n'est pas certifié yeah, yeah, yeah J'suis pas certifié, on poste, on n'est pas certifié yeah, yeah, yeah J'suis pas certifié, on danse, on n'est pas certifié yeah, yeah, yeah J'suis pas certifié, on poste, on n'est pas certifié yeah, yeah, yeah Yeah, yeah, yeah Yeah, yeah, yeah Yeah, yeah, yeah</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>En ce moment, il fait froid dans la zone Dans la zone Les jours où j'ai un bout dans la North Ah ouais Un akha, y'a les keufs près du trom' Akha Un T-max bleu Arai et des roses Ah ouais Y'en a encore qui passent les fêtes à la zonz' Colis d'noël, y'a pas d'macarons Jamais Et dans l'hall, ça sent pas la lavande ça pue Nouveau teush, lui y colle sous les ongles Et y a toujours du monde au café d'l'angle Une noisette, un Bingo et une clope Ah ouais Queue d'la CAF qui s'allonge sur le boulevard, on dirait qu'ils ont sorti un IPhone Ah ouais J'ai oublié l'anniv' de mon daron, ça fait deux ans d'suite, j'suis trop à fond dans l'rap, j'dors plus On vint du nord d'la France, pour nous quatorze degrés c'st l'sud Y caille sa mère, ah ouais Tous entassés dans la toum et direction l'Espagne Tu t'rappelles Quand j'm'endormais tout bourré dans la Renault Espace Ah bah ouais J'tourne en rond dans la nuit, j'me fabrique de l'espoir J'tire une taffe sur le teh, il m'envoie dans l'espace Tous entassés dans la toum et direction l'Espagne Quand j'm'endormais tout bourré dans la Renault Espace J'tourne en rond dans la nuit, j'me fabrique de l'espoir J'tire une taffe sur le teh, il m'envoie dans l'espace Ah ouais Pas du bon côté du soleil J'me réveillais en l'air, envie d'retourner dans mes rêves On essaye mais maintenant c'est bon J'suis l'héros d'la série d'la prochaine saison You might also like En ce moment, il fait froid dans la zone Oho Y'a un p'tit frère qui saute pour une histoire d'résine En mandat d'dépôt pour une histoire d'saisie L'brouillard dans les yeux, c'pas une histoire d'saison Nan nan nan Qui a raison ? Qui a tort ? Bref Hassanate ou PCS Wesh On parle cash, on paye en espèces, reste bref Famille léger, famille Résidences mitoyennes, zone à risque Ouais Sauce andalouse sur des bancs arides Ouais Fonce droit dans l'mur mais c'pas Harry Potter Ah ouais, yes Crevasses sur les doigts à force de yoyotter Changer son destin, c'est pas qu'la volonté Tous entassés dans la toum et direction l'Espagne Tu t'rappelles Quand j'm'endormais tout bourré dans la Renault Espace Ah bah ouais J'tourne en rond dans la nuit, j'me fabrique de l'espoir anhanhan J'tire une taffe sur le teh, il m'envoie dans l'espace Tous entassés dans la toum et direction l'Espagne Et direction l'Espagne Quand j'm'endormais tout bourré dans la Renault Espace Anhanhan J'tourne en rond dans la nuit, j'me fabrique de l'espoir Anhanhan J'tire une taffe sur le teh, il m'envoie dans l'espace Ah ouais Pas du bon côté du soleil anhan J'me réveillais en l'air, envie d'retourner dans mes rêves On essaye mais maintenant c'est bon J'suis l'héros d'la série d'la prochaine saison</t>
+          <t>En ce moment, il fait froid dans la zone Dans la zone Les jours où j'ai un bout dans la North Ah ouais Un akha, y'a les keufs près du trom' Akha Un T-max bleu Arai et des roses Ah ouais Y'en a encore qui passent les fêtes à la zonz' Colis d'noël, y'a pas d'macarons Jamais Et dans l'hall, ça sent pas la lavande ça pue Nouveau teush, lui y colle sous les ongles Et y a toujours du monde au café d'l'angle Une noisette, un Bingo et une clope Ah ouais Queue d'la CAF qui s'allonge sur le boulevard, on dirait qu'ils ont sorti un IPhone Ah ouais J'ai oublié l'anniv' de mon daron, ça fait deux ans d'suite, j'suis trop à fond dans l'rap, j'dors plus On vint du nord d'la France, pour nous quatorze degrés c'st l'sud Y caille sa mère, ah ouais Tous entassés dans la toum et direction l'Espagne Tu t'rappelles Quand j'm'endormais tout bourré dans la Renault Espace Ah bah ouais J'tourne en rond dans la nuit, j'me fabrique de l'espoir J'tire une taffe sur le teh, il m'envoie dans l'espace Tous entassés dans la toum et direction l'Espagne Quand j'm'endormais tout bourré dans la Renault Espace J'tourne en rond dans la nuit, j'me fabrique de l'espoir J'tire une taffe sur le teh, il m'envoie dans l'espace Ah ouais Pas du bon côté du soleil J'me réveillais en l'air, envie d'retourner dans mes rêves On essaye mais maintenant c'est bon J'suis l'héros d'la série d'la prochaine saison En ce moment, il fait froid dans la zone Oho Y'a un p'tit frère qui saute pour une histoire d'résine En mandat d'dépôt pour une histoire d'saisie L'brouillard dans les yeux, c'pas une histoire d'saison Nan nan nan Qui a raison ? Qui a tort ? Bref Hassanate ou PCS Wesh On parle cash, on paye en espèces, reste bref Famille léger, famille Résidences mitoyennes, zone à risque Ouais Sauce andalouse sur des bancs arides Ouais Fonce droit dans l'mur mais c'pas Harry Potter Ah ouais, yes Crevasses sur les doigts à force de yoyotter Changer son destin, c'est pas qu'la volonté Tous entassés dans la toum et direction l'Espagne Tu t'rappelles Quand j'm'endormais tout bourré dans la Renault Espace Ah bah ouais J'tourne en rond dans la nuit, j'me fabrique de l'espoir anhanhan J'tire une taffe sur le teh, il m'envoie dans l'espace Tous entassés dans la toum et direction l'Espagne Et direction l'Espagne Quand j'm'endormais tout bourré dans la Renault Espace Anhanhan J'tourne en rond dans la nuit, j'me fabrique de l'espoir Anhanhan J'tire une taffe sur le teh, il m'envoie dans l'espace Ah ouais Pas du bon côté du soleil anhan J'me réveillais en l'air, envie d'retourner dans mes rêves On essaye mais maintenant c'est bon J'suis l'héros d'la série d'la prochaine saison</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>En c'moment, jsais plus c'quon me trouve Si jpeux voir de lamour dans une pupille rouge Jvais pas trouver ma route dans un whisky trouble, au fait au fait Cest moi l'p'tit qui parle dans sa tête Qui va fumer sur le toit du collège pour essayer dchecker des comètes Jvais tenter dêtre honnête, jvais perdre des frères On sest fait des promesses, on sest fait des taches de sang Depuis quon s'retrouvait juste pour grattr des clopes à Tourcoing centr Là, il tourne, le vent Y a des photos qui jaunissent, des sourires avec Le bonheur en condi, la grisaille en ferme Du temps qu'tu rebondis, mais faut faire avec À la base, on était jeunes, pleins d'rêves de Malaga On voulait que rentrer dans les fêtes Elle veut du caviar, moi, jsuis dans l'tarama Donc elle peut arrêter dme faire des trous dans la tête Jreprends ma confiance ah bah, ouais Jte donne ma parole quon va l'faire En c'moment, jai trois voix dans la tête Qui chantent le paradis et lenfer Ressers un verre que jpuisse regarder en arrière, sil te plaît Jai peur du vide, jai peur de gagner, jcrois quau fond, jsuis baisé Rallume un pilon, jen mets un p'tit ou deux ah bah, ouais Le parcours en dit long, ce s'ra que pire ou mieux You might also like Jcrois quon est fucked up Jregarde la porte à six oclock Jai peur du toc-toc, toc, toc, toc, toc Ça serre la ceinture et les menottes dans le bloc, bloc, blo-bloc Le p'tit qui parle dans ma tête, il est plus seul Avant, il chantait, maintenant, jentends plus qu'des Po, po po po po po, po po po po pop Avant, il chantait, maintenant, jentends plus qu'des Po, po po po po po, po po po po po, po po po po pop Soulevé à six oclock par la crosse dune Maglite bouge pas, bouge pas Le flic méchant, il tpropose une gifle, et le gentil, une Marlboro Light On connaît leurs parades, on connaît leurs vices, alors, aux geôles, shut your mouth Jai frôlé la mort à plusieurs reprises, alors, j'pense à elle quand je close my eyes Jsuis à lécole primaire, jveux écouter le prof' Mais jsuis perturbé par le bruit des crosses Le bruit des akha de tous ceux qui jobbent Donc ne men veux pas si tôt je décroche Et jsuis comme la roche, solide mais usé par quelques gouttes de sang Autoroute dla vie pris à contre sens Tous les jours, de la mort, jréduis la distance hein Le petit dans ma tête me dit tue-les Lancien du tieks me dit dcapituler nan Jai chargé une arme et reculé et fini un soir de sang maculé Du boulet de forçat au bracelet électronique Bientôt dans le bloc, on crée des algorithmes Le p'tit dans ma tête veut faire du rap Et pour apprendre à écrire, il écoute Lunatic Ressers un verre que jpuisse regarder en arrière, sil te plaît Jai peur du vide, jai peur de gagner, jcrois quau fond, jsuis baisé Rallume un pilon, jen mets un p'tit ou deux ah bah, ouais Le parcours en dit long, ce s'ra que pire ou mieux Jcrois quon est fucked up Jregarde la porte à six oclock Jai peur du toc-toc, toc, toc, toc, toc Ça serre la ceinture et les menottes dans le bloc, bloc, blo-bloc Le p'tit qui parle dans ma tête, il est plus seul Avant, il chantait, maintenant, jentends plus qu'des Po, po po po po po, po po po po pop Avant, il chantait, maintenant, jentends plus qu'des Po, po po po po po, po po po po po, po po po po pop</t>
+          <t>En c'moment, jsais plus c'quon me trouve Si jpeux voir de lamour dans une pupille rouge Jvais pas trouver ma route dans un whisky trouble, au fait au fait Cest moi l'p'tit qui parle dans sa tête Qui va fumer sur le toit du collège pour essayer dchecker des comètes Jvais tenter dêtre honnête, jvais perdre des frères On sest fait des promesses, on sest fait des taches de sang Depuis quon s'retrouvait juste pour grattr des clopes à Tourcoing centr Là, il tourne, le vent Y a des photos qui jaunissent, des sourires avec Le bonheur en condi, la grisaille en ferme Du temps qu'tu rebondis, mais faut faire avec À la base, on était jeunes, pleins d'rêves de Malaga On voulait que rentrer dans les fêtes Elle veut du caviar, moi, jsuis dans l'tarama Donc elle peut arrêter dme faire des trous dans la tête Jreprends ma confiance ah bah, ouais Jte donne ma parole quon va l'faire En c'moment, jai trois voix dans la tête Qui chantent le paradis et lenfer Ressers un verre que jpuisse regarder en arrière, sil te plaît Jai peur du vide, jai peur de gagner, jcrois quau fond, jsuis baisé Rallume un pilon, jen mets un p'tit ou deux ah bah, ouais Le parcours en dit long, ce s'ra que pire ou mieux Jcrois quon est fucked up Jregarde la porte à six oclock Jai peur du toc-toc, toc, toc, toc, toc Ça serre la ceinture et les menottes dans le bloc, bloc, blo-bloc Le p'tit qui parle dans ma tête, il est plus seul Avant, il chantait, maintenant, jentends plus qu'des Po, po po po po po, po po po po pop Avant, il chantait, maintenant, jentends plus qu'des Po, po po po po po, po po po po po, po po po po pop Soulevé à six oclock par la crosse dune Maglite bouge pas, bouge pas Le flic méchant, il tpropose une gifle, et le gentil, une Marlboro Light On connaît leurs parades, on connaît leurs vices, alors, aux geôles, shut your mouth Jai frôlé la mort à plusieurs reprises, alors, j'pense à elle quand je close my eyes Jsuis à lécole primaire, jveux écouter le prof' Mais jsuis perturbé par le bruit des crosses Le bruit des akha de tous ceux qui jobbent Donc ne men veux pas si tôt je décroche Et jsuis comme la roche, solide mais usé par quelques gouttes de sang Autoroute dla vie pris à contre sens Tous les jours, de la mort, jréduis la distance hein Le petit dans ma tête me dit tue-les Lancien du tieks me dit dcapituler nan Jai chargé une arme et reculé et fini un soir de sang maculé Du boulet de forçat au bracelet électronique Bientôt dans le bloc, on crée des algorithmes Le p'tit dans ma tête veut faire du rap Et pour apprendre à écrire, il écoute Lunatic Ressers un verre que jpuisse regarder en arrière, sil te plaît Jai peur du vide, jai peur de gagner, jcrois quau fond, jsuis baisé Rallume un pilon, jen mets un p'tit ou deux ah bah, ouais Le parcours en dit long, ce s'ra que pire ou mieux Jcrois quon est fucked up Jregarde la porte à six oclock Jai peur du toc-toc, toc, toc, toc, toc Ça serre la ceinture et les menottes dans le bloc, bloc, blo-bloc Le p'tit qui parle dans ma tête, il est plus seul Avant, il chantait, maintenant, jentends plus qu'des Po, po po po po po, po po po po pop Avant, il chantait, maintenant, jentends plus qu'des Po, po po po po po, po po po po po, po po po po pop</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Plafond, plafond Ah Plafond Ah, ah, ah Hey Ah-hey Plafond, plafond Y a nos fantômes qui dansent sur le plafond Au fond j'm'en fous Yeah Tant que mon âme s'envole vers le plafond Plafond Plafond, plafond Plafond Et nos ombres se mélangent sur le plafond J'regarde le ciel, j'crois qu'c'est le plafond, j'demande pardon J'suis dans la soirée, j'voulais pas y être Yeah Bats les couilles les strass ou les paillettes Pour oublier j'vais enfumer le pallier Balayer, gars, là-bas j'promets qu'j'mets pas les ieps Fuck Fuck Un VVS, faut vivre apaiser dans un nid discret Ha, et m'griller des tartines de politesse Donc j'suis dans l'after comme depuis quinze piges Comme depuis bien trop longtemps J'regarde le plafond, j'recompte les vestiges J'regarde toujours loin devant Ciel est gris Nardo comme le RS6 Comme la Laguna d'avant Bouteille est finie comme le RSA, haha, ha Blablabla, ça empile des montagnes de charabia Toi ferme ta gueule et va là-bas J'ai pas réservé pour ton cinéma J'sais pas c'que j'fais là tout court Mais j'ai dit d'accord toujours Après j'tiens la main Même si dans ma tête j'serais seul J'sais qu'dans mon cur on est plein You might also like Plafond, plafond Y a nos fantômes qui dansent sur le plafond Au fond j'm'en fous Yeah Tant que mon âme s'envole vers le plafond Plafond Plafond, plafond Plafond Et nos ombres se mélangent sur le plafond Plafond J'regarde le ciel, j'crois qu'c'est le plafond, j'demande pardon Plafond, plafond Y a nos fantômes qui dansent sur le plafond Au fond j'm'en fous Yeah Tant que mon âme s'envole vers le plafond Plafond Plafond, plafond Plafond Et nos ombres se mélangent sur le plafond J'regarde le ciel, j'crois qu'c'est le plafond, j'demande pardon</t>
+          <t>Plafond, plafond Ah Plafond Ah, ah, ah Hey Ah-hey Plafond, plafond Y a nos fantômes qui dansent sur le plafond Au fond j'm'en fous Yeah Tant que mon âme s'envole vers le plafond Plafond Plafond, plafond Plafond Et nos ombres se mélangent sur le plafond J'regarde le ciel, j'crois qu'c'est le plafond, j'demande pardon J'suis dans la soirée, j'voulais pas y être Yeah Bats les couilles les strass ou les paillettes Pour oublier j'vais enfumer le pallier Balayer, gars, là-bas j'promets qu'j'mets pas les ieps Fuck Fuck Un VVS, faut vivre apaiser dans un nid discret Ha, et m'griller des tartines de politesse Donc j'suis dans l'after comme depuis quinze piges Comme depuis bien trop longtemps J'regarde le plafond, j'recompte les vestiges J'regarde toujours loin devant Ciel est gris Nardo comme le RS6 Comme la Laguna d'avant Bouteille est finie comme le RSA, haha, ha Blablabla, ça empile des montagnes de charabia Toi ferme ta gueule et va là-bas J'ai pas réservé pour ton cinéma J'sais pas c'que j'fais là tout court Mais j'ai dit d'accord toujours Après j'tiens la main Même si dans ma tête j'serais seul J'sais qu'dans mon cur on est plein Plafond, plafond Y a nos fantômes qui dansent sur le plafond Au fond j'm'en fous Yeah Tant que mon âme s'envole vers le plafond Plafond Plafond, plafond Plafond Et nos ombres se mélangent sur le plafond Plafond J'regarde le ciel, j'crois qu'c'est le plafond, j'demande pardon Plafond, plafond Y a nos fantômes qui dansent sur le plafond Au fond j'm'en fous Yeah Tant que mon âme s'envole vers le plafond Plafond Plafond, plafond Plafond Et nos ombres se mélangent sur le plafond J'regarde le ciel, j'crois qu'c'est le plafond, j'demande pardon</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Pet' dans le brouillard Confiance en soi, qui fait des saltos Je me trouvais pas beau, j'ai fait des abdos, j'ai fait des pompes Je suis devenu costaud, j'étais pas plus beau du tout Du rap, du foot, le prof je l'écoute que si il m'écoute sinon je l'écoute pas du tout On est plein dans ma tête, mais moi je suis tout seul avec maman dans mon bat' Il y a toujours des pâtes en trop, il y a toujours de l'amour en rab Donc y a des copains à la maison, parfois les mamans de mes copains quand leurs papas perdent la raison On a roulé jusqu'à l'horizon Sans ma mère j'aurai pas ces rêves Ce serait l'même ciel mais le soleil aurait moins d'rayons C'est pas que j'ai faim, c'est que j'ai peur qu'on manque Je nous vois monter, j'ai que peur qu'on tombe Le destin sourit mais j'ai peur qu'il mente J'ai plus peur du noir, j'ai plus peur des ombres Bientôt j'ai plus peur du monstre Bientôt j'ai plus peur du temps Bientôt j'ai plus peur du monde Bientôt j'ai plus peur du monde Bientôt j'ai plus peur du monde Bientôt j'ai plus peur du monde Bientôt j'ai plus peur du monde You might also like Oreilles décollées comme un éléphanteau Sabrina veut qu'on se retrouve après les cours Moi, les filles et l'amour, je ne sais pas comment on fait du tout Elle voulait les réponses, elle a eu que ma vision de mes questions Je demande Maman c'est quoi l'amour ? Elle dit J'ai que ma vision de la réponse La première fois que j'ai ken, j'ai fait semblant de gérer Dans ma tête je fais la composition de Manchester pour pas qu'a parte trop vite comme un proche ou un coup-franc de Gerrard Les murs ont bouché leurs oreilles, mais on s'est trop senti coupable Les préférés de la cantinière, depuis les céléris-rémoulade C'est pas que j'ai faim, c'est que j'ai peur qu'on manque Le destin sourit mais j'ai peur qu'il mente J'ai plus peur du noir, j'ai plus peur des ombres Bientôt j'ai plus peur du monde Bientôt j'ai plus peur du monde Bientôt j'ai plus peur du monde Bientôt j'ai plus peur du monde Bientôt j'ai plus peur du monde</t>
+          <t>Pet' dans le brouillard Confiance en soi, qui fait des saltos Je me trouvais pas beau, j'ai fait des abdos, j'ai fait des pompes Je suis devenu costaud, j'étais pas plus beau du tout Du rap, du foot, le prof je l'écoute que si il m'écoute sinon je l'écoute pas du tout On est plein dans ma tête, mais moi je suis tout seul avec maman dans mon bat' Il y a toujours des pâtes en trop, il y a toujours de l'amour en rab Donc y a des copains à la maison, parfois les mamans de mes copains quand leurs papas perdent la raison On a roulé jusqu'à l'horizon Sans ma mère j'aurai pas ces rêves Ce serait l'même ciel mais le soleil aurait moins d'rayons C'est pas que j'ai faim, c'est que j'ai peur qu'on manque Je nous vois monter, j'ai que peur qu'on tombe Le destin sourit mais j'ai peur qu'il mente J'ai plus peur du noir, j'ai plus peur des ombres Bientôt j'ai plus peur du monstre Bientôt j'ai plus peur du temps Bientôt j'ai plus peur du monde Bientôt j'ai plus peur du monde Bientôt j'ai plus peur du monde Bientôt j'ai plus peur du monde Bientôt j'ai plus peur du monde Oreilles décollées comme un éléphanteau Sabrina veut qu'on se retrouve après les cours Moi, les filles et l'amour, je ne sais pas comment on fait du tout Elle voulait les réponses, elle a eu que ma vision de mes questions Je demande Maman c'est quoi l'amour ? Elle dit J'ai que ma vision de la réponse La première fois que j'ai ken, j'ai fait semblant de gérer Dans ma tête je fais la composition de Manchester pour pas qu'a parte trop vite comme un proche ou un coup-franc de Gerrard Les murs ont bouché leurs oreilles, mais on s'est trop senti coupable Les préférés de la cantinière, depuis les céléris-rémoulade C'est pas que j'ai faim, c'est que j'ai peur qu'on manque Le destin sourit mais j'ai peur qu'il mente J'ai plus peur du noir, j'ai plus peur des ombres Bientôt j'ai plus peur du monde Bientôt j'ai plus peur du monde Bientôt j'ai plus peur du monde Bientôt j'ai plus peur du monde Bientôt j'ai plus peur du monde</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Jsais pas quoi répondre à tes questions Si jparle, jte blesse et sans un mot, tinventes les réponses Réponses Toujours du silence dans la maison, jparle avec la fumée pendant qules ombres embrassent le plafond On perd des proches, on r'trouve la raison Ouais Des anciens rêves collés au frigidaire Normal Laisse-moi six mois qujoublie ton odeur Qujprononce ton prénom comme un privilège Ouais Les yeux qui collent, quand les oiseaux sréveillent On rentre avec le premier métro, les travailleurs à la chaîne On sendormait dans la rame donc on sréveillait dans la réserve Avec le même frisson que quand on sperdait dans la forêt Au fond, cest comme ça quon spromène Et toi, tu trappelles encore le fond dnos promesses ? Celles faites sous lsoleil Tellement grandi dans lnoir que tant quy aura dla lumière, jveux plus jamais fermer les paupières Cest toujours lbordel On a appris lamour dans les magazines Les magazines Tous les vendredis, fallait faire sa valise Découvert la peur dans les courriers dla ville Tu sais quand tu vas partir, jamais quand tu vas revenir, ah ouais Mes paumes seffritent, les doigts, les murs jaunissent, on a pleuré à la naissance et pour Zidane en 2006 En 2006 Y a quun miroir derrière mes paupières Et dpuis qujai voyagé, jdis quy a que dlor derrière les frontières Ah ouais You might also like Jsais qucest pas vrai mais va voir quand même Ah ouais Près dArcelor, y a du soufre dans lair Ah ouais Donc même les mouettes ont du plomb dans laile Dans l'aile Il suffit pas davoir du potentiel Ah, ah Jsais qucest pas vrai mais va voir quand même Près dArcelor, y a du soufre dans lair Ah ah Donc même les mouettes ont du plomb dans laile Ouais Il suffit pas davoir du potentiel Cest un sourire, cest pas une cicatrice Ouais Donc tu peux accepter qulamour, cest pas dla psychiatrie Café plein deau qui traverse le corps, personne qui rabaisse le store Huit heures, y a plus qu'De Palmas qui rêve encore En mode veille dans les transports en commun Dans l'bus Au call center avec le cerveau dans lcoma Jveux plus mettre mes rêves en sourdine, jvais crier à être sourd pour finir classique comme les sardines Clio monte dans les tours On s'parle plus comme avant, amitiés dplus dquinze piges donc y a des curs qui changent Ton pote, il a trop bu, il a les couilles qui chantent Laisse-le faire le guignolo, y a sûrement un truc qui ldérange dans lfond Un truc qui lrend fou, une pression qui lenfonce Et lbut, cest dla trouver, dla sortir de son ventre et dla trouer Dla jeter très très loin jusque derrière les bouées la mer Il disait Plus rien perdre, on a d'jà beaucoup trop gagné mais y a toujours lgoût amer Goût amer Y a quun miroir derrière mes paupières Et dpuis qujai voyagé, jdis quy a que dlor derrière les frontières Jsais qucest pas vrai mais va voir quand même Ah ouais Près dArcelor, y a du soufre dans lair Ah ouais Donc même les mouettes ont du plomb dans laile Dans l'aile Il suffit pas davoir du potentiel Ah, ah Jsais qucest pas vrai mais va voir quand même Près dArcelor, y a du soufre dans lair Ah ah Donc même les mouettes ont du plomb dans laile Ouais Il suffit pas davoir du potentiel</t>
+          <t>Jsais pas quoi répondre à tes questions Si jparle, jte blesse et sans un mot, tinventes les réponses Réponses Toujours du silence dans la maison, jparle avec la fumée pendant qules ombres embrassent le plafond On perd des proches, on r'trouve la raison Ouais Des anciens rêves collés au frigidaire Normal Laisse-moi six mois qujoublie ton odeur Qujprononce ton prénom comme un privilège Ouais Les yeux qui collent, quand les oiseaux sréveillent On rentre avec le premier métro, les travailleurs à la chaîne On sendormait dans la rame donc on sréveillait dans la réserve Avec le même frisson que quand on sperdait dans la forêt Au fond, cest comme ça quon spromène Et toi, tu trappelles encore le fond dnos promesses ? Celles faites sous lsoleil Tellement grandi dans lnoir que tant quy aura dla lumière, jveux plus jamais fermer les paupières Cest toujours lbordel On a appris lamour dans les magazines Les magazines Tous les vendredis, fallait faire sa valise Découvert la peur dans les courriers dla ville Tu sais quand tu vas partir, jamais quand tu vas revenir, ah ouais Mes paumes seffritent, les doigts, les murs jaunissent, on a pleuré à la naissance et pour Zidane en 2006 En 2006 Y a quun miroir derrière mes paupières Et dpuis qujai voyagé, jdis quy a que dlor derrière les frontières Ah ouais Jsais qucest pas vrai mais va voir quand même Ah ouais Près dArcelor, y a du soufre dans lair Ah ouais Donc même les mouettes ont du plomb dans laile Dans l'aile Il suffit pas davoir du potentiel Ah, ah Jsais qucest pas vrai mais va voir quand même Près dArcelor, y a du soufre dans lair Ah ah Donc même les mouettes ont du plomb dans laile Ouais Il suffit pas davoir du potentiel Cest un sourire, cest pas une cicatrice Ouais Donc tu peux accepter qulamour, cest pas dla psychiatrie Café plein deau qui traverse le corps, personne qui rabaisse le store Huit heures, y a plus qu'De Palmas qui rêve encore En mode veille dans les transports en commun Dans l'bus Au call center avec le cerveau dans lcoma Jveux plus mettre mes rêves en sourdine, jvais crier à être sourd pour finir classique comme les sardines Clio monte dans les tours On s'parle plus comme avant, amitiés dplus dquinze piges donc y a des curs qui changent Ton pote, il a trop bu, il a les couilles qui chantent Laisse-le faire le guignolo, y a sûrement un truc qui ldérange dans lfond Un truc qui lrend fou, une pression qui lenfonce Et lbut, cest dla trouver, dla sortir de son ventre et dla trouer Dla jeter très très loin jusque derrière les bouées la mer Il disait Plus rien perdre, on a d'jà beaucoup trop gagné mais y a toujours lgoût amer Goût amer Y a quun miroir derrière mes paupières Et dpuis qujai voyagé, jdis quy a que dlor derrière les frontières Jsais qucest pas vrai mais va voir quand même Ah ouais Près dArcelor, y a du soufre dans lair Ah ouais Donc même les mouettes ont du plomb dans laile Dans l'aile Il suffit pas davoir du potentiel Ah, ah Jsais qucest pas vrai mais va voir quand même Près dArcelor, y a du soufre dans lair Ah ah Donc même les mouettes ont du plomb dans laile Ouais Il suffit pas davoir du potentiel</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Y en a qu'ont jamais vu la mer jamais, qui connaissent plus l'goût des cerises hey Y en a qu'ont jamais vu la neige jamais, qui savent plus comprendre un sourire oui C'est nous qu'on a ouvert la brèche c'est nous, j'ai 8 ans, j'suce un flocon d'glace Trace de ketchup sur photo d'classe, c'est moi, j'déborde dans les coloriages J'apprend à sourire sous la pluie, j'rêve de tes mains comme appuie-tête, mes angoisses, à la nuit, jlaisse Hey, hey, hey, on a grandi dans la vitesse Si tes larmes sont salées, c'est p't-être pour qu'ton sourire se fige Tête sur la tre-vi du Monospace, des rêves dans des vitrines, des frères au schtar Des surs dans des vitrines, nos payes au bar, la ce-ba en civil tourne comme la poisse Reste de la poudre sur ta table basse, tu rigoles bien fort mais ça s'voit qu't'es triste Il restait du rimel donc tes larmes sont grises, ça t'apportes pas grand chose, que d'la poésie Huh, j'suis né comme une poussière donc j'veux rester dans un souvenir Huh, m'envoler comme une poussière avant d'partir dans un soupir Huh, poussière, j'veux mourir poussière, au milieu du soupir, pour finir poussière Jsuis né poussière, j'veux mourir poussière, au milieu du soupir, pour finir poussière Y en a trop qu'ont jamais vu leur père jamais, qui connaissent pas l'goût dune fraise hey Qui connaissent pas l'goût d'la fierté jamais, qui connaissent pas l'goût d'un frère Et cest pas normal qu'plus personne se r'garde, c'est pas normal qu'plus personne se parle C'est pas normal qu'tu fasse ton selfie en contre-plongée pour pas qu'on voit l'mendiant par terre Putain d'sa mère, j'arrive plus à m'allumer dans ta fête ça m'fait plus rire Si j'khalass une Grey Goose, c'est juste pour la voir s'exploser sur ta tête 300 balles Faites-moi souffrir que j'me sente vivre, j'me sentirai plus léger les yeux vides Ça fait bien trop longtemps que j'ressens rien alors faites-moi pleurer que j'me sente rire Et toi, ça baigne ? Et toi, ça va ? Ouais, rien qu'ça brasse ouais, rien qu'ça bé-tom Tu rentres, tu sors, tu rentres, tu sors, on dirait qu'tu baises Si moi, ça va ? Si moi, ça va ? J'te dirai qu'ça s'passe oh J'attend d'accepter dêtre que moi-même pour m'envoler comme une poussière You might also like Huh, j'suis né comme une poussière donc j'veux rester dans un souvenir Huh, m'envoler comme une poussière avant d'partir dans un soupir Huh, poussière, j'veux mourir poussière, au milieu du soupir, pour finir poussière Jsuis né poussière, j'veux mourir poussière, au milieu du soupir, pour finir poussière Poussière, j'veux mourir poussière, au milieu du soupir, pour finir poussière Jsuis né poussière, j'veux mourir poussière, au milieu du soupir, pour finir poussière</t>
+          <t>Y en a qu'ont jamais vu la mer jamais, qui connaissent plus l'goût des cerises hey Y en a qu'ont jamais vu la neige jamais, qui savent plus comprendre un sourire oui C'est nous qu'on a ouvert la brèche c'est nous, j'ai 8 ans, j'suce un flocon d'glace Trace de ketchup sur photo d'classe, c'est moi, j'déborde dans les coloriages J'apprend à sourire sous la pluie, j'rêve de tes mains comme appuie-tête, mes angoisses, à la nuit, jlaisse Hey, hey, hey, on a grandi dans la vitesse Si tes larmes sont salées, c'est p't-être pour qu'ton sourire se fige Tête sur la tre-vi du Monospace, des rêves dans des vitrines, des frères au schtar Des surs dans des vitrines, nos payes au bar, la ce-ba en civil tourne comme la poisse Reste de la poudre sur ta table basse, tu rigoles bien fort mais ça s'voit qu't'es triste Il restait du rimel donc tes larmes sont grises, ça t'apportes pas grand chose, que d'la poésie Huh, j'suis né comme une poussière donc j'veux rester dans un souvenir Huh, m'envoler comme une poussière avant d'partir dans un soupir Huh, poussière, j'veux mourir poussière, au milieu du soupir, pour finir poussière Jsuis né poussière, j'veux mourir poussière, au milieu du soupir, pour finir poussière Y en a trop qu'ont jamais vu leur père jamais, qui connaissent pas l'goût dune fraise hey Qui connaissent pas l'goût d'la fierté jamais, qui connaissent pas l'goût d'un frère Et cest pas normal qu'plus personne se r'garde, c'est pas normal qu'plus personne se parle C'est pas normal qu'tu fasse ton selfie en contre-plongée pour pas qu'on voit l'mendiant par terre Putain d'sa mère, j'arrive plus à m'allumer dans ta fête ça m'fait plus rire Si j'khalass une Grey Goose, c'est juste pour la voir s'exploser sur ta tête 300 balles Faites-moi souffrir que j'me sente vivre, j'me sentirai plus léger les yeux vides Ça fait bien trop longtemps que j'ressens rien alors faites-moi pleurer que j'me sente rire Et toi, ça baigne ? Et toi, ça va ? Ouais, rien qu'ça brasse ouais, rien qu'ça bé-tom Tu rentres, tu sors, tu rentres, tu sors, on dirait qu'tu baises Si moi, ça va ? Si moi, ça va ? J'te dirai qu'ça s'passe oh J'attend d'accepter dêtre que moi-même pour m'envoler comme une poussière Huh, j'suis né comme une poussière donc j'veux rester dans un souvenir Huh, m'envoler comme une poussière avant d'partir dans un soupir Huh, poussière, j'veux mourir poussière, au milieu du soupir, pour finir poussière Jsuis né poussière, j'veux mourir poussière, au milieu du soupir, pour finir poussière Poussière, j'veux mourir poussière, au milieu du soupir, pour finir poussière Jsuis né poussière, j'veux mourir poussière, au milieu du soupir, pour finir poussière</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Lumière floue dans le fond de la ville J'ai la tête sur le bord de la vitre J'ai plus envie mais j'tire une taf Et ça m'fait comme le goût de la vie Et ça m'fait comme quand j't'ai pas tout dit J'ai l'impression qu'tu t'perds mais j'suis pas ton daron Et ton daron t'as aimé en faisant d'la merde C'est normal que ça tourne pas tout rond On est c'que l'on est Plein d'petites histoires pas solutionnées Plein d'voix qui parlent en même temps sous ton gros bonnet On est c'que l'on est Ma gueule, t'es unique, t'es comme tout l'monde Des nuages tout gris, des cigarettes blondes J'avais besoin d'réfléchir donc j'ai coupé l'son J'ai pas compris c'qu'il s'passait, j'ai remis l'son J'vais couler, j'vais toucher l'fond J'me sens bien quand j'remonte, on leur laisse le sommet On leur reprend l'sommeil J'levais la tête, ébloui comme si en haut y'a deux soleils Viens, on arrête, on s'promène Viens, on arrête de s'promettre J'me sépare toujours de toi en regrettant les moments où j'me dis Ça, j'lui dirai une prochaine fois J'veux crier jusqu'à plus d'voix Elle s'est éloignée jusqu'à plus m'voir J'veux tout faire maintenant Parlez-moi plus de la prochaine fois J'vais crier jusqu'à plus d'voix Elle s'est éloignée jusqu'à plus m'voir J'veux tout faire maintenant You might also like Parlez-moi plus de la prochaine fois Parlez-moi plus de la prochaine fois Parlez-moi plus de la prochaine J'me sens mal, j'vais jusqu'au bout d'la ville J'lui dis J't'aimerai jusqu'au bout d'la vie Elle m'a dit Peut-être, OK J'reste moi-même, j'progresse comme dans les niveaux où j'étais bloqué Vas-y parle, on est réceptifs Le poto ça fait un mois qu'il est resté clean Personne essaye de diminuer Et si jamais il tombe, on sera réceptifs J'ai grandi, j'arrive enfin à pleurer Il est loin mais il est toujours au fond d'moi le petit garçon qui parle apeuré J'louperai jamais plus une occasion d'applaudir À la fin, on s'rappellera surtout d'ton sourire J'mélange tes meilleurs moments avec tes rêves C'est comme ça qu'on fait un souvenir Pas facile d'être sûr de toi sans sortir, pas facile d'être sûr de ça J'ai un pote défoncé qui a déjà fait un trou de boulette sur son chat Vous aimez pas, bah partez d'là C'est gris mais y'a plus de charme On fermera nos gueules quand on aura la preuve que y'a vraiment plus d'espoir Parlez-moi plus de la prochaine fois Parlez-moi plus de la prochaine fois Parlez-moi plus de la prochaine Parlez-moi plus de la prochaine fois Parlez-moi plus de la prochaine Parlez-moi plus de la prochaine fois Parlez-moi plus de la prochaine</t>
+          <t>Lumière floue dans le fond de la ville J'ai la tête sur le bord de la vitre J'ai plus envie mais j'tire une taf Et ça m'fait comme le goût de la vie Et ça m'fait comme quand j't'ai pas tout dit J'ai l'impression qu'tu t'perds mais j'suis pas ton daron Et ton daron t'as aimé en faisant d'la merde C'est normal que ça tourne pas tout rond On est c'que l'on est Plein d'petites histoires pas solutionnées Plein d'voix qui parlent en même temps sous ton gros bonnet On est c'que l'on est Ma gueule, t'es unique, t'es comme tout l'monde Des nuages tout gris, des cigarettes blondes J'avais besoin d'réfléchir donc j'ai coupé l'son J'ai pas compris c'qu'il s'passait, j'ai remis l'son J'vais couler, j'vais toucher l'fond J'me sens bien quand j'remonte, on leur laisse le sommet On leur reprend l'sommeil J'levais la tête, ébloui comme si en haut y'a deux soleils Viens, on arrête, on s'promène Viens, on arrête de s'promettre J'me sépare toujours de toi en regrettant les moments où j'me dis Ça, j'lui dirai une prochaine fois J'veux crier jusqu'à plus d'voix Elle s'est éloignée jusqu'à plus m'voir J'veux tout faire maintenant Parlez-moi plus de la prochaine fois J'vais crier jusqu'à plus d'voix Elle s'est éloignée jusqu'à plus m'voir J'veux tout faire maintenant Parlez-moi plus de la prochaine fois Parlez-moi plus de la prochaine fois Parlez-moi plus de la prochaine J'me sens mal, j'vais jusqu'au bout d'la ville J'lui dis J't'aimerai jusqu'au bout d'la vie Elle m'a dit Peut-être, OK J'reste moi-même, j'progresse comme dans les niveaux où j'étais bloqué Vas-y parle, on est réceptifs Le poto ça fait un mois qu'il est resté clean Personne essaye de diminuer Et si jamais il tombe, on sera réceptifs J'ai grandi, j'arrive enfin à pleurer Il est loin mais il est toujours au fond d'moi le petit garçon qui parle apeuré J'louperai jamais plus une occasion d'applaudir À la fin, on s'rappellera surtout d'ton sourire J'mélange tes meilleurs moments avec tes rêves C'est comme ça qu'on fait un souvenir Pas facile d'être sûr de toi sans sortir, pas facile d'être sûr de ça J'ai un pote défoncé qui a déjà fait un trou de boulette sur son chat Vous aimez pas, bah partez d'là C'est gris mais y'a plus de charme On fermera nos gueules quand on aura la preuve que y'a vraiment plus d'espoir Parlez-moi plus de la prochaine fois Parlez-moi plus de la prochaine fois Parlez-moi plus de la prochaine Parlez-moi plus de la prochaine fois Parlez-moi plus de la prochaine Parlez-moi plus de la prochaine fois Parlez-moi plus de la prochaine</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Hiver 92, j'suis né dans l'ombre, sans daron, sans prénom C'est pas l'paradis sous nos pieds, c'est p't-être pas la saison En slip dans la maison, à s'poser des questions Pourquoi maman pleure en silence ? Pourquoi est-ce que ça m'fout des frissons ? Encore un pompier dans notre salon qui montre une enveloppe sur la table J'sais c'qu'il y aura dessus, j'la lis pas, les parents reviendront avant l'soir Donc on refait tourner l'micro-ondes en espérant qu'Martin va bien Ils disaient qu'c'était la faute à maman, donc j'fais confiance à aucun médecin J'vins du Nord donc j'm'explose à la bière, j'rêv que j'suis sur l'autoroute à l'envers ouais J'ai les mains sur l'volant, eux, ils s'chopent à l'arrière, c'était moi dans ses yeux avant-hier ouais Il a dit L'amour est mort c'est dead et j'ai pas trouvé d'contre-exemple Donc j'comprends qu'c'est l'heure de la ter-j' quand elle veut qu'j'explique mes sentiments J'regarde le sang danser dans mes paupières Ce sera toujours bientôt l'heure de partir Ou bien d'soul'ver les tapis, d'raconter la poussière Vu qu'au final, on est c'que l'on respire Les croutes sur nos genoux sont toujours là, comme les expressions d'gêne sur les photos d'classe Les appareils sont juste plus chers mais j'suis toujours le même connard qu'à l'époque où j'pensais qu'c'était la fumée d'l'usine qui f'sait l'brouillard Pff, n'importe quoi, maintenant, j'suis tout perdu dans l'appartement Les fantômes du passé m'parlent n'importe comment Eh, fermez bien vos gueules, on a déjà grandi dans la contrainte Les un contre un parce qu'untel a dit à untel que papa, c'était un connard Mon papa, c'est une légende, même bourré sur l'trottoir Et on réécrit l'histoire sans fin en s'réinventant un peu dans l'fond J'fais semblant d'te r'garder dans les yeux, mais j'fronce un peu pour mater dans l'flou Parce que j'assume pas du tout c'que j'ai vu des âmes d'enfants errants dans des problèmes d'adultes Le désespoir, ça tue, la malchance, elle sature pas quand la juge, elle te pointe du doigt On sait jamais c'qui s'passe sous le toit des autres, l'herbe est juste un peu moins chère chez l'voisin C'est nous qu'le prof' de sport appelle Machin You might also like Qu'est-ce qui reste de nos étoiles ? Qu'est-ce qu'on retiendra d'ces histoires ? Quand les lumières s'éteignent Qu'est-ce qui reste de nos étoiles ? Qu'est-ce qu'on retiendra d'ces histoires ? Quand les lumières s'éteignent Qu'est-ce qui reste de nos étoiles ? Qu'est-ce qu'on retiendra d'ces histoires ? Quand les lumières s'éteignent</t>
+          <t>Hiver 92, j'suis né dans l'ombre, sans daron, sans prénom C'est pas l'paradis sous nos pieds, c'est p't-être pas la saison En slip dans la maison, à s'poser des questions Pourquoi maman pleure en silence ? Pourquoi est-ce que ça m'fout des frissons ? Encore un pompier dans notre salon qui montre une enveloppe sur la table J'sais c'qu'il y aura dessus, j'la lis pas, les parents reviendront avant l'soir Donc on refait tourner l'micro-ondes en espérant qu'Martin va bien Ils disaient qu'c'était la faute à maman, donc j'fais confiance à aucun médecin J'vins du Nord donc j'm'explose à la bière, j'rêv que j'suis sur l'autoroute à l'envers ouais J'ai les mains sur l'volant, eux, ils s'chopent à l'arrière, c'était moi dans ses yeux avant-hier ouais Il a dit L'amour est mort c'est dead et j'ai pas trouvé d'contre-exemple Donc j'comprends qu'c'est l'heure de la ter-j' quand elle veut qu'j'explique mes sentiments J'regarde le sang danser dans mes paupières Ce sera toujours bientôt l'heure de partir Ou bien d'soul'ver les tapis, d'raconter la poussière Vu qu'au final, on est c'que l'on respire Les croutes sur nos genoux sont toujours là, comme les expressions d'gêne sur les photos d'classe Les appareils sont juste plus chers mais j'suis toujours le même connard qu'à l'époque où j'pensais qu'c'était la fumée d'l'usine qui f'sait l'brouillard Pff, n'importe quoi, maintenant, j'suis tout perdu dans l'appartement Les fantômes du passé m'parlent n'importe comment Eh, fermez bien vos gueules, on a déjà grandi dans la contrainte Les un contre un parce qu'untel a dit à untel que papa, c'était un connard Mon papa, c'est une légende, même bourré sur l'trottoir Et on réécrit l'histoire sans fin en s'réinventant un peu dans l'fond J'fais semblant d'te r'garder dans les yeux, mais j'fronce un peu pour mater dans l'flou Parce que j'assume pas du tout c'que j'ai vu des âmes d'enfants errants dans des problèmes d'adultes Le désespoir, ça tue, la malchance, elle sature pas quand la juge, elle te pointe du doigt On sait jamais c'qui s'passe sous le toit des autres, l'herbe est juste un peu moins chère chez l'voisin C'est nous qu'le prof' de sport appelle Machin Qu'est-ce qui reste de nos étoiles ? Qu'est-ce qu'on retiendra d'ces histoires ? Quand les lumières s'éteignent Qu'est-ce qui reste de nos étoiles ? Qu'est-ce qu'on retiendra d'ces histoires ? Quand les lumières s'éteignent Qu'est-ce qui reste de nos étoiles ? Qu'est-ce qu'on retiendra d'ces histoires ? Quand les lumières s'éteignent</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>J'tire le penalty d'la 90ème, sans plus avoir peur de perdre Comme quand jfaisais des culs secs avec les cendres de mon verre J'recrache la fumée d'ma cigarette, j'préfère bronzer sous les lampadaires J'tremble de moins en moins devant l'distributeur, j'attends les couchers d'soleils, les levées d'glaive Tu m'revois pointer aux Assedic, tu vois ma petite gueule chez Pôle Emploi J'ai trop insisté, j'veux plus quitter la fête, j'me suis trop vu voler pour descendre des étoiles Ils veulent des bla-bla-bla, que j'raconte une fast life J'mens dans les Blablacar quand on m'demande mon travail J'suis un mec normal, j'ai des rêves de gloire, ma peur du vide qui s'exprime quand j'parle J'veux pas quitter la fête même si j'm'amuse pas, j'veux qu'tu ressentes le goût d'mon absence quand j'pars J'conserve les nudes de mes exs, j'parle à l'enfoiré du miroir pour m'assurer quil y reste J'ai une boule dans la gorge et des plans la tête, des nuds dans mon passé, un bout dans la veste Trace de sang sur ma cigarette, j'ai fini les regrets d'mon gobelet J'ai fini d'deviner qu'c'que j'cherche, c'est un moyen d'm'inventer des ailes J'ai vidé mon verre pour vider ma tête Javais pas décidé d'en être, jveux plus quitter la fête Quitter la fête, quitter la fête, oh non J'veux plus quitter la fête, j'veux plus quitter la fête, oh Quitter la fête, quitter la fête, oh non Quitter la fête, j'veux plus quitter la fête You might also like Jsors du banc à la 90ème, sans plus avoir peur de jouer La fumée d'mon teh fait des nuages, qui mservent plus de bouée Toi, t'attends plus rien d'concret, j'me dis qu'y a plus rien d'certain Moi, jentends plus vos promesses, j'me dis quy a plus rien d'très loin Pas très courageux, ma gueule, la fierté, ça sert juste à crever tout seul J'aurai vu trop d'dingueries avant d'quitter l'sol, si j'pleure, c'est juste le trop plein qu'y avait dans mes yeux Si j'fait plus d'rap, j'crois qu'j'suis foutu, ma gueule, laisse-moi m'fracasser la tête sur l'ordinateur Faut que j'devienne quelqu'un, faut que j'finisse l'album, laisse-moi quitter la fête et en brûler l'décor Quitter la fête, quitter la fête, oh non J'veux plus quitter la fête, j'veux plus quitter la fête, oh Quitter la fête, quitter la fête, oh non Quitter la fête, oh, j'veux plus quitter la fête Oh, oh, oh, oh Oh, oh, oh, oh Oh, oh, oh, oh Oh, oh, oh, oh Quitter la fête, quitter la fête, oh non J'veux plus quitter la fête, j'veux plus quitter la fête, oh Quitter la fête, quitter la fête, oh non Quitter la fête, j'veux plus quitter la fête</t>
+          <t>J'tire le penalty d'la 90ème, sans plus avoir peur de perdre Comme quand jfaisais des culs secs avec les cendres de mon verre J'recrache la fumée d'ma cigarette, j'préfère bronzer sous les lampadaires J'tremble de moins en moins devant l'distributeur, j'attends les couchers d'soleils, les levées d'glaive Tu m'revois pointer aux Assedic, tu vois ma petite gueule chez Pôle Emploi J'ai trop insisté, j'veux plus quitter la fête, j'me suis trop vu voler pour descendre des étoiles Ils veulent des bla-bla-bla, que j'raconte une fast life J'mens dans les Blablacar quand on m'demande mon travail J'suis un mec normal, j'ai des rêves de gloire, ma peur du vide qui s'exprime quand j'parle J'veux pas quitter la fête même si j'm'amuse pas, j'veux qu'tu ressentes le goût d'mon absence quand j'pars J'conserve les nudes de mes exs, j'parle à l'enfoiré du miroir pour m'assurer quil y reste J'ai une boule dans la gorge et des plans la tête, des nuds dans mon passé, un bout dans la veste Trace de sang sur ma cigarette, j'ai fini les regrets d'mon gobelet J'ai fini d'deviner qu'c'que j'cherche, c'est un moyen d'm'inventer des ailes J'ai vidé mon verre pour vider ma tête Javais pas décidé d'en être, jveux plus quitter la fête Quitter la fête, quitter la fête, oh non J'veux plus quitter la fête, j'veux plus quitter la fête, oh Quitter la fête, quitter la fête, oh non Quitter la fête, j'veux plus quitter la fête Jsors du banc à la 90ème, sans plus avoir peur de jouer La fumée d'mon teh fait des nuages, qui mservent plus de bouée Toi, t'attends plus rien d'concret, j'me dis qu'y a plus rien d'certain Moi, jentends plus vos promesses, j'me dis quy a plus rien d'très loin Pas très courageux, ma gueule, la fierté, ça sert juste à crever tout seul J'aurai vu trop d'dingueries avant d'quitter l'sol, si j'pleure, c'est juste le trop plein qu'y avait dans mes yeux Si j'fait plus d'rap, j'crois qu'j'suis foutu, ma gueule, laisse-moi m'fracasser la tête sur l'ordinateur Faut que j'devienne quelqu'un, faut que j'finisse l'album, laisse-moi quitter la fête et en brûler l'décor Quitter la fête, quitter la fête, oh non J'veux plus quitter la fête, j'veux plus quitter la fête, oh Quitter la fête, quitter la fête, oh non Quitter la fête, oh, j'veux plus quitter la fête Oh, oh, oh, oh Oh, oh, oh, oh Oh, oh, oh, oh Oh, oh, oh, oh Quitter la fête, quitter la fête, oh non J'veux plus quitter la fête, j'veux plus quitter la fête, oh Quitter la fête, quitter la fête, oh non Quitter la fête, j'veux plus quitter la fête</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Dans tout ça, qu'est-ce qui m'intéresse ? Moi, j'parle au micro, j'fais des textes La nuit, j'ferme les yeux, j'fais des rêves, y a les nuds, j'les défais, parfois, j'm'adore autant qu'j'me déteste Parfois, j'veux plus du tout accélérer, j'rêverai qu'on vienne me chercher, qu'on m'dise Tu peux souffler, c'est léger Passe du temps avec les gens qui t'connaissent avant qu'le temps les mmène s'promener d'l'autr côté du ciel Du côté d'mes rêves, j'sais plus où j'en suis, y a des gens, j'les admire et ils m'dégoûtent ensuite C'est moi qui rappe tout seul dans les rues d'ma ville, qui essaye d'comprendre pourquoi ils m'ont mis ici J'décroche des sourires et des cris, j'recherche des souvenirs, pas d'l'estime J'fais des chansons, c'est pas d'la magie, c'est juste un moyen pour qu'j'existe Lui, il est plus là, elle, elle est partie, faites-nous souffrir pour qu'on s'sente vivre Des regards qui parlent plus que des cris, maladie des émotions sans sous-titres La plupart de leurs contenus sont sous filtre, l'impression qu'mes sensations sont sous vide J'tombe amoureux d'une larme ou d'un sourire, la plupart de mes chansons sont sans titre J'veux surtout pas devenir une icône, j'suis qu'les rêves de ma mère dans un corps d'homme Alors j'éclaire ma vue à la f'nêtre, avant d'tremper mes yeux dans du formol Toi, tu voudrais qu'j'ignore et que j'rigole mais y a qu'la vérité qui fait qu'j'frissonne La conscience au plafond avant d'mi-dor ou bien j'allume mon âme, ou bien j'm'isole Ah bah ouais, il nous manque des couleurs dans la rétine Ah ouais Pourtant, on a du diamant dans la réplique Ah ouais Y avait d'jà des trous d'air dans la tétine Ah ouais Il nous manque pas grand chose pour qu'on respire You might also like Enfance dans Clio 2 sans désembuage, j'ai découvert l'daron sur Google Images On profite du paysage, d'l'odeur du voyage vu qu'les freins peuvent lâcher au prochain virage Sans plomb 95 dans une bouteille d'eau pour éviter d'dormir sur l'aire d'autoroute Maman abandonne tous ses rêves pour élever tous ses gosses donc j'vais mettre toutes mes forces dans la course La vérité, c'est qu'j'sais pas c'que j'fous là, on a compris comment mais pas pourquoi J'aime quand elle m'parle et qu'ça fait du brouillard, j'ai plus jamais envie d'garder pour moi Paraît qu'ici fait trop froid, tout noir, grandi d'travers dans un couloir J'me pose des questions dans mes rêves, j'trouve les réponses dans mes cauchemars Payé au mérite, j'viens d'là où ça s'tue au pastis à onze heures et d'mi Les murs ont des oreilles, les enfants aussi, les darons réécrivent les histoires sans fin Un Camel, un bingo, une anecdote, on la comprend pas trop mais on vit l'époque T'as plus vraiment grand chose mais tu vides tes poches, en se battant les couilles si le p'tit t'escroque Réalité, rap, musique, juste pour s'prouver qu'on existe J'continue d'brailler ma sale vie, ça m'donne l'impression que j'résiste Ça m'donne l'impression que j'respire, encore un peu d'espoir dans nos rétines Encore un peu d'lumière dans nos récits, mélodie des émotions sans sous-titre Réalité, rap, musique, juste pour s'prouver qu'on existe J'continue d'brailler ma sale vie, ça m'donne l'impression que j'résiste Ça m'donne l'impression que j'respire, encore un peu d'espoir dans nos rétines Encore un peu d'lumière dans nos récits, mélodie des émotions sans sous-titre Ah bah ouais, il nous manque des couleurs dans la rétine Ah ouais Pourtant, on a du diamant dans la réplique Ah ouais Y avait d'jà des trous d'air dans la tétine Ah ouais Il nous manque pas grand chose pour qu'on respire2</t>
+          <t>Dans tout ça, qu'est-ce qui m'intéresse ? Moi, j'parle au micro, j'fais des textes La nuit, j'ferme les yeux, j'fais des rêves, y a les nuds, j'les défais, parfois, j'm'adore autant qu'j'me déteste Parfois, j'veux plus du tout accélérer, j'rêverai qu'on vienne me chercher, qu'on m'dise Tu peux souffler, c'est léger Passe du temps avec les gens qui t'connaissent avant qu'le temps les mmène s'promener d'l'autr côté du ciel Du côté d'mes rêves, j'sais plus où j'en suis, y a des gens, j'les admire et ils m'dégoûtent ensuite C'est moi qui rappe tout seul dans les rues d'ma ville, qui essaye d'comprendre pourquoi ils m'ont mis ici J'décroche des sourires et des cris, j'recherche des souvenirs, pas d'l'estime J'fais des chansons, c'est pas d'la magie, c'est juste un moyen pour qu'j'existe Lui, il est plus là, elle, elle est partie, faites-nous souffrir pour qu'on s'sente vivre Des regards qui parlent plus que des cris, maladie des émotions sans sous-titres La plupart de leurs contenus sont sous filtre, l'impression qu'mes sensations sont sous vide J'tombe amoureux d'une larme ou d'un sourire, la plupart de mes chansons sont sans titre J'veux surtout pas devenir une icône, j'suis qu'les rêves de ma mère dans un corps d'homme Alors j'éclaire ma vue à la f'nêtre, avant d'tremper mes yeux dans du formol Toi, tu voudrais qu'j'ignore et que j'rigole mais y a qu'la vérité qui fait qu'j'frissonne La conscience au plafond avant d'mi-dor ou bien j'allume mon âme, ou bien j'm'isole Ah bah ouais, il nous manque des couleurs dans la rétine Ah ouais Pourtant, on a du diamant dans la réplique Ah ouais Y avait d'jà des trous d'air dans la tétine Ah ouais Il nous manque pas grand chose pour qu'on respire Enfance dans Clio 2 sans désembuage, j'ai découvert l'daron sur Google Images On profite du paysage, d'l'odeur du voyage vu qu'les freins peuvent lâcher au prochain virage Sans plomb 95 dans une bouteille d'eau pour éviter d'dormir sur l'aire d'autoroute Maman abandonne tous ses rêves pour élever tous ses gosses donc j'vais mettre toutes mes forces dans la course La vérité, c'est qu'j'sais pas c'que j'fous là, on a compris comment mais pas pourquoi J'aime quand elle m'parle et qu'ça fait du brouillard, j'ai plus jamais envie d'garder pour moi Paraît qu'ici fait trop froid, tout noir, grandi d'travers dans un couloir J'me pose des questions dans mes rêves, j'trouve les réponses dans mes cauchemars Payé au mérite, j'viens d'là où ça s'tue au pastis à onze heures et d'mi Les murs ont des oreilles, les enfants aussi, les darons réécrivent les histoires sans fin Un Camel, un bingo, une anecdote, on la comprend pas trop mais on vit l'époque T'as plus vraiment grand chose mais tu vides tes poches, en se battant les couilles si le p'tit t'escroque Réalité, rap, musique, juste pour s'prouver qu'on existe J'continue d'brailler ma sale vie, ça m'donne l'impression que j'résiste Ça m'donne l'impression que j'respire, encore un peu d'espoir dans nos rétines Encore un peu d'lumière dans nos récits, mélodie des émotions sans sous-titre Réalité, rap, musique, juste pour s'prouver qu'on existe J'continue d'brailler ma sale vie, ça m'donne l'impression que j'résiste Ça m'donne l'impression que j'respire, encore un peu d'espoir dans nos rétines Encore un peu d'lumière dans nos récits, mélodie des émotions sans sous-titre Ah bah ouais, il nous manque des couleurs dans la rétine Ah ouais Pourtant, on a du diamant dans la réplique Ah ouais Y avait d'jà des trous d'air dans la tétine Ah ouais Il nous manque pas grand chose pour qu'on respire2</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>J'ai fais un cauchemar où j'gagnais au loto Oh-oh Où j'avais qu'des trucs qu'on veut prendre en photo J'allais à Dubai faire le con comme les autres Ignorais qu'c'est des esclaves qui nettoieront mon yacht Qui nettoieront mon yacht J'préfère être riche avec un style de pauvre Style de pauvre Pas être un beauf avec riche avec style de riche Style de riche Sourire en prmier, c'est mon style d vie Ah, ouais J'préfère être riche avec un style de pauvre Wouh, ah, ouais Riche avec un style de pauvre Ouais, ah ouais Riche avec un style de pauvre Wesh ma gueule, j'suis beau en Quechua, j'serais mignon dans du LV Tant qu'ma daronne s'serre la ceinture, j'vais pas porter l'prix du loyer Oh, oui Le jour où j'perce j'veux envoyer p'tits du tieks faire un voyage Ah, ouais Réflexe de dealeur devant les douaniers J'connais la soif, j'connais la faim, ça ira mieux j'connais la fin L'histoire du smicard qui pose des bouteilles en boite, j'connais la fin L'été arrive, j'ai fais la teinture, pris l'avance et refait la peinture Future ex pauvre, quand y a plus d'café ça s'bute au soluble J'ai fais un cauchemar où j'gagnais au loto Ah, ouais Où j'avais qu'des trucs qu'on veut prendre en photo Oh-oh J'allais à Dubai faire le con comme les autres Ignorais qu'c'est des esclaves qui nettoieront mon yacht Ouh-ouh J'préfère être riche avec un style de pauvre Plutôt qu'un beauf avec un style de riche Riche avec un style de pauvre Eh, eh, eh Riche avec un style de pauvre You might also like J'ai pas la réponse aux question de Lepers Julien La gloire s'fait attendre comme la mort de Le Pen Oh, il est immortel lawiss où quoi ? Beaucoup d'échecs mais jamais de regret 2030 y aura des filtres chien dans l'miroir pour nos reflets Jean Kaporal, RG512, flash de Vovo dans un G-Star Te-tê dans la blouse Wah, c'était moche en vrai, hein ? Pauvre avec un style de OG Eh, ouais J'porte mes couilles comme des rubis Quechua comme du Gucci HM, Tati Riche avec un style de pauvre Eh, ouais, eh Riche avec un style de pauvre Riche avec un style de pauvre, un style de pauvre Riche avec un style de pauvre Riche avec un style de pauvre Ouais, ouais, ouais Riche avec un style de pauvre Style de pauvre, style de pauvre Riche avec un style de pauvre Riche avec un style de pauvre</t>
+          <t>J'ai fais un cauchemar où j'gagnais au loto Oh-oh Où j'avais qu'des trucs qu'on veut prendre en photo J'allais à Dubai faire le con comme les autres Ignorais qu'c'est des esclaves qui nettoieront mon yacht Qui nettoieront mon yacht J'préfère être riche avec un style de pauvre Style de pauvre Pas être un beauf avec riche avec style de riche Style de riche Sourire en prmier, c'est mon style d vie Ah, ouais J'préfère être riche avec un style de pauvre Wouh, ah, ouais Riche avec un style de pauvre Ouais, ah ouais Riche avec un style de pauvre Wesh ma gueule, j'suis beau en Quechua, j'serais mignon dans du LV Tant qu'ma daronne s'serre la ceinture, j'vais pas porter l'prix du loyer Oh, oui Le jour où j'perce j'veux envoyer p'tits du tieks faire un voyage Ah, ouais Réflexe de dealeur devant les douaniers J'connais la soif, j'connais la faim, ça ira mieux j'connais la fin L'histoire du smicard qui pose des bouteilles en boite, j'connais la fin L'été arrive, j'ai fais la teinture, pris l'avance et refait la peinture Future ex pauvre, quand y a plus d'café ça s'bute au soluble J'ai fais un cauchemar où j'gagnais au loto Ah, ouais Où j'avais qu'des trucs qu'on veut prendre en photo Oh-oh J'allais à Dubai faire le con comme les autres Ignorais qu'c'est des esclaves qui nettoieront mon yacht Ouh-ouh J'préfère être riche avec un style de pauvre Plutôt qu'un beauf avec un style de riche Riche avec un style de pauvre Eh, eh, eh Riche avec un style de pauvre J'ai pas la réponse aux question de Lepers Julien La gloire s'fait attendre comme la mort de Le Pen Oh, il est immortel lawiss où quoi ? Beaucoup d'échecs mais jamais de regret 2030 y aura des filtres chien dans l'miroir pour nos reflets Jean Kaporal, RG512, flash de Vovo dans un G-Star Te-tê dans la blouse Wah, c'était moche en vrai, hein ? Pauvre avec un style de OG Eh, ouais J'porte mes couilles comme des rubis Quechua comme du Gucci HM, Tati Riche avec un style de pauvre Eh, ouais, eh Riche avec un style de pauvre Riche avec un style de pauvre, un style de pauvre Riche avec un style de pauvre Riche avec un style de pauvre Ouais, ouais, ouais Riche avec un style de pauvre Style de pauvre, style de pauvre Riche avec un style de pauvre Riche avec un style de pauvre</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Rien de personnel Toujours autant d'valises sous mes yeux, toujours autant d'violence sous mes yeux Même si ça s'barre en couille sous mes pieds, j'pense à poser des quartiers sur mes yeux C'est la loi du khaliss par ici, c'est la pluie qui nous baptise par ici J'attends pas qu'la vie m'baise ma reu-su, j'attends pas d'me perdre comme la raison oh oui J'donne tout j'donne tout mais j'reprends ma confiance ah bah ouais La vi devait m'rendre rich eh ouais, elle m'a rendu méfiant brrr rr Elle m'a rendu défiant arh, j'verse les raisins d'la colère dans l'réceptacle j'verse J'ai moins d'réponses que d'questions dans l'réservoir Cerveau usé comme mes semelles Cerveau usé comme mes semelles Cerveau usé comme mes semelles Cerveau usé comme mes semelles On a juste envie d'tout niquer, y a rien d'personnel Envie d'tout prendre, envie d'tout vendre, y a rien d'personnel Envie d'tout niquer, y a rien d'personnel Envie d'tout prendre, envie d'tout vendre, y a rien d'personnel Envie d'tout niquer, y a rien d'personnel Envie d'tout prendre, envie d'tout vendre, y a rien d'personnel Envie d'tout niquer, y a rien d'personnel Envie d'tout prendre, envie d'tout vendre, y a rien d'personnel You might also like Et j'me balade sur le trottoir, Oasis tropical, j'écoute un dernier Rick Ross C'est comme ça qu'j'me sens vivre, j'ai grandi en mouvement, Madeleine de Proust trempée dans l'syrup J'ai v'-esqui les clichés v'-esqui les clichés, j'ai v'-esqui une vie trop bien rangée J'ai toujours fini mon assiette oui, j'oublie pas qu'c'est une chance de manger ouais J'oublie pas qu'c'est une chance de changer, la moitié d'mon collège est toujours dans la street toujours J'les oublie pas comme la couleur de ma première re-pai d'Total 90 J'ai trop comparé les prix des paquets d'pâtes, vu la détresse des petits gens d'un peu trop près Le bonheur c'est précieux comme un câlin d'potes, tu l'trouves dans la vérité, pas dans l'prêt Cerveau usé comme mes semelles Cerveau usé comme mes semelles Cerveau usé comme mes semelles Cerveau usé comme mes semelles On a juste envie d'tout niquer, y a rien d'personnel Envie d'tout prendre, envie d'tout vendre, y a rien d'personnel Envie d'tout niquer, y a rien d'personnel Envie d'tout prendre, envie d'tout vendre, y a rien d'personnel Envie d'tout niquer, y a rien d'personnel Envie d'tout prendre, envie d'tout vendre, y a rien d'personnel Envie d'tout niquer, y a rien d'personnel Envie d'tout prendre, envie d'tout vendre, y a rien d'personnel</t>
+          <t>Rien de personnel Toujours autant d'valises sous mes yeux, toujours autant d'violence sous mes yeux Même si ça s'barre en couille sous mes pieds, j'pense à poser des quartiers sur mes yeux C'est la loi du khaliss par ici, c'est la pluie qui nous baptise par ici J'attends pas qu'la vie m'baise ma reu-su, j'attends pas d'me perdre comme la raison oh oui J'donne tout j'donne tout mais j'reprends ma confiance ah bah ouais La vi devait m'rendre rich eh ouais, elle m'a rendu méfiant brrr rr Elle m'a rendu défiant arh, j'verse les raisins d'la colère dans l'réceptacle j'verse J'ai moins d'réponses que d'questions dans l'réservoir Cerveau usé comme mes semelles Cerveau usé comme mes semelles Cerveau usé comme mes semelles Cerveau usé comme mes semelles On a juste envie d'tout niquer, y a rien d'personnel Envie d'tout prendre, envie d'tout vendre, y a rien d'personnel Envie d'tout niquer, y a rien d'personnel Envie d'tout prendre, envie d'tout vendre, y a rien d'personnel Envie d'tout niquer, y a rien d'personnel Envie d'tout prendre, envie d'tout vendre, y a rien d'personnel Envie d'tout niquer, y a rien d'personnel Envie d'tout prendre, envie d'tout vendre, y a rien d'personnel Et j'me balade sur le trottoir, Oasis tropical, j'écoute un dernier Rick Ross C'est comme ça qu'j'me sens vivre, j'ai grandi en mouvement, Madeleine de Proust trempée dans l'syrup J'ai v'-esqui les clichés v'-esqui les clichés, j'ai v'-esqui une vie trop bien rangée J'ai toujours fini mon assiette oui, j'oublie pas qu'c'est une chance de manger ouais J'oublie pas qu'c'est une chance de changer, la moitié d'mon collège est toujours dans la street toujours J'les oublie pas comme la couleur de ma première re-pai d'Total 90 J'ai trop comparé les prix des paquets d'pâtes, vu la détresse des petits gens d'un peu trop près Le bonheur c'est précieux comme un câlin d'potes, tu l'trouves dans la vérité, pas dans l'prêt Cerveau usé comme mes semelles Cerveau usé comme mes semelles Cerveau usé comme mes semelles Cerveau usé comme mes semelles On a juste envie d'tout niquer, y a rien d'personnel Envie d'tout prendre, envie d'tout vendre, y a rien d'personnel Envie d'tout niquer, y a rien d'personnel Envie d'tout prendre, envie d'tout vendre, y a rien d'personnel Envie d'tout niquer, y a rien d'personnel Envie d'tout prendre, envie d'tout vendre, y a rien d'personnel Envie d'tout niquer, y a rien d'personnel Envie d'tout prendre, envie d'tout vendre, y a rien d'personnel</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Tu sais, au fond, c'est toujours pareil, tu t'réveilles, tu tombes, tu t'relèves Moi, j'espère juste avoir les yeux un peu moins fermés quhier Excellent En bas, rien n'a changé, les frères reculent même plus devant l'danger, prennent des drogues arc-en-ciel pour danser Rien n'a changé comme le prix du 100 G', j'ai pris un peu d'bide c'est un signe de santé ah bah ouais Mec, y a rien qui changera, j'me tape pour l'platine jusqu'à c'que ma pipe se casse Daronne dvant la caisse s'mange des refus d'payement par des caissières en chien dfaillance que l'vide menace Be-be-bep, le cross fait des roues, la Mégane fait des rondes et mon pétard fait des ronds Ba-ban-bang, ca smonte en assoc', ça nique les fédéraux, ça visser mieux qu'Federer Rien n'a changé, pour smarier t'faut qu'une connec' 3G, hassoul ça va, j'suis bientôt rangé On va bientôt manger et là tout va changer, ou bien p't-être, enfin bref, au final, ce s'ra la même Rien n'a changé, j'ai toujours pas envie d'te parler, j'rentre en cabine comme dans lminaret Aller-retour placard pour graille de la purée et des parloirs fantômes, gros, y a rien qui a changé Mes frères se sentent discriminés mais dès qu'un ptit minet passe, ils t'balancent des pédé comme si c'était normal Comme si c'était banal en scred, garde la pêche ou vas-y, nique ta mère, pelo Rien n'a changé Rien n'a changé Rien n'a changé Rien n'a changé Rien n'a changé Rien n'a changé Rien n'a changé Rien n'a changé You might also like J'ai une nouvelle meuf, j'ai de nouvelles paires, j'ai peur dêtre un tout petit peu matérialiste Le boudin d'beu-beu fait la taille d'un Balisto, y s'bicrave aux pélos qui kiffaient les Beasty J'me rends compte que j'm'enflamme comme quand jessaye de draguer la barista oh On a trop graillé l'barilla nous, on est v'nu s'flé-gon la kichta ouh Tu sais tu parles à qui toi ? Rien n'a changé depuis l'époque des freestyle Marianne frotte bitume comme bavette du T-MAX Le prochain qui crie sur sa meuf en sortie dboit, il prend une Requin dans l'plexus, on discute as-p Comment ça s'fait ? Rien n'a changé, j'suis né la tête dure comme un Sagem J'v'-esqui la routine comme les sachets, comme les je taime Bah ouais, rien n'a changé, sacré bordel, ta mère balayeuse pour un fond d'salaire Ta te-tê dans l'guidon en fond d'cinquième, ton futur dans l'bidon d'une belle promesse Rien n'a changé, ça porte l'il du côté passager, on s'maintient, on essaye d's'arranger Chez Pôle Emploi, y a pas grand chose pour toi mais l'ancien d'à-côté, il peut t'pousser 10 G' bah ouais, rien n'a changé Rien n'a changé Rien n'a changé Rien n'a changé Rien n'a changé Rien n'a changé Rien n'a changé Rien n'a changé Rien n'a changé Rien n'a changé Rien n'a changé Rien n'a changé</t>
+          <t>Tu sais, au fond, c'est toujours pareil, tu t'réveilles, tu tombes, tu t'relèves Moi, j'espère juste avoir les yeux un peu moins fermés quhier Excellent En bas, rien n'a changé, les frères reculent même plus devant l'danger, prennent des drogues arc-en-ciel pour danser Rien n'a changé comme le prix du 100 G', j'ai pris un peu d'bide c'est un signe de santé ah bah ouais Mec, y a rien qui changera, j'me tape pour l'platine jusqu'à c'que ma pipe se casse Daronne dvant la caisse s'mange des refus d'payement par des caissières en chien dfaillance que l'vide menace Be-be-bep, le cross fait des roues, la Mégane fait des rondes et mon pétard fait des ronds Ba-ban-bang, ca smonte en assoc', ça nique les fédéraux, ça visser mieux qu'Federer Rien n'a changé, pour smarier t'faut qu'une connec' 3G, hassoul ça va, j'suis bientôt rangé On va bientôt manger et là tout va changer, ou bien p't-être, enfin bref, au final, ce s'ra la même Rien n'a changé, j'ai toujours pas envie d'te parler, j'rentre en cabine comme dans lminaret Aller-retour placard pour graille de la purée et des parloirs fantômes, gros, y a rien qui a changé Mes frères se sentent discriminés mais dès qu'un ptit minet passe, ils t'balancent des pédé comme si c'était normal Comme si c'était banal en scred, garde la pêche ou vas-y, nique ta mère, pelo Rien n'a changé Rien n'a changé Rien n'a changé Rien n'a changé Rien n'a changé Rien n'a changé Rien n'a changé Rien n'a changé J'ai une nouvelle meuf, j'ai de nouvelles paires, j'ai peur dêtre un tout petit peu matérialiste Le boudin d'beu-beu fait la taille d'un Balisto, y s'bicrave aux pélos qui kiffaient les Beasty J'me rends compte que j'm'enflamme comme quand jessaye de draguer la barista oh On a trop graillé l'barilla nous, on est v'nu s'flé-gon la kichta ouh Tu sais tu parles à qui toi ? Rien n'a changé depuis l'époque des freestyle Marianne frotte bitume comme bavette du T-MAX Le prochain qui crie sur sa meuf en sortie dboit, il prend une Requin dans l'plexus, on discute as-p Comment ça s'fait ? Rien n'a changé, j'suis né la tête dure comme un Sagem J'v'-esqui la routine comme les sachets, comme les je taime Bah ouais, rien n'a changé, sacré bordel, ta mère balayeuse pour un fond d'salaire Ta te-tê dans l'guidon en fond d'cinquième, ton futur dans l'bidon d'une belle promesse Rien n'a changé, ça porte l'il du côté passager, on s'maintient, on essaye d's'arranger Chez Pôle Emploi, y a pas grand chose pour toi mais l'ancien d'à-côté, il peut t'pousser 10 G' bah ouais, rien n'a changé Rien n'a changé Rien n'a changé Rien n'a changé Rien n'a changé Rien n'a changé Rien n'a changé Rien n'a changé Rien n'a changé Rien n'a changé Rien n'a changé Rien n'a changé</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Trois coups sur la porte, y a des trous dans la peinture Jcrois que bientôt, on sature Lhuissier parle mal comme si cétait sa nature Jcrois qu'bientôt, on lannule Jporte mon survêtement comme si cétait une armure Jparle aux fantômes comme si cétait des shabs de lépoque Y a lciel qui nous parle par les trous dans la toiture Jsuis né au début dlannée 92 En voulant plaire à tout lmonde, jsais qucest pas possible Le rap, cest ma vie, même si jsais qucest dla folie Cest magnifique, la foli Jsuis dans un bolide avec des fuits dhuile Constamment lregard ailleurs, en délit dfuite Jreprends un biberon, tête fait des loopings Jappuie sur rec quand le cur fait des soupirs Demande à Lulu quand tu lcroiseras sur Rue des postes Il va tparler des trucs dlépoque Dson opération qui lui provoque des sautes dhumeur Il va tgratter au pire une clope Il sait plus où il est, et sa femme non plus Ils confondent le soleil et la nouvelle lune Jredoute le moment ou jle croiserai plus Y a dautres histoires qui lattendent à larrêt dbus You might also like Ils font les malins, ils font la mala Jsuis avec linstru' comme Timon et Pumba Assieds-toi, écoute-moi Mélodie du courage qui a bouffé des coups bas Jsuis encore à lalim', on a tous des projets Y en a qui marchent, dautres qui ont mangé des crochets Main dans lfond des poches, yeux noirs sur la pochette Jregarde le bonheur comme si faut pas sapprocher Cest la vie ici On svide la tête comme si on avait tout à perdre En vrai, y a trop à fêter, donc jlève le doigt en lair On svide la tête comme si on avait tout à perdre En vrai ,y a trop à fêter donc jlève le doigt en lair Jvais mourir au milieu des années 2000 Y aura toujours pas dbagnoles dans les airs Mais jreparle au ptit frère eh, on grandit on ssépare, on sy fait Jpensais pas qumon cur était si faible ah ouais Jpensais pas qule silence était si fort On grandit, on séloigne, on sy fait On transforme les années en siphon oh Y a ses yeux qui stransforment en citron après deux-trois lattes sur la Lemon Haze On bédave tous les jours, on pilonne fort On croit quon maîtrise mais on pilote rien Moi, jsuis Rue des postes avec une noisette Jécoute le bruit des loc qui empêchent les oiseaux dchanter Rond-point du serpent, regard chanteur Café, pétard, tenue dchantier Privés dnos rêves, on les reconstruit en six mois comme la jambe à Cissé Destins cassés applaudis sur la civière pendant quta resta fait la gueule sous les sifflets Faut sfaire plaisir, les yeux sèchent et les kichtas font qu's'épaissir Cest cool pour la photo, ça change pas la vie, nan Remise en question tous les mois comme la vidange Ça fait un moment qujai pas croisé Patrick Où tes, jespère qulhorizon est moins gris, mon pote La vie, cest compliqué, on lsait dpuis longtemps Mais dès qujoublie cque cest davoir mal Y a bien un truc qui traîne pour me ramener sur terre Jfinirai au volant à mdemander quoi faire, où aller Les regrets, ils smangent froids ou salés, ça, cest la vie ici On svide la tête comme si on avait tout à perdre En vrai, y a trop à fêter, donc jlève le doigt en lair On svide la tête comme si on avait tout à perdre En vrai ,y a trop à fêter donc jlève le doigt en lair Yeux noirs, ciel gris, briques rouges J'préfère vivre là que mourir tout seul ailleurs Tout seul ailleurs, tout seul ailleurs Jroule une fusée, jmets tout lseum dailleurs Yeux noirs, ciel gris, briques rouges J'préfère vivre là que mourir tout seul ailleurs Tout seul ailleurs, tout seul ailleurs Jroule une fusée, jmets tout lseum dailleurs Jroule une fusée, jmets tout lseum dailleurs</t>
+          <t>Trois coups sur la porte, y a des trous dans la peinture Jcrois que bientôt, on sature Lhuissier parle mal comme si cétait sa nature Jcrois qu'bientôt, on lannule Jporte mon survêtement comme si cétait une armure Jparle aux fantômes comme si cétait des shabs de lépoque Y a lciel qui nous parle par les trous dans la toiture Jsuis né au début dlannée 92 En voulant plaire à tout lmonde, jsais qucest pas possible Le rap, cest ma vie, même si jsais qucest dla folie Cest magnifique, la foli Jsuis dans un bolide avec des fuits dhuile Constamment lregard ailleurs, en délit dfuite Jreprends un biberon, tête fait des loopings Jappuie sur rec quand le cur fait des soupirs Demande à Lulu quand tu lcroiseras sur Rue des postes Il va tparler des trucs dlépoque Dson opération qui lui provoque des sautes dhumeur Il va tgratter au pire une clope Il sait plus où il est, et sa femme non plus Ils confondent le soleil et la nouvelle lune Jredoute le moment ou jle croiserai plus Y a dautres histoires qui lattendent à larrêt dbus Ils font les malins, ils font la mala Jsuis avec linstru' comme Timon et Pumba Assieds-toi, écoute-moi Mélodie du courage qui a bouffé des coups bas Jsuis encore à lalim', on a tous des projets Y en a qui marchent, dautres qui ont mangé des crochets Main dans lfond des poches, yeux noirs sur la pochette Jregarde le bonheur comme si faut pas sapprocher Cest la vie ici On svide la tête comme si on avait tout à perdre En vrai, y a trop à fêter, donc jlève le doigt en lair On svide la tête comme si on avait tout à perdre En vrai ,y a trop à fêter donc jlève le doigt en lair Jvais mourir au milieu des années 2000 Y aura toujours pas dbagnoles dans les airs Mais jreparle au ptit frère eh, on grandit on ssépare, on sy fait Jpensais pas qumon cur était si faible ah ouais Jpensais pas qule silence était si fort On grandit, on séloigne, on sy fait On transforme les années en siphon oh Y a ses yeux qui stransforment en citron après deux-trois lattes sur la Lemon Haze On bédave tous les jours, on pilonne fort On croit quon maîtrise mais on pilote rien Moi, jsuis Rue des postes avec une noisette Jécoute le bruit des loc qui empêchent les oiseaux dchanter Rond-point du serpent, regard chanteur Café, pétard, tenue dchantier Privés dnos rêves, on les reconstruit en six mois comme la jambe à Cissé Destins cassés applaudis sur la civière pendant quta resta fait la gueule sous les sifflets Faut sfaire plaisir, les yeux sèchent et les kichtas font qu's'épaissir Cest cool pour la photo, ça change pas la vie, nan Remise en question tous les mois comme la vidange Ça fait un moment qujai pas croisé Patrick Où tes, jespère qulhorizon est moins gris, mon pote La vie, cest compliqué, on lsait dpuis longtemps Mais dès qujoublie cque cest davoir mal Y a bien un truc qui traîne pour me ramener sur terre Jfinirai au volant à mdemander quoi faire, où aller Les regrets, ils smangent froids ou salés, ça, cest la vie ici On svide la tête comme si on avait tout à perdre En vrai, y a trop à fêter, donc jlève le doigt en lair On svide la tête comme si on avait tout à perdre En vrai ,y a trop à fêter donc jlève le doigt en lair Yeux noirs, ciel gris, briques rouges J'préfère vivre là que mourir tout seul ailleurs Tout seul ailleurs, tout seul ailleurs Jroule une fusée, jmets tout lseum dailleurs Yeux noirs, ciel gris, briques rouges J'préfère vivre là que mourir tout seul ailleurs Tout seul ailleurs, tout seul ailleurs Jroule une fusée, jmets tout lseum dailleurs Jroule une fusée, jmets tout lseum dailleurs</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>J'ai encore un bruit dans la tête, j'ai encore une boule dans l'ventre C'est toujours l'même bruit dans l'vent J'parle au ciel et aux nuages comme s'il y avait papa d'dans J'arrêterai pas d'faire semblant J'aime bien l'son du métro sous terre J'regarde les yeux d'maman briller, elle m'dit Tout ça, c'est beau à voir J'lui dis C'est toi, ma Tour Eiffel Du haut d'nos tours éternelles, on a acheté un lave-vaisselle, on s'est dit On a percé Sous une grisaille imperturbable Les petites surs dans l'tertiaire, les mamans dans l'Tercian sur la télé qui disent C'est la faute à pas d'chance Ma bite, c'est p't'être la faute à personne, c'est pas pour ça qu'y en n'a pas qui souffrent Les gens, c'est comme les portes, avec le temps, y en a plein qui s'ouvrent Le psy, c'est plus que pour les fous Le bonheur, c'est plus que pour les autres J'aime plus les demi-tours, plus les longs discours J'suis qu'un enfant du paradoxe, élevé au Pitch, au Looney Tunes Baguette de pain bullet proof avec deux carrés d'chocolat Avant qu'j'me dise que j'étais capable de sortir d'ma chambre, j'ai mis du temps J'ai mis d'la sueur, du cur et du sang Elle me dit Veux-tu monter dans ma chambre ? J'ai besoin qu'on s'parle pour que tout ça ait du sens C'est d'l'amour ou du vent ? Ça, j'sais pas Est-ce qu'au dessus d'nos crânes, on peut enlever les nuages ? Ça, j'sais pas Mamie est partie en automne avant la Jersey drill Elle m'disait J'suis plus autonome, ils ont qu'à m'débrancher Emmenez voir les vers de terre, les six pieds sous l'plancher Voir le bruit qu'ça fait On s'habitue et on oublie qu'si tu pars, j'serais moins bien sans toi Les murs ont bouché leurs oreilles, j'étais resté sans voix T'façon, dans l'silence du nombre à regarder danser les silhouettes des ombres Eh, c'est fini d'bander sur des CDI À dix-huit ans, j'nettoyais les cuisines Là, y a l'instru Martin sur les CDJ Y a la guitare d'Lucci sur le vinyle Eh, ça fait pas d'moi un meilleur type du tout mais va dire aux p'tits qu'on a d'autres optiques du coup C'est pas BEP vente ou l'foot, Nouvelle École ou l'four Nouvelle ère, ils font des débats vides, ils font rien avancer Ils font bouger d'l'air, on fait bouger la tête On fait pas tourner l'monde non plus J'suis qu'un rappeur de plus J'raconte la rue, j'raconte l'arrêt d'bus, la vodka, la Red BullYou might also like</t>
+          <t>J'ai encore un bruit dans la tête, j'ai encore une boule dans l'ventre C'est toujours l'même bruit dans l'vent J'parle au ciel et aux nuages comme s'il y avait papa d'dans J'arrêterai pas d'faire semblant J'aime bien l'son du métro sous terre J'regarde les yeux d'maman briller, elle m'dit Tout ça, c'est beau à voir J'lui dis C'est toi, ma Tour Eiffel Du haut d'nos tours éternelles, on a acheté un lave-vaisselle, on s'est dit On a percé Sous une grisaille imperturbable Les petites surs dans l'tertiaire, les mamans dans l'Tercian sur la télé qui disent C'est la faute à pas d'chance Ma bite, c'est p't'être la faute à personne, c'est pas pour ça qu'y en n'a pas qui souffrent Les gens, c'est comme les portes, avec le temps, y en a plein qui s'ouvrent Le psy, c'est plus que pour les fous Le bonheur, c'est plus que pour les autres J'aime plus les demi-tours, plus les longs discours J'suis qu'un enfant du paradoxe, élevé au Pitch, au Looney Tunes Baguette de pain bullet proof avec deux carrés d'chocolat Avant qu'j'me dise que j'étais capable de sortir d'ma chambre, j'ai mis du temps J'ai mis d'la sueur, du cur et du sang Elle me dit Veux-tu monter dans ma chambre ? J'ai besoin qu'on s'parle pour que tout ça ait du sens C'est d'l'amour ou du vent ? Ça, j'sais pas Est-ce qu'au dessus d'nos crânes, on peut enlever les nuages ? Ça, j'sais pas Mamie est partie en automne avant la Jersey drill Elle m'disait J'suis plus autonome, ils ont qu'à m'débrancher Emmenez voir les vers de terre, les six pieds sous l'plancher Voir le bruit qu'ça fait On s'habitue et on oublie qu'si tu pars, j'serais moins bien sans toi Les murs ont bouché leurs oreilles, j'étais resté sans voix T'façon, dans l'silence du nombre à regarder danser les silhouettes des ombres Eh, c'est fini d'bander sur des CDI À dix-huit ans, j'nettoyais les cuisines Là, y a l'instru Martin sur les CDJ Y a la guitare d'Lucci sur le vinyle Eh, ça fait pas d'moi un meilleur type du tout mais va dire aux p'tits qu'on a d'autres optiques du coup C'est pas BEP vente ou l'foot, Nouvelle École ou l'four Nouvelle ère, ils font des débats vides, ils font rien avancer Ils font bouger d'l'air, on fait bouger la tête On fait pas tourner l'monde non plus J'suis qu'un rappeur de plus J'raconte la rue, j'raconte l'arrêt d'bus, la vodka, la Red Bull</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Partie I C'est pas nous les héros du chapitre C'est pas nous les étoiles du casting Si faut dire les termes, j'fais des classiques Et j'vois leur manteau faire des backflips À la base on leur parler gentillement Sueur et sang sur la batterie J'suis fonce-dé tout en haut du bâtiment L'ange de la mort m'fait une gâterie C'est nous les oubliés de la patrie Des ouvriers qui menaçaient les patrons Lui il dit qu'ça va mais en vrai pas trop Le sourire quand j'en parle mais c'est pas drôle Gamin j'rêvasser dans le fond d'la classe J'trouvais déjà qu'j'avais un flow d'malade Avance, studio, y a un plavon d'bâtard J'pose un couplet et je recompte ma part J'parle fort au condés comme un juge de touche J'viens du pays des K.O et d'la brique rouge J'ai des questions, donc faut qu'j'écoute J'pose un couplet en criant, j'compte mes doutes Ah, ah Ils ont rempli des puces, ils ont vidé des paupières Moi J'veux m'faire servir le thé par la banquière You might also like Reste loin de l'oseille et des femmes, gros, c'est dangereux C'est sûr ça va t'causer du tort C'est comme aller voter ou manger du porc Lui on l'connaît pas, il veut gratter des parts L'ancien tu l'as fait avant mais j'l'ai fait en mieux En mieux T'es plus dans l'jeu Dans l'jeu Et personne n'y croit quand tu fais l'dangereux Ils ont rempli des puces, ils ont vidé des paupières Oh, oh L'ancien tu l'as fait avant mais j'l'ai fait en mieux Oh, oh J'veux m'faire servir le thé par la banquière Et personne n'y croit quand tu fais l'dangereux Dangereux, dangereux, dangereux, dangereux, dangereux, dangereux, dangereux, dangereux Oh, oh Dangereux, dangereux, dangereux, dangereux, dangereux, dangereux, dangereux Partie II Le voisin râle parce que ça vend en balle, c'est comme ça depuis la school Le scooter braille, le soir c'est Ballantines, le lendemain c'est la foudre Ce matin y caille, la Clio démarre aps, tant pis si c'est la course Ce monde est crade mais on en fait c'qu'on veut, vu qu'le monde est à nous Et j'refais l'match dans Laguna sous Gelato Sous Gelato J'fouille dans les poches du non fumeur, j'en fais un autre Ils m'font l'même sourire qu'Hanouna, genre c'est cadeau Sourire de pute J'suis bien ici mais j'crois qu'j'vais partir loin des autres Mais qui a promis que ce serait mieux là-bas, oh-ouh-woah Oh-ouh-woah Le Nord se souvient, ils savent qu'on a fait du sale On fait du sale Là c'est plus la même qu'avant Là c'est plus la même qu'avant Trapboy, j'suis dans la ville toujours avec les mêmes qu'avant Violent comme le Premier Testament On s'verra pas avant la fin de la guerre On s'verra pas avant la fin de la guerre Après j'attendrai la fin d'la Terre, la fin des temps, la fin de ma peine Juste avant le châtiment Le châtiment J'vais hisser le drapeau, scander le cri de ralliement Ouh-wouh J'roule un bédo sur le toit quand le moral il manque Ça sera nous les héros du casting Si j'dois dires les termes, c'est une dinguerie Mm-hmm Et j'vois leur manteau faire des backflips Deux casquettes noires dans le bâtiment Sueur et sang sur la batterie J'suis défoncé, j'attends mon châtiment Et l'ange de la mort m'fait des gâteries Les enfants oubliés de la patrie Fils d'ouvrier devenu patron Ils m'voyaient pas gagner la partie J'vais pas leur accorder mon pardon Gamin j'rêvasser dans le fond d'la classe Dix ans plus tard j'avais un flow d'malade L'argent des showcases, un plavon d'bâtard J'pose deux couplets et je recompte ma part Ouh-ouh, ouh, ouh Mm-mm, mm-mm Mm-mm, hmm, mm-mm</t>
+          <t>Partie I C'est pas nous les héros du chapitre C'est pas nous les étoiles du casting Si faut dire les termes, j'fais des classiques Et j'vois leur manteau faire des backflips À la base on leur parler gentillement Sueur et sang sur la batterie J'suis fonce-dé tout en haut du bâtiment L'ange de la mort m'fait une gâterie C'est nous les oubliés de la patrie Des ouvriers qui menaçaient les patrons Lui il dit qu'ça va mais en vrai pas trop Le sourire quand j'en parle mais c'est pas drôle Gamin j'rêvasser dans le fond d'la classe J'trouvais déjà qu'j'avais un flow d'malade Avance, studio, y a un plavon d'bâtard J'pose un couplet et je recompte ma part J'parle fort au condés comme un juge de touche J'viens du pays des K.O et d'la brique rouge J'ai des questions, donc faut qu'j'écoute J'pose un couplet en criant, j'compte mes doutes Ah, ah Ils ont rempli des puces, ils ont vidé des paupières Moi J'veux m'faire servir le thé par la banquière Reste loin de l'oseille et des femmes, gros, c'est dangereux C'est sûr ça va t'causer du tort C'est comme aller voter ou manger du porc Lui on l'connaît pas, il veut gratter des parts L'ancien tu l'as fait avant mais j'l'ai fait en mieux En mieux T'es plus dans l'jeu Dans l'jeu Et personne n'y croit quand tu fais l'dangereux Ils ont rempli des puces, ils ont vidé des paupières Oh, oh L'ancien tu l'as fait avant mais j'l'ai fait en mieux Oh, oh J'veux m'faire servir le thé par la banquière Et personne n'y croit quand tu fais l'dangereux Dangereux, dangereux, dangereux, dangereux, dangereux, dangereux, dangereux, dangereux Oh, oh Dangereux, dangereux, dangereux, dangereux, dangereux, dangereux, dangereux Partie II Le voisin râle parce que ça vend en balle, c'est comme ça depuis la school Le scooter braille, le soir c'est Ballantines, le lendemain c'est la foudre Ce matin y caille, la Clio démarre aps, tant pis si c'est la course Ce monde est crade mais on en fait c'qu'on veut, vu qu'le monde est à nous Et j'refais l'match dans Laguna sous Gelato Sous Gelato J'fouille dans les poches du non fumeur, j'en fais un autre Ils m'font l'même sourire qu'Hanouna, genre c'est cadeau Sourire de pute J'suis bien ici mais j'crois qu'j'vais partir loin des autres Mais qui a promis que ce serait mieux là-bas, oh-ouh-woah Oh-ouh-woah Le Nord se souvient, ils savent qu'on a fait du sale On fait du sale Là c'est plus la même qu'avant Là c'est plus la même qu'avant Trapboy, j'suis dans la ville toujours avec les mêmes qu'avant Violent comme le Premier Testament On s'verra pas avant la fin de la guerre On s'verra pas avant la fin de la guerre Après j'attendrai la fin d'la Terre, la fin des temps, la fin de ma peine Juste avant le châtiment Le châtiment J'vais hisser le drapeau, scander le cri de ralliement Ouh-wouh J'roule un bédo sur le toit quand le moral il manque Ça sera nous les héros du casting Si j'dois dires les termes, c'est une dinguerie Mm-hmm Et j'vois leur manteau faire des backflips Deux casquettes noires dans le bâtiment Sueur et sang sur la batterie J'suis défoncé, j'attends mon châtiment Et l'ange de la mort m'fait des gâteries Les enfants oubliés de la patrie Fils d'ouvrier devenu patron Ils m'voyaient pas gagner la partie J'vais pas leur accorder mon pardon Gamin j'rêvasser dans le fond d'la classe Dix ans plus tard j'avais un flow d'malade L'argent des showcases, un plavon d'bâtard J'pose deux couplets et je recompte ma part Ouh-ouh, ouh, ouh Mm-mm, mm-mm Mm-mm, hmm, mm-mm</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>On a mangé des roustes, fumé des clopes trop amères trop amères Bouteille de Polia' dans la mer Le gyro', il tourne sans arrêt, mais dès qu'les keufs passent, j'entends Fuck le 17 Y a des soucis qui naissent sans arrêt, y a des minots qui bossent sous l'averse Rien qu'au feu rouge, y a la moitié d'une classe de CP Les rêves partent en fumée d'pot d'échappement J'ressens plus l'goût du sucre, y a plus rien qui m'atteint J'fais que d'parler au ciel et personne y m'entend On va y arriver même si personne nous attend J'fête pas les victoires, j'regrette ton absence pendant qu'je gagne J'regarde pas l'ballon mais les yeux du gardien pendant qu'je marque Réveil à cinq heures tant qu'ça va et on reste debout tant qu'ça va Mélodie qui tourne sans arrêt, une taffe de plus et l'temps s'arrête Réveil à cinq heures tant qu'ça va et on reste debout tant qu'ça va Mélodie qui tourne sans arrêt, une taffe de plus et l'temps s'arrête Ah ouais, le regard baissé dans le métro ah ouais, ah ouais Ah ouais, le passé s'consume dans mon bédo dans mon bédo, dans mon bédo On n'a jamais fait d'croisière en mer, on n'a jamais fait d'crasse à nos mères Et pour m'en sortir, j'ai mes couilles, ma voix, mes cinq doigts, et là, j'ai mis l'troisième en l'air Élevé dans la douleur au noir de mes cernes, au bleu des gyrophares, au marron du shit Au plat sans dessert, au goût des jours affreux, un daron qui chute Trop peur de percer, j'ai tout fait pour ça maman, t'inquiète pas, j'vais m'en sortir Plus d'une cicatrice gravée sur mon torse, y en a certaines que j'ai moins senti J'attends pas qu'la vie me fasse un signe, pour la baiser, faut qu'je fasse ainsi Car sinon, c'est la mort ou l'échec, Seigneur, tends-moi la main ou les chaînes You might also like Réveil à cinq heures tant qu'ça va et on reste debout tant qu'ça va Mélodie qui tourne sans arrêt, une taffe de plus et l'temps s'arrête Réveil à cinq heures tant qu'ça va et on reste debout tant qu'ça va Mélodie qui tourne sans arrêt, une taffe de plus et l'temps s'arrête Ah ouais, le regard baissé dans le métro ah ouais, ah ouais Ah ouais, le passé s'consume dans mon bédo dans mon bédo, dans mon bédo Ah ouais, ouais, ouais, ouais Ah ouais, ouais, ouais, ouais La mélodie tourne à l'envers Ah ouais, ouais, ouais, ouais Ah ouais, ouais, ouais, ouais La mélodie tourne à l'envers Et j'roule qu'en réserve, tout l'poids dans mes cernes La mélodie tourne à l'envers Et j'roule qu'en réserve, tout l'poids dans mes cernes La mélodie tourne à l'envers Ah ouais, ouais, ouais, ouais Ah ouais, ouais, ouais, ouais La mélodie tourne à l'envers Ah ouais, ouais, ouais, ouais Ah ouais, ouais, ouais, ouais La mélodie tourne à l'envers Ah ouais, ouais, ouais, ouais Ah ouais, ouais, ouais, ouais La mélodie tourne à l'envers Ah ouais, ouais, ouais, ouais Ah ouais, ouais, ouais, ouais La mélodie tourne à l'envers</t>
+          <t>On a mangé des roustes, fumé des clopes trop amères trop amères Bouteille de Polia' dans la mer Le gyro', il tourne sans arrêt, mais dès qu'les keufs passent, j'entends Fuck le 17 Y a des soucis qui naissent sans arrêt, y a des minots qui bossent sous l'averse Rien qu'au feu rouge, y a la moitié d'une classe de CP Les rêves partent en fumée d'pot d'échappement J'ressens plus l'goût du sucre, y a plus rien qui m'atteint J'fais que d'parler au ciel et personne y m'entend On va y arriver même si personne nous attend J'fête pas les victoires, j'regrette ton absence pendant qu'je gagne J'regarde pas l'ballon mais les yeux du gardien pendant qu'je marque Réveil à cinq heures tant qu'ça va et on reste debout tant qu'ça va Mélodie qui tourne sans arrêt, une taffe de plus et l'temps s'arrête Réveil à cinq heures tant qu'ça va et on reste debout tant qu'ça va Mélodie qui tourne sans arrêt, une taffe de plus et l'temps s'arrête Ah ouais, le regard baissé dans le métro ah ouais, ah ouais Ah ouais, le passé s'consume dans mon bédo dans mon bédo, dans mon bédo On n'a jamais fait d'croisière en mer, on n'a jamais fait d'crasse à nos mères Et pour m'en sortir, j'ai mes couilles, ma voix, mes cinq doigts, et là, j'ai mis l'troisième en l'air Élevé dans la douleur au noir de mes cernes, au bleu des gyrophares, au marron du shit Au plat sans dessert, au goût des jours affreux, un daron qui chute Trop peur de percer, j'ai tout fait pour ça maman, t'inquiète pas, j'vais m'en sortir Plus d'une cicatrice gravée sur mon torse, y en a certaines que j'ai moins senti J'attends pas qu'la vie me fasse un signe, pour la baiser, faut qu'je fasse ainsi Car sinon, c'est la mort ou l'échec, Seigneur, tends-moi la main ou les chaînes Réveil à cinq heures tant qu'ça va et on reste debout tant qu'ça va Mélodie qui tourne sans arrêt, une taffe de plus et l'temps s'arrête Réveil à cinq heures tant qu'ça va et on reste debout tant qu'ça va Mélodie qui tourne sans arrêt, une taffe de plus et l'temps s'arrête Ah ouais, le regard baissé dans le métro ah ouais, ah ouais Ah ouais, le passé s'consume dans mon bédo dans mon bédo, dans mon bédo Ah ouais, ouais, ouais, ouais Ah ouais, ouais, ouais, ouais La mélodie tourne à l'envers Ah ouais, ouais, ouais, ouais Ah ouais, ouais, ouais, ouais La mélodie tourne à l'envers Et j'roule qu'en réserve, tout l'poids dans mes cernes La mélodie tourne à l'envers Et j'roule qu'en réserve, tout l'poids dans mes cernes La mélodie tourne à l'envers Ah ouais, ouais, ouais, ouais Ah ouais, ouais, ouais, ouais La mélodie tourne à l'envers Ah ouais, ouais, ouais, ouais Ah ouais, ouais, ouais, ouais La mélodie tourne à l'envers Ah ouais, ouais, ouais, ouais Ah ouais, ouais, ouais, ouais La mélodie tourne à l'envers Ah ouais, ouais, ouais, ouais Ah ouais, ouais, ouais, ouais La mélodie tourne à l'envers</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Jpense à ça, faut qujle note, les idées, ça part plus vite qules amis Donc si jy pense, faut qujlui dise, si y a bsoin, faut qujle porte Jveux aucun dleurs vux, moi, ta lampe magique, jla bicrave au mieux Mais jamais jla frotte Il est temps dsavoir pourquoi on sen fout dà qui la faute Les yeux toujours plus gris, le visage toujours plus transparent Jlui répète que tout sarrange Lui, il mrépète que tout va Cest comme si on parlait pas vraiment Quon sdisait qutout passe Le temps, cest un ami, ça peut être un coupable Nuage tout pâle, plafond tout blanc, tout crade Théâtre de marionnettes Avec Pépère à huit ans dans lparc On matait des soldats sauver notre pays avec des baïonnettes, eh Jregardais lmec au-dssus tirer des ficelles On est juste des enfants grandis avec des rêves de sen sortir Qui ssentent mieux en sfaisant recaler quen rentrant dans leurs soirées de haut standing Puis, cest chacun son parcours, chacun sa ligne darrivée À mon âge, ma mère avait trois gosses, Damso fait quatre Bercy, mais chacun sa finalité, hein Encore une mauvaise nouvelle Visage bouge pas, on dirait qujsens plus la douleur Appartement vide, murs tout jaunes, on pourrait croire que jfais un Colors On pourrait croire que tes un connard, cerveau en éveil, cur dans lcoma Poussières sur souvenirs comme sur lPolaroid Moi, jai la force de ceux qui sont plus là You might also like Jdéteste les appels manqués Jdéteste les appels manqués Jdéteste les appels manqués Parle mieux aux fantômes quau banquier, s'te plaît Cur est en travaux, tête cest un chantier Jdéteste les appels manqués Jconstate la progression Et quon amène du vrai dans la profession Jai pas lplus beau carrosse mais jai lplus gros moteur de la concession, ouais Appel manqué met grosse pression Jremplace une addiction par une addiction On sest promis quon allait sen sortir On est des hommes de conviction Jrappe ma peine Jentends que de lespoir, en fait Jrappe ma peine Jentends que de lespoir, en fait Appel manqué met grosse pression Jremplace une addiction par une addiction On sest promis quon allait sen sortir On est des hommes de conviction Jrappe ma peine Jentends que de lespoir, en fait Jrappe ma peine Jentends que de lespoir, en fait Appel manqué met grosse pression Jremplace une addiction par une addiction On sest promis quon allait sen sortir On est des hommes de conviction1</t>
+          <t>Jpense à ça, faut qujle note, les idées, ça part plus vite qules amis Donc si jy pense, faut qujlui dise, si y a bsoin, faut qujle porte Jveux aucun dleurs vux, moi, ta lampe magique, jla bicrave au mieux Mais jamais jla frotte Il est temps dsavoir pourquoi on sen fout dà qui la faute Les yeux toujours plus gris, le visage toujours plus transparent Jlui répète que tout sarrange Lui, il mrépète que tout va Cest comme si on parlait pas vraiment Quon sdisait qutout passe Le temps, cest un ami, ça peut être un coupable Nuage tout pâle, plafond tout blanc, tout crade Théâtre de marionnettes Avec Pépère à huit ans dans lparc On matait des soldats sauver notre pays avec des baïonnettes, eh Jregardais lmec au-dssus tirer des ficelles On est juste des enfants grandis avec des rêves de sen sortir Qui ssentent mieux en sfaisant recaler quen rentrant dans leurs soirées de haut standing Puis, cest chacun son parcours, chacun sa ligne darrivée À mon âge, ma mère avait trois gosses, Damso fait quatre Bercy, mais chacun sa finalité, hein Encore une mauvaise nouvelle Visage bouge pas, on dirait qujsens plus la douleur Appartement vide, murs tout jaunes, on pourrait croire que jfais un Colors On pourrait croire que tes un connard, cerveau en éveil, cur dans lcoma Poussières sur souvenirs comme sur lPolaroid Moi, jai la force de ceux qui sont plus là Jdéteste les appels manqués Jdéteste les appels manqués Jdéteste les appels manqués Parle mieux aux fantômes quau banquier, s'te plaît Cur est en travaux, tête cest un chantier Jdéteste les appels manqués Jconstate la progression Et quon amène du vrai dans la profession Jai pas lplus beau carrosse mais jai lplus gros moteur de la concession, ouais Appel manqué met grosse pression Jremplace une addiction par une addiction On sest promis quon allait sen sortir On est des hommes de conviction Jrappe ma peine Jentends que de lespoir, en fait Jrappe ma peine Jentends que de lespoir, en fait Appel manqué met grosse pression Jremplace une addiction par une addiction On sest promis quon allait sen sortir On est des hommes de conviction Jrappe ma peine Jentends que de lespoir, en fait Jrappe ma peine Jentends que de lespoir, en fait Appel manqué met grosse pression Jremplace une addiction par une addiction On sest promis quon allait sen sortir On est des hommes de conviction1</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Jdéfais pas mes valises, jpose pas mes souvenirs Jattends pas dme croire arrivé pour arrêter dcourir Jraconte mes histoires, ça les fait sourire Ça les fait rêver, moi, ça mfait juste peur quça nous fasse souffrir Regarde-nous dans les yeux, y parlent mieux qunos visages Ici, on tallume juste pour écouter ton âme Regarde-nous dans les yeux, y parlent mieux qunos visages Ici, on tallume juste pour écouter ton âme Jai vu trop drappeurs morts, noyés dans la frustration Jfais des sacrifices, jy pense même plus, jme convaincs qujsuis en mission Jsuis dans le brouillard, jdessine des brouillons La vie est brutale, elle met des middles, elle vise le menton Jessaye dpleurer, jy arrive pas, ljour où jcomprendrai, jirai pt-être mieux Un jour, on sera p't-être vieux, jme demande où jen s'rai Jvois grandir les enfants des autres et j'me demande si jen fais Jfais rouler la Laguna des heures sans savoir où jvais Mental de hustler pour pas faire que dpourrir de la tombe au linceul Pour pas faire que dcourir pour sauver des meubles dont on connait qudes légendes racontées par nos vieux Que des singles dans le Gmail, que des romans dans mon phone Jmarrache pour oublier ltemps où jcachais des repas dans mon froc You might also like Enfant d'la France du milieu Qui connait trop l'goût du LIDL Motivé qu'par la peur du vide Fini fermé comme la tête du videur Jdéfais pas mes valises, jpose pas mes souvenirs Jattends pas dme croire arrivé pour arrêter dcourir Jraconte mes histoires, ça les fait sourire Ça les fait rêver, moi, ça mfait juste peur quça nous fasse souffrir Regarde-nous dans les yeux, y parlent mieux qunos visages Ici, on tallume juste pour écouter ton âme Regarde-nous dans les yeux, y parlent mieux qunos visages Ici, on tallume juste pour écouter ton âme J'cours vers la ligne, jlaisse des points dvie sur la route Jvois mieux sans trop dlumière, j'reste avec mes frères près du sol Jcours vers l'horizon. jlaisse des points dvie sur la route Jvois mieux sans trop dlumière, jmonte avec mes frères près du soleil Maint'nant, cest fini mon nom sur des PV, mon blaze sur des affiches Jme rapproche du pécule, jdois passer les check-points comme dans Need for Speed Jmets ma vie sur Logic, mes tripes dans la cabine Jprends des pauses avec mes ptits reufs pour construire des cabanes Eh, jme parle tout seul dans la rue, un pote me croise, me dmande c'que jai bu Moi, jai rien bu, jveux comprendre cque jai vu, du coup, jme parle seul dans la rue Parfois, jmendors sur des barrières, jvois d'la couleur sur les trottoirs Souvent du gris dans le ciel, un peu trop d'rouge dans nos regards Enfant d'la France du milieu Qui connait trop l'goût du LIDL Motivé qu'par la peur du vide Fini fermé comme la tête du videur Jdéfais pas mes valises, jpose pas mes souvenirs Jattends pas dme croire arrivé pour arrêter dcourir Jraconte mes histoires, ça les fait sourire Ça les fait rêver, moi, ça mfait juste peur quça nous fasse souffrir Regarde-nous dans les yeux, y parlent mieux qunos visages Ici, on tallume juste pour écouter ton âme Regarde-nous dans les yeux, y parlent mieux qunos visages Ici, on tallume juste pour écouter ton âme</t>
+          <t>Jdéfais pas mes valises, jpose pas mes souvenirs Jattends pas dme croire arrivé pour arrêter dcourir Jraconte mes histoires, ça les fait sourire Ça les fait rêver, moi, ça mfait juste peur quça nous fasse souffrir Regarde-nous dans les yeux, y parlent mieux qunos visages Ici, on tallume juste pour écouter ton âme Regarde-nous dans les yeux, y parlent mieux qunos visages Ici, on tallume juste pour écouter ton âme Jai vu trop drappeurs morts, noyés dans la frustration Jfais des sacrifices, jy pense même plus, jme convaincs qujsuis en mission Jsuis dans le brouillard, jdessine des brouillons La vie est brutale, elle met des middles, elle vise le menton Jessaye dpleurer, jy arrive pas, ljour où jcomprendrai, jirai pt-être mieux Un jour, on sera p't-être vieux, jme demande où jen s'rai Jvois grandir les enfants des autres et j'me demande si jen fais Jfais rouler la Laguna des heures sans savoir où jvais Mental de hustler pour pas faire que dpourrir de la tombe au linceul Pour pas faire que dcourir pour sauver des meubles dont on connait qudes légendes racontées par nos vieux Que des singles dans le Gmail, que des romans dans mon phone Jmarrache pour oublier ltemps où jcachais des repas dans mon froc Enfant d'la France du milieu Qui connait trop l'goût du LIDL Motivé qu'par la peur du vide Fini fermé comme la tête du videur Jdéfais pas mes valises, jpose pas mes souvenirs Jattends pas dme croire arrivé pour arrêter dcourir Jraconte mes histoires, ça les fait sourire Ça les fait rêver, moi, ça mfait juste peur quça nous fasse souffrir Regarde-nous dans les yeux, y parlent mieux qunos visages Ici, on tallume juste pour écouter ton âme Regarde-nous dans les yeux, y parlent mieux qunos visages Ici, on tallume juste pour écouter ton âme J'cours vers la ligne, jlaisse des points dvie sur la route Jvois mieux sans trop dlumière, j'reste avec mes frères près du sol Jcours vers l'horizon. jlaisse des points dvie sur la route Jvois mieux sans trop dlumière, jmonte avec mes frères près du soleil Maint'nant, cest fini mon nom sur des PV, mon blaze sur des affiches Jme rapproche du pécule, jdois passer les check-points comme dans Need for Speed Jmets ma vie sur Logic, mes tripes dans la cabine Jprends des pauses avec mes ptits reufs pour construire des cabanes Eh, jme parle tout seul dans la rue, un pote me croise, me dmande c'que jai bu Moi, jai rien bu, jveux comprendre cque jai vu, du coup, jme parle seul dans la rue Parfois, jmendors sur des barrières, jvois d'la couleur sur les trottoirs Souvent du gris dans le ciel, un peu trop d'rouge dans nos regards Enfant d'la France du milieu Qui connait trop l'goût du LIDL Motivé qu'par la peur du vide Fini fermé comme la tête du videur Jdéfais pas mes valises, jpose pas mes souvenirs Jattends pas dme croire arrivé pour arrêter dcourir Jraconte mes histoires, ça les fait sourire Ça les fait rêver, moi, ça mfait juste peur quça nous fasse souffrir Regarde-nous dans les yeux, y parlent mieux qunos visages Ici, on tallume juste pour écouter ton âme Regarde-nous dans les yeux, y parlent mieux qunos visages Ici, on tallume juste pour écouter ton âme</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Tous les jours Tous les jours On croit plus aux miracles Fin du mois en pétard Mode avion sur le pénave On parle plus on démarre Promesses sur le trottoir Lame d'rasoir sur les bulles d'air J'parle toujours au miroir toujours Ils font toujours la même tête Ils connaissent nos faits, nos gestes et nos prénoms Nous on fait qu'chercher lumière dans la pénombre Censés crever dès le début dans la série Chicos jaunies par les clopes dans la Xsara Et Dieu merci et Dieu merci, j'suis encore debout et y a mes rêves qui flottent devant qui flottent devant Allô maman quand est-ce qu'on se réveille et qu'on part ? Parle-moi plus fort quand tu me parles Pour couvrir le vide quand tu pars J'ai plus mal à la vie plus mal à la vie À l'avant du navire à l'avant du navire Si c'est pas moi c'est qui ? J'arrive en ville fantômes dans la valise Je dis plus jamais adieu Si c'est pas nous c'est qui si c'est pas nous c'est qui Et la vie t'a mis des grandes baffes Elle demande pas ton avis elle demande pas ton avis Et j'me tue tous les jours, la faucheuse qui téma depuis le mirador depuis le mirador Pour les sous, j'peux finir masqué dans un Viano dans un Viano Tous les jours, la faucheuse qui téma depuis le mirador depuis le mirador Pour les sous, j'peux finir masqué dans un Viano You might also like J'regarde derrière pour comprendre mes fautes mais j'vois rien putain de merde J'regarde devant pour capter mes névroses on a mal à la vie J'suis fasciné par la folie des autres J'm'en vais répéter que la folie c'est nous J'suis dans un bolide et j'vois plus la route alors emmenez-moi On abandonnera jamais jamais, jamais J'pleure dans mon sommeil j'me réveille sous l'eau J'galère à sourire dans les vidéos Oh la con de sa mère Et quand y a plus d'idées et quand y a plus d'idées Moi j'veux juste le faire moi j'veux juste le faire Et qu'on me parle pas d'regrets non, non non, non Et Dieu merci, j'suis encore debout et y a mes rêves qui flottent devant Allô maman quand est-ce qu'on se réveille et qu'on part ? J'ai plus mal à la vie j'ai plus mal à la vie À l'avant du navire à l'avant du navire Si c'est pas moi c'est qui ? J'arrive en ville fantômes dans la valise Je dis plus jamais adieu Si c'est pas nous c'est qui ? bah ouais c'est qui ? Et la vie t'a mis des grandes baffes Elle demande pas ton avis elle demande pas ton avis Et j'me tue tous les jours, la faucheuse qui téma depuis le mirador depuis le mirador Pour les sous, j'peux finir masqué dans un Viano dans un Viano Tous les jours, la faucheuse qui téma depuis le mirador depuis le mirador Pour les sous, j'peux finir masqué dans un Viano Pour les sous wo-oh merde</t>
+          <t>Tous les jours Tous les jours On croit plus aux miracles Fin du mois en pétard Mode avion sur le pénave On parle plus on démarre Promesses sur le trottoir Lame d'rasoir sur les bulles d'air J'parle toujours au miroir toujours Ils font toujours la même tête Ils connaissent nos faits, nos gestes et nos prénoms Nous on fait qu'chercher lumière dans la pénombre Censés crever dès le début dans la série Chicos jaunies par les clopes dans la Xsara Et Dieu merci et Dieu merci, j'suis encore debout et y a mes rêves qui flottent devant qui flottent devant Allô maman quand est-ce qu'on se réveille et qu'on part ? Parle-moi plus fort quand tu me parles Pour couvrir le vide quand tu pars J'ai plus mal à la vie plus mal à la vie À l'avant du navire à l'avant du navire Si c'est pas moi c'est qui ? J'arrive en ville fantômes dans la valise Je dis plus jamais adieu Si c'est pas nous c'est qui si c'est pas nous c'est qui Et la vie t'a mis des grandes baffes Elle demande pas ton avis elle demande pas ton avis Et j'me tue tous les jours, la faucheuse qui téma depuis le mirador depuis le mirador Pour les sous, j'peux finir masqué dans un Viano dans un Viano Tous les jours, la faucheuse qui téma depuis le mirador depuis le mirador Pour les sous, j'peux finir masqué dans un Viano J'regarde derrière pour comprendre mes fautes mais j'vois rien putain de merde J'regarde devant pour capter mes névroses on a mal à la vie J'suis fasciné par la folie des autres J'm'en vais répéter que la folie c'est nous J'suis dans un bolide et j'vois plus la route alors emmenez-moi On abandonnera jamais jamais, jamais J'pleure dans mon sommeil j'me réveille sous l'eau J'galère à sourire dans les vidéos Oh la con de sa mère Et quand y a plus d'idées et quand y a plus d'idées Moi j'veux juste le faire moi j'veux juste le faire Et qu'on me parle pas d'regrets non, non non, non Et Dieu merci, j'suis encore debout et y a mes rêves qui flottent devant Allô maman quand est-ce qu'on se réveille et qu'on part ? J'ai plus mal à la vie j'ai plus mal à la vie À l'avant du navire à l'avant du navire Si c'est pas moi c'est qui ? J'arrive en ville fantômes dans la valise Je dis plus jamais adieu Si c'est pas nous c'est qui ? bah ouais c'est qui ? Et la vie t'a mis des grandes baffes Elle demande pas ton avis elle demande pas ton avis Et j'me tue tous les jours, la faucheuse qui téma depuis le mirador depuis le mirador Pour les sous, j'peux finir masqué dans un Viano dans un Viano Tous les jours, la faucheuse qui téma depuis le mirador depuis le mirador Pour les sous, j'peux finir masqué dans un Viano Pour les sous wo-oh merde</t>
         </is>
       </c>
     </row>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Si tout s'passe bien en 2025, jaurai plus dcur C'qui m'a pas tué, m'a pas rendu plus fort J'aurai gagné l'jour où j'aurais plus peur J'vais chercher la vie, j'attends pas la mort J'vois d'la souffrance partout comme les gens qui mentent pour quon les voient meilleurs On étale des paillettes pour cacher l'goût d'la de-mer comme d'la mayo' Paraît qu'c'est ça la vie dadulte depuis qu'mûrir n'existe plus J'nage 50 mètres vers l'horizon pour pouvoir crier fils de pute Elle sait plus c'qui la rendait triste depuis qu'elle est sous Loxapac Y a des médecins qui niquent des vies, y a des parents qui trouvent ça stable J'aimerais bien savoir lire à travers les visages Pour avoir l'impression d'traverser des nuages J'vais p't-être m'endormir dans un virage oh P'tit, j'regardais d'ssus les grillages oh J'faisais histoires avec images, une vie avec mirage Le ciel est triste comme fond d'la 'teille J'l'ai déjà fait, j'le sais, cest plus facile de perdre J'rattrape des vies, jrallume des spectres J'l'ai déjà fait, j'le sais, cest plus facile de perdre You might also like Tercian Tercian, Tramadol Tramadol, neuroleptique comme parasol Xanax Xanax, Théralène Théralène, vis jamais mieux qu'dans les yeux des autres Tercian Tercian, Tramadol Tramadol, neuroleptique comme parasol Xanax Xanax, Théralène, vis jamais mieux qu'dans les yeux des autres Y a des larmes et des fesses qui dansent sur mes joues ouais, parfois les deux en même temps ah Souvent quand j'pense à avant, avant, quand j'savais baiser et aimer en même temps Maintenant, j'ai l'trac, maintenant, j'ai peur, bientôt d'être complètement seul Et puis, j'connais les gens et leurs histoires, plus j'tue mes complexes dans l'uf J'ai des gavas, on dirait des pizzas Carrefour à 30 balais, wesh Donc j'vais pas t'dire qu'la gue-dro cest cool, même si ça marrive de oué-j' J'viens du 59, ici, ça tousse comme si trop d'monoxyde dans l'air Cerveau bulle comme le gazouz, yeux brillent comme joaillerie dAnvers J'aimerais bien savoir lire à travers les visages Pour avoir l'impression d'traverser des nuages J'vais p't-être m'endormir dans un virage oh P'tit, j'regardais d'ssus les grillages oh J'faisais histoires avec images, une vie avec mirage Le ciel est triste comme fond d'la 'teille J'l'ai déjà fait, j'le sais, cest plus facile de perdre J'rattrape des vies, jrallume des spectres J'l'ai déjà fait, j'le sais, cest plus facile de perdre Tercian Tercian, Tramadol Tramadol, neuroleptique comme parasol Xanax Xanax, Théralène Théralène, vis jamais mieux qu'dans les yeux des autres Tercian Tercian, Tramadol Tramadol, neuroleptique comme parasol Xanax Xanax, Théralène Théralène, vis jamais mieux qu'dans les yeux des Le ciel est triste comme fond d'la 'teille J'l'ai déjà fait, j'le sais, cest plus facile de perdre J'rattrape des vies, jrallume des spectres J'l'ai déjà fait, j'le sais, cest plus facile de perdre Le ciel est triste comme fond d'la 'teille J'l'ai déjà fait, j'le sais, cest plus facile de perdre J'rattrape des vies, jrallume des spectres J'l'ai déjà fait, j'le sais, cest plus facile de perdre</t>
+          <t>Si tout s'passe bien en 2025, jaurai plus dcur C'qui m'a pas tué, m'a pas rendu plus fort J'aurai gagné l'jour où j'aurais plus peur J'vais chercher la vie, j'attends pas la mort J'vois d'la souffrance partout comme les gens qui mentent pour quon les voient meilleurs On étale des paillettes pour cacher l'goût d'la de-mer comme d'la mayo' Paraît qu'c'est ça la vie dadulte depuis qu'mûrir n'existe plus J'nage 50 mètres vers l'horizon pour pouvoir crier fils de pute Elle sait plus c'qui la rendait triste depuis qu'elle est sous Loxapac Y a des médecins qui niquent des vies, y a des parents qui trouvent ça stable J'aimerais bien savoir lire à travers les visages Pour avoir l'impression d'traverser des nuages J'vais p't-être m'endormir dans un virage oh P'tit, j'regardais d'ssus les grillages oh J'faisais histoires avec images, une vie avec mirage Le ciel est triste comme fond d'la 'teille J'l'ai déjà fait, j'le sais, cest plus facile de perdre J'rattrape des vies, jrallume des spectres J'l'ai déjà fait, j'le sais, cest plus facile de perdre Tercian Tercian, Tramadol Tramadol, neuroleptique comme parasol Xanax Xanax, Théralène Théralène, vis jamais mieux qu'dans les yeux des autres Tercian Tercian, Tramadol Tramadol, neuroleptique comme parasol Xanax Xanax, Théralène, vis jamais mieux qu'dans les yeux des autres Y a des larmes et des fesses qui dansent sur mes joues ouais, parfois les deux en même temps ah Souvent quand j'pense à avant, avant, quand j'savais baiser et aimer en même temps Maintenant, j'ai l'trac, maintenant, j'ai peur, bientôt d'être complètement seul Et puis, j'connais les gens et leurs histoires, plus j'tue mes complexes dans l'uf J'ai des gavas, on dirait des pizzas Carrefour à 30 balais, wesh Donc j'vais pas t'dire qu'la gue-dro cest cool, même si ça marrive de oué-j' J'viens du 59, ici, ça tousse comme si trop d'monoxyde dans l'air Cerveau bulle comme le gazouz, yeux brillent comme joaillerie dAnvers J'aimerais bien savoir lire à travers les visages Pour avoir l'impression d'traverser des nuages J'vais p't-être m'endormir dans un virage oh P'tit, j'regardais d'ssus les grillages oh J'faisais histoires avec images, une vie avec mirage Le ciel est triste comme fond d'la 'teille J'l'ai déjà fait, j'le sais, cest plus facile de perdre J'rattrape des vies, jrallume des spectres J'l'ai déjà fait, j'le sais, cest plus facile de perdre Tercian Tercian, Tramadol Tramadol, neuroleptique comme parasol Xanax Xanax, Théralène Théralène, vis jamais mieux qu'dans les yeux des autres Tercian Tercian, Tramadol Tramadol, neuroleptique comme parasol Xanax Xanax, Théralène Théralène, vis jamais mieux qu'dans les yeux des Le ciel est triste comme fond d'la 'teille J'l'ai déjà fait, j'le sais, cest plus facile de perdre J'rattrape des vies, jrallume des spectres J'l'ai déjà fait, j'le sais, cest plus facile de perdre Le ciel est triste comme fond d'la 'teille J'l'ai déjà fait, j'le sais, cest plus facile de perdre J'rattrape des vies, jrallume des spectres J'l'ai déjà fait, j'le sais, cest plus facile de perdre</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Ouh, oh-oh, ouh J'te connais pas, j'te tends la main, c'est la base Et où t'as vu qu'faire la gueule c'est la classe ? Ils ont trouvé étrange qu'on soit trop gentil Mais partager sa chance c'est la base J'sais qu'c'est pas évident, évident pour eux Eux On est plus hésitant, hésitant dans l'feu Feu C'est pas la monnaie qui défini l'enjeu mais J'sais qu'c'est pas évident, évident pour eux Eux Et j'suis pas trop gentil, fils de pute Si t'accroches ma famille, j'te tire dessus Piou, piou, piou Comme ça c'est clair, mais j'ai de l'spoir Donc j'te souris en premir vu qu'au fond j'espère qu't'es pas une grosse merde Nous aussi on a des blessures dans l'cur Allez viens on coopère Et tu choisis entre le pansement et l'cutter, bref Tu sais c'est pas si abstrait Ils ont l'impression qu'faire un sourire ça maquille la tête Nous ça rend fier nos mères J'donne ma confiance, si j'la reprends, j'la rends plus jamais Plus jamais Mais faut pas dire Jamais You might also like Faut dire qu'on a essayé d'être les héros qu'on devait être Souvenir jaune dans un teh, j'fume la vie à la fenêtre Même si j'en ai plus pour moi, j'donne toute ma force à un frère J'te connais pas, j'te tends la main, c'est la base Et où t'as vu qu'faire la gueule c'est la classe ? Ils ont trouvé étrange qu'on soit trop gentil Mais partager sa chance c'est la base J'sais qu'c'est pas évident, évident pour eux Eux On est plus hésitant, hésitant dans l'feu Feu C'est pas la monnaie qui défini l'enjeu mais J'sais qu'c'est pas évident, évident pour eux Eux Ouais, la con de sa mère J'suis plus si mignon les yeux vitreux Oh-oh-oh C'est pas Dom Pérignon dans la Vittel Ah bah ouais Ils viennent changer toute ta maison en un quart d'heure, eh C'est pas Stéphane Plazza dans le Vito Ah-ah Elle me sourit dans l'canapé, j'la vois pleurer dans six mois J'sais qu'le bonheur peut s'échapper donc j'vais te serrer dans mes bras Tu peux le sentir dans tes doigts, un sourire ça change tout On a réparé tous nos nuds, on peut boucler la boucle Faut dire qu'on a essayé d'être les héros qu'on devait être Souvenir jaune dans un teh, j'fume la vie à la fenêtre Même si j'en ai plus pour moi, j'donne toute ma force à un frère J'te connais pas, j'te tends la main, c'est la base Et où t'as vu qu'faire la gueule c'est la classe ? Ils ont trouvé étrange qu'on soit trop gentil Mais partager sa chance c'est la base J'sais qu'c'est pas évident, évident pour eux Eux On est plus hésitant, hésitant dans l'feu Feu C'est pas la monnaie qui défini l'enjeu mais J'sais qu'c'est pas évident, évident pour eux</t>
+          <t>Ouh, oh-oh, ouh J'te connais pas, j'te tends la main, c'est la base Et où t'as vu qu'faire la gueule c'est la classe ? Ils ont trouvé étrange qu'on soit trop gentil Mais partager sa chance c'est la base J'sais qu'c'est pas évident, évident pour eux Eux On est plus hésitant, hésitant dans l'feu Feu C'est pas la monnaie qui défini l'enjeu mais J'sais qu'c'est pas évident, évident pour eux Eux Et j'suis pas trop gentil, fils de pute Si t'accroches ma famille, j'te tire dessus Piou, piou, piou Comme ça c'est clair, mais j'ai de l'spoir Donc j'te souris en premir vu qu'au fond j'espère qu't'es pas une grosse merde Nous aussi on a des blessures dans l'cur Allez viens on coopère Et tu choisis entre le pansement et l'cutter, bref Tu sais c'est pas si abstrait Ils ont l'impression qu'faire un sourire ça maquille la tête Nous ça rend fier nos mères J'donne ma confiance, si j'la reprends, j'la rends plus jamais Plus jamais Mais faut pas dire Jamais Faut dire qu'on a essayé d'être les héros qu'on devait être Souvenir jaune dans un teh, j'fume la vie à la fenêtre Même si j'en ai plus pour moi, j'donne toute ma force à un frère J'te connais pas, j'te tends la main, c'est la base Et où t'as vu qu'faire la gueule c'est la classe ? Ils ont trouvé étrange qu'on soit trop gentil Mais partager sa chance c'est la base J'sais qu'c'est pas évident, évident pour eux Eux On est plus hésitant, hésitant dans l'feu Feu C'est pas la monnaie qui défini l'enjeu mais J'sais qu'c'est pas évident, évident pour eux Eux Ouais, la con de sa mère J'suis plus si mignon les yeux vitreux Oh-oh-oh C'est pas Dom Pérignon dans la Vittel Ah bah ouais Ils viennent changer toute ta maison en un quart d'heure, eh C'est pas Stéphane Plazza dans le Vito Ah-ah Elle me sourit dans l'canapé, j'la vois pleurer dans six mois J'sais qu'le bonheur peut s'échapper donc j'vais te serrer dans mes bras Tu peux le sentir dans tes doigts, un sourire ça change tout On a réparé tous nos nuds, on peut boucler la boucle Faut dire qu'on a essayé d'être les héros qu'on devait être Souvenir jaune dans un teh, j'fume la vie à la fenêtre Même si j'en ai plus pour moi, j'donne toute ma force à un frère J'te connais pas, j'te tends la main, c'est la base Et où t'as vu qu'faire la gueule c'est la classe ? Ils ont trouvé étrange qu'on soit trop gentil Mais partager sa chance c'est la base J'sais qu'c'est pas évident, évident pour eux Eux On est plus hésitant, hésitant dans l'feu Feu C'est pas la monnaie qui défini l'enjeu mais J'sais qu'c'est pas évident, évident pour eux</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Y'a ces sentiments à l'intérieur, la plupart j'les lit sur sa tête Quand on savait partir ailleurs, en regardant par la fenêtre On s'est usé avec le temps, j'la rassure qu'avec des Peut-être Hier encore, son parfum dans l'vent, et son prénom trotte dans ma tête Oh-la-la Oh-la-la, tu parles d'une blague Tu parles d'une blague J'repartirai pour une aventure avec toi J'repartirai Oh-la-la Oh-la-la, tu parles d'une blague Tu parls d'une blague J'repartirai pour un aventure avec toi J'repartirai Oh-la-la Oh-la-la, tu parles d'une blague Tu parles d'une blague J'repartirai pour une aventure avec toi Avec toi Oh-la-la Oh-la-la, tu parles d'une blague Tu parles d'une blague J'repartirai pour une aventure avec toi Avec toi J'avais peur de perdre une personne Parce que si tu pars, après, il s'passe quoi ? Mon cur dans une casserole, mes larmes dans une passoire Et dans la pièce, y'a plus rien qui résonne, du tout S'relever, ça mets du temps, du coup Aiguille tordue, plus d'boussole, mais j'suis d'bout Dans ses Je t'aime, y'a plus d'goût Pour vérifier, j'mets deux doigts sur mon cur, plus d'pouls Plus d'pouls Conjuguer au futur Han-han, y'a plus d'nous Plus d'nous You might also like Oh-la-la Oh-la-la, tu parles d'une blague Tu parles d'une blague J'repartirai pour une aventure avec toi J'repartirai Oh-la-la Oh-la-la, tu parles d'une blague Tu parles d'une blague J'repartirai pour une aventure avec toi J'repartirai Oh-la-la Oh-la-la, tu parles d'une blague Tu parles d'une blague J'repartirai pour une aventure avec toi Avec toi Oh-la-la Oh-la-la, tu parles d'une blague Tu parles d'une blague J'repartirai pour une aventure avec toi Avec toi, oh-oh J'repartirai pour une aventure avec toi J'repartirai J'repartirai pour une aventure avec toi Oh-la-la, tu parles d'une blague Oh-la-la, tu parles d'une blague J'repartirai pour une aventure avec toi J'repartirai</t>
+          <t>Y'a ces sentiments à l'intérieur, la plupart j'les lit sur sa tête Quand on savait partir ailleurs, en regardant par la fenêtre On s'est usé avec le temps, j'la rassure qu'avec des Peut-être Hier encore, son parfum dans l'vent, et son prénom trotte dans ma tête Oh-la-la Oh-la-la, tu parles d'une blague Tu parles d'une blague J'repartirai pour une aventure avec toi J'repartirai Oh-la-la Oh-la-la, tu parles d'une blague Tu parls d'une blague J'repartirai pour un aventure avec toi J'repartirai Oh-la-la Oh-la-la, tu parles d'une blague Tu parles d'une blague J'repartirai pour une aventure avec toi Avec toi Oh-la-la Oh-la-la, tu parles d'une blague Tu parles d'une blague J'repartirai pour une aventure avec toi Avec toi J'avais peur de perdre une personne Parce que si tu pars, après, il s'passe quoi ? Mon cur dans une casserole, mes larmes dans une passoire Et dans la pièce, y'a plus rien qui résonne, du tout S'relever, ça mets du temps, du coup Aiguille tordue, plus d'boussole, mais j'suis d'bout Dans ses Je t'aime, y'a plus d'goût Pour vérifier, j'mets deux doigts sur mon cur, plus d'pouls Plus d'pouls Conjuguer au futur Han-han, y'a plus d'nous Plus d'nous Oh-la-la Oh-la-la, tu parles d'une blague Tu parles d'une blague J'repartirai pour une aventure avec toi J'repartirai Oh-la-la Oh-la-la, tu parles d'une blague Tu parles d'une blague J'repartirai pour une aventure avec toi J'repartirai Oh-la-la Oh-la-la, tu parles d'une blague Tu parles d'une blague J'repartirai pour une aventure avec toi Avec toi Oh-la-la Oh-la-la, tu parles d'une blague Tu parles d'une blague J'repartirai pour une aventure avec toi Avec toi, oh-oh J'repartirai pour une aventure avec toi J'repartirai J'repartirai pour une aventure avec toi Oh-la-la, tu parles d'une blague Oh-la-la, tu parles d'une blague J'repartirai pour une aventure avec toi J'repartirai</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Cramé par tu sais, cramé par tu sais Cramé par tu sais qui On fait tu sais quoi Ohh Tu pourra pas nous vesqui On a dormi sur le toit Ohh J'ai cassé mes dents sur le béton J'suis déjà à terre j'peut pas ber-tom J'ai cassé mes dents sur le béton J'suis déjà à terre j'peut pas ber-tom Cramé par tu sais qui On fait tu sais quoi Ohh Tu pourra pas nous vesqui On a dormi sur le toit Ohh J'ai cassé mes dents sur le béton J'suis déjà à terre j'peut pas ber-tom J'ai cassé mes dents sur le béton J'suis déjà à terre j'peut pas ber-tom 4h38 que des zig de la street Des oiseaux, des Uber-eats J'marche sur des ufs, des bombonnes Mon paquet il est presque vide Dans l'Hall une odeur d'bus de nuit J'voulais quelle parte mais elle est revenu comme les puces de lit Bref, j'calcule plus trop l'dix-sept T'façons nous on disait call 911 Poisse colle a la peau comme l'odeur d'tabac Et ouais La sortie c'est sûr mais c'est dans longtemps En attendant Nabil rouille en dépôt avec sa rage de dents S-il parle j'rentre dedans Si j'y rentre j'perd deux dents Des histoires d'perte de temps Si tu paie, paie comptant J'veux rapper, j'veux un dictaphone Accent de sicario Laguna d'papi, elle sent l'cigario J'suis dans l'truc depuis scoubidoo-bidoo-bidoo Vodka, Red bull et bisous On fait des snap où on répète qu'on nique tout Tu fais l'bg, tu vas dormir au bistrot J'ai des srab de 22 ans qui on la calvâsse à Pascal Obispo Une clope, un café et j'y go Que des tours de France en Ouigo Avec l'odeur du bario sous l'pantalon d'latlético C'est nerval c'est nerval You might also like C'est nerveux hein Bande de putain Ecartez-vous J'arrive j'ai même pas de rendez vous Vous sucez ou vous critiquez hein décidez-vous Gros pète au bec C'est la street jusqu'à Molenbeek J'continue de la casser même si on fait un break J'ai grandi et là j'ai vue des choses depuis j'suis dégouté Tu rappe la street d'un pays qui a jamais existé Elle veut faire la elle veut me résister Ca s'voit que tu m'veut, tu fais que d'me pister Focus track J'fais des clip et j'suis dans les back Maman elle veut m'tuer, j'mange tout les jours au snack Barack Obama, Vladimir Poupou, j'ai grandis au panier mi popo, j'vais t'faire le topo Trahison, hagrah et prison Si tu tourne la vista-ta-ta-ta, on t'rafale le blouson T'a vue, t'a vue, j'tai fait monté à la maison Pfff Putain j'ai l'poison Mille euros, dix millions Marseille Alger en pleine transaction Ils sont jaloux, c'est juste une location On échange marchandises contre carte grise On marche droit, eux ils sont tordu comme la Tour de Pise Ca y'est t'a grandi, tu m'fait plus la bise Et quand t'envoie des piques, hein, c'est qui que tu vise ? C'est vrai, c'est vrai, c'est vrai, c'est vrai On galère en c'moment Malgré qu'y'a pas , y'a le comportement Ici c'est , vas-y calmement Le daron, il m'a jamais fait de compliment Cramé par tu sais, cramé par tu sais Cramé par tu sais qui On fait tu sais quoi Ohh Tu pourra pas nous vesqui On a dormi sur le toit Ohh J'ai cassé mes dents sur le béton J'suis déjà à terre j'peut pas ber-tom J'ai cassé mes dents sur le béton J'suis déjà à terre j'peut pas ber-tom Cramé par tu sais qui On fait tu sais quoi Ohh Tu pourra pas nous vesqui On a dormi sur le toit Ohh J'ai cassé mes dents sur le béton J'suis déjà à terre j'peut pas ber-tom J'ai cassé mes dents sur le béton J'suis déjà à terre j'peut pas ber-tom</t>
+          <t>Cramé par tu sais, cramé par tu sais Cramé par tu sais qui On fait tu sais quoi Ohh Tu pourra pas nous vesqui On a dormi sur le toit Ohh J'ai cassé mes dents sur le béton J'suis déjà à terre j'peut pas ber-tom J'ai cassé mes dents sur le béton J'suis déjà à terre j'peut pas ber-tom Cramé par tu sais qui On fait tu sais quoi Ohh Tu pourra pas nous vesqui On a dormi sur le toit Ohh J'ai cassé mes dents sur le béton J'suis déjà à terre j'peut pas ber-tom J'ai cassé mes dents sur le béton J'suis déjà à terre j'peut pas ber-tom 4h38 que des zig de la street Des oiseaux, des Uber-eats J'marche sur des ufs, des bombonnes Mon paquet il est presque vide Dans l'Hall une odeur d'bus de nuit J'voulais quelle parte mais elle est revenu comme les puces de lit Bref, j'calcule plus trop l'dix-sept T'façons nous on disait call 911 Poisse colle a la peau comme l'odeur d'tabac Et ouais La sortie c'est sûr mais c'est dans longtemps En attendant Nabil rouille en dépôt avec sa rage de dents S-il parle j'rentre dedans Si j'y rentre j'perd deux dents Des histoires d'perte de temps Si tu paie, paie comptant J'veux rapper, j'veux un dictaphone Accent de sicario Laguna d'papi, elle sent l'cigario J'suis dans l'truc depuis scoubidoo-bidoo-bidoo Vodka, Red bull et bisous On fait des snap où on répète qu'on nique tout Tu fais l'bg, tu vas dormir au bistrot J'ai des srab de 22 ans qui on la calvâsse à Pascal Obispo Une clope, un café et j'y go Que des tours de France en Ouigo Avec l'odeur du bario sous l'pantalon d'latlético C'est nerval c'est nerval C'est nerveux hein Bande de putain Ecartez-vous J'arrive j'ai même pas de rendez vous Vous sucez ou vous critiquez hein décidez-vous Gros pète au bec C'est la street jusqu'à Molenbeek J'continue de la casser même si on fait un break J'ai grandi et là j'ai vue des choses depuis j'suis dégouté Tu rappe la street d'un pays qui a jamais existé Elle veut faire la elle veut me résister Ca s'voit que tu m'veut, tu fais que d'me pister Focus track J'fais des clip et j'suis dans les back Maman elle veut m'tuer, j'mange tout les jours au snack Barack Obama, Vladimir Poupou, j'ai grandis au panier mi popo, j'vais t'faire le topo Trahison, hagrah et prison Si tu tourne la vista-ta-ta-ta, on t'rafale le blouson T'a vue, t'a vue, j'tai fait monté à la maison Pfff Putain j'ai l'poison Mille euros, dix millions Marseille Alger en pleine transaction Ils sont jaloux, c'est juste une location On échange marchandises contre carte grise On marche droit, eux ils sont tordu comme la Tour de Pise Ca y'est t'a grandi, tu m'fait plus la bise Et quand t'envoie des piques, hein, c'est qui que tu vise ? C'est vrai, c'est vrai, c'est vrai, c'est vrai On galère en c'moment Malgré qu'y'a pas , y'a le comportement Ici c'est , vas-y calmement Le daron, il m'a jamais fait de compliment Cramé par tu sais, cramé par tu sais Cramé par tu sais qui On fait tu sais quoi Ohh Tu pourra pas nous vesqui On a dormi sur le toit Ohh J'ai cassé mes dents sur le béton J'suis déjà à terre j'peut pas ber-tom J'ai cassé mes dents sur le béton J'suis déjà à terre j'peut pas ber-tom Cramé par tu sais qui On fait tu sais quoi Ohh Tu pourra pas nous vesqui On a dormi sur le toit Ohh J'ai cassé mes dents sur le béton J'suis déjà à terre j'peut pas ber-tom J'ai cassé mes dents sur le béton J'suis déjà à terre j'peut pas ber-tom</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>J'essaie d'arrêter d'me rappeler d'tous ces fantômes aux joues creusées, aux rides trop sèches Qui m'coupent la parole dans tous mes rêves Joue à la parlotte dans toutes mes règles Pour me calmer, y'a pas vraiment d'remède Nan Pour réussir, y'a pas vraiment d'recette J'efface pas les morts de mon répertoire, si j'souffre pas comme eux, y'a pas vraiment de regrets Steak surgelé dans l'fond du Eastpack Eastpack Prêt à courir si j'sonne au portique Faut bien s'nourrir, la dalle en guise d'arme Ah yes Café très froid comme Ryan Gosling Les joues écarlates, ça s'castagne à côté d'Casto J'rentre supporter Papy, son côté Catho Hallelujah Ni Dieu Nysay comme Salif Ouais Mais j'ferme ma gueule comme Mamie La guérilla, guérilla, ici j'suis dans la 106 en train d'refaire un Pastis Ah bah ouais J'vis dans la série et j'prends les ronds-points comme Samy Naceri Oh là là sérieux Oh là là sérieux Rire de vainqueur avec des trous dans les dents Cherche la lumière, j'ai plus d'espoir en même temps J'vais au naissance avec une tête d'enterrement On a vraiment cru qu'c'tait pour les autres Ouh Plus j'm'écoute, plus j'me dis que tout est d'ma faute Ouh J'me détourne, j'découpe, j'dérive, où est la route ? Ouh Tombe les bouteilles et vite, j'découpe, j'esquive, j'arrive, j'évite You might also like On nous raconte des histoires, genre Ça va pas l'faire, mille deux, c'est un bon p'tit salaire Allez encore des histoires, genre C'est pas la peine, c'est mieux tu laisses passer l'averse Mais j'peux pas, ici, il pleut sa mère J'sais pas si c'est gris ou bleu derrière J'peux pas, ici, il pleut sa mère J'sais pas si c'est gris ou bleu derrière Wesh De plus en plus pâle dans la glace, ça continue j'pourrais voir dans mon dos j'pourrais voir dans mon dos Y'a rien qui remplace les disparitions, j'crie à la Lune pour parler aux fantômes Ouh J'suis dans la rue, l'Soleil se lève sur la ville J'voulais un feu, j't'ai pas d'mandé ton avis Pour aller mieux, j'ai b'soin d'me ken à la tise Descendre au bas d'mon estime Puis Qu'est-ce qui se passe après quand on finit l'jeu ? Y'a un connard qui vient pour dire C'est plus ton heure ? Eh ouais, ouais, ouais Trop envie d'être jeune, j'vais pas mourir vieux, il m'reste des chèques cadeaux, j'peux acheter du bonheur Juste un peu plus J'suis toujours trop désolé, j'vais pas acheter d'villa à ma mère Nan Mais elle est comme son fils, elle veut s'la payer toute seule, arrogante et fière Ouais On nous raconte des histoires, genre Ça va pas l'faire, mille deux, c'est un bon p'tit salaire Allez encore des histoires, genre C'est pas la peine, c'est mieux tu laisses passer l'averse Mais j'peux pas, ici, il pleut sa mère J'sais pas si c'est gris ou bleu derrière J'peux pas, ici, il pleut sa mère J'sais pas si c'est gris ou bleu derrière Ça va pas l'faire, mille deux, c'est un bon p'tit salaire Allez encore des histoires, genre C'est pas la peine, c'est mieux tu laisses passer l'averse Mais j'peux pas, ici, il pleut sa mère J'sais pas si c'est gris ou bleu derrière J'peux pas, ici, il pleut sa mère J'sais pas si c'est gris ou bleu derrière</t>
+          <t>J'essaie d'arrêter d'me rappeler d'tous ces fantômes aux joues creusées, aux rides trop sèches Qui m'coupent la parole dans tous mes rêves Joue à la parlotte dans toutes mes règles Pour me calmer, y'a pas vraiment d'remède Nan Pour réussir, y'a pas vraiment d'recette J'efface pas les morts de mon répertoire, si j'souffre pas comme eux, y'a pas vraiment de regrets Steak surgelé dans l'fond du Eastpack Eastpack Prêt à courir si j'sonne au portique Faut bien s'nourrir, la dalle en guise d'arme Ah yes Café très froid comme Ryan Gosling Les joues écarlates, ça s'castagne à côté d'Casto J'rentre supporter Papy, son côté Catho Hallelujah Ni Dieu Nysay comme Salif Ouais Mais j'ferme ma gueule comme Mamie La guérilla, guérilla, ici j'suis dans la 106 en train d'refaire un Pastis Ah bah ouais J'vis dans la série et j'prends les ronds-points comme Samy Naceri Oh là là sérieux Oh là là sérieux Rire de vainqueur avec des trous dans les dents Cherche la lumière, j'ai plus d'espoir en même temps J'vais au naissance avec une tête d'enterrement On a vraiment cru qu'c'tait pour les autres Ouh Plus j'm'écoute, plus j'me dis que tout est d'ma faute Ouh J'me détourne, j'découpe, j'dérive, où est la route ? Ouh Tombe les bouteilles et vite, j'découpe, j'esquive, j'arrive, j'évite On nous raconte des histoires, genre Ça va pas l'faire, mille deux, c'est un bon p'tit salaire Allez encore des histoires, genre C'est pas la peine, c'est mieux tu laisses passer l'averse Mais j'peux pas, ici, il pleut sa mère J'sais pas si c'est gris ou bleu derrière J'peux pas, ici, il pleut sa mère J'sais pas si c'est gris ou bleu derrière Wesh De plus en plus pâle dans la glace, ça continue j'pourrais voir dans mon dos j'pourrais voir dans mon dos Y'a rien qui remplace les disparitions, j'crie à la Lune pour parler aux fantômes Ouh J'suis dans la rue, l'Soleil se lève sur la ville J'voulais un feu, j't'ai pas d'mandé ton avis Pour aller mieux, j'ai b'soin d'me ken à la tise Descendre au bas d'mon estime Puis Qu'est-ce qui se passe après quand on finit l'jeu ? Y'a un connard qui vient pour dire C'est plus ton heure ? Eh ouais, ouais, ouais Trop envie d'être jeune, j'vais pas mourir vieux, il m'reste des chèques cadeaux, j'peux acheter du bonheur Juste un peu plus J'suis toujours trop désolé, j'vais pas acheter d'villa à ma mère Nan Mais elle est comme son fils, elle veut s'la payer toute seule, arrogante et fière Ouais On nous raconte des histoires, genre Ça va pas l'faire, mille deux, c'est un bon p'tit salaire Allez encore des histoires, genre C'est pas la peine, c'est mieux tu laisses passer l'averse Mais j'peux pas, ici, il pleut sa mère J'sais pas si c'est gris ou bleu derrière J'peux pas, ici, il pleut sa mère J'sais pas si c'est gris ou bleu derrière Ça va pas l'faire, mille deux, c'est un bon p'tit salaire Allez encore des histoires, genre C'est pas la peine, c'est mieux tu laisses passer l'averse Mais j'peux pas, ici, il pleut sa mère J'sais pas si c'est gris ou bleu derrière J'peux pas, ici, il pleut sa mère J'sais pas si c'est gris ou bleu derrière</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Putain de merde, on n'a fait qu'un bout du film J'ai déjà bien fumé la vie, j'ai cramé un bout du filtre J'veux voir tous leurs visages donc j'vais pas fermer les vitres J'vais les baisser dans le virage pour mieux sentir la vie Ah, tess, ah, ah Ça, c'est mon record, mon Guinness Book Eux, ils ont plus vraiment le même discours Ils faisaient serrer pour une p'tite ristourne Là, ils sont mystiques, t'es fou T'es fou Le succès est sourd, j'le sais J'suis un enfant d'la 205, Roland Garros Ils m'verront pas dans leur fauss fusée Ou faudra mieux m'sucer J'roul à gauche, j'colle à droite On n'a pas d'économies, on met tout sur la table Partie d'poker, gros teh, trou sur la nappe J'mate la Lune sur la map J'regarde ses promesses et ses mains Ils sont tordus comme sa signature J'viens du pays d'la marée noire et d'la filature J'vais pas bander pour cinq chiffres avec une p'tite rature Sale fils de huh Promesse pas tenue auquel t'as quand même cru parce qu'il faut s'accrocher à quelque chose C'est nous qu'ils appelaient les péquenauds Bah téma, j'vais faire vingt fois ton salaire Et j'vais pas l'claquer dans une Range Rov' Wesh gros, j'parle pas , c'est pas la même chose J'suis d'vant les flammes, elles sont bleu gendarme, et on crie Let's go Let's go, là on tient quelque chose On a trop laissé tomber, nan, là on tient quelque chose J'repense au moi dans l'métro qui pense au moi dans l'Merco' Mais au moi d'après, né à découvert Il a vu l'avance il a dessaoulé J'ai les pieds sur Terre, j'ai la tête sous l'eau froide Chouf ça, il a pris une kichta grosse comme Houssbad Problème de riche, ils mattent pas vraiment dans les yeux Ils ont un problème de 3ein, là On n'a pas d'problèmes d'estime Et j'ai pas ravivé la flamme pour la noyer dans du Ruinart Regarde ça C'est les p'tites étoiles de ta ville qui vont s'envoler dans un jean large C'est pas pour la r'faire dans ta tête que t'es venu jouer la finaleYou might also like</t>
+          <t>Putain de merde, on n'a fait qu'un bout du film J'ai déjà bien fumé la vie, j'ai cramé un bout du filtre J'veux voir tous leurs visages donc j'vais pas fermer les vitres J'vais les baisser dans le virage pour mieux sentir la vie Ah, tess, ah, ah Ça, c'est mon record, mon Guinness Book Eux, ils ont plus vraiment le même discours Ils faisaient serrer pour une p'tite ristourne Là, ils sont mystiques, t'es fou T'es fou Le succès est sourd, j'le sais J'suis un enfant d'la 205, Roland Garros Ils m'verront pas dans leur fauss fusée Ou faudra mieux m'sucer J'roul à gauche, j'colle à droite On n'a pas d'économies, on met tout sur la table Partie d'poker, gros teh, trou sur la nappe J'mate la Lune sur la map J'regarde ses promesses et ses mains Ils sont tordus comme sa signature J'viens du pays d'la marée noire et d'la filature J'vais pas bander pour cinq chiffres avec une p'tite rature Sale fils de huh Promesse pas tenue auquel t'as quand même cru parce qu'il faut s'accrocher à quelque chose C'est nous qu'ils appelaient les péquenauds Bah téma, j'vais faire vingt fois ton salaire Et j'vais pas l'claquer dans une Range Rov' Wesh gros, j'parle pas , c'est pas la même chose J'suis d'vant les flammes, elles sont bleu gendarme, et on crie Let's go Let's go, là on tient quelque chose On a trop laissé tomber, nan, là on tient quelque chose J'repense au moi dans l'métro qui pense au moi dans l'Merco' Mais au moi d'après, né à découvert Il a vu l'avance il a dessaoulé J'ai les pieds sur Terre, j'ai la tête sous l'eau froide Chouf ça, il a pris une kichta grosse comme Houssbad Problème de riche, ils mattent pas vraiment dans les yeux Ils ont un problème de 3ein, là On n'a pas d'problèmes d'estime Et j'ai pas ravivé la flamme pour la noyer dans du Ruinart Regarde ça C'est les p'tites étoiles de ta ville qui vont s'envoler dans un jean large C'est pas pour la r'faire dans ta tête que t'es venu jouer la finale</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Maman pleure de fierté d'puis les danses à la kermesse Jfais des pauses dans mes concerts pour lui faire des clins d'il Elle a bien fait une pause dans sa jeunesse pour élever des marmots Il pleut des souvenirs et des cordes, moi, j'fais qutirer d'ssus, j'vais pas m'pendre avec Enfant du brouillard en débardeur, tah les Mark Landers, tah la Marque Repère Course de rallye sur deux voies départementales Moi, j'avais jamais vu les montagnes, j'crois On vient d'là où ça caille, perdu trop d'degrés sur linclinaison de mon smile Avec le temps et avec les regrets, comment ça sfait qu'jsois toujours en retrait ? J'te laisse L, j'prends le V, sous la pluie poing levé Y a que les flammes qui pourront sécher mes larmes Dis-leur que j'ai plus peur Comme nimporte quelle fleur, je fane Et j'plane comme le jet des Jenner Menu supplément d'âme, j'y ai mis tout mon cur J'y ai mis tout mon seum, j'ai b'soin d'hurler sans raison Quand j'suis dans la rue sans heure, eh Feuille, clope, bout d'shit, alloc', CAF, bluff, all in Cybersexe, emoji, elle veut prendre les mochis Triste comme un gothique, j'ai des problèmes aussi, mec EasyJet Lille-Italie comme Victor Osimhen Feuille, clope, bout d'shit, alloc', CAF, bluff, all in Cybersexe, emoji, elle veut prendre les mochis Triste comme un gothique, j'ai des problèmes aussi, mec EasyJet Lille-Italie comme Victor Osimhen You might also like Bouquet d'fleurs sauvages du bâtiment, allocation sur l'tapis du casino Elle me ment comme Noël, j'lui mens comme Joël, j'aimerais qu'on soit sincères comme les animaux Même si le ciel est bleu indigo, dans ma tête, tout est cataclysmique J'arrive avec deux-trois traits autistiques et les cheveux en bataille de Patti Smith Toujours calé dans l'secteur, trois carrés d'sucre dans l'café de sept heures Un plan pour du shit, un plan pour n'avoir plus peur du lendemain J'fabrique de l'espoir en m'servant d'mes grandes mains yes Et j'fais du pied au bord du ravin, elle parle pas chinois, j'en perds mon latin RDV, succès bloqué, salle d'attente, si j'interpelle ma vie, j'dirais Oh, la tain-p' oh, la tain-p' Y a que les flammes qui pourront sécher mes larmes Dis-leur que j'ai plus peur Comme n'importe quelle fleur, je fane Et j'plane comme le jet des Jenner Menu supplément d'âme, j'y ai mis tout mon cur J'y ai mis tout mon seum, j'ai b'soin d'hurler sans raison Quand j'suis dans la rue sans heure, eh Feuille, clope, bout d'shit, alloc', CAF, bluff, all in Cybersexe, emoji, elle veut prendre les mochis Triste comme un gothique, j'ai des problèmes aussi, mec EasyJet Lille-Italie comme Victor Osimhen Feuille, clope, bout d'shit, alloc', CAF, bluff, all in Cybersexe, emoji, elle veut prendre les mochis Triste comme un gothique, j'ai des problèmes aussi, mec EasyJet Lille-Italie comme Victor Osimhen</t>
+          <t>Maman pleure de fierté d'puis les danses à la kermesse Jfais des pauses dans mes concerts pour lui faire des clins d'il Elle a bien fait une pause dans sa jeunesse pour élever des marmots Il pleut des souvenirs et des cordes, moi, j'fais qutirer d'ssus, j'vais pas m'pendre avec Enfant du brouillard en débardeur, tah les Mark Landers, tah la Marque Repère Course de rallye sur deux voies départementales Moi, j'avais jamais vu les montagnes, j'crois On vient d'là où ça caille, perdu trop d'degrés sur linclinaison de mon smile Avec le temps et avec les regrets, comment ça sfait qu'jsois toujours en retrait ? J'te laisse L, j'prends le V, sous la pluie poing levé Y a que les flammes qui pourront sécher mes larmes Dis-leur que j'ai plus peur Comme nimporte quelle fleur, je fane Et j'plane comme le jet des Jenner Menu supplément d'âme, j'y ai mis tout mon cur J'y ai mis tout mon seum, j'ai b'soin d'hurler sans raison Quand j'suis dans la rue sans heure, eh Feuille, clope, bout d'shit, alloc', CAF, bluff, all in Cybersexe, emoji, elle veut prendre les mochis Triste comme un gothique, j'ai des problèmes aussi, mec EasyJet Lille-Italie comme Victor Osimhen Feuille, clope, bout d'shit, alloc', CAF, bluff, all in Cybersexe, emoji, elle veut prendre les mochis Triste comme un gothique, j'ai des problèmes aussi, mec EasyJet Lille-Italie comme Victor Osimhen Bouquet d'fleurs sauvages du bâtiment, allocation sur l'tapis du casino Elle me ment comme Noël, j'lui mens comme Joël, j'aimerais qu'on soit sincères comme les animaux Même si le ciel est bleu indigo, dans ma tête, tout est cataclysmique J'arrive avec deux-trois traits autistiques et les cheveux en bataille de Patti Smith Toujours calé dans l'secteur, trois carrés d'sucre dans l'café de sept heures Un plan pour du shit, un plan pour n'avoir plus peur du lendemain J'fabrique de l'espoir en m'servant d'mes grandes mains yes Et j'fais du pied au bord du ravin, elle parle pas chinois, j'en perds mon latin RDV, succès bloqué, salle d'attente, si j'interpelle ma vie, j'dirais Oh, la tain-p' oh, la tain-p' Y a que les flammes qui pourront sécher mes larmes Dis-leur que j'ai plus peur Comme n'importe quelle fleur, je fane Et j'plane comme le jet des Jenner Menu supplément d'âme, j'y ai mis tout mon cur J'y ai mis tout mon seum, j'ai b'soin d'hurler sans raison Quand j'suis dans la rue sans heure, eh Feuille, clope, bout d'shit, alloc', CAF, bluff, all in Cybersexe, emoji, elle veut prendre les mochis Triste comme un gothique, j'ai des problèmes aussi, mec EasyJet Lille-Italie comme Victor Osimhen Feuille, clope, bout d'shit, alloc', CAF, bluff, all in Cybersexe, emoji, elle veut prendre les mochis Triste comme un gothique, j'ai des problèmes aussi, mec EasyJet Lille-Italie comme Victor Osimhen</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>J'suis bon qu'à raconter des histoires, comme un sparadrap sous la pommette Des trous dans nos sourires, dans nos curs et dans nos baskets yes J'suis qu'une chaleur dans l'abdomen bah ouais, ouais D'une mère qui sait pas c'qui s'passe mais qui sent venir la tempête ouh Cette année, on part pas en vacances parce qu'il faut changer la machine T'as gagné un été dans la zone, p't-être une semaine chez tes cousines à Dunkerque Ces connasses me prenaient pour un cancre yes, disaient qu'j'arriverais pas à grand chose J'vous en veux même pas, vivez heureuses mais vos clébards ressemblent à vos gosses Il pleut des cordes sur la zone, ça donne des raisons pour s'en sortir Donner d'l'espoir à vos mioches, ça m'donne des raisons pour mieux vieillir Deux Winamax dans un cône, au PMU avec un Pastis On trouve d'l'espoir sur les tofs, beaucoup trop d'manteaux dans nos valises Grandi sous un soleil terne, que-sa couleur ébène Grandi sous un soleil terne, que sa couleur est belle Allô, maman, d'où l'on vient ? J'suis à l'arrière et j'ai plus le time Allô, maman, où on va ? Pour la nostalgie, là, j'ai plus le time Juste avancer face au vent, tendance à pousser sous l'orage J'veux plus grandir la boule au ventre, j'ai encore des questions, j'ai plus le time You might also like Grandi sous un soleil terne, que-sa couleur ébène Grandi sous un soleil terne, que sa couleur est belle Grandi sous un soleil terne, que-sa couleur ébène Grandi sous un soleil terne, que sa couleur est belle Cet été, on part sur la côte Dunkerque, regarder passer les bateaux Écouter hurler les mouettes, sentir la fumée des usines, essayer d'éviter les poussettes 59140 raisons d'rester dans l'doute sable mouvant l'eau d'la mer, c'est d'la boue Rentre chez nous en réserve, Papa râle sans raison, il s'ra content d'y retourner à la prochaine saison Le soleil tape sur la zone à Tourcoing, après-midi sur des bandes plastiques Y a pas grand chose de nouveau, à part un 125 tout jdid Les shabs de l'époque déjà chauves tah Zidane, ils ont pas esquivé les soucis miskine Y avait un trou dans son pot parce qu'il veut réveiller les esprits Grandi sous un soleil terne, que-sa couleur ébène Grandi sous un soleil terne, que sa couleur est belle Allô, maman, d'où l'on vient ? J'suis à l'arrière et j'ai plus le time Allô, maman, où on va ? Pour la nostalgie, là, j'ai plus le time Juste avancer face au vent, tendance à pousser sous l'orage J'veux plus grandir la boule au ventre, j'ai encore des questions, j'ai plus le time Grandi sous un soleil terne, que-sa couleur ébène Grandi sous un soleil terne, que sa couleur est belle Grandi sous un soleil terne, que-sa couleur ébène Grandi sous un soleil terne, que sa couleur est belle</t>
+          <t>J'suis bon qu'à raconter des histoires, comme un sparadrap sous la pommette Des trous dans nos sourires, dans nos curs et dans nos baskets yes J'suis qu'une chaleur dans l'abdomen bah ouais, ouais D'une mère qui sait pas c'qui s'passe mais qui sent venir la tempête ouh Cette année, on part pas en vacances parce qu'il faut changer la machine T'as gagné un été dans la zone, p't-être une semaine chez tes cousines à Dunkerque Ces connasses me prenaient pour un cancre yes, disaient qu'j'arriverais pas à grand chose J'vous en veux même pas, vivez heureuses mais vos clébards ressemblent à vos gosses Il pleut des cordes sur la zone, ça donne des raisons pour s'en sortir Donner d'l'espoir à vos mioches, ça m'donne des raisons pour mieux vieillir Deux Winamax dans un cône, au PMU avec un Pastis On trouve d'l'espoir sur les tofs, beaucoup trop d'manteaux dans nos valises Grandi sous un soleil terne, que-sa couleur ébène Grandi sous un soleil terne, que sa couleur est belle Allô, maman, d'où l'on vient ? J'suis à l'arrière et j'ai plus le time Allô, maman, où on va ? Pour la nostalgie, là, j'ai plus le time Juste avancer face au vent, tendance à pousser sous l'orage J'veux plus grandir la boule au ventre, j'ai encore des questions, j'ai plus le time Grandi sous un soleil terne, que-sa couleur ébène Grandi sous un soleil terne, que sa couleur est belle Grandi sous un soleil terne, que-sa couleur ébène Grandi sous un soleil terne, que sa couleur est belle Cet été, on part sur la côte Dunkerque, regarder passer les bateaux Écouter hurler les mouettes, sentir la fumée des usines, essayer d'éviter les poussettes 59140 raisons d'rester dans l'doute sable mouvant l'eau d'la mer, c'est d'la boue Rentre chez nous en réserve, Papa râle sans raison, il s'ra content d'y retourner à la prochaine saison Le soleil tape sur la zone à Tourcoing, après-midi sur des bandes plastiques Y a pas grand chose de nouveau, à part un 125 tout jdid Les shabs de l'époque déjà chauves tah Zidane, ils ont pas esquivé les soucis miskine Y avait un trou dans son pot parce qu'il veut réveiller les esprits Grandi sous un soleil terne, que-sa couleur ébène Grandi sous un soleil terne, que sa couleur est belle Allô, maman, d'où l'on vient ? J'suis à l'arrière et j'ai plus le time Allô, maman, où on va ? Pour la nostalgie, là, j'ai plus le time Juste avancer face au vent, tendance à pousser sous l'orage J'veux plus grandir la boule au ventre, j'ai encore des questions, j'ai plus le time Grandi sous un soleil terne, que-sa couleur ébène Grandi sous un soleil terne, que sa couleur est belle Grandi sous un soleil terne, que-sa couleur ébène Grandi sous un soleil terne, que sa couleur est belle</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Wesh J'suis à un mois d'la sortie d'mon album, à trois mois des portes de la trentaine Tout est amertume dans les arômes donc j'avance même si j'sais pas où j'vais Y a des gens qu'j'connais pas qui m'adorent Yes, des gens qu'j'aime que j'déçois encore une fois Dans l'silence mais j'entends encore une voix, écran noir mais j'espère toujours une fin J'espère encore nous voir toujours sourire Toujours, toute une vie à courir jusqu'aux quatre planches Persuadé qu'j'suis rien si j'ai pas d'plan alors qu'au fond, j'suis mort si j'ai pas d'temps On a grandi dans les ZUP ZUP, des darons qui tombent pour du stup' Zut La voisine qui toque pour du sucre, des grands-pères qui courent après l'bus, wesh Wesh Et toi, ça raconte quoi depuis l'époque Où on fouillait plus profond dans nos poches comme si on allait trouver du pétrole ? Mon frère, j't'aime mais j'oserai jamais t'le dire assez fort Parce que l'bruit du bonheur qui claque la porte m'a coupé la parole encore et encore, et j'demande Quand est-ce qu'on va partir ? Quand est-ce qu'on va s'en aller ? J'aime tes yeux qui racontent sans parler les histoires qu'tu racontes sans arrêt Comme mamie dans son lit, allongée, qui oublie nos noms avant d's'en aller J'espère qu'là-haut, au moins, y a la télé' pour qu'elle puisse continuer à râler À traiter l'présentateur de taré, c'est dingue Toute une vie à rêver d'partir ailleurs, j'ai des frissons, j'dis qu'c'est parce qu'il caille J'anticipe donc j'préfère parler d'malheurs, j'ouvre la f'nêtre, gros, y a mille spectacles Trop dans l'fond, l'essentiel est ailleurs, j'suis fatigué, sur ma vie, c'est grave Niquez-vous, j'veux ma p'tite médaille, j'me rendrai quand j'aurai plus d'espoir Plus du tout You might also like Ils ont cru qu'ils allaient m'faire, j'les aime autant qu'j'les déteste, ils ont cru qu'on allait s'taire jamais Jamais Déjà qu'on s'autorise à rêver, c'est pas pour qu'on m'ramène au sol Allez-vous en, laissez-nous planer Ah ouais Ils ont cru qu'ils allaient m'faire, j'les aime autant qu'j'les déteste, ils ont cru qu'on allait s'taire jamais Jamais Déjà que j'm'autorise à voler, c'est pas pour qu'on m'ramène à terre Allez-vous en, laissez-nous l'sommet Ah ouais Une heure de transport pour rejoindre la ville en métro Les endroits où ça brille un peu plus, les regards, les rictus Les promesses de p'tites putes qui pensent que derrière ton espoir, y a une issue pour eux Moi, j'admire ma ville d'puis l'abribus, le siège est d'plus en plus poreux Donc j'pousse assis sur d'la moisissure Ouais, ouais, ouais, ouais J'suis à un mois d'la sortie d'mon album, à trois mois des portes d'la trentaine, à quelques mètres du haut d'la colline Shay m'a pas trouvé assez motivé donc j'regarde dans l'flou quand faut qu'j'explique Ça fait trente minutes que j'ai coupé l'contact Seul dans l'garage à m'demander Où est-ce qu'on va ? Qu'est-ce qu'on va faire ? Quel combat, trop d'hommes à terre, dans nos curs, des hématomes, y en a trop J'ai ma dose, j'sais pas quand j'vais craquer, j'ai chaud, continuer j'sais pas si j'ai l'choix Qu'est-ce qui s'passe dans ma tête si j'échoue ?</t>
+          <t>Wesh J'suis à un mois d'la sortie d'mon album, à trois mois des portes de la trentaine Tout est amertume dans les arômes donc j'avance même si j'sais pas où j'vais Y a des gens qu'j'connais pas qui m'adorent Yes, des gens qu'j'aime que j'déçois encore une fois Dans l'silence mais j'entends encore une voix, écran noir mais j'espère toujours une fin J'espère encore nous voir toujours sourire Toujours, toute une vie à courir jusqu'aux quatre planches Persuadé qu'j'suis rien si j'ai pas d'plan alors qu'au fond, j'suis mort si j'ai pas d'temps On a grandi dans les ZUP ZUP, des darons qui tombent pour du stup' Zut La voisine qui toque pour du sucre, des grands-pères qui courent après l'bus, wesh Wesh Et toi, ça raconte quoi depuis l'époque Où on fouillait plus profond dans nos poches comme si on allait trouver du pétrole ? Mon frère, j't'aime mais j'oserai jamais t'le dire assez fort Parce que l'bruit du bonheur qui claque la porte m'a coupé la parole encore et encore, et j'demande Quand est-ce qu'on va partir ? Quand est-ce qu'on va s'en aller ? J'aime tes yeux qui racontent sans parler les histoires qu'tu racontes sans arrêt Comme mamie dans son lit, allongée, qui oublie nos noms avant d's'en aller J'espère qu'là-haut, au moins, y a la télé' pour qu'elle puisse continuer à râler À traiter l'présentateur de taré, c'est dingue Toute une vie à rêver d'partir ailleurs, j'ai des frissons, j'dis qu'c'est parce qu'il caille J'anticipe donc j'préfère parler d'malheurs, j'ouvre la f'nêtre, gros, y a mille spectacles Trop dans l'fond, l'essentiel est ailleurs, j'suis fatigué, sur ma vie, c'est grave Niquez-vous, j'veux ma p'tite médaille, j'me rendrai quand j'aurai plus d'espoir Plus du tout Ils ont cru qu'ils allaient m'faire, j'les aime autant qu'j'les déteste, ils ont cru qu'on allait s'taire jamais Jamais Déjà qu'on s'autorise à rêver, c'est pas pour qu'on m'ramène au sol Allez-vous en, laissez-nous planer Ah ouais Ils ont cru qu'ils allaient m'faire, j'les aime autant qu'j'les déteste, ils ont cru qu'on allait s'taire jamais Jamais Déjà que j'm'autorise à voler, c'est pas pour qu'on m'ramène à terre Allez-vous en, laissez-nous l'sommet Ah ouais Une heure de transport pour rejoindre la ville en métro Les endroits où ça brille un peu plus, les regards, les rictus Les promesses de p'tites putes qui pensent que derrière ton espoir, y a une issue pour eux Moi, j'admire ma ville d'puis l'abribus, le siège est d'plus en plus poreux Donc j'pousse assis sur d'la moisissure Ouais, ouais, ouais, ouais J'suis à un mois d'la sortie d'mon album, à trois mois des portes d'la trentaine, à quelques mètres du haut d'la colline Shay m'a pas trouvé assez motivé donc j'regarde dans l'flou quand faut qu'j'explique Ça fait trente minutes que j'ai coupé l'contact Seul dans l'garage à m'demander Où est-ce qu'on va ? Qu'est-ce qu'on va faire ? Quel combat, trop d'hommes à terre, dans nos curs, des hématomes, y en a trop J'ai ma dose, j'sais pas quand j'vais craquer, j'ai chaud, continuer j'sais pas si j'ai l'choix Qu'est-ce qui s'passe dans ma tête si j'échoue ?</t>
         </is>
       </c>
     </row>
